--- a/LLM-inferencing/extract_summary.xlsx
+++ b/LLM-inferencing/extract_summary.xlsx
@@ -462,7 +462,9 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T07:55:16.369123673Z", "response": "\n\nEvaluation: Identical\n\nExplanation: The summary accurately captures the meaning of the narrative. It mentions the doctor's intention to treat the patient on the Ethos device, the missing specification in the simulation order, the patient's preference for downtown treatment locations, and the revelation of the plan by the MD when asked about the discrepancy. The summary uses slightly different wording but conveys the same information as the narrative.", "done": true, "total_duration": 14148373076, "load_duration": 2180585, "prompt_eval_duration": 122889000, "eval_count": 97, "eval_duration": 11609872000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the doctor (MD) intended to treat the patient on the Ethos but the simulation order did not include it, and that the patient specified her treatments needed to be downtown. The summary also correctly mentions that when asked about the discrepancy, the MD revealed that the plan was to treat the patient on the Ethos. Both the narrative and the summary convey the same information and meaning, making the evaluation 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -485,7 +487,9 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:26:06.243820874Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25424919126, "load_duration": 3261558, "prompt_eval_duration": 115643000, "eval_count": 211, "eval_duration": 25204986000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the time frame, the role of the medical professional, the actions taken by the planning dosimetrist, and the failure to update the task on ProcessMaker. The summary is concise and clear, conveying the same overall message as the narrative.</t>
         </is>
       </c>
     </row>
@@ -507,7 +511,9 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:26:31.695956811Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25449255462, "load_duration": 1668135, "prompt_eval_duration": 124889000, "eval_count": 211, "eval_duration": 25322441000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the lack of communication about the replan between the dosimetry and therapy teams, the patient's fear and confusion, and the eventual discovery of the replan via email. However, the summary does not explicitly mention that no plan was treatment approved or that the physics team instructed the therapy team to keep the patient off the table until they heard back. These details are important for a complete understanding of the situation but do not significantly change the overall meaning of the narrative. Therefore, I assess the summary as 'Similar' to the narrative.</t>
         </is>
       </c>
     </row>
@@ -530,7 +536,9 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:26:56.637104286Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24938527640, "load_duration": 1789724, "prompt_eval_duration": 124223000, "eval_count": 211, "eval_duration": 24812216000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, providing a clear and concise account of the patient's treatment plan and schedule. Both the narrative and the summary mention the patient's stage III NSCLC diagnosis, the planned chemoradiation, the consultation with radiation oncology, the original and rescheduled chemotherapy infusion dates, the signing of the radiation oncology plan, and the goal for both treatments to start within 24 hours of each other. The language used in the summary is precise and mirrors that of the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -551,11 +559,7 @@
 A breast cancer treatment session using a Breath Hold technique on the True Beam machine was scheduled for five complete arcs. A potential hazard of a lateral shift amounting to seven units was identified during the planning process.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:27:21.571862301Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24932209326, "load_duration": 1877420, "prompt_eval_duration": 117097000, "eval_count": 211, "eval_duration": 24812927000}</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -576,7 +580,9 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:27:46.310769211Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24736211093, "load_duration": 2082157, "prompt_eval_duration": 124193000, "eval_count": 211, "eval_duration": 24609640000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the key points of the narrative. It mentions that there has been a change in the breast boost plan, specifically in the location of the isocenter, and that this change was originally planned to be based on simulation marks which the patient no longer has. As a result, additional rounds of imaging are necessary to align the patient to the new isocenter location. The summary uses slightly different wording than the narrative but conveys the same meaning.</t>
         </is>
       </c>
     </row>
@@ -599,7 +605,9 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:28:11.568347063Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25254791805, "load_duration": 1861200, "prompt_eval_duration": 117816000, "eval_count": 211, "eval_duration": 25134864000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning, which is that the patient's boost plan (additional dose or enhancement of a treatment) was not approved at the time of their appointment. Both the narrative and the summary use similar language to describe the situation, making it clear that they are referring to the same event. Therefore, I would rate the evaluation as 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -622,7 +630,9 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:28:37.208698266Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25637530880, "load_duration": 2183508, "prompt_eval_duration": 124322000, "eval_count": 211, "eval_duration": 25510756000}</t>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately conveys the main points of the narrative, including the initiation of the breast boost plan, the issue with the treatment field DRRs, and the delay caused by contacting dosimetry and physics to make adjustments. However, the summary uses slightly different wording than the narrative, which is why it is not graded as 'Identical'. Overall, the meaning of the two texts is very similar."</t>
         </is>
       </c>
     </row>
@@ -645,7 +655,9 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:29:02.902786625Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25691456923, "load_duration": 1973331, "prompt_eval_duration": 124324000, "eval_count": 211, "eval_duration": 25564860000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the incorrect breath hold threshold measurement, the location where it was identified, and the communication with the therapists involved in the patient's simulation. However, the summary does not explicitly state that the required threshold is .5cm, only implying it by mentioning that the measured value was too high. Nonetheless, the meaning of the narrative and the summary are closely aligned."</t>
         </is>
       </c>
     </row>
@@ -668,7 +680,9 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:29:28.106298256Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25200906627, "load_duration": 1851161, "prompt_eval_duration": 116272000, "eval_count": 211, "eval_duration": 25082521000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the incorrect labeling of a revised plan, the original plan being approved and undergoing QA by physics, and the retention of the same name for the revised plan instead of using a new designation. However, the summary does not explicitly mention that the revision occurred after treatment approval, which is stated in the narrative."</t>
         </is>
       </c>
     </row>
@@ -691,7 +705,9 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:29:52.984246698Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24875237797, "load_duration": 2337089, "prompt_eval_duration": 117674000, "eval_count": 211, "eval_duration": 24754856000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a situation where a patient's treatment schedule was changed from Tuesday-Friday to Monday-Thursday, and this error was discovered by the physician on Tuesday of the week it occurred. The summary accurately captures the key details of the narrative, making it an identical match.</t>
         </is>
       </c>
     </row>
@@ -714,7 +730,9 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:30:19.159886296Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26172969559, "load_duration": 1680818, "prompt_eval_duration": 123334000, "eval_count": 211, "eval_duration": 26047625000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+The generated summary accurately captures the main points of the narrative, including the incorrect output factor used for the keloid electron plans, the recommended output factor by physicists based on their policy, and the delay caused to an urgent patient case due to unapproval, recalculation, and re-printing of both plans. The summary also correctly states the difference in MUs between the two output factors. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -737,7 +755,9 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:30:45.291549032Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26128080283, "load_duration": 1797158, "prompt_eval_duration": 123779000, "eval_count": 211, "eval_duration": 26002176000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the location of the CTV, the issue identified by the dosimetrist, and the communication with the attending and resident physician. The summary also correctly states that the contour needed to be adjusted, although it does not explicitly mention that it was brought anterior to the ribs. Overall, the meaning of the narrative and the summary are closely aligned."</t>
         </is>
       </c>
     </row>
@@ -760,7 +780,9 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:31:10.497363535Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25202805435, "load_duration": 1830802, "prompt_eval_duration": 108190000, "eval_count": 211, "eval_duration": 25092513000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the absence of bladder filling instructions in the prescription, the use of the previous day's volume by simulation therapists, and the doctor's confirmation that the bladder fill level was comparable to the previous day. However, the summary uses the term "most recent scan" instead of simply "scan," which creates a slight discrepancy with the narrative."</t>
         </is>
       </c>
     </row>
@@ -783,7 +805,9 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:31:36.789577049Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26289618837, "load_duration": 2289819, "prompt_eval_duration": 112295000, "eval_count": 211, "eval_duration": 26174493000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in terms of the events that took place during the CT simulation for liver SBRT on the Ethos machine. Both describe the instructions for respiratory motion management, including a 4D scan, an inspiratory breath hold scan, and free breathing scans, as well as the fact that only the 4D and free breathing scans were performed during the simulation. The summary also accurately reflects the fact that a task related to respiratory motion management was left uncompleted and that the patient will be brought back for simulation for breath hold. Additionally, both the narrative and summary mention that phase gating is not utilized in the Ethos workflow at this time. Overall, the meaning of the narrative and the generated summary match exactly.</t>
         </is>
       </c>
     </row>
@@ -806,7 +830,9 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:32:02.496910286Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25704683978, "load_duration": 2033976, "prompt_eval_duration": 115688000, "eval_count": 211, "eval_duration": 25586686000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that the patient informed the therapist after the devices were made that the dentist had forgotten to order a mouthpiece for their therapy session.</t>
         </is>
       </c>
     </row>
@@ -829,7 +855,9 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:32:27.250875142Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24751156646, "load_duration": 1969664, "prompt_eval_duration": 117555000, "eval_count": 211, "eval_duration": 24631369000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a TBI plan that was sent for review with less than 4 hours before patient setup/image verification, and both mention that the physics team was already working on the plan review when therapists inquired about treatment approval prior to the start of the verification session.</t>
         </is>
       </c>
     </row>
@@ -852,7 +880,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:32:53.53287998Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26279313870, "load_duration": 2407462, "prompt_eval_duration": 124536000, "eval_count": 211, "eval_duration": 26152046000}</t>
+          <t xml:space="preserve">
+Narrative: 'A patient was simulated on 12/22/2022 and the Processmaker task " Simulation Scheduled" was not pushed through to "Simulation Complete" to notify Dosimetry that the simulation scan was completed and ready to be imported. The patient called the clinic today 12/29/2022 and stated that her chemotherapy was starting 1/3/2022 and asked was her plan ready to start as well. That is when the missed scan was caught, and Dosimetry was then notified to import.'
+Summary: 'On December 22, 2022, a patient underwent simulation. The status of the related Processmaker task remained at "Simulation Scheduled" instead of advancing to "Simulation Complete." As a result, Dosimetry was not informed that the simulation scan was finished and prepared for importing on December 29, 2022. A patient inquiry regarding the readiness of her plan for chemotherapy starting on January 3, 2022, led to the discovery of this oversight, prompting Dosimetry to import the previously missed scan.'
+Evaluation: Identical
+The summary accurately reflects the narrative by stating that the patient was simulated on December 22, 2022, and the Processmaker task "Simulation Scheduled" was not updated to "Simulation Complete," resulting in Dosimetry not being informed about the completed simulation scan. The summary also correctly mentions that the missed scan was discovered due to a patient's inquiry regarding her plan for chemotherapy starting on January 3, 2022, and that Dosimetry then imported the previously missed scan. Both the narrative and the summary convey the same information and are identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -875,7 +907,9 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:33:18.711355063Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25176158303, "load_duration": 1796788, "prompt_eval_duration": 123902000, "eval_count": 211, "eval_duration": 25050207000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the patient's inquiry about their start date, the therapist's suggestion for a phone call within a week, the patient's mention of starting chemotherapy the following morning, and the therapist's subsequent confirmation with the doctor and resident that both chemo and radiation should begin on the same day. However, the summary does not explicitly mention that the therapist was told to place the patient on the schedule for the same day as the new chemo appointment, which is a minor detail in the narrative. Nonetheless, the overall meaning of the narrative and the summary are similar.</t>
         </is>
       </c>
     </row>
@@ -898,7 +932,9 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:33:44.906949144Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26192717451, "load_duration": 1931672, "prompt_eval_duration": 124196000, "eval_count": 211, "eval_duration": 26066293000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that two treatment plans were scheduled for the same day, one for a larger target (GTV1) and another for a smaller target (GTV2). The summary also correctly mentions that the medical team confirmed that only GTV2 would be treated and that both the physician and physicist verified this. Finally, the summary accurately states that the first plan (GTV1) was withdrawn before it could be loaded onto the treatment machine and that only the second plan (GTV2) was administered. Therefore, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -921,7 +957,9 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:34:10.239269603Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25329868613, "load_duration": 1842154, "prompt_eval_duration": 116976000, "eval_count": 211, "eval_duration": 25210746000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning, which is that a patient did not have a signed consent form at the start date of their treatment. This information is crucial in healthcare settings to ensure proper procedures are followed and patients' rights are respected.</t>
         </is>
       </c>
     </row>
@@ -944,7 +982,9 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:34:36.497449819Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26255691670, "load_duration": 1882990, "prompt_eval_duration": 124267000, "eval_count": 211, "eval_duration": 26129212000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly identifies the discrepancy in the prescription frequency, the area affected (1.1 Sternum), and the actions taken by the therapist to address the issue. The communication of the problem to the attending physician, dosimetrist, and physics team is also accurately represented in the summary. Overall, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -967,7 +1007,10 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:35:02.743414578Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26243550764, "load_duration": 1754707, "prompt_eval_duration": 124622000, "eval_count": 211, "eval_duration": 26116864000}</t>
+          <t xml:space="preserve">
+Narrative: "Dosimetrist who did proton specific contours drew the BBs (placed at simulation) but did not apply a HU override to them. Physicist who checked the contours failed to notice that there was no HU override, planning dosimetrist (different than the contouring dosimetrist) and final physicist check did not catch the error either. Although the override was missed, there was no discernable difference in dose. There was only microscopic dose change that could not be appreciated on comparison DVHs."
+Summary: "A dosimetrist responsible for creating proton-specific contours neglected to apply a HU (Hounsfield Unit) override to the BBs (beam bores) during simulation. The physicist who reviewed the contours did not detect this oversight. Subsequently, both the planning dosimetrist and the final physicist check failed to identify the error as well. Despite the absence of an HU override, there was no noticeable difference in the dose distribution. The discrepancy consisted only of microscopic changes that could not be distinguished on comparison DVHs (dose-volume histograms)."
+Evaluation: Identical. The summary accurately captures the main points of the narrative, including the roles of the dosimetrist and physicist, the missed HU override, and the lack of noticeable difference in dose despite the error.</t>
         </is>
       </c>
     </row>
@@ -990,7 +1033,9 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:35:28.031958178Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25285441866, "load_duration": 1891747, "prompt_eval_duration": 129111000, "eval_count": 211, "eval_duration": 25154181000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the type of radiation plan (unilateral HN), the request for review by the attending physician, and the presence of a powerport that was not properly accounted for in the plan, leading to radiation spots passing through. However, the summary does not explicitly mention that the attending noticed the issue but overrode it, which is a minor detail that does not significantly impact the overall meaning of the narrative."</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1058,9 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:35:54.278397731Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26243488323, "load_duration": 1997326, "prompt_eval_duration": 123915000, "eval_count": 211, "eval_duration": 26117221000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that the attending physician who was supposed to sign the consent form did not do so, and a new consent form needs to be signed by the appropriate physician before treatment can begin.</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1083,9 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:36:19.256630913Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24975897645, "load_duration": 1922465, "prompt_eval_duration": 115281000, "eval_count": 211, "eval_duration": 24858450000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the initiation of proton planning, the physician's decision to switch to photon treatment, and the failure to inform the Proton Dosimetrist of this change. However, the summary does not explicitly mention that the physician attempted to notify the necessary parties through a form in PowerChart, which is a minor detail that does not significantly affect the overall meaning of the narrative.</t>
         </is>
       </c>
     </row>
@@ -1057,11 +1106,7 @@
 The statement indicates that the angles of all gantry setups, whether MVS or KVS, are equal to zero.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:36:45.219919202Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25960591380, "load_duration": 1600456, "prompt_eval_duration": 117568000, "eval_count": 211, "eval_duration": 25841147000}</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1080,11 +1125,7 @@
 A plan, rather than a treatment, was given approval during an appointment that started at 11:55am.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:37:10.597741871Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25375045718, "load_duration": 2090924, "prompt_eval_duration": 116837000, "eval_count": 211, "eval_duration": 25255875000}</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1105,7 +1146,9 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:37:36.038635682Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25438087244, "load_duration": 2535805, "prompt_eval_duration": 123954000, "eval_count": 211, "eval_duration": 25311242000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative and uses similar language to describe the situation. Both the narrative and the summary mention the patient's SBRT treatment for lung cancer, the missed triggered imaging consultation, the oversight by therapists, the lack of task creation by the dosimetrist, the failure to identify the missing consult by midstream physics, and the last-minute performance of the triggered image consult by the SRS POD. Therefore, I would rate this evaluation as 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1171,9 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:38:01.79996997Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25758839030, "load_duration": 1635382, "prompt_eval_duration": 117282000, "eval_count": 211, "eval_duration": 25639651000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the discrepancy discovered by the dosimetrist and the fact that one of the CTVs was subtracted from an OAR without proper communication. The use of slightly different wording in some places does not detract from the overall meaning or accuracy of the summary."</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1196,9 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:38:27.729054596Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25926501211, "load_duration": 1818208, "prompt_eval_duration": 117308000, "eval_count": 211, "eval_duration": 25807042000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information about a revised radiation therapy plan (1.1R1 HN) that was prepared for a patient, underwent approval procedures, and replaced an incomplete initial plan (1.1 HN) with scheduled fractions. Both sources mention that therapists noticed the discrepancy before treatment delivery and resolved the issue so that only the revised plan could be administered.</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1221,9 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:38:53.686198845Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25954423204, "load_duration": 2512200, "prompt_eval_duration": 124914000, "eval_count": 211, "eval_duration": 25826756000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the use of electrons for treating a back and shoulder area, the specific SSD and bolus measurements for each region as listed in ARIA, and the consultation with the physician and dosimetrist to confirm the hand calculation measurement. Both the narrative and the summary convey the same information using slightly different wording, but the meaning remains unchanged.</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1246,9 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:39:19.174904317Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25486192470, "load_duration": 2199419, "prompt_eval_duration": 116881000, "eval_count": 211, "eval_duration": 25366797000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the failure to include Breath Hold in the boost plan, the lack of information from the planning dosimetrist, the indication of re-simulation with breath hold on the gating system, and the therapist's subsequent inquiry to the planning dosimetrist and physician. The summary is concise and clear, conveying the same meaning as the narrative without adding or omitting any important details.</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1271,9 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:39:45.400297627Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26223037605, "load_duration": 1699804, "prompt_eval_duration": 115914000, "eval_count": 211, "eval_duration": 26105136000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by mentioning that a therapist discovered an error in a supraclavicular plan during a new start checklist, the incorrect plan was moved to the new start folder and task pad, the issue was reported to the dosimetry team, who rectified the problem and issued a new yellow sheet with the corrected plan. The summary captures all the essential details of the narrative without adding or omitting any information.</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1296,9 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:40:11.530461032Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26127896208, "load_duration": 1416759, "prompt_eval_duration": 116785000, "eval_count": 211, "eval_duration": 26009414000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It mentions that the patient asked about a mouth piece during the process of creating a full shoulder mask, that the doctor confirmed it was required for the treatment but should have been included in the instructions, and that another head mold had to be created because the patient could not lie back down on her original head mold in the correct position. The summary also mentions that this added approximately 25-30 minutes to the procedure, which is consistent with the narrative. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1321,9 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:40:37.371676382Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25838846601, "load_duration": 2152801, "prompt_eval_duration": 124001000, "eval_count": 211, "eval_duration": 25712417000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the absence of a rect for the boost, the approval and printing of the boost, and the discovery of an unscheduled re-ct by the therapists. However, the summary uses the term "re-ct" instead of "rect," which may suggest a slightly different meaning to some readers. Nonetheless, the overall meaning of the narrative and the summary are similar.</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1346,9 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:41:03.294242476Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25920190603, "load_duration": 1815874, "prompt_eval_duration": 117169000, "eval_count": 211, "eval_duration": 25800944000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative, with no discrepancies in information or interpretation. Both the narrative and the summary describe the same situation where the patient's devices were discarded before receiving a boost, and there was no communication about it to the therapists. Additionally, both state that the patient had informed therapists about her financial lodging arrangements and needed to finish by May 6. The summary is concise and maintains the essential details of the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -1312,7 +1371,9 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:41:29.403526515Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26106608290, "load_duration": 1926693, "prompt_eval_duration": 115714000, "eval_count": 211, "eval_duration": 25988666000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that during a Zoom discussion about a rectal cancer scan, the physician asked if the gross disease was marked for further treatment, but it had not been wired because it was not ordered.</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1396,9 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:41:54.161239483Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24755323981, "load_duration": 2051129, "prompt_eval_duration": 123537000, "eval_count": 211, "eval_duration": 24629468000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the modification to the treatment plan, the addition of structures for alignment, the failure to receive a message by physics leading to unapproved treatment, and the discovery of the issue when the patient returned. However, the summary uses the term "mode up" instead of "modify," which is a minor discrepancy in terminology. Overall, the meaning of the narrative and the summary are similar.</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1421,9 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:42:19.632625383Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25468774291, "load_duration": 2259332, "prompt_eval_duration": 124613000, "eval_count": 211, "eval_duration": 25341599000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the incorrect imaging result and the patient receiving a different treatment than what was prescribed. However, it does not explicitly state that the treatments should have been KV daily, only that they were supposed to be MV weekly. This is a minor discrepancy, but it still affects the overall accuracy of the summary."</t>
         </is>
       </c>
     </row>
@@ -1379,11 +1444,7 @@
 A patient has given consent for radiation therapy to be administered to their thorax, specifically following a plan labeled as 2.1 Abdomen. It is necessary for the patient to re-consent on the first day of treatment.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:42:44.525505827Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24890529198, "load_duration": 1881327, "prompt_eval_duration": 123465000, "eval_count": 211, "eval_duration": 24764951000}</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1404,7 +1465,9 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:43:09.533808858Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25005876334, "load_duration": 1960167, "prompt_eval_duration": 124367000, "eval_count": 211, "eval_duration": 24879264000}</t>
+          <t xml:space="preserve">
+Answer: Identical
+Explanation: The summary accurately reflects the information presented in the narrative. Both the narrative and the summary state that a yellow label on a patient's file indicated that the patient should undergo breath holding during a procedure, but the corresponding prescription contained "none" instead of breath hold as the gating method. Additionally, both sources mention that this discrepancy was confirmed with the Department of Anesthesia (DOS) and that the prescription was updated to include breath hold as the gating method. Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1490,9 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:43:34.289305457Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24752914817, "load_duration": 1990604, "prompt_eval_duration": 124867000, "eval_count": 211, "eval_duration": 24625752000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both the narrative and the summary mention that a weekly chart review was conducted but the QA button was not clicked, resulting in two weekly reports being generated. This led to two fractions being treated for the same patient, causing their billing status to become non-compliant. Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -1448,11 +1513,7 @@
 An individual did not give their approval for a medical procedure or treatment before it was administered.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:44:00.313315956Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26021582609, "load_duration": 2408874, "prompt_eval_duration": 124257000, "eval_count": 211, "eval_duration": 25894586000}</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1472,7 +1533,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:44:25.722545478Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25406796731, "load_duration": 1839938, "prompt_eval_duration": 124359000, "eval_count": 211, "eval_duration": 25280315000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the presence of a patient undergoing treatment with a machine containing 19 channels, one of which is the tandem channel. The summary also correctly states that the tandem channel was not yet connected to the patient when the machine continued treating after the 18th channel was finished, resulting in the source being left in the 19th channel for 24 seconds and hung over the side of the bed next to the patient. Additionally, the summary mentions that the team ensured that the source was returned to the machine before connecting the tandem channel to the patient and completing the procedure, and that doctors Shen, Stanley, and Marcrom were aware of the incident and calculated the exposure dosage.
+However, there are a few minor differences between the narrative and the summary. The narrative specifies that the source was left in the 19th channel for 24 seconds while it was out of the machine, whereas the summary simply states that the source was left in the 19th channel for 24 seconds. Additionally, the narrative mentions that the end tip of the catheter was not touching patient, but this detail is not included in the summary.
+Overall, the meaning of the narrative and the generated summary are similar, with only a few minor differences.</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1560,9 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:44:50.55477552Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24829446848, "load_duration": 2178299, "prompt_eval_duration": 116727000, "eval_count": 211, "eval_duration": 24710245000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the information provided in the narrative. Both the narrative and the summary indicate that the patient was initially simulated in August 2021, returned for a resim in January 2021, and had a status of "Planning Status: Simulation Complete" on the whiteboard during their second visit. Additionally, both the narrative and the summary state that the simulation team added a comment to the task instead of advancing it further, with the specific comment being "PROTON PROSTATE SCAN COMPLETE." Therefore, I would rate this evaluation as 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -1516,11 +1583,7 @@
 A new starting task was intended to be scheduled on the True Beam, but it was actually planned for the IX.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:45:16.249999063Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25692552111, "load_duration": 1755960, "prompt_eval_duration": 101682000, "eval_count": 211, "eval_duration": 25588844000}</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1538,11 +1601,7 @@
           <t xml:space="preserve"> The event describes a therapy session involving PT (patient), CW/SCLAV (two different isoforms of the same field), Electron fields, KVs (an unspecified entity taken to align the CF Iso), shifts made between CW and SCLAV isoforms, filming of AP SCLAV port, capture and treatment of couch parameters, and a discovery of an error in vertical shifts during the therapy session on Thursday. The event took place on Tuesday and Thursday. Physics was notified of the error immediately.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:45:42.458703854Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26206275356, "load_duration": 1602440, "prompt_eval_duration": 116108000, "eval_count": 211, "eval_duration": 26088244000}</t>
-        </is>
-      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1563,7 +1622,9 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:46:08.313694008Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25852488975, "load_duration": 1997026, "prompt_eval_duration": 117516000, "eval_count": 211, "eval_duration": 25732669000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the incomplete safety check task for implanted devices, the unsigned powerchart, and the review and approval of the treatment plan with notes about the devices. It also correctly identifies the types of devices (a neurostimulator and a glucose pump) and their removability. However, it incorrectly states that the physicist believed both devices were removable when in fact they only believed the glucose pump was removable. Additionally, while the summary mentions the use of a 15X scheme due to low MU, it does not explicitly state that this was used for the treatment plan. Overall, the summary is similar to the narrative but contains some minor errors and omissions.</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1647,9 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:46:34.623602167Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26307010088, "load_duration": 2239345, "prompt_eval_duration": 115925000, "eval_count": 211, "eval_duration": 26188540000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information about a treatment plan that initially used a 1 cm bolus, but should have used a 5 mm bolus according to the prescription. The plan was approved by physics, but during a pretreatment check, the discrepancy was discovered and corrected by a physician. The revised prescription required re-approval from physics and re-linking. Both the narrative and summary accurately describe the situation with no differences in meaning or details.</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1672,9 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:46:59.420264914Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24794353831, "load_duration": 1677843, "prompt_eval_duration": 117566000, "eval_count": 211, "eval_duration": 24674835000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately conveys the main idea of the narrative, which is that a physician has prepared the contours of a patient's treatment area for further planning and that the boost volume extends beyond the initial volume. However, the wording used in the summary is slightly different from that used in the narrative, hence the grade of 'Similar'.</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1697,9 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:47:24.315548147Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24892491664, "load_duration": 1844758, "prompt_eval_duration": 117679000, "eval_count": 211, "eval_duration": 24772726000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. Both the narrative and the summary mention that a therapist discovered an issue with the RT prescription during a chart check, specifically that bolus was listed as being administered every other treatment without specifying a thickness. They both also mention that after consulting with the dosimetrist and physician, it was determined that bolus was not needed for the treatment and that the physician was asked to modify his RT prescription accordingly. The only minor difference is that the summary uses the phrase "radiation therapy (RT)" instead of just "RT," but this does not affect the overall meaning or accuracy of the summary.</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,9 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:47:49.412793818Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25094751054, "load_duration": 1889463, "prompt_eval_duration": 116546000, "eval_count": 211, "eval_duration": 24976044000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the performance of a contoured lumpectomy on a patient, the discovery that the initially contoured and wired cavity was actually benign, and the location of the actual cavity with disease. However, the summary does not explicitly mention that the patient experienced swelling or underwent a repeat CT simulation, which are important details in the narrative. Therefore, while the meaning of the narrative and the generated summary are similar, they are not identical.</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1746,9 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:48:15.566357407Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26150829508, "load_duration": 2147240, "prompt_eval_duration": 117495000, "eval_count": 211, "eval_duration": 26030928000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative, using nearly identical wording to describe the situation where a patient with a known allergy to contrast is scheduled for a simulation scan that includes contrast, and was not informed or pre-medicated. This evaluation is 'Identical' as there are no discrepancies between the two texts in terms of meaning or content.</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1771,9 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:48:40.633665468Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25064744244, "load_duration": 1921845, "prompt_eval_duration": 117151000, "eval_count": 211, "eval_duration": 24945401000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative and conveys the same meaning. Both the narrative and the summary describe a new patient at Ethos who had an incorrect isocenter set in the planning system, leading to an inaccurate patient load position from CT simulation iso marks. They both mention that the therapist noticed the issue during preparation and made a significant adjustment to align the patient properly. The physics team determined that no isocenter had been set, leading to the incorrect alignment of the patient in the load position. Finally, they both state that another scan was conducted to ensure proper alignment for treatment and the therapy session was approved to proceed.</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1796,9 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:49:06.102764369Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25465964844, "load_duration": 2031171, "prompt_eval_duration": 124483000, "eval_count": 211, "eval_duration": 25339203000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main idea of the narrative, which is that a Proton patient was scanned with an incorrect planning method (a photon planner instead of a proton planner). However, the summary goes into slightly more detail than the narrative by specifying that the department executed the procedure correctly using the wrong tool. While this additional information does not change the overall meaning of the summary, it is not explicitly stated in the narrative, which is why I have rated this as 'Similar' rather than 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1821,9 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:49:31.079575884Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24974248810, "load_duration": 1782110, "prompt_eval_duration": 106971000, "eval_count": 211, "eval_duration": 24865223000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the meaning of the narrative. Both the narrative and the summary describe a patient undergoing SBRT with an exhalation breath hold who is being prepared for a resimulation, with the order specifying a 4D phase ranging from 0-90. The medical team pages the doctor to confirm the instructions, and the doctor requests an exhalation breath hold scan. Both sources convey the same information and use similar language, making them identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1846,9 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:49:56.795225111Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25712737320, "load_duration": 1948615, "prompt_eval_duration": 116654000, "eval_count": 211, "eval_duration": 25593770000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the location of the unknown object (lower oral cavity), its density (367 HU), the potential choking hazard, and the fact that it was not optimal for proton planning. The only minor difference is that the narrative mentions that the patient was simulated while sucking on a peppermint, whereas the summary states that the patient was sucking on a peppermint during the simulation process. However, this does not significantly alter the meaning of the narrative or the summary."</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1871,9 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:50:22.879496532Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26081777846, "load_duration": 1615045, "prompt_eval_duration": 115750000, "eval_count": 211, "eval_duration": 25964120000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the preparation of a free breathing protocol, the use of a breath hold file by therapist 1, and the failure of therapist 2 to check the gating instructions during a timeout. However, the summary does not explicitly mention that a gating file was displayed when therapist 1 sat down to drive, which is mentioned in the narrative. Additionally, the summary states that therapists 1, 2, and 3 prepared the protocol, while the narrative only mentions that they set it up. These differences in wording do not significantly affect the overall meaning of the two texts, but they are worth noting.</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1896,9 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:50:49.175448655Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26293070073, "load_duration": 1822887, "prompt_eval_duration": 108094000, "eval_count": 211, "eval_duration": 26182867000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly states that the initial prescription for SBRT Lung therapy was for non-consecutive days but was changed to consecutive days after the physician confirmed this was their intention. Both the narrative and the summary also mention the involvement of both the physician and administrative support in scheduling the patient's treatment. The summary is identical to the narrative in terms of meaning and content.</t>
         </is>
       </c>
     </row>
@@ -1836,11 +1919,7 @@
 A patient named Sim underwent a 4D ultrasound scan. The medical team discovered during the review of the results that an expiratory belt harmonic scan was missing. They requested that this additional scan be added.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:51:15.163770105Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25985871727, "load_duration": 1534512, "prompt_eval_duration": 116428000, "eval_count": 211, "eval_duration": 25867589000}</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1861,7 +1940,9 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:51:41.209901086Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26043444411, "load_duration": 1877721, "prompt_eval_duration": 116041000, "eval_count": 211, "eval_duration": 25925177000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the generated summary convey similar meanings, with both mentioning that Dosi noticed an issue while preparing a patient's records and specifically pointing out the missing diagnosis code. However, they are not identical because the narrative uses more colloquial language ("print up") compared to the summary's formal tone.</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1965,9 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:52:05.960034108Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24747676337, "load_duration": 1604794, "prompt_eval_duration": 116529000, "eval_count": 211, "eval_duration": 24629306000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the issue with the simulation during the first transaction, the use of hand calculations for the second transaction, and the discrepancy in energy levels that was discovered and addressed. However, the summary uses the term "transaction" instead of "treatment," which is used in the narrative. Additionally, the summary states that the physicist made necessary revisions in ARIA, while the narrative specifies that the plan was revised in ARIA. These differences in terminology and phrasing do not significantly affect the overall meaning or accuracy of the summary, but they are worth noting.</t>
         </is>
       </c>
     </row>
@@ -1905,11 +1988,7 @@
 An incorrect label was assigned to a kv image; it should have been identified as kv 180, but was instead labeled as kv 0.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:52:32.222394567Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26259654020, "load_duration": 2058703, "prompt_eval_duration": 124368000, "eval_count": 211, "eval_duration": 26132896000}</t>
-        </is>
-      </c>
+      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1928,11 +2007,7 @@
 A newly imported gating file for a procedure did not align with the planned gating file due to two discrepancies from previous patient simulations. As a result, the machine schedule was adjusted by one hour.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:52:56.99721476Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24772484808, "load_duration": 2131962, "prompt_eval_duration": 116526000, "eval_count": 211, "eval_duration": 24653578000}</t>
-        </is>
-      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1953,7 +2028,9 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:53:23.286314606Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26286456699, "load_duration": 1981458, "prompt_eval_duration": 121637000, "eval_count": 211, "eval_duration": 26162561000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that the image labeled MIP30-70 was improperly created, specifically through the use of an incorrect method resulting in an identical image when merged with another. Additionally, both mention that the 'mean' selection was applied during the creation of this image.</t>
         </is>
       </c>
     </row>
@@ -1976,7 +2053,9 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:53:47.687551542Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24398911659, "load_duration": 2222132, "prompt_eval_duration": 123587000, "eval_count": 211, "eval_duration": 24272803000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that a plan was approved during a new start appointment in the morning, rather than a treatment. Therefore, the evaluation is 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -1999,7 +2078,9 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:54:12.767950619Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25078050997, "load_duration": 1900804, "prompt_eval_duration": 116784000, "eval_count": 211, "eval_duration": 24959128000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the process maker status was not updated after a patient's simulation was complete, the comment section contained the instruction "import;phase selection," and the patient was not imported due to lack of notification from a comment modification. The summary also mentions that this oversight was discovered during a review of patients who had not undergone simulation, which is consistent with the narrative. Therefore, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -2020,11 +2101,7 @@
 A new start, which had been scheduled, was canceled due to collision concerns. Those involved were instructed to wait for further communication regarding a new plan. Therapy was not informed that the revision was completed and would begin the following day.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:54:39.021688723Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26251143858, "load_duration": 1885195, "prompt_eval_duration": 124827000, "eval_count": 211, "eval_duration": 26124153000}</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2045,7 +2122,9 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:55:04.016836245Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24992399235, "load_duration": 2060226, "prompt_eval_duration": 125192000, "eval_count": 211, "eval_duration": 24864862000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the order for right breast simulation, the discovery of a scar on the left breast, and the confirmation from the patient that the left breast was to be simulated for treatment. However, the summary incorrectly states that the order was placed by Dr. Keene for "a patient," while the narrative specifies the name of the doctor who submitted the order. Therefore, I would rate the summary as similar to the narrative rather than identical.</t>
         </is>
       </c>
     </row>
@@ -2066,11 +2145,7 @@
 A lymph node located retroperitoneally is undergoing radiation therapy with a dose of 70 Gy, which falls outside the scope of imaging.</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:55:30.240553915Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26220999669, "load_duration": 1678504, "prompt_eval_duration": 107087000, "eval_count": 211, "eval_duration": 26111931000}</t>
-        </is>
-      </c>
+      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2091,7 +2166,9 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:55:56.480780644Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26237677609, "load_duration": 1514855, "prompt_eval_duration": 124550000, "eval_count": 211, "eval_duration": 26111288000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. It correctly identifies that the Bos frame was incorrectly contoured in the external ROI structure, which resulted in an incorrect calculation of initial proton spot energy due to the density not being included in the calculation-optimization. The summary also mentions that the error persisted through both the dosimetry and physics checks specific to protons. Therefore, the evaluation is 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -2112,11 +2189,7 @@
 A new patient's treatment plan at CTV did not include an entry for the prescribed radiation dose limit.</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:56:22.755161193Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26271831438, "load_duration": 1675338, "prompt_eval_duration": 123888000, "eval_count": 211, "eval_duration": 26145996000}</t>
-        </is>
-      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2136,7 +2209,9 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:56:48.157799498Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25400035794, "load_duration": 1580980, "prompt_eval_duration": 116535000, "eval_count": 211, "eval_duration": 25281706000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly identifies that a Trigeminal Neuralgia patient's treatment was cancelled due to the absence of QA measurements, which were not scheduled because of a mismanaged Aria task. The summary also mentions that this oversight was caused by a previous TGN patient being rescheduled and remaining treatment approved, and that virtual cone QA patients must have QA performed 24 hours before treatment. Therefore, the summary can be considered identical to the narrative in terms of meaning and content.</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2234,9 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:57:12.983492446Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24823018179, "load_duration": 2217262, "prompt_eval_duration": 117607000, "eval_count": 211, "eval_duration": 24702841000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the timing and sequence of events. However, it does not explicitly state that the Proton Center Administrator questioned where the patient was in the process, which is mentioned in the narrative. This detail, while important, does not significantly alter the overall meaning of the narrative."</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2259,9 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:57:38.913707743Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25927721822, "load_duration": 2386373, "prompt_eval_duration": 117226000, "eval_count": 211, "eval_duration": 25807754000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative, capturing all key details including the mislabeling of AP and PA fields, the actual gantry angles for each image, the summons of a radiology technician to correct the issue in the Aria system, and the reason for changing '359' to '359E'. The summary is concise yet comprehensive, making it identical to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2284,9 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:58:05.083615153Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26167430636, "load_duration": 1876488, "prompt_eval_duration": 124784000, "eval_count": 211, "eval_duration": 26040482000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that the original consent form did not list the treatment site, and that the patient and physician signed a revised version of the form with the treatment site included.</t>
         </is>
       </c>
     </row>
@@ -2226,11 +2307,7 @@
 A dosimetrist initiated the creation of a DO (dose objective) for a specific treatment, labeled as "DO^Ti_5104." They requested that two additional DOs be added: one for muscle/adipose tissue and another inside the bone. These DOs were updated and approved, but the treatment plan was unable to calculate due to some unresolved pixels with no density. The dosimetrist attempted to return the DOs to physics for correction in accordance with protocol, which calls for urgent turnaround and multiple DOs within the target volume. However, physics requested that dosimetry make the corrections instead, resulting in a delay in planning time.</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:58:30.256569327Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25170398682, "load_duration": 1562865, "prompt_eval_duration": 123914000, "eval_count": 211, "eval_duration": 25044662000}</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2251,7 +2328,9 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:58:56.275442859Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26016102833, "load_duration": 1584617, "prompt_eval_duration": 124625000, "eval_count": 211, "eval_duration": 25889603000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main idea of the narrative, which is that there was an approval for something labeled as 'Tx', but there was a mismatch between the plan's name and the preparation stage's name for this 'Tx'. While the summary does not use the exact same wording as the narrative, it conveys the same meaning, making it similar to the original text.</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2353,9 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:59:21.413220222Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25134600636, "load_duration": 1993711, "prompt_eval_duration": 116448000, "eval_count": 211, "eval_duration": 25015882000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the approval of the plan, the update to processmaker, the missed comment by dosimetry, and the deviation from the established procedure. However, it goes into slightly more detail about the fact that processmaker emails do not include comments, which is implied but not explicitly stated in the narrative. Overall, the summary conveys the same meaning as the narrative with only minor differences in wording and emphasis."</t>
         </is>
       </c>
     </row>
@@ -2295,11 +2376,7 @@
 A diagnosis code was not entered during the use of a medical software system named Aria. The oversight was discovered when the dosimetry department reviewed and approved the treatment plan.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T03:59:47.536732893Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26121013065, "load_duration": 1938365, "prompt_eval_duration": 105533000, "eval_count": 211, "eval_duration": 26013238000}</t>
-        </is>
-      </c>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2320,7 +2397,9 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:00:13.537164611Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25998128262, "load_duration": 1784826, "prompt_eval_duration": 101259000, "eval_count": 211, "eval_duration": 25894740000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both the narrative and the summary state that the 1.1 pCNS plan was checked and approved, but it was discovered during final approval that both the 1.1 pCNS and 1.2 pCNS plans had been reviewed by the physician without an initial physics plan check. The setup sheets were then emailed for final plan check and QA was performed. The summary uses slightly different wording in some places, but the meaning is identical to that of the narrative.</t>
         </is>
       </c>
     </row>
@@ -2341,11 +2420,7 @@
 A patient's jaw measurements exceeded the established limit of 10.5, with readings recorded at 10.6 (y jaws). This discrepancy was identified during therapy session on fraction 2. Physics was subsequently informed.</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:00:39.533341907Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25993638476, "load_duration": 2044196, "prompt_eval_duration": 124013000, "eval_count": 211, "eval_duration": 25867338000}</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2366,7 +2441,9 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:01:04.28976305Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24753700027, "load_duration": 2059064, "prompt_eval_duration": 123632000, "eval_count": 211, "eval_duration": 24627784000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the meaning of the narrative. Both state that the consent form did not specify laterality and needed to be updated by the physician to indicate treatment on the right lung.</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2466,9 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:01:29.309509408Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25017200554, "load_duration": 1864927, "prompt_eval_duration": 116404000, "eval_count": 211, "eval_duration": 24898604000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that a patient undergoing a breast procedure did not receive breath hold instructions as part of the prescription, but this oversight was recognized by the therapists due to their awareness of the patient's previous use of breath holds before the boost.</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2491,9 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:01:54.19069945Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24878771278, "load_duration": 2020090, "prompt_eval_duration": 122943000, "eval_count": 211, "eval_duration": 24753522000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both convey that dosimetry had concerns about a patient's weight on the STX, initially thought the weight limit was 300-330lbs but were told it was 500lbs by the POD physicist, raised concerns about this, and discovered the correct weight range was indeed 300-330lbs. The summary effectively condenses the narrative while preserving its meaning and intent.</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2516,9 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:02:19.172525792Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24979062186, "load_duration": 1997648, "prompt_eval_duration": 117151000, "eval_count": 211, "eval_duration": 24859659000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information, including the type of cancer being treated (breast), the treatment technique used (feathering), the scheduled date for the first feathering fraction (4/18), the reason for the delay (RTTs not receiving the electron block template), and the action taken by RTTs to resolve the issue (contacting dosimetry). The summary accurately captures the key details of the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2541,9 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:02:45.203422878Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26028155189, "load_duration": 1802920, "prompt_eval_duration": 108324000, "eval_count": 211, "eval_duration": 25917777000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the miscommunication between the dosimetrist and attending physician regarding the need for a breast boost, the involvement of a clinic medical doctor, and the error in sending the wrong patient's name. However, the summary does not explicitly mention that the chart was brought to the dosimetrist by the clinic MD, which is a minor detail that does not significantly impact the overall meaning of the narrative. Therefore, the evaluation is 'Similar'.</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2566,9 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:03:10.282989737Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25077221162, "load_duration": 1888482, "prompt_eval_duration": 116890000, "eval_count": 211, "eval_duration": 24958164000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the use of a head mold and long mask, daily bolus administration, and the misplacement of the bolus during treatment. The summary also correctly identifies that the therapists discovered the need to place the bolus under the mask instead of on top, which deviates from the standard protocol. However, the summary does not explicitly state that the bolus was placed after KVs or that no instructions were given to therapists regarding placing the bolus under the mask. These details are not essential to understanding the main issue presented in the narrative but do add some context."</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2591,9 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:03:36.446115866Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26160672258, "load_duration": 1672093, "prompt_eval_duration": 104865000, "eval_count": 211, "eval_duration": 26053826000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the request for a complex density override, the presence of targets on both types of scans, the unclear structure set for the procedure, and the debate over whether two surgical clips in breast tissue constitutes a complex case. The summary also correctly mentions that this will be addressed during the upcoming revision of the density overrides process."</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2616,9 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:04:01.577343138Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25128444869, "load_duration": 1549552, "prompt_eval_duration": 119729000, "eval_count": 211, "eval_duration": 25006923000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. Both the narrative and the summary mention that the prescription does not specify whether the treatment should be administered during breath holds, but the dosimetry information indicates that it should be. Additionally, both state that the prescription mentions the use of a bolus but does not specify the location for its application. Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2641,9 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:04:26.461023942Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24880916785, "load_duration": 2410439, "prompt_eval_duration": 116809000, "eval_count": 211, "eval_duration": 24761449000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that the patient did not consent to the first treatment at the time of simulation and that obtaining consent prior to the first treatment is necessary.</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2666,9 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:04:51.421835319Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24958341715, "load_duration": 1805675, "prompt_eval_duration": 117305000, "eval_count": 211, "eval_duration": 24838997000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative with no discrepancies in meaning or content. Both the narrative and summary describe a therapist reviewing a patient's chart, noticing an error in the PSQA report, notifying the physics team, and correcting the documentation by uploading the appropriate document. The language used is clear and concise, making it easy to understand the situation being described. Overall, the summary accurately conveys the same information as the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2691,9 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:05:17.012066195Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25587957346, "load_duration": 1557697, "prompt_eval_duration": 117115000, "eval_count": 211, "eval_duration": 25469004000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the incorrect initial prescription, the therapists' questioning of it, and the physician's confirmation that it should be KV daily. The summary also correctly mentions the addition of a patient alert to notify therapists of the change. However, the summary does not explicitly state that the physican placed the alert, only that one was added. This is a minor difference in wording that does not significantly impact the overall meaning of the summary."</t>
         </is>
       </c>
     </row>
@@ -2617,11 +2714,7 @@
 A computed tomography (CT) simulation was performed on a pediatric patient intended for proton therapy using an abdominal CT scan. However, a four-dimensional CT (4DCT) scan, which captures the motion of organs over time, was not acquired during this procedure.</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:05:42.878138094Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25863507077, "load_duration": 2330408, "prompt_eval_duration": 115805000, "eval_count": 211, "eval_duration": 25745062000}</t>
-        </is>
-      </c>
+      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2642,7 +2735,9 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:06:09.082667973Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26201639092, "load_duration": 1534753, "prompt_eval_duration": 107553000, "eval_count": 211, "eval_duration": 26092232000}</t>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main issues presented in the narrative, such as incorrect and incomplete target volume structures, missing information for bolus application and PTV creation, and unaddressed X-check flags. The summary also correctly mentions the presence of unintended target volumes used for resident practice and the absence of important information regarding avoiding certain OARs during planning. However, the summary uses the term "ignored" to describe the X-check flags, while the narrative states that they were not addressed, which may imply a slightly different level of intentionality."</t>
         </is>
       </c>
     </row>
@@ -2663,11 +2758,7 @@
 The event involves the division of CTVp between CTV mid and CTV high, with the primary CTV not being a part of the entire CTV high.</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:06:35.341949666Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26256867987, "load_duration": 1275994, "prompt_eval_duration": 116295000, "eval_count": 211, "eval_duration": 26139004000}</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2686,11 +2777,7 @@
 A patient undergoing Proton Therapy for breast cancer had a QACT (Quality Assurance and Verification CT scan). The results indicated that the new CTV Total did not reach as far inferiorly as in the previous scan. It was determined that some breast tissue was missing from the volume. The physicians are now redrawing the volumes.</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:07:01.486903997Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26142520789, "load_duration": 1680199, "prompt_eval_duration": 124835000, "eval_count": 211, "eval_duration": 26015724000}</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2710,7 +2797,9 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:07:27.688831426Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26199418373, "load_duration": 1966229, "prompt_eval_duration": 124554000, "eval_count": 211, "eval_duration": 26072633000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the scheduling of a patient for SSU treatment, the absence of a bite block requirement in the prescription, the creation of a mask without a bite block, the physician's request for a bite block during the treatment process, and the need for the patient to return to the Proton Center for another mask and scan. The summary also correctly mentions that a similar incident occurred with a different patient on April 7th. However, the summary does not explicitly state that the second patient also lacked a bite block order in her prescription, which is why I have rated it as 'Similar' rather than 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2822,9 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:07:52.580030171Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24888357600, "load_duration": 1992980, "prompt_eval_duration": 123277000, "eval_count": 211, "eval_duration": 24762799000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the abnormal lab results, the request for the patient to come to the clinic after treatment on Tuesday, the therapists sending the patient back to the nursing station, and the need for a standardized procedure for notifying patients of repeat visits. The summary also correctly conveys that it is unclear how the necessary follow-up will be arranged. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2847,9 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:08:18.594135453Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26011299785, "load_duration": 1678284, "prompt_eval_duration": 116803000, "eval_count": 211, "eval_duration": 25892523000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative by stating that a mistake occurred during a patient's boost procedure where the labels for the imaging fields were misplaced, and specifically, the labels for the kV right lateral and the MV right lateral images were incorrectly switched. This matches the information provided in the narrative.</t>
         </is>
       </c>
     </row>
@@ -2777,11 +2870,7 @@
 A patient arrived according to schedule, but waited around 60 minutes before their appointment began. The doctor of the day (DOD) was preoccupied with other clinical consultations.</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:08:43.973051442Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25376559652, "load_duration": 1786389, "prompt_eval_duration": 121196000, "eval_count": 211, "eval_duration": 25253312000}</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2802,7 +2891,9 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:09:09.887945548Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25912170574, "load_duration": 1773695, "prompt_eval_duration": 117138000, "eval_count": 211, "eval_duration": 25792969000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary state that there was an error on a consent form for a proton breast simulation, specifically that the procedure of radiation therapy was not included. Additionally, both indicate that new consents had to be obtained from the Health Sciences Research Office due to this error, which caused a delay in the schedule. Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2916,9 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:09:34.504942034Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24614343217, "load_duration": 2080666, "prompt_eval_duration": 116095000, "eval_count": 211, "eval_duration": 24495896000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the information provided in the narrative. It correctly states that the couch angle for all images in plans 1.1 R1 and R Brs. was initially set at 167 degrees, and that it was adjusted to 180 degrees by the planning dosimetrist. The summary also correctly mentions that the plan required review by a physicist for approval and that the patient's start time for treatment was delayed as a result. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2941,9 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:09:59.294202179Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24786484445, "load_duration": 1932595, "prompt_eval_duration": 117065000, "eval_count": 211, "eval_duration": 24667165000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the identification of a discrepancy between the names of a structure used in a treatment plan and an electronic prescription, as well as the involvement of the dosimetrist, physicist, and physician in resolving the issue. However, the summary does not explicitly mention that the prescription volume name was found to be inconsistent with the structure name used in the plan or that the physician advised renaming the structure to "CTV" to match the electronic Rx. These details are important for a complete understanding of the situation and therefore the summary is considered similar rather than identical to the narrative.</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2966,9 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:10:24.97057652Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25674028202, "load_duration": 1880837, "prompt_eval_duration": 116438000, "eval_count": 211, "eval_duration": 25555404000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the order for a CT simulation with contrast despite the patient's allergy, the physician's instructions for an allergy regimen and consent, and the need for communication between the physician and nurses. However, the summary uses the phrase "instructed nurses to prescribe" which may be more accurately stated as "provide" since it is not clear if the nurses are actually writing a prescription or administering medication. Additionally, the use of the word "provide" in the narrative could have been more specific to indicate whether the allergy regimen was to be given before or after the simulation. Overall, the summary accurately conveys the meaning of the narrative with minor differences in phrasing."</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2991,9 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:10:49.767732348Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24794693330, "load_duration": 1912047, "prompt_eval_duration": 117439000, "eval_count": 211, "eval_duration": 24675065000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the patient's scheduled photon boost after proton treatments, the use of incorrect immobilization devices, the discovery of a resimulation with different setup and immobilization devices, and the corrective action taken to realign the patient. However, the summary uses slightly different phrasing in some places, which is why it is being marked as 'Similar' rather than 'Identical'. For example, the narrative states that "the therapists set patient up with the current proton immobilization" while the summary says "therapists prepared the patient using the current proton immobilization devices". Additionally, the narrative states that "we discovered the patient was re-simulated with another setup and immobilization devices" while the summary says "the patient had been resimulated with different setup and immobilization devices". These differences in phrasing do not significantly alter the meaning of the text, but they are worth noting. Overall, the summary accurately conveys the main points of the narrative and can be considered 'Similar'."</t>
         </is>
       </c>
     </row>
@@ -2915,11 +3014,7 @@
 The patient undergoing photon to proton transfer treatment has been identified as having "left breast/ chest wall" marked in their consents. The patient, however, is receiving treatment for bilateral breasts.</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:11:15.192682238Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25422589836, "load_duration": 1793442, "prompt_eval_duration": 104305000, "eval_count": 211, "eval_duration": 25316251000}</t>
-        </is>
-      </c>
+      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2940,7 +3035,9 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:11:40.79973384Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25604373006, "load_duration": 1459691, "prompt_eval_duration": 124222000, "eval_count": 211, "eval_duration": 25478418000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. It correctly states that the patient completed 25 RT sessions for their left breast, that there was no mention of a boost in the prescription, and that immobilization was removed and the patient was added to Closeout Care Path. The summary also correctly notes that a new task was created for scheduling a new start and that the physician and patient discussed the need to re-simulate for planning the boost.</t>
         </is>
       </c>
     </row>
@@ -2963,7 +3060,9 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:12:07.037175276Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26234789029, "load_duration": 2448050, "prompt_eval_duration": 124102000, "eval_count": 211, "eval_duration": 26107947000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative and conveys them in a clear and concise manner. Both the narrative and the summary state that Dosimetry did not include information about the patient's pacemaker or insulin pump in their email to the scheduling team, which resulted in the information not being included on the appointment schedule for the therapist to see. They also both mention that the patient was scheduled to start treatment at 2:30pm and that the chart was not reviewed until that morning. Finally, they both note that the therapist contacted nurses to ask if starting treatment that late would be sufficient time, and that a nurse arranged for an interrogation setup in response. Therefore, I assess the summary as identical to the narrative.</t>
         </is>
       </c>
     </row>
@@ -2988,7 +3087,9 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:12:32.212488093Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25172697690, "load_duration": 1508523, "prompt_eval_duration": 115920000, "eval_count": 211, "eval_duration": 25055044000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the type of cancer being treated, the method of treatment, the issue with the cylinder during the second fraction, the potential misadministration, and the discussion with the patient about possible modifications for future fractions. Both the narrative and the summary use similar language and structure to convey the information, making them identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -3009,11 +3110,7 @@
 A plan for the patient's treatment was not approved before the scheduled start time. An action was taken to contact the department of physics for their approval of the plan.</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:12:57.89592965Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25681122060, "load_duration": 1950980, "prompt_eval_duration": 116936000, "eval_count": 211, "eval_duration": 25561977000}</t>
-        </is>
-      </c>
+      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3032,11 +3129,7 @@
 A patient's medication prescription was altered by a doctor without notifying the medical staff. During an attempt to initiate treatment, it was discovered that the prescription needed approval from the physician due to the change. This resulted in a delay of approximately twenty minutes.</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:13:22.915293837Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25017003201, "load_duration": 1395379, "prompt_eval_duration": 115036000, "eval_count": 211, "eval_duration": 24900264000}</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3057,7 +3150,9 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:13:48.225404605Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25307358071, "load_duration": 1855750, "prompt_eval_duration": 124560000, "eval_count": 211, "eval_duration": 25180632000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that boost documents for a patient are missing from the iPlan system and have been found on a physical table.</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3175,9 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:14:14.431646116Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26203630532, "load_duration": 1789825, "prompt_eval_duration": 115960000, "eval_count": 211, "eval_duration": 26085582000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that an individual in a medical setting failed to initiate the QA CT process or update the whiteboard status for a specific patient's simulation, which required a resim using new immobilization devices. This matches the narrative exactly, as it also mentions the failure to initiate the QA CT process and update the whiteboard status for a patient who needed a resim with new immobilization devices.</t>
         </is>
       </c>
     </row>
@@ -3101,11 +3198,7 @@
 The patient's therapy plan was not prepared within the specified 24-hour time frame before their scheduled start time. The plan was not available until around noon on the day of the appointment, which was at 1:00 pm.</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:14:40.653065276Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26218693163, "load_duration": 1600597, "prompt_eval_duration": 107532000, "eval_count": 211, "eval_duration": 26109272000}</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3126,7 +3219,9 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:15:06.667817558Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26011987433, "load_duration": 2371766, "prompt_eval_duration": 109826000, "eval_count": 211, "eval_duration": 25899519000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the therapist's mistake in overriding the lateral shift and treating the patient at a 0 degree rotation instead of the intended 90 degrees, as well as the intervention of another therapist during the next field. However, the summary does not explicitly mention that the first mistake was due to selecting "all" rather than just the out-of-tolerance lateral shift. Nonetheless, the overall meaning and message of the narrative are conveyed in the summary, making it a similar match.</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3244,9 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:15:32.981744575Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26311234134, "load_duration": 2038716, "prompt_eval_duration": 116335000, "eval_count": 211, "eval_duration": 26192534000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the physician's failure to thoroughly review contours, the specific discrepancies identified, and the resulting delays in planning and patient start. The language used is clear and concise, and the details provided are consistent with those in the original narrative. Therefore, I would rate this summary as 'Identical' to the narrative.</t>
         </is>
       </c>
     </row>
@@ -3172,7 +3269,9 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:15:57.542533204Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24557552888, "load_duration": 2172950, "prompt_eval_duration": 123808000, "eval_count": 211, "eval_duration": 24431252000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided. It clearly states that the patient's prescription for an isotope in their spine received six administrations but was planned for fifteen, and that the error was identified during a chart review by a therapist after it had already been approved by a medical doctor and passed through the necessary physics check. The summary also correctly mentions that the dosimetry and physics teams were notified and the prescription was updated to reflect the intended fifteen administrations.</t>
         </is>
       </c>
     </row>
@@ -3195,7 +3294,9 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:16:23.232587327Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25687496565, "load_duration": 2116062, "prompt_eval_duration": 124250000, "eval_count": 211, "eval_duration": 25560822000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the discrepancy between the prescribed and delivered doses, the decision to continue with the initial treatment, and the correction of the beam printout after the treatment. However, the summary does not explicitly state that the dose discrepancy was 40cGy, which is mentioned in the narrative. Nonetheless, this level of detail is not necessary for the summary to convey the overall meaning of the narrative."</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3319,9 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:16:47.996628127Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24761589102, "load_duration": 1893982, "prompt_eval_duration": 116184000, "eval_count": 211, "eval_duration": 24643284000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately conveys the main idea from the narrative, which is that a breastboard used in simulations at a certain facility had been modified but this modification was not recorded. However, the specific detail about the 10 degrees of elevation is not mentioned in the narrative, making it slightly different from the information provided in the summary. Nonetheless, the overall meaning and main point are similar.</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3344,9 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:17:13.522947736Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25523356394, "load_duration": 2068062, "prompt_eval_duration": 112211000, "eval_count": 211, "eval_duration": 25408777000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the discovery of a pacemaker not listed on the new start appointment, the creation of copies and an email regarding a physics task, the marking of the pacemaker/defibrillator in Powernote but failure to include it in the whiteboard, and the lack of communication to the CIED Radonc pool or nurse triage. However, the summary omits the fact that the narrative mentions that the information was not listed on the new start appointment twice, which slightly changes the emphasis of the narrative. Nonetheless, the overall meaning and sequence of events are preserved in the summary, making it similar to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3369,9 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:17:39.427764734Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25902252628, "load_duration": 1515908, "prompt_eval_duration": 116535000, "eval_count": 211, "eval_duration": 25783914000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the mistake made by the therapist, the use of an incorrect consent form, and the subsequent correction with a new consent form. However, the summary does not explicitly state that the therapist had the patient sign the consent prior to the simulation appointment, which is mentioned in the narrative. Nonetheless, this detail does not significantly alter the overall meaning of the narrative, so the summary can still be considered similar to the original text.</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3394,9 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:18:04.605624637Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25175230259, "load_duration": 1883974, "prompt_eval_duration": 117258000, "eval_count": 211, "eval_duration": 25055790000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the observation of an irregularity in the medial field's superior border, the consultation with physics, the detection of a drop off after treatment, and the plan to notify the medical doctor and revise the patient's plan. The language used is slightly different, but the meaning conveyed is identical.</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3419,9 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:18:30.337069171Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25728690785, "load_duration": 2000704, "prompt_eval_duration": 128850000, "eval_count": 211, "eval_duration": 25597564000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the information presented in the narrative. Both the narrative and the summary indicate that a patient began treatment on December 29, 2022 with a prescription of 8 Gy per fraction, single fraction. They also both mention that the patient's chart underwent closeout and the immobilization was discarded. Additionally, both state that the treating therapists were not aware of the physician's plan to treat the patient with 60 Gy per fraction, totaling 30 fractions at a later date. The RT prescription for the 60 Gy treatments was entered on January 4, 2023 and the new treatment plan is scheduled to begin on January 17, 2023. Both the narrative and the summary use similar language and provide the same details in the same order, making them identical.</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3444,9 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:18:56.517536914Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26178019594, "load_duration": 1862744, "prompt_eval_duration": 116535000, "eval_count": 211, "eval_duration": 26059361000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the need for re-simulation due to cradle shrinkage, the presence of two active gating files, and the method used by the therapists to identify the correct file. However, the summary does not explicitly mention that the wrong file with incorrect parameters could have been selected on accident, which is a detail included in the narrative. Overall, the meaning of the two texts is similar, but the summary leaves out one minor aspect of the narrative.</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3469,9 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:19:22.845095704Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26324118262, "load_duration": 1704173, "prompt_eval_duration": 125211000, "eval_count": 211, "eval_duration": 26196943000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the failure to notice the cardiac stent and loop recorder, the delay in treatment due to waiting for interrogators, and the ultimate discovery that the interrogation was unnecessary. However, the summary incorrectly states that the therapist operating the machine missed the cardiac stent information in the physics report on Monday morning, when it was actually the therapy assistant who failed to note it during the encounter on Friday. Additionally, the summary does not explicitly mention that the patient left without receiving treatment, but this is implied by the statement that the interrogation was unnecessary. Overall, while there are some minor discrepancies between the narrative and the summary, the meaning of the two texts is similar.</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3494,9 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:19:48.231918966Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25383842695, "load_duration": 1764517, "prompt_eval_duration": 124411000, "eval_count": 211, "eval_duration": 25257324000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. It correctly identifies that a PSQA task was added after the team had finished their work and needed to be completed before treatment on Monday. The summary also correctly states that the portal dosimetry measurement resulted in a gamma value below 95%, requiring an ion chamber measurement, and that there were issues with the MV imager which caused delays to the machine schedule. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3519,9 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:20:13.912725583Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25678152095, "load_duration": 2044507, "prompt_eval_duration": 122692000, "eval_count": 211, "eval_duration": 25553118000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative by stating that during a new start appointment, 11 MUs were administered to treat the anterior supraclavicular field without breath hold, and despite having a gating system in place, it was not activated. The beam was turned off and breath hold gating was resumed for the remainder of the treatment. This summary matches the narrative exactly, making it identical.</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3544,9 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:20:38.659215733Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24744053662, "load_duration": 1742807, "prompt_eval_duration": 124536000, "eval_count": 211, "eval_duration": 24617525000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative provided. It correctly identifies that the patient was listed under 'Hazelrig' instead of 'proton', explains that this error occurred during importation and transfer from the 'photon' side, and mentions that a physician discovered the mistake during a random search in the whiteboard. The summary also notes that the patient had already been turned over for planning two days prior. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -3448,7 +3569,9 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:21:04.810160895Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26148154294, "load_duration": 1711376, "prompt_eval_duration": 125269000, "eval_count": 211, "eval_duration": 26020861000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the fact that therapists noticed a delay in the patient's new start day, could not access plan information, contacted dosimetry, and were instructed to cancel the appointment. However, the summary does not explicitly state that the patient was placed on will call or that no communication had been given about the delayed appointment, which is why it is marked as 'Similar' rather than 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3594,9 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:21:31.040606455Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26228020663, "load_duration": 2125220, "prompt_eval_duration": 115649000, "eval_count": 211, "eval_duration": 26109885000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the initial labeling of the patient as a proton patient, the change in location tab, the failure to update the dosimetrist, and the discovery and correction of the error. However, the summary goes beyond the narrative by stating that the change went unnoticed by the dosimetrist "in the whiteboard," which is not explicitly stated in the narrative. Nonetheless, this addition does not significantly alter the meaning of the narrative and the overall evaluation is 'Similar'.</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3619,9 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:21:57.331670387Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26288611994, "load_duration": 1954446, "prompt_eval_duration": 117541000, "eval_count": 211, "eval_duration": 26168795000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the error in the written prescription, the redness of the patient's skin, and the missed frequency information on the printed copy. However, the summary uses the term "administering" to describe the application of the bolus treatments, while the narrative uses the term "fx," which is short for "fixes" or "treatments." This discrepancy in terminology results in a similar, but not identical, match between the two texts.</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3644,9 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:22:23.628810552Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26294752589, "load_duration": 1816416, "prompt_eval_duration": 124348000, "eval_count": 211, "eval_duration": 26168246000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the meaning of the narrative. Both the narrative and the summary mention that the prescription contained incomplete SIB targets, that an alternative target was listed on the whiteboard, and that there would have been a gap between the high and low doses of the SIB CTVs if the scripted CTVs had been utilized for planning. The use of slightly different wording does not affect the overall meaning or accuracy of the summary.</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3669,9 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:22:50.02569885Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26394588598, "load_duration": 1702630, "prompt_eval_duration": 124432000, "eval_count": 211, "eval_duration": 26268135000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The meaning of both the narrative and the generated summary are similar, as they both convey that the patient arrived before the chart paperwork was received. However, the wording is slightly different, with the narrative stating "did not receive" while the summary states "was not received." Nonetheless, the overall message remains consistent.</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3694,9 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:23:16.14941254Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26121409612, "load_duration": 2335097, "prompt_eval_duration": 124239000, "eval_count": 211, "eval_duration": 25994484000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the type of scan ordered, the specified scan parameters, and the fact that the tumor extended beyond the specified parameters, requiring the patient to be rescheduled for another scan. However, the summary uses slightly different wording in some places, such as "instructions" instead of "order notates," and "during the procedure" instead of "was scanned." These differences do not significantly alter the meaning of the summary, but they are enough to warrant a grade of "Similar" rather than "Identical."</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3718,9 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:23:41.762287992Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25610224730, "load_duration": 2175054, "prompt_eval_duration": 124422000, "eval_count": 211, "eval_duration": 25483279000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the type of patient and treatment, the lack of a QA task, and the resident's discovery of the oversight at the physicians' peer review meeting. The summary provides a clear and concise description of the event that is identical to the information presented in the narrative.</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3743,9 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:24:08.145528553Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26380533790, "load_duration": 1745020, "prompt_eval_duration": 114471000, "eval_count": 211, "eval_duration": 26263993000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both the narrative and the summary mention that the patient missed an OSLD measurement on Day 1 due to oversight by the dosimetrist and physicist, that the patient had a 5cm range shifter which typically requires an OSLD measurement, that neither the dosimetrist nor the physicist dropped the task for physics or alerted the therapists about the necessity of an OSLD, that the issue was discovered during fraction five, and that the physician suggested measuring it at fraction six according to standard procedure with 5cm RS usage. The summary is concise but still manages to convey all the important details from the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -3629,11 +3766,7 @@
 A therapist checking a radiation therapy (RT) prescription prior to treatment noticed that it specified "Once Daily, Non-Consecutive Days." The physician subsequently requested that the patient receive RT treatment on "Once Daily, Consecutive Days" instead.</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:24:34.421872544Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26273987724, "load_duration": 1580198, "prompt_eval_duration": 125207000, "eval_count": 211, "eval_duration": 26146900000}</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3654,7 +3787,9 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:24:59.776015472Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25351616930, "load_duration": 1668205, "prompt_eval_duration": 117118000, "eval_count": 211, "eval_duration": 25232566000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the physician failed to correctly delineate the gross tumor volume due to a mistaken identification of a tumor as atelectasis on an inpatient treatment plan, and that this error was discovered before the start of the plan, leading to a recontouring and replanning. The summary also mentions the contributing factors of the patient's inpatient status and the urgency of the plan. Therefore, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3812,9 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:25:24.624727031Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24846268979, "load_duration": 1791639, "prompt_eval_duration": 116589000, "eval_count": 211, "eval_duration": 24727653000}</t>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main details of the narrative, including the placement of the isocenter, patient positioning, and the need for clarification regarding the simulation setup. However, it does not explicitly state that the order only mentions the left breast for setup, which is a key detail in the narrative. Nonetheless, the summary effectively conveys the overall meaning of the narrative."</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3837,9 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:25:50.434088905Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25806723093, "load_duration": 1761582, "prompt_eval_duration": 122715000, "eval_count": 211, "eval_duration": 25681919000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the presence of a discrepancy between the planned treatment and the actual patient, the failure to verify the patient's identity prior to initiating the connection setup, and the need for a timeout before proceeding with the hookup. The summary also correctly notes that the appropriate plan was loaded onto the HDR unit and the correct patient was verified before any further setup was carried out. However, the summary does not explicitly state that the RTT and covering physician were involved in identifying the discrepancy and requiring the timeout, whereas the narrative does. Nonetheless, the overall meaning of the two texts is similar."</t>
         </is>
       </c>
     </row>
@@ -3721,11 +3860,7 @@
 The approval for Trigem SRS treatment did not include the completion of the virtual cone Quality Assurance (QA) process. This oversight was identified during the scheduled treatment session, resulting in the patient being rescheduled.</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:26:16.714682917Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26277713634, "load_duration": 1801437, "prompt_eval_duration": 125377000, "eval_count": 211, "eval_duration": 26150190000}</t>
-        </is>
-      </c>
+      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3746,7 +3881,9 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:26:41.609253343Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24892184774, "load_duration": 1855329, "prompt_eval_duration": 115930000, "eval_count": 211, "eval_duration": 24774088000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both state that the CT simulation was ordered with a 4D scan protocol (phases 0-90), but the requesting physician intended for a breath hold CT simulation instead.</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3906,9 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:27:06.924794739Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25313031228, "load_duration": 1988060, "prompt_eval_duration": 120757000, "eval_count": 211, "eval_duration": 25189995000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the meaning of the narrative. Both convey that the IMRT QA procedure was not completed before a patient's scheduled new start appointment at 12:00pm, and as a result, the patient's treatment was postponed until later in the day to allow time for the necessary QA to be carried out. The summary uses slightly different wording but conveys the same information as the narrative.</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3931,9 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:27:32.445495515Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25517657551, "load_duration": 1729050, "prompt_eval_duration": 124976000, "eval_count": 211, "eval_duration": 25390683000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the use of breath hold for patient treatment, the operational status of the gating system, and the fact that one treatment field was administered with the gating mechanism not activated. However, the summary does not explicitly mention that the 'gating key' and 'enable gating' were not turned on, which is a specific detail from the narrative. Nonetheless, this omission does not significantly alter the overall meaning of the summary."</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3956,9 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:27:58.576042416Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26127981459, "load_duration": 2058874, "prompt_eval_duration": 121353000, "eval_count": 211, "eval_duration": 26004268000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the issue with the bladder filling, the therapists' change of plans, the closing of the original patient's chart, the arrival and check-in of a second patient, the accidental treatment initiation on the wrong patient's chart, and the discovery and correction of the error. The summary uses slightly different wording but conveys the same meaning as the narrative, making it identical in terms of overall content and message.</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3981,9 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:28:23.387369839Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24808462164, "load_duration": 2772484, "prompt_eval_duration": 115865000, "eval_count": 211, "eval_duration": 24689582000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the transition from Proton therapy to Photon therapy, the use of Acuros PT 2.0 and XB software, and the absence of a DVH or DO in the plan calculation. However, the summary incorrectly states that there was no Doctor of Medicine (DO) in the plan when the narrative actually specifies that there was no "DO" in the plan, which likely refers to a different term or abbreviation rather than a medical doctor. Nonetheless, the overall meaning and message conveyed by both texts are similar.</t>
         </is>
       </c>
     </row>
@@ -3861,7 +4006,9 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:28:49.280013393Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25889941693, "load_duration": 2545024, "prompt_eval_duration": 129670000, "eval_count": 211, "eval_duration": 25757415000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a patient's device was incorrectly indexed, resulting in a PA field being transmitted through a table wedge and that the physics team is verifying the dose delivered. Both the narrative and the summary convey the same meaning and use similar language to describe the situation.</t>
         </is>
       </c>
     </row>
@@ -3882,11 +4029,7 @@
 There were no relevant data fields present in the Digital Radiology Reports (DRRs), resulting in a delay of treatment.</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:29:14.67171991Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25389036809, "load_duration": 1713050, "prompt_eval_duration": 115801000, "eval_count": 211, "eval_duration": 25271252000}</t>
-        </is>
-      </c>
+      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3907,7 +4050,9 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:29:40.43953953Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25765485024, "load_duration": 2107015, "prompt_eval_duration": 117905000, "eval_count": 211, "eval_duration": 25645201000}</t>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The narrative and the generated summary convey the same information, with only minor differences in wording. Both state that a Proton simulation was completed and an incorrect planner was attached to the whiteboard. This is a clear example of an identical match between the two texts.</t>
         </is>
       </c>
     </row>
@@ -3928,11 +4073,7 @@
 An unapproved New Start treatment was presented without a corresponding printed supplement or scheduled Quality Assurance Computed Tomography scans for a patient in the simulation environment.</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:30:06.794529901Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26352383020, "load_duration": 1925953, "prompt_eval_duration": 124143000, "eval_count": 211, "eval_duration": 26226007000}</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3953,7 +4094,9 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:30:31.787481415Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24990343611, "load_duration": 2105472, "prompt_eval_duration": 115862000, "eval_count": 211, "eval_duration": 24872060000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the timing of the physics plan check and PSQA, the late availability of the Therapy Pre-check, the rushed nature of completing various tasks, and the contact with the SRS Physicist. The language used in the summary is very similar to that of the narrative, making it clear that the meaning has been accurately conveyed.</t>
         </is>
       </c>
     </row>
@@ -3976,7 +4119,9 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:30:56.290577265Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24500668008, "load_duration": 1796128, "prompt_eval_duration": 116839000, "eval_count": 211, "eval_duration": 24381768000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the date of simulation, the request for immediate treatment, the scheduled start time, the lack of plan approval by the specified time, and the need to coordinate a CIED interrogation for a pacemaker. The summary is concise and matches the meaning of the narrative closely, making it identical in this case.</t>
         </is>
       </c>
     </row>
@@ -3999,7 +4144,9 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:31:21.053098102Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24759559596, "load_duration": 2788213, "prompt_eval_duration": 124324000, "eval_count": 211, "eval_duration": 24631291000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative by stating that the physicist failed to input reference points dose limits in the treatment plan and that this oversight was identified during a plan check conducted by the physics team. The summary also correctly mentions that both the dosimetrist and physicist confirmed that the values had been intended to be entered but did not appear when the plan was being reviewed for accuracy, and that on the printed version of the plan, it seemed as though the reference points dose limits had been included, but they were in fact missing. The summary accurately captures the meaning of the narrative and matches it closely, making it an identical match.</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4168,9 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:31:47.142404767Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26086593785, "load_duration": 2016103, "prompt_eval_duration": 117252000, "eval_count": 211, "eval_duration": 25967058000}</t>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. It correctly identifies two separate cases of individuals diagnosed with squamous cell carcinoma (SCC) of the anus, and provides details about their treatment plans, including the use of concurrent chemoradiation therapy and the absence of prior radiation therapy for the first case. The summary also notes that no other information is provided in the narrative, which is consistent with the original text. Overall, the summary accurately conveys the key points of the narrative and matches its meaning closely, making it an identical match.</t>
         </is>
       </c>
     </row>
@@ -4044,7 +4193,9 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:32:11.881749204Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24736821124, "load_duration": 1666321, "prompt_eval_duration": 116899000, "eval_count": 211, "eval_duration": 24617967000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the request for respiratory motion management during an HSROC treatment, the patient being simulated at TKC but treated at HSROC, and the resulting disruption to the work distribution for physics teams. However, the summary uses slightly different wording than the narrative, which is why I have rated it as 'Similar' rather than 'Identical'."</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4218,9 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:32:37.57870817Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25694327488, "load_duration": 1922776, "prompt_eval_duration": 116061000, "eval_count": 211, "eval_duration": 25576106000}</t>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. It correctly identifies that there was a discrepancy in the transfer of energy from protons to photons, with the intended shifts being made from the current isotope of protons but the actual shifts on the setup sheet being made using BBs based on the original CT scan. The summary also accurately reports that it took approximately 40 minutes to rectify the issue and that the person in charge (POD) was uncertain about the problem and refused to proceed until a physicist, who was off site, could verify the information. Overall, the generated summary is identical in meaning to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -4090,7 +4243,9 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:33:02.576315519Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24995041035, "load_duration": 1989713, "prompt_eval_duration": 124449000, "eval_count": 211, "eval_duration": 24868305000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. It correctly identifies that there were three different plan names found in various documents, and that the POD was contacted to confirm their identity. Furthermore, it states that all plans were confirmed to be identical and acceptable for implementation, which aligns with the information provided in the narrative.</t>
         </is>
       </c>
     </row>
@@ -4112,7 +4267,9 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:33:28.940426273Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26361471153, "load_duration": 2156649, "prompt_eval_duration": 124213000, "eval_count": 211, "eval_duration": 26234787000}</t>
+          <t xml:space="preserve"> 
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly identifies that the event took place during a SBRT pancreas treatment session, that there was an issue with the plan not being connected to a gating study, and that the issue was discovered and corrected before the patient proceeded with treatment. The summary uses slightly different wording than the narrative but it conveys the same meaning and is therefore considered identical in terms of its overall alignment with the original text.</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4292,9 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:33:55.277452414Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26334591015, "load_duration": 1375361, "prompt_eval_duration": 124730000, "eval_count": 211, "eval_duration": 26208187000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both describe a situation where a patient's order for a medical procedure on the left breast was mistakenly processed as an order for the right breast, and the patient noticed and pointed out this error.</t>
         </is>
       </c>
     </row>
@@ -4157,7 +4316,9 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:34:21.176096319Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25895845642, "load_duration": 1866260, "prompt_eval_duration": 129635000, "eval_count": 211, "eval_duration": 25764060000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the failure to perform triggered imaging on one of the liver isocenters and the lack of response from the attending physician. However, it does not explicitly mention that a message was sent on the treatment start date or that the covering physician had to put in an alert without verification from the attending. Additionally, while the narrative states that there was no documentation indicating the attending's intent, the summary implies this but does not state it outright. Overall, the summary is similar to the narrative, but lacks some specific details.</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4341,9 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:34:47.179724818Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26001048189, "load_duration": 1964225, "prompt_eval_duration": 122674000, "eval_count": 211, "eval_duration": 25876142000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It mentions that the POD was consulted, which is equivalent to calling them in the narrative. The missing field contours on the DRRs are also correctly identified as the issue that needed addressing. Lastly, the therapy session involving port films is appropriately referenced in both the narrative and the summary. Therefore, I assess this evaluation as 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4365,9 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:35:13.29643845Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26114339432, "load_duration": 1786369, "prompt_eval_duration": 124328000, "eval_count": 211, "eval_duration": 25987965000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the approval of a medical treatment plan, the issue with the special physics consultation report, the therapists' misunderstanding about device interrogation, and the steps taken to resolve the problem. However, the summary does not explicitly state that the patient has an ICP or ICD, which is mentioned in the narrative. Therefore, while the summary is generally similar to the narrative, it is not identical.</t>
         </is>
       </c>
     </row>
@@ -4225,7 +4390,9 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:35:38.151547225Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24852744194, "load_duration": 1906596, "prompt_eval_duration": 128819000, "eval_count": 211, "eval_duration": 24721778000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both state that consent was given in November 2021 and the simulation was completed in January 2022. Additionally, both mention that the consent form was submitted outside of the required timeframe. Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -4248,7 +4415,9 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:36:03.864581521Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25709777817, "load_duration": 1956411, "prompt_eval_duration": 122794000, "eval_count": 211, "eval_duration": 25584689000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical to the narrative in terms of meaning and content. Both convey that there was an issue with a patient's proton treatment plan not being approved on the first day of treatment, no Physics QA document was submitted into PowerChart, and the "Schedule Proton Treatment" Task was not completed on the Aria homepage after scheduling the New Start appointment. The summary accurately captures the details presented in the narrative.</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4440,9 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:36:30.140783935Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26273796794, "load_duration": 1819000, "prompt_eval_duration": 116875000, "eval_count": 211, "eval_duration": 26154801000}</t>
+          <t xml:space="preserve">
+Dissimilar
+The generated summary is not identical or similar to the narrative because it provides additional information about an issue with mislabeled fields leading to the contamination of 10,000 bottles of infant formula. The narrative simply states "fields mislabeled" without specifying any consequences or details about what was mislabeled. Therefore, the summary is dissimilar to the narrative as it goes beyond the information provided in the original text.</t>
         </is>
       </c>
     </row>
@@ -4293,11 +4464,7 @@
 On May 2, a patient began chemotherapy at 11:30am. A task for scheduling a new start was entered at 2:11pm. The dosimetry team requested coordination with the chemotherapy process. However, therapists were unable to contact the patient on May 2 to initiate treatment. On April 28, the HemOnc nurse coordinator inquired about a start date from the Therapy Assistants. An Impact message was sent to the radiation oncologist regarding the proposed start date. The physician responded that the dosimetrist was still working on the plan and was aware of the suggested start date. The patient was contacted on May 3 to confirm if he could begin treatment, but due to his location being 2.5 hours from the clinic, he was unable to start on that day and is scheduled for May 4 instead.</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:36:56.492597115Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26349518469, "load_duration": 1829650, "prompt_eval_duration": 107740000, "eval_count": 211, "eval_duration": 26239436000}</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4318,7 +4485,9 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:37:21.99947618Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25504161342, "load_duration": 2178223, "prompt_eval_duration": 107375000, "eval_count": 211, "eval_duration": 25394319000}</t>
+          <t xml:space="preserve">
+"Similar
+The meaning of the narrative and the generated summary are similar. Both convey that a patient was having a simulation scan when the therapist discovered there were no pregnancy results during the encounter. They also both mention that nurses were consulted, revealing that no pregnancy test had been performed. However, the summary uses slightly different wording than the narrative, which is why it is not graded as 'Identical'."</t>
         </is>
       </c>
     </row>
@@ -4339,11 +4508,7 @@
 A medical procedure involving a spinal cord did not finish shaping the contour within the region of interest.</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:37:48.286323485Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26284502315, "load_duration": 1723933, "prompt_eval_duration": 123938000, "eval_count": 211, "eval_duration": 26158534000}</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4362,11 +4527,7 @@
 A prescription for a photon treatment was initially set at 4500 cGy/25 fractions. The transition to proton therapy occurred after 12 fractions had been administered. During the proton plan check and approval process, only the scheduled photon fractions were removed from the plan, leaving it in a treated approved status. No correction was made to reference points or an update prescription for the intended photon course created. This oversight was discovered during a weekly physics chart check at the proton therapy center when reference points for a PTV (not used in protons) were missing, prompting further investigation by the physicist. An email was subsequently sent to the physician requesting an update to the photon script.</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:38:14.393564864Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26104962876, "load_duration": 1554543, "prompt_eval_duration": 124339000, "eval_count": 211, "eval_duration": 25978777000}</t>
-        </is>
-      </c>
+      <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4387,7 +4548,9 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:38:39.31075564Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24914855315, "load_duration": 1682606, "prompt_eval_duration": 120465000, "eval_count": 211, "eval_duration": 24792450000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the timing of the physics plan check and PSQA, the unavailability of the Therapy Pre-check until the day of treatment, the rushed time frame for completing various tasks, and the contact with the SRS Physicist. The language used in the summary is very similar to that in the narrative, making it clear that the meaning of the two texts is identical.</t>
         </is>
       </c>
     </row>
@@ -4409,7 +4572,9 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:39:04.229026002Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24915930814, "load_duration": 1958577, "prompt_eval_duration": 116412000, "eval_count": 211, "eval_duration": 24797296000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the incorrect shifts, the failure to communicate the patient's orientation, the need for repositioning due to significant shifts, and the patient's inability to tolerate remaining on the table. However, there are a few minor differences between the two texts. The summary does not explicitly mention that the error was due to not resetting the origin or that physics was consulted about shifts. Additionally, the narrative mentions that the inferior film needed a 5 mm ant/post shift, but this detail is not included in the summary. Overall, while there are some differences between the two texts, they convey similar information and the main points of the narrative are accurately represented in the summary.</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4597,9 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:39:29.328876097Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25097570800, "load_duration": 1944071, "prompt_eval_duration": 124940000, "eval_count": 211, "eval_duration": 24970407000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. It correctly identifies that an SBRT treatment was planned for the axilla region with two target volumes, PTV and GTVm, and that the PTV received higher doses than the GTVm resulting in a hotter spot within the PTV. The summary also correctly mentions that the plan was reviewed by the medical director and that only two optimization objectives were used during the planning process, including a maximum dose constraint for the structure D2CM. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4622,9 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:39:54.329970012Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24998704483, "load_duration": 2000667, "prompt_eval_duration": 124495000, "eval_count": 211, "eval_duration": 24871922000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the timing of the plan submission and review, the error in the dose rate on the lung fields, and the tight timeline for TBI's radiation therapy plans. The use of slightly different wording in some places does not significantly alter the meaning of the summary compared to the narrative. Overall, the summary provides a clear and concise overview of the information presented in the narrative."</t>
         </is>
       </c>
     </row>
@@ -4478,7 +4647,9 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:40:20.663133003Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26330607232, "load_duration": 1768037, "prompt_eval_duration": 115940000, "eval_count": 211, "eval_duration": 26212569000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the physician's request for in vivo dosimetry, the scheduling of two related tasks (New Start and Special Dosimetry), the rescheduling of one task but not the other, and the failure to place a Patient Alert. However, the summary omits the fact that the narrative takes place during plan review and QA, which is not essential to understanding the main points of the narrative. Therefore, the summary is similar to the narrative.</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4672,9 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:40:46.024003601Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25358282449, "load_duration": 1705408, "prompt_eval_duration": 130491000, "eval_count": 211, "eval_duration": 25225786000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the date of rectal preparation, the delay in initiating work on the boost plan, and the resulting break the patient had to take. However, the summary incorrectly states that the patient took a break from June 1st to June 12th, while the narrative specifies that the patient went on break until June 12th when the boost plan was ready. Therefore, the summary is similar but not identical to the narrative.</t>
         </is>
       </c>
     </row>
@@ -4523,7 +4696,9 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:41:12.365383855Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26338512085, "load_duration": 2179606, "prompt_eval_duration": 123467000, "eval_count": 211, "eval_duration": 26212559000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the initial order for a pelvis X-ray with specific instructions, the doctor's decision not to include a retrograde urethrogram or full bladder/empty rectum, and the department of radiology's subsequent changes to the order based on the doctor's request. However, the summary incorrectly states that the original order included a prostate simulation, which is not mentioned in the narrative. Therefore, I would rate this evaluation as "Similar" rather than "Identical".</t>
         </is>
       </c>
     </row>
@@ -4546,7 +4721,9 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:41:37.753419865Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25385405580, "load_duration": 1693245, "prompt_eval_duration": 124516000, "eval_count": 211, "eval_duration": 25258873000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical to the narrative provided. Both convey the same information about the physics closeout for an expired patient, mentioning the existence of two plans (original and revision), the original plan not being completed early and remaining in the planning approved state without being scheduled, and the only issue being that it would require two steps to return the original plan to a treatment approved state.</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4746,9 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:42:04.079856778Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26323591036, "load_duration": 2225523, "prompt_eval_duration": 125567000, "eval_count": 211, "eval_duration": 26195437000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that the patient's chart indicated gated treatment, but the appointment was scheduled on a different machine where gating was not available. They both also mention that it was possible to proceed with the treatment without gating.</t>
         </is>
       </c>
     </row>
@@ -4592,7 +4771,9 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:42:29.690711669Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25608329109, "load_duration": 2146914, "prompt_eval_duration": 116601000, "eval_count": 211, "eval_duration": 25489243000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points and sequence of events described in the narrative. It mentions the request for a plan check from the doctor, therapist, and physician, the lack of prior mention or preparation for this task, the rushed approval and printing of plan documents, the rejection of the plan check due to unsafe conditions, and the discovery of a wrong cutout during setup verification after the incident. The summary uses slightly different wording but conveys the same meaning as the narrative, making it identical in terms of overall content and message.</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4795,9 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:42:55.277970668Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25584800094, "load_duration": 1649612, "prompt_eval_duration": 124098000, "eval_count": 211, "eval_duration": 25458732000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the need for quick planning, the conversation between the resident and attending about OAR constraints, the involvement of dosimetry in plan approval, and the suggestion for improving protocol accessibility. The summary uses slightly different wording but conveys the same meaning as the narrative, making it an identical match.</t>
         </is>
       </c>
     </row>
@@ -4637,7 +4820,9 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:43:20.836320122Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25555925626, "load_duration": 2095256, "prompt_eval_duration": 129381000, "eval_count": 211, "eval_duration": 25424200000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. It clearly states that a radiologist found an error in the positioning of a femur start chart, specifying the incorrect ISO location and orientation. Additionally, it mentions that the chart was scanned and planned according to the wrong orientation. This summary matches the narrative closely, making it an identical match.</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4845,9 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:43:47.039362064Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26200346040, "load_duration": 2084566, "prompt_eval_duration": 124306000, "eval_count": 211, "eval_duration": 26073558000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, using slightly different wording to convey the same meaning. Both the narrative and the summary mention that therapists were unaware of a patient starting an unapproved plan, that the necessary physics checks were not completed before the scheduled treatment session, and that contacting the on-call physicist led to a delay in the patient's treatment. The use of synonyms and rephrasing does not change the overall meaning or message of the text, making the summary identical to the narrative in essence.</t>
         </is>
       </c>
     </row>
@@ -4683,7 +4870,9 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:44:11.781991Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24740091834, "load_duration": 1884618, "prompt_eval_duration": 117082000, "eval_count": 211, "eval_duration": 24620863000}</t>
+          <t xml:space="preserve">
+Dissimilar
+The generated summary does not accurately reflect the information provided in the narrative. The summary incorrectly states that the posterior shift during simulation was larger than during actual treatment, when in fact it was smaller (15.5 cm vs 5.0 cm). Additionally, the superior shift is also reported incorrectly in the summary as being smaller during simulation when it was actually larger (23.9 cm vs 2.5 cm). The lateral shift is correctly reported in both the narrative and the summary. Overall, the summary does not accurately convey the information provided in the narrative and should be considered dissimilar.</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4895,9 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:44:36.565834284Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24781144956, "load_duration": 1931366, "prompt_eval_duration": 123279000, "eval_count": 211, "eval_duration": 24655715000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information presented in the narrative. Both state that there are two sets of KV DRRs, one from a revised plan and one from an original plan, and both have the same date of May 28th. Additionally, both plans were created on June 22nd. Therefore, the summary is identical to the narrative in meaning.</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4920,9 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:45:01.378440185Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24809769122, "load_duration": 2152755, "prompt_eval_duration": 117580000, "eval_count": 211, "eval_duration": 24689780000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the delayed preparation of a patient's scheduled treatment due to an unchecked boost plan in physics, the absence of tasks indicating the need for chart checking, and the minimal delay following the chart check when physics became aware of the issue. However, the summary uses the phrase "minimal delay" instead of "no major delay," which is used in the narrative. Therefore, I would rate this as a similar match rather than identical.</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4945,9 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:45:27.606840615Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26225986762, "load_duration": 1744793, "prompt_eval_duration": 124534000, "eval_count": 211, "eval_duration": 26099378000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the lack of clear instructions from dosimetry regarding gating during CT scans, the need for therapists to consult with dosimetry, and the ultimate decision not to use gating for this patient. The summary does not explicitly state that the patient was not gated, but it implies this by mentioning that gating was not used for this patient. Overall, the meaning of the narrative and the summary are closely aligned."</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4970,10 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:45:52.53347742Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24924005103, "load_duration": 1566535, "prompt_eval_duration": 116075000, "eval_count": 211, "eval_duration": 24806110000}</t>
+          <t xml:space="preserve">
+Narrative: Identical
+Summary: Identical
+Explanation: Both the narrative and summary convey the same information about the medical team identifying alignment issues during a planned radiation therapy session, discovering the problem using CBCT imaging, cancelling the treatment procedure, and the physician needing to redraw contours and create a new plan. The language used is slightly different, but the meaning is identical.</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4996,9 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:46:17.349933927Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24813445067, "load_duration": 2186289, "prompt_eval_duration": 123243000, "eval_count": 211, "eval_duration": 24687758000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary have identical meanings. Both convey that a patient receiving beam therapy had their port removed during treatment and was treated for around two weeks without it.</t>
         </is>
       </c>
     </row>
@@ -4821,7 +5021,9 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:46:43.141162742Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25788429427, "load_duration": 1759741, "prompt_eval_duration": 125257000, "eval_count": 211, "eval_duration": 25661118000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the malfunctioning robotic couch, the patient's agitation, the administration of anesthesia, the acquisition of additional images, and the discovery of a vertical misalignment. The summary also correctly mentions that therapists will be more vigilant during image reviews and adjust filters for clearer representation. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -4844,7 +5046,9 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:47:08.385487098Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25242005567, "load_duration": 1880490, "prompt_eval_duration": 123237000, "eval_count": 211, "eval_duration": 25116649000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the need for OSLD administration on the first day of treatment, the absence of notification in ARIA and chart, and the accommodations made by therapists to allow physics to place the OSLDs after the patient was setup on the table. The language used is clear and concise, effectively conveying the same meaning as the narrative.</t>
         </is>
       </c>
     </row>
@@ -4867,7 +5071,9 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:47:34.501330223Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26113162873, "load_duration": 2338737, "prompt_eval_duration": 125267000, "eval_count": 211, "eval_duration": 25985256000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, providing a clear and concise description of the situation. Both the narrative and the summary state that the ETHOS patient was prescribed daily KV and CBCT imaging, but the ETHOS machine could not perform KVs. Additionally, both sources indicate that therapists asked a physician to add an alert in ARIA regarding this deviation from the prescribed imaging regimen. Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -4890,7 +5096,9 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:47:59.313394878Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24809684309, "load_duration": 1947727, "prompt_eval_duration": 116475000, "eval_count": 211, "eval_duration": 24690991000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that two instances of discrepancies in patients' bladder scans occurred, the dosimetrist did not specify whether the treatments should be administered with an empty or full bladder, one therapist discovered the discrepancy and prevented any potential issue, another therapist assumed the treatment was to be given with an empty bladder but the error was identified prior to treatment, and both patients were supposed to have their treatments with full bladders. The summary captures all the important details of the narrative and presents them in a clear and concise manner, making it identical to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -4913,7 +5121,9 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:48:24.418816863Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25102818828, "load_duration": 1886941, "prompt_eval_duration": 114925000, "eval_count": 211, "eval_duration": 24985729000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately conveys the main idea of the narrative, which is that there were no adjustments made to the patient's treatment plan during the procedure. While the specific terminology used in the narrative and the summary differ slightly, the overall meaning is consistent and aligns with a 'Similar' evaluation.</t>
         </is>
       </c>
     </row>
@@ -4935,7 +5145,9 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:48:48.984140654Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24562630022, "load_duration": 2974310, "prompt_eval_duration": 116515000, "eval_count": 211, "eval_duration": 24442887000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the unauthorized change to the simulation order, the incorrect consent and scan, and the need for the patient to return for a corrected simulation. However, it does not explicitly mention the difficulties in starting an IV or the fact that the simulation order was not opened on the computer during the scan. These details do not significantly impact the overall meaning of the narrative, but they are worth noting for a more complete summary.</t>
         </is>
       </c>
     </row>
@@ -4956,11 +5168,7 @@
 The electronic prescription system, eRX, indicates that there are no gating requirements when a patient is undergoing phase gating.</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:49:13.707240109Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24719710260, "load_duration": 2526813, "prompt_eval_duration": 119209000, "eval_count": 211, "eval_duration": 24597635000}</t>
-        </is>
-      </c>
+      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4981,7 +5189,9 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:49:39.306000936Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25596088909, "load_duration": 1814134, "prompt_eval_duration": 117292000, "eval_count": 211, "eval_duration": 25476640000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by identifying the prescription mismatch, the atypical dose administered, and the fact that it was a typo. The summary also correctly mentions the discovery of only one volume tracking reference point and its subsequent renaming to include the LN volume. The summary accurately states that the discrepancy was identified during the second weekly check, meaning that eight fractions had already been delivered. Therefore, the summary is identical in meaning to the narrative.</t>
         </is>
       </c>
     </row>
@@ -5002,11 +5212,7 @@
 A plan, rather than a treatment, was not authorized during a new appointment.</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:50:03.847955336Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24539519322, "load_duration": 1921708, "prompt_eval_duration": 117280000, "eval_count": 211, "eval_duration": 24420011000}</t>
-        </is>
-      </c>
+      <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5025,11 +5231,7 @@
 A case underwent dosimetry review but a Proton specific contour check was not requested. The planning process proceeded without this check, which was discovered during a physics plan check when examining the properties history tab.</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:50:28.747509742Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24897076636, "load_duration": 1786031, "prompt_eval_duration": 121964000, "eval_count": 211, "eval_duration": 24773096000}</t>
-        </is>
-      </c>
+      <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5050,7 +5252,9 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:50:54.960406193Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26210418050, "load_duration": 1664631, "prompt_eval_duration": 108155000, "eval_count": 211, "eval_duration": 26100305000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main idea of the narrative, which is that therapists discovered an unexpected change to the patient's treatment plan during their daily preparation at the machine console. However, the summary uses the word "preparation" instead of "treatment," and it states that the therapists discovered the change "during" their preparation rather than "at the beginning" of their preparation. These differences in phrasing do not significantly alter the meaning of the narrative or the summary, but they are enough to warrant a grade of "Similar" instead of "Identical."</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5277,9 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:51:20.241408884Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25278625101, "load_duration": 2267261, "prompt_eval_duration": 117397000, "eval_count": 211, "eval_duration": 25158701000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the meaning of the narrative. Both convey that there was no QA CT check performed in an eRX directive for a proton therapy treatment for a head and neck cancer patient, which raised questions about the appropriateness of the therapy. Additionally, both state that the medical doctor responsible has been instructed to add a patient alert for weekly QA CT checks.</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5302,9 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:51:46.523088142Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26279204344, "load_duration": 1982132, "prompt_eval_duration": 124392000, "eval_count": 211, "eval_duration": 26152520000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the generated summary both convey that a medical procedure is taking place on the left breast, and that there is a reference to "lateral tangent fields" being associated with the right latissimus muscles (referred to as "Right Lats"). However, the summary adds an extra layer of detail by explicitly stating that the lateral tangent fields are identified as pertaining to the right latissimus muscles. While this additional information does not change the overall meaning of the summary, it goes beyond what is stated in the narrative, which is why I have graded this as 'Similar' rather than 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -5117,11 +5325,7 @@
 A patient's appointment includes two scheduled booster doses. However, these doses were intended to be administered overlap each other instead of separately. To prevent misunderstanding, the label for this treatment regimen should be changed to 'Simultaneous Boosters' or SIB.</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:52:11.396227089Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24870127769, "load_duration": 1942086, "prompt_eval_duration": 116857000, "eval_count": 211, "eval_duration": 24751056000}</t>
-        </is>
-      </c>
+      <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5142,7 +5346,9 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:52:36.35784071Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24959227955, "load_duration": 2119622, "prompt_eval_duration": 125332000, "eval_count": 211, "eval_duration": 24831406000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a patient undergoing treatment on both arms, one with electrons and the other with photons, and how the positioning of the arms led to an unintended head therapy assignment. Both also mention that the issue was resolved by notifying relevant personnel in physics and medicine.</t>
         </is>
       </c>
     </row>
@@ -5163,11 +5369,7 @@
 The electronic prescription system, eRX, indicates that there are no gating requirements when a patient is undergoing phase gating.</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:53:02.391109055Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26030630182, "load_duration": 1548200, "prompt_eval_duration": 115277000, "eval_count": 211, "eval_duration": 25913519000}</t>
-        </is>
-      </c>
+      <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5188,7 +5390,9 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:53:28.293585799Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25899901199, "load_duration": 1993654, "prompt_eval_duration": 117490000, "eval_count": 211, "eval_duration": 25780090000}</t>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the disagreement over the type of radiotherapy treatment, the patient's need to receive treatment at a different location due to the MD's absence, and the prescribed dosage and number of fractions. However, the summary uses slightly different phrasing than the narrative in some places, which is why it is not graded as 'Identical'. Overall, the summary effectively conveys the same meaning as the narrative."</t>
         </is>
       </c>
     </row>
@@ -5210,7 +5414,9 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:53:54.546125231Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26249614436, "load_duration": 1752958, "prompt_eval_duration": 124987000, "eval_count": 211, "eval_duration": 26122565000}</t>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The summary accurately reflects the narrative by stating that the patient's therapy plan was not ready within the specified 24-hour timeframe and became available at 9:30 am on February 1, 2022. This matches the information provided in the narrative.</t>
         </is>
       </c>
     </row>
@@ -5231,11 +5437,7 @@
 There is a discrepancy between the treatment plan for a patient, which includes breathhold, and the prescription, which does not mention breathhold.</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:54:20.71836554Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26169966926, "load_duration": 1601340, "prompt_eval_duration": 124234000, "eval_count": 211, "eval_duration": 26043800000}</t>
-        </is>
-      </c>
+      <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5254,11 +5456,7 @@
 A patient's start time was not indicated on the whiteboard or selected, leading the dosimetrist to assume the patient was a walk-in. Upon request for a start time, it was found that the patient had been scheduled and there was no delay in treatment.</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:54:47.037766548Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26317112518, "load_duration": 1455956, "prompt_eval_duration": 129787000, "eval_count": 211, "eval_duration": 26185573000}</t>
-        </is>
-      </c>
+      <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5279,7 +5477,9 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:55:13.255049069Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26214608860, "load_duration": 1600058, "prompt_eval_duration": 114172000, "eval_count": 211, "eval_duration": 26098557000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that non-Edge SBRT therapists treated a patient using the IX machine without having an MD physically present, and that they communicated with the patient's attending via video conference. The summary also correctly mentions that the therapists were unaware of the requirement for an MD to be present at the machine during the treatment. Therefore, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5502,9 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:55:38.668636227Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25411291052, "load_duration": 1765010, "prompt_eval_duration": 124153000, "eval_count": 211, "eval_duration": 25285116000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative and presents them in a clear and concise manner. Both the narrative and the summary describe the patient's consent and simulation order for a left femur, the placement of marks and positioning of the patient, the unexpected iso on the right leg, the filming of the original mark on the left leg, the non-receipt of treatment, and the delay in starting time due to unreadiness of the plan. The summary also mentions that the chart was not received until close to 3:00 PM, which is a minor detail but still present in the narrative. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5527,9 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:56:04.455727139Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25783628609, "load_duration": 1546958, "prompt_eval_duration": 124349000, "eval_count": 211, "eval_duration": 25657466000}</t>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main idea of the narrative, which is that a prostate SBRT treatment plan using triggered imaging did not have the imaging task dropped before it was finished. The use of slightly different wording and phrasing in the summary does not detract from its overall similarity to the original narrative."</t>
         </is>
       </c>
     </row>
@@ -5348,7 +5552,9 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:56:30.587101735Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26128663805, "load_duration": 1647007, "prompt_eval_duration": 99376000, "eval_count": 211, "eval_duration": 26027347000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the timing of the simulation and scheduled treatment, as well as the failure to notify the physics team in a timely manner, which led to a delay in treatment delivery. However, the summary does not explicitly state that the patient was a palliative case, which is mentioned in the narrative. Nonetheless, this information is not essential to understanding the main issue presented in the narrative."</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5577,9 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:56:56.811667727Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26222323558, "load_duration": 2224320, "prompt_eval_duration": 117747000, "eval_count": 211, "eval_duration": 26102084000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the generated summary have similar meanings. Both refer to a gap or space that exists between the spinal cord and the cauda equina, which is being utilized for some purpose. In this case, the purpose is to optimize or devise an ideal strategy. While the specific terminology differs slightly between the two texts, the overall meaning is consistent.</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5623,9 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:57:22.903649852Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26089296722, "load_duration": 1460935, "prompt_eval_duration": 124183000, "eval_count": 211, "eval_duration": 25963376000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It mentions that the patient had a lung condition and underwent radiation therapy, but the gantry could not pass over the left arm and elbow due to its positioning. The isocenter was located near the apex of the lung, in a medial and posterior position. Finally, it states that after consulting with the treating physician and physicist, treatment for the day was canceled and re-planning was necessary. This summary matches the narrative closely and accurately conveys its meaning.</t>
         </is>
       </c>
     </row>
@@ -5438,7 +5648,9 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:57:49.174698115Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26268701501, "load_duration": 1853077, "prompt_eval_duration": 116690000, "eval_count": 211, "eval_duration": 26149856000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the unexpected inclusion of T8 in the PTV during lung treatment, the use of CBCT to identify this discrepancy, and the need for the patient to sign new consent forms due to the modification of the treatment plan. However, the summary uses the phrase "modified treatment plan involving T8" instead of simply stating that the patient had to sign new consent forms, which may imply additional changes beyond just the inclusion of T8 in the PTV."</t>
         </is>
       </c>
     </row>
@@ -5459,11 +5671,7 @@
 A patient was scheduled to begin treatment with STx according to simulation notes and in the Processmaker system on April 24th. However, the plan was changed, and the patient was instead scheduled to start treatment with iX on that same day. This change was not communicated clearly, as the schedule for a new start task for iX was dropped without mentioning the cancellation of the STx appointment. On April 21st, the patient was actually scheduled to begin treatment with iX. On April 24th, a therapist discovered that the patient had appointments on both iX and STx for that day.</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:58:15.397234603Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26220220795, "load_duration": 1617872, "prompt_eval_duration": 124952000, "eval_count": 211, "eval_duration": 26093355000}</t>
-        </is>
-      </c>
+      <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5484,7 +5692,9 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:58:41.646731516Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26247130945, "load_duration": 1449152, "prompt_eval_duration": 125268000, "eval_count": 211, "eval_duration": 26120097000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe an instance where a Physics employee attached an incorrect Ethos patient imaging document into another patient's Powerchart on September 13, 2021, and this error was discovered by a therapist on October 1, 2021, while reviewing the imaging documentation in Powerchart.</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5717,9 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:59:07.743378873Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26094343907, "load_duration": 1800177, "prompt_eval_duration": 111311000, "eval_count": 211, "eval_duration": 25980934000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main idea of the narrative, which is that a physician has drawn three target volumes for radiation therapy but only has a prescription for two targets. However, the summary goes beyond what is stated in the narrative by specifying that the targeted areas are on the same side of the body (ipsilateral). While this detail may be implied in the phrase "bilat" used in the prescription, it is not explicitly stated in the narrative. Therefore, the summary is similar to the narrative but not identical.</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5742,9 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:59:32.491608702Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24745526633, "load_duration": 1890348, "prompt_eval_duration": 124119000, "eval_count": 211, "eval_duration": 24619243000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the issue with the DIR-generated node being too long, the physicist's attempt to truncate it, and the resulting PTV expansion near another existing PTV that was not caught until verification CBCT. The summary also correctly mentions the involvement of all parties in determining that the plan could not be delivered as intended and the interruption in treatment. However, the summary does not explicitly mention that the treating physician was called to the machine to evaluate the verification CBCT and look at additional dose to healthy tissue in Mobius, which is a minor detail in the narrative."</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5767,9 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T04:59:58.756458391Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26262113692, "load_duration": 2444557, "prompt_eval_duration": 114325000, "eval_count": 211, "eval_duration": 26145027000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary mention a discrepancy between the prescribed medication (Rx) and the intended side for administration (right versus left lung), which was detected during a physics check and quickly resolved by a physician. Therefore, the evaluation is 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5792,9 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:00:23.463973581Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24705051927, "load_duration": 1949649, "prompt_eval_duration": 123634000, "eval_count": 211, "eval_duration": 24579198000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a patient at TGN with an intracranial pressure (ICP) condition, who has a pacemaker. The planning dosimetrist did not include ICP information in the yellow sheet PDF and no special physics consultation task was assigned for ICD/ICP.</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5817,9 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:00:49.383628779Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25917097327, "load_duration": 1550435, "prompt_eval_duration": 116674000, "eval_count": 211, "eval_duration": 25798541000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the medical procedure, the use of a bolus, the calculated plan SSD, and the discrepancy between previous treatments and the current setup. The summary also correctly mentions the consultation with the physics team to discuss dosage implications. However, the summary could have been more concise by omitting some details that are already implied in the narrative, such as the fact that the procedure involved setting up an electron beam apparatus for a patient's testicles. Nonetheless, the overall meaning and message of the narrative are preserved in the summary."</t>
         </is>
       </c>
     </row>
@@ -5620,11 +5840,7 @@
 The named target 'PTV_Axilla' in a plan does not align with the name 'PTV_Ax' listed in the prescription. No previous X-check safety timestamp was recorded.</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:01:14.316611471Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24930016057, "load_duration": 1827568, "prompt_eval_duration": 125134000, "eval_count": 211, "eval_duration": 24802804000}</t>
-        </is>
-      </c>
+      <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5645,7 +5861,9 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:01:40.171907111Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25852599849, "load_duration": 1722229, "prompt_eval_duration": 116069000, "eval_count": 211, "eval_duration": 25734500000}</t>
+          <t xml:space="preserve">
+"Grade: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. It specifies the date and time of the message from dosimetry, the type of patient being treated, the fact that IMRT QA still needs to be completed, and the tentative schedule for QA and treatment. Both the narrative and the summary are concise and clear in their communication."</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5886,9 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:02:05.214722775Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25040340209, "load_duration": 1840714, "prompt_eval_duration": 121025000, "eval_count": 211, "eval_duration": 24917189000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It mentions that therapists discovered a pediatric patient starting a new 2.2pSpine plan without prior preparation, specifies the date as August 18, 2021, and notes that the first fraction of the plan was entered as 1/3 in the machine console. The summary is concise but covers all essential details from the narrative.</t>
         </is>
       </c>
     </row>
@@ -5689,11 +5909,7 @@
 A portion of a patient's right arm remained within the field of view (FOV) during a planning CT scan, but it was not included in the body contour. This section was approximately 2 cm from the edge of the field. A duplicate structure set was created to incorporate this part of the body contour. The plan was copied and recalculated using the same MU values for this new structure set. No alteration in dose or target coverage was detected.</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:02:30.389744994Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25172372395, "load_duration": 2375946, "prompt_eval_duration": 123844000, "eval_count": 211, "eval_duration": 25045852000}</t>
-        </is>
-      </c>
+      <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5715,7 +5931,9 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:02:55.221509992Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24829133458, "load_duration": 1983624, "prompt_eval_duration": 116641000, "eval_count": 211, "eval_duration": 24710227000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points and details of the narrative. It correctly mentions the difficulties encountered during treatment setup, the use of KV and CBCT imaging, the misalignments observed, the discovery of different breathing techniques used during simulation and breath hold, and the patient's successful modification of her breathing method leading to improved alignment. The summary is concise yet comprehensive, making it identical to the narrative in terms of meaning and content.</t>
         </is>
       </c>
     </row>
@@ -5738,7 +5956,9 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:03:20.073709524Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24849752911, "load_duration": 1750944, "prompt_eval_duration": 125774000, "eval_count": 211, "eval_duration": 24721921000}</t>
+          <t xml:space="preserve">
+Narrative and Summary Match Evaluation: Similar
+Explanation: The narrative and summary are similar in their description of a patient undergoing a physics review assessment and therapists checking on the patient's readiness for this evaluation. Both also mention that, according to Carepath, dosimetry printing and IMRT Quality Assurance had been completed, but the status of the review item itself remained unchanged. The only difference is in the wording used to convey the information, with the summary being more detailed and using different phrasing than the narrative. Overall, the meaning conveyed by both texts is very close, making them similar.</t>
         </is>
       </c>
     </row>
@@ -5760,7 +5980,9 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:03:44.766038382Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24689832464, "load_duration": 2041885, "prompt_eval_duration": 115958000, "eval_count": 211, "eval_duration": 24571588000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the discrepancy in plan names and the discovery of a 3 cm longitudinal shift during treatment. However, it does not explicitly mention that no shifts were made from the sim isocenter due to minimal shifts on the yellow sheet. This information is not crucial to understanding the overall situation, but it does make the summary less identical to the narrative.</t>
         </is>
       </c>
     </row>
@@ -5783,7 +6005,9 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:04:10.942906693Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26174033156, "load_duration": 2032968, "prompt_eval_duration": 116934000, "eval_count": 211, "eval_duration": 26054754000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the request for the physician's presence, the physician's delayed arrival, and the decision to keep the patient set up. However, the summary uses "OLSD placement" instead of "OSLD placement" as in the narrative, and it does not explicitly mention that the physics resident was present for the procedure. These differences do not significantly affect the overall meaning of the summary, but they are worth noting.</t>
         </is>
       </c>
     </row>
@@ -5806,7 +6030,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:04:37.293293661Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26347657782, "load_duration": 1654351, "prompt_eval_duration": 131115000, "eval_count": 211, "eval_duration": 26214521000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that the patient was ordered to receive IV contrast for a CT sim, but the patient has an iodine allergy which was not reported in advance. This conveys the same information and is assessed as identical.</t>
         </is>
       </c>
     </row>
@@ -5830,7 +6056,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:05:03.625249112Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26329649458, "load_duration": 1712061, "prompt_eval_duration": 129759000, "eval_count": 211, "eval_duration": 26197869000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main issue of the narrative, which is the misplacement of reference points for a boost plan on a paper chart during the AM weekly chart check. Both the narrative and the summary mention that the dosimetrist made the mistake and that physicists should pay attention to all reference points in the future to prevent similar occurrences. However, the summary does not explicitly state that the reference point of the boost plan should be starting to track the dose until the beginning of the boost plan, which is mentioned in the narrative. Therefore, while the meaning of the two texts is generally similar, there are some differences in detail.</t>
         </is>
       </c>
     </row>
@@ -5853,7 +6081,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:05:29.936390709Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26308662345, "load_duration": 1772595, "prompt_eval_duration": 123928000, "eval_count": 211, "eval_duration": 26182644000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main idea of the narrative, which is the importance of ensuring that the QACT matches the original sim as closely as possible for potential use in treatment planning. However, it does not explicitly mention that the initial plan was acquired with 4DCT and that the QACT was not 4D, which are details provided in the narrative. Nonetheless, these details do not significantly impact the overall meaning of the narrative, and the summary effectively conveys the key message.</t>
         </is>
       </c>
     </row>
@@ -5876,7 +6106,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:05:56.303213481Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26364338971, "load_duration": 2186417, "prompt_eval_duration": 124155000, "eval_count": 211, "eval_duration": 26237668000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the key details of the narrative, including the type of cancer being treated, the fields used in the treatment plan, the issue with the patient's setup, the impact on the dose received by the target and organs at risk, and the timeline for identifying and correcting the error. The language used is clear and concise, effectively conveying the information without introducing any new details or omitting important aspects of the narrative. Overall, the summary is identical in meaning to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -5899,7 +6131,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:06:22.664185239Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26358620067, "load_duration": 1561746, "prompt_eval_duration": 122143000, "eval_count": 211, "eval_duration": 26234633000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that there was a discrepancy between the patient's prescription and the yellow sheet regarding the dosage range for phase based gating. The summary also correctly mentions that the pharmacy staff spoke with dosimetry to confirm the intended dosage, which was 0-90, and then contacted the prescribing doctor to request a modification to the prescription. The modified prescription now reflects a dosage range of free breathe, as stated in the summary. Overall, the meaning conveyed in the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -5921,7 +6155,9 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:06:48.869422037Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26202679058, "load_duration": 2308138, "prompt_eval_duration": 124263000, "eval_count": 211, "eval_duration": 26075806000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative and presents them in a clear and concise manner. Both the narrative and the summary describe the same sequence of events, including the patient's simulation date, the treatment plan approval process, the patient's inquiry about their start date, and the therapist's discovery that no Schedule New Start task had been dropped. The summary also includes specific dates for each event, which matches the narrative. Overall, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -5944,7 +6180,9 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:07:15.14528779Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26273655130, "load_duration": 1726046, "prompt_eval_duration": 124515000, "eval_count": 211, "eval_duration": 26147082000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the meaning of the narrative, using almost identical wording and structure. Both the narrative and the summary describe the filming of all fields and seg fields for a patient receiving one fraction of treatment, the identification of an issue with field six, the consultation with relevant medical professionals, and the decision to continue with treatment. The summary also correctly identifies the suggestion made by the physician of record to further investigate the process of field in field plans that do not merge. Overall, the summary is identical in meaning to the narrative.</t>
         </is>
       </c>
     </row>
@@ -5967,7 +6205,9 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:07:41.13327124Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25985589759, "load_duration": 1883955, "prompt_eval_duration": 124268000, "eval_count": 211, "eval_duration": 25859157000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the realization that the patient was starting a boost during treatment, the lack of a plan from physics in the chart and shared folder, the failure to receive a new plan via email, the contact with physics, and the discovery that the sent plan was the same as the one used the previous day. However, the summary incorrectly states that the team was "in the process of treating an undertreated patient" when they discovered the boost, whereas the narrative specifies that they were starting to treat the patient at that time. Therefore, I assess the summary as 'Similar' rather than 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -5990,7 +6230,9 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:08:06.416282422Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25280554864, "load_duration": 2263834, "prompt_eval_duration": 122827000, "eval_count": 211, "eval_duration": 25155170000}</t>
+          <t xml:space="preserve">
+"Evaluation: Identical
+The generated summary accurately reflects the information provided in the narrative. Both the narrative and the summary state that a patient received treatment at the same site, under a cradle with a similar name to another patient, for five sessions. They also both indicate that starting from the sixth session, the correct cradle was used. Therefore, the meaning of the narrative and the generated summary are identical."</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6255,10 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:08:31.939558058Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25520967007, "load_duration": 1748368, "prompt_eval_duration": 122958000, "eval_count": 211, "eval_duration": 25395957000}</t>
+          <t xml:space="preserve">
+Narrative and Summary Match Evaluation:
+Similar
+The narrative and summary are similar in meaning, as both convey that therapists identified an order for intravenous contrast for a patient with an allergy to contrast dye and contrast media (iodine-based). Both also mention that the therapists had to stop their workflow and contact the attending physician to determine if the patient was permitted to receive contrast. However, the summary uses more descriptive language than the narrative, such as "intravenous contrast" instead of just "contrast," and "halt their workflow" instead of simply "stopped." These differences in wording do not significantly change the meaning of the text but may contribute to a slightly less identical match.</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6281,9 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:08:57.406943095Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25464940621, "load_duration": 2305493, "prompt_eval_duration": 123056000, "eval_count": 211, "eval_duration": 25339235000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the task related to setting up a new appointment, the therapist's inability to contact the patient, and the discovery of mismatched prescription and treatment plan. However, the summary does not explicitly mention that the incorrect RX was found in the delete folder of the iPlan documents, but rather implies it by stating "the incorrect RX had been sent over for this patient." This is a minor discrepancy, as the meaning of the narrative and the summary are still closely aligned.</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6306,9 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:09:22.440892261Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25031444886, "load_duration": 2150680, "prompt_eval_duration": 124838000, "eval_count": 211, "eval_duration": 24904194000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the resident physician's inquiry about a patient, the patient's status in the Whiteboard system, and the lack of notification to the dosimetry team. However, the summary uses the term "completion notification" instead of "sim complete," which may suggest a slightly different meaning. Nonetheless, the overall meaning of the narrative and the summary are similar."</t>
         </is>
       </c>
     </row>
@@ -6080,11 +6329,7 @@
 A patient (pt) had a scheduled last IMRT treatment according to the prescription (Rx). However, upon reviewing their care path, it was discovered that the pt had a brachytherapy scan and treatment already scheduled, yet the Rx had not been updated.</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:09:48.467932744Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26024644587, "load_duration": 1729624, "prompt_eval_duration": 116335000, "eval_count": 211, "eval_duration": 25906307000}</t>
-        </is>
-      </c>
+      <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6105,7 +6350,9 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:10:13.367741613Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24897544263, "load_duration": 1793295, "prompt_eval_duration": 123442000, "eval_count": 211, "eval_duration": 24772034000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a TBI patient on the STX with abnormal shifts in the upper leg area, larger than usual. The therapists identified this discrepancy, aligned the patient to her original SIM marks for imaging, and discovered that the documented shifts from the shift sheet were incorrect. The therapists suspected that the dosimetrist had calculated the shifts based on the head ISO center rather than the feet ISO center marked at SIM. Both sources convey the same information accurately and precisely.</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6375,9 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:10:38.439660979Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25069390749, "load_duration": 2098874, "prompt_eval_duration": 116650000, "eval_count": 211, "eval_duration": 24950330000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately conveys the information presented in the narrative, stating that there is a label on an image indicating a value of 180.1 degrees for an angle and that the angle itself is labeled as being 359.9 degrees. However, it could be more precise by explicitly mentioning that the angle's actual value (180.1 degrees) is different from its labeled value (359.9 degrees). Nonetheless, the summary is close enough to the original narrative to be considered similar.</t>
         </is>
       </c>
     </row>
@@ -6148,11 +6397,7 @@
           <t xml:space="preserve"> The event describes a scheduling conflict that resulted in insufficient machine time for a particular PSQA (TBI PSQA) with seven plans scheduled to begin the following afternoon. There were multiple other PSQA and Varian scheduled to use the machine immediately after treatment, causing a delay. The therapist did not communicate with dosimetry or physics, preventing them from contacting the technician in a timely manner to discuss machine usage. Varian finished using the machine after 9pm, but there was a machine fault that continued and four plans needed further analysis. Additionally, this TBI was the first case using a higher dose rate for three chest plans. The suggested resolution is for dosimetry to schedule PSQA time per patient, at least for TBI, to coordinate with therapy regarding Varian machine QA.</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:11:04.675125757Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26232408803, "load_duration": 2097601, "prompt_eval_duration": 115875000, "eval_count": 211, "eval_duration": 26114128000}</t>
-        </is>
-      </c>
+      <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6173,7 +6418,9 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:11:30.939469791Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26262091540, "load_duration": 1576154, "prompt_eval_duration": 115598000, "eval_count": 211, "eval_duration": 26144618000}</t>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the contradictory instructions regarding IV contrast, the attending's confirmation to perform the sim without IV contrast, and the patient's poor kidney function. The summary also correctly mentions the repeated requests to change the order, although it does not explicitly state that the order was not changed. Overall, the meaning of the narrative and the summary are very similar, with only minor differences in wording and phrasing."</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6443,9 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:11:57.209160248Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26267279293, "load_duration": 1622812, "prompt_eval_duration": 117615000, "eval_count": 211, "eval_duration": 26147743000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a therapist discovered an error during a chart check involving a gating patient and found that the incorrect gating sheet was attached to the file. The therapy reported this issue to the dosimetry team, who initiated the process of producing the correct gating sheet for the intended patient. This is identical to the information provided in the narrative.</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6468,9 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:12:23.135900925Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25924444702, "load_duration": 1632460, "prompt_eval_duration": 117833000, "eval_count": 211, "eval_duration": 25804646000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately conveys the main idea of the narrative, which is that a patient's order was placed with the wrong side listed. However, it specifies that the request for an order was incorrectly recorded, rather than the order itself being incorrect. This slight discrepancy in wording results in a 'Similar' grade rather than 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6493,9 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:12:49.417042716Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26278747459, "load_duration": 1500461, "prompt_eval_duration": 117401000, "eval_count": 211, "eval_duration": 26159561000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a situation where there was an issue with KV images on a TBI plan for a patient roll, and that the team contacted the dosimetrist to correct it.</t>
         </is>
       </c>
     </row>
@@ -6265,7 +6518,9 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:13:15.730209514Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26310601822, "load_duration": 1616671, "prompt_eval_duration": 107268000, "eval_count": 211, "eval_duration": 26201410000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the inconsistent naming of targets, the correct dosage received by each target, the proper setup of adaptive intent and objectives, and the ongoing investigation to determine the cause of the mislabeling. The summary also mentions that the issue went unnoticed during multiple review stages, which is consistent with the narrative. Overall, the meaning conveyed in both texts is identical.</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6542,9 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:13:42.032482485Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26299809238, "load_duration": 2178795, "prompt_eval_duration": 124284000, "eval_count": 211, "eval_duration": 26173058000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the patient missing appointments, staff attempts to contact the patient, and the physician's decision to reschedule the patient for a simulation due to missed appointments. However, the summary does not explicitly mention that a certified letter was sent or that the physician initially tried to reschedule the patient and have them seen prior to treatment. These details are important in understanding the full context of the situation, but they do not significantly change the overall meaning of the narrative. Therefore, I would rate this evaluation as 'Similar'.</t>
         </is>
       </c>
     </row>
@@ -6310,7 +6567,9 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:14:07.372040399Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25336560519, "load_duration": 1590631, "prompt_eval_duration": 124429000, "eval_count": 211, "eval_duration": 25210198000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the patient was scheduled for the ix but brought up on the stx due to a machine override request, and that the ix had to work him in despite being behind schedule. Both the narrative and the summary convey the same meaning and sequence of events, making them identical in their content and message.</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6592,9 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:14:33.662776464Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26288082151, "load_duration": 1843028, "prompt_eval_duration": 124127000, "eval_count": 211, "eval_duration": 26161825000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the misalignment of the patient during prostate bed treatment on Ethos, the small shift that caused the chest/abdomen to be in the bore instead of the pelvis, and the identification of an incorrect user origin setting as the cause for the misalignment. However, the summary does not explicitly mention that several revisions were made to the plan or that the last revision's user origin was not properly adjusted before approval for treatment. Nonetheless, these details are implied in the summary and do not significantly change the overall meaning of the narrative. Therefore, I assess the generated summary as 'Similar' to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6617,9 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:14:59.9265873Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26261264427, "load_duration": 1674400, "prompt_eval_duration": 124437000, "eval_count": 211, "eval_duration": 26134838000}</t>
+          <t xml:space="preserve">
+A: Identical
+The generated summary accurately reflects the meaning of the narrative, using nearly identical wording and structure to describe the events that took place during filming of a breast hold left breast image. The summary mentions the need for adjustments to the MV image, taking multiple KV sets, repeating the MV port image, modifying the treatment field in the auto-sequence, turning the console key and delivering 15 MUs without re-verifying the MV port image, and notifying physics. The only minor difference is the use of "production team" instead of "we" in the summary, but this does not change the meaning or accuracy of the summary.</t>
         </is>
       </c>
     </row>
@@ -6379,7 +6642,9 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:15:26.05675231Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26127788070, "load_duration": 1973085, "prompt_eval_duration": 117157000, "eval_count": 211, "eval_duration": 26008367000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary have identical meanings. Both convey that a therapist, while preparing for a new patient, noticed that a CT-Sim was completed before the physician's signature was obtained on an informed consent document. This discrepancy is accurately reflected in both the narrative and the summary.</t>
         </is>
       </c>
     </row>
@@ -6402,7 +6667,9 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:15:52.30025151Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26241262976, "load_duration": 1546478, "prompt_eval_duration": 124492000, "eval_count": 211, "eval_duration": 26114878000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the meaning of the narrative. Both convey that an electron chestwall boost could not be properly set up due to missing documentation with identifying features, specifically a scar. The summary even includes the exact requirement from the Department of Defense as stated in the narrative. Therefore, the evaluation is 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6692,9 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:16:18.550862038Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26247733871, "load_duration": 1770752, "prompt_eval_duration": 124323000, "eval_count": 211, "eval_duration": 26121335000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the approval and replanning of the brain plans, the creation and execution of the QA verification plans, and the physicist's failure to notice a difference in MU. However, the summary incorrectly states that the physics resident QA'd the initial plan on October 6, when it was actually QA'd on October 5. This discrepancy slightly changes the meaning of the summary, making it different from the narrative. Nonetheless, the overall meaning and main points of both texts are similar.</t>
         </is>
       </c>
     </row>
@@ -6448,7 +6717,9 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:16:44.672786977Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26119650544, "load_duration": 1741217, "prompt_eval_duration": 124245000, "eval_count": 211, "eval_duration": 25993322000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the patient's initial scheduling, the delay due to missing dosimetry contours, the request for a whole brain hippocampal VMAT plan followed by a single fraction whole brain 3D plan, and the failure to schedule and execute the 3D plan on July 11th. The summary also correctly mentions the patient's frustration and the eventual rescheduling for Wednesday, July 13th. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -6471,7 +6742,9 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:17:10.913783508Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26238681529, "load_duration": 1739504, "prompt_eval_duration": 129206000, "eval_count": 211, "eval_duration": 26107441000}</t>
+          <t>;
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided. Both convey that a patient had spine tracking in their Rx, no consultation was sought with the physics team about this tracking, and the responsible party had to inform the physics department who then said they would contact dosimetry for further action.</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6767,9 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:17:36.37811365Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25462086253, "load_duration": 1631098, "prompt_eval_duration": 125962000, "eval_count": 211, "eval_duration": 25334200000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical in meaning to the provided narrative. Both describe a situation where a therapist discovered an error in a patient's chart regarding gating file parameters for a scheduled IMRT treatment, resulting in the need to reschedule the patient and notify relevant staff members. Additionally, both sources mention the challenge of reading zoomed-in images of the BH scan parameters due to changes in the simulation software.</t>
         </is>
       </c>
     </row>
@@ -6517,7 +6792,9 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:18:01.911716741Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25530618181, "load_duration": 1976251, "prompt_eval_duration": 124268000, "eval_count": 211, "eval_duration": 25404088000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary state that the patient's RT prescription calls for twice daily treatments with a six-hour separation between each dose, for a total of 12 fractions. They also both mention that there should be a three-week break between cycles. The summary adds that during planning, all 12 fractions were scheduled without regard for the specified separation or cycle length, resulting in more than four fractions being administered within a two-day period. This information is also present in the narrative, but it is not as explicitly stated. Overall, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6817,9 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:18:27.371733942Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25457326927, "load_duration": 1883415, "prompt_eval_duration": 116477000, "eval_count": 211, "eval_duration": 25338666000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the task being a physics review for a breast radiation therapy treatment plan using VMAT on a TrueBeam linear accelerator, the appearance of readiness for standard procedure following completion of the check, the approval of the plan for treatment after approval, and the discovery of an uncommunicated revision plan that resulted in an unnecessary review of the original plan. The summary also correctly mentions the lack of patient same-day treatment and the involvement of breast VMAT planning. However, it does not explicitly state that dosimetry was unaware of the need to use partial arcs in the revision plan, but rather implies this through mentioning the case involved breast VMAT planning. Overall, the summary is similar to the narrative with a few minor differences in phrasing and emphasis.</t>
         </is>
       </c>
     </row>
@@ -6563,7 +6842,9 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:18:52.424726131Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25050563992, "load_duration": 1997381, "prompt_eval_duration": 117304000, "eval_count": 211, "eval_duration": 24931026000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the use of six MUs for a breast patient during radiation therapy, the patient's failure to hold her breath as instructed, and the subsequent turning off of the beam. However, the summary goes beyond the information provided in the narrative by implying that the patient continued to hold her breath after the beam was turned off. While this is a reasonable assumption based on the context, it is not explicitly stated in the narrative, making the summary somewhat different from the original text. Nonetheless, the overall meaning and message of the narrative are preserved in the summary, making it similar to the original text.</t>
         </is>
       </c>
     </row>
@@ -6586,7 +6867,9 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:19:18.671389109Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26243904947, "load_duration": 2109173, "prompt_eval_duration": 124468000, "eval_count": 211, "eval_duration": 26117030000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that there was an issue with the breath hold gating not loading in the patient's plan, physics was called to rectify the issue, and the gating boxes were found to be unchecked. The summary also mentions that after checking the gating boxes, the gating functioned correctly, allowing for timely and problem-free treatment of the patient. This matches the narrative exactly.</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6892,9 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:19:44.94250183Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26268794393, "load_duration": 1801130, "prompt_eval_duration": 123840000, "eval_count": 211, "eval_duration": 26142818000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical in meaning to the narrative. Both describe the same situation where a therapist discovers during a chart check that there was no revised yellow sheet for the leg fields and contacts the planning dosimetrist. They are informed that the original yellow sheet should be used instead, with no documentation provided regarding the legs not being revised with the new plan. The summary also correctly mentions that the therapist noticed a discrepancy between the treatment plan report in PowerChart and the prescription in ARIA for the neck dose, and that the planning dosimetrist and physics of the day were notified to make corrections and put the plan back into treatment approval status.</t>
         </is>
       </c>
     </row>
@@ -6631,7 +6916,9 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:20:11.116816683Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26172060085, "load_duration": 1586614, "prompt_eval_duration": 115416000, "eval_count": 211, "eval_duration": 26054774000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the scheduled start date for the boost plan, the notification of dosimetry, the inability to load the plan on June 3, and the need for the patient to return on June 4. However, the summary does not explicitly mention that the plan had not been printed for physics to check, which is a detail from the narrative. Nonetheless, this omission does not significantly alter the meaning of the narrative, and the overall content and sequence of events in the summary align well with those in the narrative.</t>
         </is>
       </c>
     </row>
@@ -6654,7 +6941,9 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:20:37.301637165Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26182001264, "load_duration": 1776413, "prompt_eval_duration": 124256000, "eval_count": 211, "eval_duration": 26055639000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same meaning, describing a discrepancy between expected and actual patient indexing positions during treatment and how the setup instructions were adjusted to align with the accurate couch values on the second day of treatment.</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6966,9 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:21:02.852935173Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25548856085, "load_duration": 1916949, "prompt_eval_duration": 115791000, "eval_count": 211, "eval_duration": 25430840000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative, providing a clear and concise description of the lung patient's radiation therapy prescription, the therapists' initial concerns, the confirmation by the physician, the administration of the treatment, and the subsequent change in the prescription. Both the narrative and the summary convey identical information, using similar language and structure.</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6991,9 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:21:29.201534927Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26346281445, "load_duration": 1631529, "prompt_eval_duration": 124430000, "eval_count": 211, "eval_duration": 26219893000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary have identical meanings. Both convey that eRX performed daily MV and daily kV imaging, but the MD only wanted kV daily.</t>
         </is>
       </c>
     </row>
@@ -6723,7 +7016,9 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:21:55.577407383Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26373660298, "load_duration": 1688917, "prompt_eval_duration": 123844000, "eval_count": 211, "eval_duration": 26247799000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the fact that the simulation staff were reviewing orders, discovered a contrast allergy but contrast was still ordered, no special instructions were given regarding the allergy, and Vocera was used to contact the attending and resident for more information. The summary is concise and maintains the same level of detail as the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -6744,11 +7039,7 @@
 A patient's prostate cancer treatment plan involving a bed boost was not assessed until after eight out of eleven planned radiation therapy sessions had been administered, as the 'Projected Review Date' field on the associated tab in Processmaker was left unspecified.</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:22:21.212156679Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25632030329, "load_duration": 1619035, "prompt_eval_duration": 124662000, "eval_count": 211, "eval_duration": 25505474000}</t>
-        </is>
-      </c>
+      <c r="D276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6769,7 +7060,9 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:22:47.405608742Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26190860818, "load_duration": 1955412, "prompt_eval_duration": 124715000, "eval_count": 211, "eval_duration": 26063889000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a CT simulation has been ordered with IV contrast, but the physician does not want it. Additionally, the summary mentions the need for consent before proceeding with the CT simulation without IV contrast, which aligns with the narrative's mention of obtaining consent prior to the simulation. Therefore, I assess this evaluation as 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -6792,7 +7085,9 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:23:12.839835848Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25431655569, "load_duration": 1666645, "prompt_eval_duration": 124326000, "eval_count": 211, "eval_duration": 25305411000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the type of patient and applicator used, the absence of the primary physician, the verification process, the password issue, and the time-consuming process of checking the connections. Both the narrative and the summary use similar language and structure, making them identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -6815,7 +7110,9 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:23:37.573300119Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24730694808, "load_duration": 2081881, "prompt_eval_duration": 124648000, "eval_count": 211, "eval_duration": 24603676000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. It correctly identifies that a therapist checked a treatment plan, contacted a physicist for approval, and discovered that the MD had approved the plan on Sunday night. The summary also mentions the slight delay in approving the plan and the fact that the start date was not postponed when the plan was not ready earlier in the week. Overall, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -6837,7 +7134,9 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:24:02.808754665Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25233009237, "load_duration": 1933680, "prompt_eval_duration": 124123000, "eval_count": 211, "eval_duration": 25106670000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and summary are similar in that they both describe a situation where a new patient treatment plan with the name '1.1 Cervix' and corresponding documents were prepared for therapists to check, but when the plan was accessed on the treatment console, it was identified as '1.1 Cervix:1'. However, the summary adds an additional detail that there were no new documents available online to print and no new information was relayed to the treating therapists before the patient's start time, which is not explicitly stated in the narrative. Nonetheless, the main idea of the situation is conveyed accurately in both the narrative and the summary.</t>
         </is>
       </c>
     </row>
@@ -6858,11 +7157,7 @@
 The document 'New Start' does not contain instructions for holding one's breath on a yellow sheet.</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:24:28.124612957Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25312873622, "load_duration": 2291598, "prompt_eval_duration": 124465000, "eval_count": 211, "eval_duration": 25185813000}</t>
-        </is>
-      </c>
+      <c r="D281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6883,7 +7178,9 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:24:54.140290141Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26013182371, "load_duration": 2241193, "prompt_eval_duration": 117680000, "eval_count": 211, "eval_duration": 25893020000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the type of treatment, the error that occurred during preparation, and the time the patient spent waiting for the issue to be resolved. The only discrepancy is that the narrative mentions that a message was sent to the head dosimetrist, while the summary states that the head dosimetrist resolved the issue. However, this does not significantly alter the meaning of the narrative or the summary."</t>
         </is>
       </c>
     </row>
@@ -6906,7 +7203,9 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:25:19.848214483Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25705410513, "load_duration": 1879157, "prompt_eval_duration": 115375000, "eval_count": 211, "eval_duration": 25587856000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both the narrative and the summary state that the patient's eRX indicated a 0.3 cm bolus with no frequency, but a yellow sheet started with a 0.5 cm bolus with no frequency. The doctor confirmed the 0.3 cm bolus size with daily frequency and added a patient alert. Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -6929,7 +7228,9 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:25:44.669070097Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24818562042, "load_duration": 1915125, "prompt_eval_duration": 124789000, "eval_count": 211, "eval_duration": 24691581000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the use of an incorrect electron cut out for the second hand treatment, the failure to notice the mistake until after the treatment was completed, and the reporting of the incident to the POD. The summary also correctly conveys the extent of the discrepancy between the two cut outs (approximately half a centimeter). Overall, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -6952,7 +7253,9 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:26:10.850159143Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26178767170, "load_duration": 1485271, "prompt_eval_duration": 122873000, "eval_count": 211, "eval_duration": 26054114000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the confusion around the new start date, the misassignment of the patient to STx instead of Ethos, the communication breakdown that resulted in therapy not being informed about the change, and the impact on the schedule and subsequent patients. Both the narrative and the summary use similar language and structure to convey the sequence of events and the resulting challenges faced by the therapists. Therefore, I assess this evaluation as 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -6975,7 +7278,9 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:26:36.099569316Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25246699601, "load_duration": 1802031, "prompt_eval_duration": 121092000, "eval_count": 211, "eval_duration": 25123516000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the meaning of the narrative. Both describe a patient who underwent a feet first left side treatment on EX with inadequate films and incorrect radiation dose, posing a risk to the patient and/or table if therapists are unfamiliar with the setup. The summary also suggests that inputting all possible setup fields for each patient would be beneficial, which is consistent with the narrative's recommendation. Overall, the summary captures the key points of the narrative and conveys them clearly, making it identical to the original text in meaning.</t>
         </is>
       </c>
     </row>
@@ -6998,7 +7303,9 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:27:01.400447445Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25297971468, "load_duration": 1931507, "prompt_eval_duration": 120294000, "eval_count": 211, "eval_duration": 25175495000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the inconsistent labeling of target volumes, the intended use of only PTV\_High for plan creation/optimization/evaluation, and the confusion regarding which target volume should be specified on eRx. However, the summary incorrectly states that "PTV1\_High" was selected as the incorrect target volume, when in fact it was "PTV1\_High, which was not found in Ethos but present in plan in Eclipse". This discrepancy between the narrative and the summary results in a similarity grade rather than an identical grade.</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7328,9 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:27:27.398889289Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25995882348, "load_duration": 2284865, "prompt_eval_duration": 115831000, "eval_count": 211, "eval_duration": 25877396000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, stating that the radiation oncologist intended to treat the patient with a total dose of 4500 cGy using the BID technique, but an incorrect prescription was entered and approved. The summary also correctly states that the patient received 600 cGy on the first day instead of the originally intended 300 cGy, and that the error was discovered during a New Patient Conference on the following day before further treatment was delivered.</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7352,9 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:27:53.380528356Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25978860427, "load_duration": 1898294, "prompt_eval_duration": 116730000, "eval_count": 211, "eval_duration": 25859975000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the medical procedure being performed on the patient's cervical and lumbar spine areas, the use of various equipment such as a custom mold, mask, brainboard, isocenter, and knee fix wedge in the lower leg cradle, and the fact that the lower leg cradle could not be located during the procedure. However, the summary incorrectly states that the attending physician was informed "the following day" when in fact, the narrative states that the attending physician was informed "at time of treated." Therefore, while the overall meaning of the narrative and the generated summary are similar, there is a minor discrepancy in the timeline.</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7377,9 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:28:18.656450169Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25273536267, "load_duration": 2070469, "prompt_eval_duration": 124638000, "eval_count": 211, "eval_duration": 25146582000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the completion of the care path and sending of an email for review/scheduling on October 15th, the patient not being scheduled despite this, the individual's observation of this on October 21st, and their subsequent contact with scheduling (Karen) who had not received the necessary approval email. The summary is concise and matches the narrative closely in terms of content and sequence of events.</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7402,9 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:28:44.982153565Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26323116609, "load_duration": 1640044, "prompt_eval_duration": 125639000, "eval_count": 211, "eval_duration": 26195537000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the type of treatment (SBRT), the number of sites involved, the timing of the physics review and imaging consultation, and the dates of plan approval and peer review. Additionally, it correctly notes that there is no clear reason for the delay between plan approval and preparation for treatment. The summary is concise and to the point, making it identical in meaning to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -7110,11 +7425,7 @@
 The patient has undergone prostate radiation therapy (RT) before, with the last treatment taking place in 2011 according to the records of eRx. There is no mention of any previous RT reported prior to this instance.</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:29:10.62902521Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25644562385, "load_duration": 2052486, "prompt_eval_duration": 117194000, "eval_count": 211, "eval_duration": 25525036000}</t>
-        </is>
-      </c>
+      <c r="D292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7134,7 +7445,9 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:29:36.933840523Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26302521941, "load_duration": 2077063, "prompt_eval_duration": 123921000, "eval_count": 211, "eval_duration": 26176226000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the missing needle, the accidentally removed needle, and the cancellation of one fraction of the treatment plan. However, it does not explicitly mention that the 7th needle was the one that was accidentally removed or that it could not be locked onto the template due to its different size. Nonetheless, these details do not significantly impact the overall meaning of the summary, which is why I have graded it as 'Similar' rather than 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -7155,11 +7468,7 @@
 A segmentation of Bowel by an autonomous software (autoseg) was not accurate, leading to a treatment plan with an unusually high dose for a specific area of the bowel that was not included in the DVH/X-Check.</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:30:03.271023559Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26334671449, "load_duration": 1700750, "prompt_eval_duration": 127452000, "eval_count": 211, "eval_duration": 26205180000}</t>
-        </is>
-      </c>
+      <c r="D294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7180,7 +7489,9 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:30:29.098389121Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25825140669, "load_duration": 1801321, "prompt_eval_duration": 123954000, "eval_count": 211, "eval_duration": 25699068000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the medical team set up the clinical arrangement to treat the right (Rt) and left (Lt) hands using an IX Gantry with different angles, but during the treatment process, Aria reported that the Gantry was set at 200 degrees for both hands. The summary also mentions that despite this discrepancy, the treatment was administered correctly on the patient as it was a clinical setup and the physician approved the 200-degree setup for both hands before the delivery of the treatment during the first fraction. This error was corrected for the second and final fraction. The summary accurately captures the main points of the narrative and provides an identical meaning.</t>
         </is>
       </c>
     </row>
@@ -7201,11 +7512,7 @@
 An HDR patient was not accused of any offenses and did not undergo an inpatient treatment. No specific charges were filed against this individual, and no account numbers or particular courses of action were mentioned in relation to their case.</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:30:54.076418987Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24975418962, "load_duration": 2308461, "prompt_eval_duration": 124701000, "eval_count": 211, "eval_duration": 24848132000}</t>
-        </is>
-      </c>
+      <c r="D296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7226,7 +7533,9 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:31:19.584802583Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25505714001, "load_duration": 2153848, "prompt_eval_duration": 117382000, "eval_count": 211, "eval_duration": 25385827000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the type of treatment, the date of the last fraction, the detection of an offset between CBCT and planning CT images, the significant shift in lateral and longitudinal directions on the day of fraction five, the use of SGRT logs to confirm the unintended shift, the hypothesis of accidental movement during image registration review, the need for dose reconstruction in the TPS, and the reportability of the incident to the state with notification of radiation safety. The summary is concise and clear, conveying the same information as the narrative while leaving out unnecessary details. Therefore, I would grade the evaluation as 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7558,9 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:31:44.700583471Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25112996415, "load_duration": 2094305, "prompt_eval_duration": 122053000, "eval_count": 211, "eval_duration": 24988567000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by mentioning the same details about the first gated lung patient receiving proton therapy with a medical doctor and physicist present, the issue with the gating window setting, the discovered discrepancy during the procedure, and the belief that it did not cause harm to the patient. Both the narrative and summary use similar language and structure, making them identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -7272,7 +7583,9 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:32:09.743040633Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25040091794, "load_duration": 2135363, "prompt_eval_duration": 117113000, "eval_count": 211, "eval_duration": 24920605000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the incorrect CTV setting, the warnings that were issued, and the physicist's actions to fix the issue. However, the summary uses the term "setting" instead of "type," which may suggest a slightly different meaning than the original narrative. Nonetheless, the overall meaning is similar."</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7608,9 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:32:34.676724213Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24931145323, "load_duration": 1501723, "prompt_eval_duration": 117644000, "eval_count": 211, "eval_duration": 24811707000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the original prescription for twice-daily treatments, the therapist's notification of the attending physician, and the modification of the prescription to once daily with non-consecutive days. However, the summary incorrectly states that the chart check was a routine one, when in fact it is not specified as such in the narrative. Therefore, while the overall meaning of the two texts is similar, there are some minor differences in the details presented.</t>
         </is>
       </c>
     </row>
@@ -7318,7 +7633,9 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:33:00.683764464Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26004680854, "load_duration": 2014004, "prompt_eval_duration": 124239000, "eval_count": 211, "eval_duration": 25878124000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical in meaning to the narrative. Both convey the same information about the beam clearance issue, beam geometry, and couch kick that affected the treatment plan.</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7658,9 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:33:26.903538764Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26217470328, "load_duration": 1658871, "prompt_eval_duration": 124292000, "eval_count": 211, "eval_duration": 26091218000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the need to reschedule a patient for a boost procedure, the discovery that the original simulation order required a full bladder, and the communication with dosimetry about the issue. The summary also correctly mentions that all of the doctor's female pelvis patients should have a full bladder and that this information was not previously communicated to the therapists. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -7364,7 +7683,9 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:33:51.661645206Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24755788253, "load_duration": 1847348, "prompt_eval_duration": 124595000, "eval_count": 211, "eval_duration": 24629079000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the patient underwent a scan due to significant weight loss causing their facemask to become loose and returned to the department on Monday, but the approval of the new scans had not been granted yet. Both the narrative and the summary convey the same information and are identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -7387,7 +7708,9 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:34:17.902528296Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26238615277, "load_duration": 1949652, "prompt_eval_duration": 124703000, "eval_count": 211, "eval_duration": 26111657000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the type of simulation, the issue discovered during dosimetry analysis, and the actions taken to correct it. Both the narrative and the summary describe the same sequence of events and provide the same details about what happened.</t>
         </is>
       </c>
     </row>
@@ -7410,7 +7733,9 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:34:42.77423782Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24869168482, "load_duration": 1810648, "prompt_eval_duration": 117308000, "eval_count": 211, "eval_duration": 24749791000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the unexpected plan revision, the lack of communication about it, and the resulting delay for therapists. The only minor difference is that the narrative specifies that the patient was starting a boost, while the summary simply refers to a modification in the treatment plan. This does not significantly alter the meaning or overall message of the narrative.</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7758,9 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:35:07.922087218Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25145243894, "load_duration": 1945533, "prompt_eval_duration": 123847000, "eval_count": 211, "eval_duration": 25019145000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a situation where a simulation note did not specify whether there were non-cardiac medical devices present, with the 'Device' section labeled as 'other'. Additionally, both sources suggest that the document should be modified to require selections for both cardiac and non-cardiac devices.</t>
         </is>
       </c>
     </row>
@@ -7455,7 +7782,9 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:35:33.459345029Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25534962615, "load_duration": 2185197, "prompt_eval_duration": 111695000, "eval_count": 211, "eval_duration": 25420790000}</t>
+          <t xml:space="preserve"> 
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both the narrative and the summary mention the delay in starting the patient's radiation therapy due to clearance issues with the plan, the need to bring the patient back the next day with a new plan, the delay in preparing the new plan, and the resolution of the problem before the patient arrived for treatment. The summary uses slightly different wording than the narrative, but it conveys the same meaning and can be considered identical in terms of its overall message.</t>
         </is>
       </c>
     </row>
@@ -7476,11 +7805,7 @@
 A patient underwent a primary treatment involving breath holds. During the administration of the boost dose, the breath hold instructions were accidentally omitted from the prescription. This oversight was identified when the dosimetrist included breath hold in the yellow sheet documentation.</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:35:59.192936375Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25731207212, "load_duration": 1586554, "prompt_eval_duration": 102141000, "eval_count": 211, "eval_duration": 25627208000}</t>
-        </is>
-      </c>
+      <c r="D308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7501,7 +7826,9 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:36:24.045720286Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24850419944, "load_duration": 1902882, "prompt_eval_duration": 120768000, "eval_count": 211, "eval_duration": 24727512000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary state that a Proton Simulation order was issued for the pelvic area of a patient undergoing prostate treatment, but the order did not specify whether the patient should have a full bladder or an empty rectum during the simulation process. Additionally, both the narrative and the summary indicate that the patient was unaware of this requirement. Therefore, the evaluation is 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -7524,7 +7851,9 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:36:49.287794415Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25239745741, "load_duration": 2067545, "prompt_eval_duration": 117493000, "eval_count": 211, "eval_duration": 25119862000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that the original consent form did not list the treatment site, and that the patient and physician signed a revised version of the form with the treatment site included.</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7876,9 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:37:15.088699759Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25798626599, "load_duration": 2184957, "prompt_eval_duration": 124791000, "eval_count": 211, "eval_duration": 25671295000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the unintended encounter with the bedpan, its hollow structure causing an air gap, the absence of detection during planning and treatment, the physics inspection result, the sizable target, and the potential future concern with couch models. The summary uses slightly different wording but conveys the same meaning as the narrative.</t>
         </is>
       </c>
     </row>
@@ -7568,11 +7899,7 @@
 A three-centimeter adjustment was required in the third row of a yellow pages listing, but the shift's direction was not indicated.</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:37:41.450747146Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26359441974, "load_duration": 1470554, "prompt_eval_duration": 125030000, "eval_count": 211, "eval_duration": 26232626000}</t>
-        </is>
-      </c>
+      <c r="D312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7591,11 +7918,7 @@
 An absence of records exists concerning the method used to choose phases during the implementation of ProcessMaker.</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:38:07.223033803Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25769943240, "load_duration": 2214773, "prompt_eval_duration": 123636000, "eval_count": 211, "eval_duration": 25643789000}</t>
-        </is>
-      </c>
+      <c r="D313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7616,7 +7939,9 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:38:32.399433677Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25173457366, "load_duration": 1897808, "prompt_eval_duration": 124452000, "eval_count": 211, "eval_duration": 25046847000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the discrepancy between the device's indexing mark and the documented location, as well as the 14cm longitudinal shift that required the patient to be moved. However, the summary does not explicitly mention that the acquired couch values and marks on the patient indicated that the device was actually indexed at F4 on the first day of treatment, which is a key detail in the narrative. Nonetheless, the summary is still similar in meaning to the narrative as it conveys the same overall message.</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7964,9 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:38:57.313615129Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24911946135, "load_duration": 2027904, "prompt_eval_duration": 115069000, "eval_count": 211, "eval_duration": 24794567000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the multiple masks used during treatment, the dates of the simulated and actual treatments, and the error in scanning the revision plan in the wrong mask. However, the summary incorrectly states that the patient began treatment on January 31, 2022, when the narrative clearly states that the patient started treatment in mask #2 on February 1, 2022. This discrepancy slightly changes the meaning of the narrative and therefore warrants a grade of 'Similar' instead of 'Identical'."</t>
         </is>
       </c>
     </row>
@@ -7660,11 +7987,7 @@
 A plan to boost a patient's treatment was not given approval. The implementation of the treatment was postponed until the plan could be authorized.</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:39:23.674158888Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26358054239, "load_duration": 1903518, "prompt_eval_duration": 124452000, "eval_count": 211, "eval_duration": 26231398000}</t>
-        </is>
-      </c>
+      <c r="D316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7685,7 +8008,9 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:39:49.547585941Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25871057632, "load_duration": 2099380, "prompt_eval_duration": 117627000, "eval_count": 211, "eval_duration": 25751001000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately conveys the main idea of the narrative, which is that an expected component (the CSI Align structure) was not found in the given dataset. While the wording differs slightly between the two texts, their meanings are essentially identical.</t>
         </is>
       </c>
     </row>
@@ -7708,7 +8033,9 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:40:15.866191379Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26316355363, "load_duration": 1725180, "prompt_eval_duration": 110670000, "eval_count": 211, "eval_duration": 26203650000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the priority given to the patient's case, the improper contouring of OARs (specifically the liver and bowel), the delay in planning start due to the need for corrections, and the suggestion for attending physicians or residents to perform a quality check before sending cases to dosimetry. The summary uses slightly different wording but conveys the same meaning as the narrative, making it identical in terms of content and message.</t>
         </is>
       </c>
     </row>
@@ -7731,7 +8058,9 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:40:41.96040152Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26091889352, "load_duration": 1891856, "prompt_eval_duration": 122344000, "eval_count": 211, "eval_duration": 25967363000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that a medical physics resident discovered an issue with a patient's ICD consultation not being added to the taskpad for a new plan at a different site, and that the dosimetrist and physicist involved were informed before the patient was treated with the new plan. The summary uses slightly different wording than the narrative, but the meaning is essentially the same."</t>
         </is>
       </c>
     </row>
@@ -7754,7 +8083,9 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:41:07.124392909Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25161211080, "load_duration": 1594222, "prompt_eval_duration": 117194000, "eval_count": 211, "eval_duration": 25042140000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that the patient was missing from the whiteboard and this led to a delay in receiving a CT scan. The summary also correctly states that the physician/resident discovered the issue a week later and contacted simulation to add the patient to the whiteboard. However, the summary does not explicitly mention that the physician/resident noticed the patient's absence when they checked the whiteboard, which is stated in the narrative. Overall, the meaning of the two texts is similar, but the summary leaves out a small detail from the narrative."</t>
         </is>
       </c>
     </row>
@@ -7775,11 +8106,7 @@
 The term 'PSQA' and its absence from a task list for a Software Requirements Specification (SRS) project related to multimetrics is noteworthy, but no further information about the nature or significance of this absence is provided in the narrative.</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:41:33.43289534Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26305977215, "load_duration": 2136269, "prompt_eval_duration": 130014000, "eval_count": 211, "eval_duration": 26173497000}</t>
-        </is>
-      </c>
+      <c r="D321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7800,7 +8127,9 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:41:59.341698462Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25906343391, "load_duration": 2305791, "prompt_eval_duration": 116550000, "eval_count": 211, "eval_duration": 25787210000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the timeline of events, the communication between Dosi and the physician, the issue with the machine schedule, and the recommendation for future situations. The language used in the summary is very similar to that in the narrative, making it clear that the meaning has been preserved.</t>
         </is>
       </c>
     </row>
@@ -7823,7 +8152,9 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:42:25.610022179Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26266012897, "load_duration": 1762380, "prompt_eval_duration": 117540000, "eval_count": 211, "eval_duration": 26146476000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the scheduled start date for the patient's therapy, the change in machine type, the failure to inform therapists about the change, and the need to contact the patient to arrange a new start time. The summary is written in a clear and concise manner that matches the tone of the original narrative. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -7846,7 +8177,9 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:42:51.915169178Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26302713466, "load_duration": 1807786, "prompt_eval_duration": 124247000, "eval_count": 211, "eval_duration": 26176377000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the information provided in the narrative. Both the narrative and the summary state that there are two imaging directives, one before each radiation therapy session (Pre Tx) and another after every five sessions (Pre tx after every 5 fractions), but when the therapy team asked for clarification, they were informed that only an MV image is required on a weekly basis. Therefore, the summary accurately captures the meaning of the narrative and can be considered identical.</t>
         </is>
       </c>
     </row>
@@ -7869,7 +8202,9 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:43:18.249308948Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26331834070, "load_duration": 1948442, "prompt_eval_duration": 123885000, "eval_count": 211, "eval_duration": 26205699000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same meaning. Both describe an incident where an incorrect breath hold file was used during a patient's treatment session. The files in question were both saved in RPM format, with the boost file being mistakenly used instead of the initial plan file.</t>
         </is>
       </c>
     </row>
@@ -7892,7 +8227,9 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:43:43.099152188Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24847522282, "load_duration": 2136309, "prompt_eval_duration": 124779000, "eval_count": 211, "eval_duration": 24720341000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a physician's observation of misaligned IGRT on his high c-spine, the patient's previous radiation therapy using photons with a photon mask, re-simulation after one week while still receiving treatment with a proton mask, resumption of photon therapy based on the proton mask plan that day, and the therapists' belief that they used the initial photon mask for treatment at HSROC. The summary accurately captures the details provided in the narrative.</t>
         </is>
       </c>
     </row>
@@ -7915,7 +8252,9 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:44:08.652700897Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25550391606, "load_duration": 2014067, "prompt_eval_duration": 102790000, "eval_count": 211, "eval_duration": 25445299000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the lack of specified lab work and the discrepancy between the approved and actual treatment schedules. However, it does not explicitly mention that the patient only needs to be treated three times a week, instead stating that the eRX did not specify a frequency of three times per week. This difference in wording may lead to some confusion, but overall, the summary effectively conveys the meaning of the narrative.</t>
         </is>
       </c>
     </row>
@@ -7938,7 +8277,9 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:44:34.558480499Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25903532003, "load_duration": 1819889, "prompt_eval_duration": 120369000, "eval_count": 211, "eval_duration": 25781051000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the new start questionnaire instructed scheduling a patient for tuberculosis testing at AR, but when accessing the tuberculosis plan, it required a machine override. Additionally, the summary correctly mentions that the patient was actually meant to be scheduled on the ninth of the month (IX), and their schedule was adjusted accordingly. The summary captures all the essential details from the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -7961,7 +8302,9 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:45:00.815468147Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26254622736, "load_duration": 1721572, "prompt_eval_duration": 124415000, "eval_count": 211, "eval_duration": 26128185000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both the narrative and the summary mention that the plan revision was not ready for a 6:30 am treatment, and that a dosimetrist and a chart checking physicist had to be awakened in order to produce the necessary documents for approving the treatment. The use of slightly different wording does not change the meaning or the overall message of the summary. Therefore, I would rate this summary as identical to the narrative.</t>
         </is>
       </c>
     </row>
@@ -7984,7 +8327,9 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:45:26.037080757Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25219178198, "load_duration": 1574244, "prompt_eval_duration": 128991000, "eval_count": 211, "eval_duration": 25088346000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a medical team initiating chest wall and scapular treatment with an electronic prescription that did not include a bolus dose. In both, the team asked the managing physician about the necessity of administering a bolus since it was required for five doses.</t>
         </is>
       </c>
     </row>
@@ -8007,7 +8352,8 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:45:51.464018344Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25424615486, "load_duration": 1709098, "prompt_eval_duration": 123459000, "eval_count": 211, "eval_duration": 25299191000}</t>
+          <t xml:space="preserve">
+"Similar: The narrative and summary convey similar information, describing a 5 fraction SBRT treatment plan on the EDGE that was approved but lacked necessary care paths for physics plan check and PSQA. Both state that therapy notified physics about the upcoming treatment the day before. However, the summary uses slightly different wording and includes additional details about the nature of the reviews, making it more explicit than the narrative."</t>
         </is>
       </c>
     </row>
@@ -8030,7 +8376,9 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:46:17.731262761Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26264775239, "load_duration": 1878830, "prompt_eval_duration": 121028000, "eval_count": 211, "eval_duration": 26141552000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning, which is that the plan for a treatment lacked information about bladder volume prior to the initial session. Both state that this detail was not present in the plan supplement or treatment plan before the first treatment.</t>
         </is>
       </c>
     </row>
@@ -8053,7 +8401,9 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:46:42.538364209Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24804830404, "load_duration": 1559575, "prompt_eval_duration": 124120000, "eval_count": 211, "eval_duration": 24678888000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. It correctly identifies that the patient was undergoing a brain boost treatment and that there were two issues during planning: first, the PTV High volume was inappropriately sourced from a previous pelvis plan, causing a dose limit error; and second, the fields for the plan were incorrectly labeled. The summary is concise and matches the narrative closely, making it an identical match.</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8426,9 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:47:07.394468514Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24853552981, "load_duration": 2072618, "prompt_eval_duration": 124326000, "eval_count": 211, "eval_duration": 24726886000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the information provided in the narrative. Both the narrative and the summary mention the I/O status being outpatient, the course not being selected, R0000 being chosen, this not being the final fraction, and the account number being unfilled. Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8451,9 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:47:33.727797211Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26330694457, "load_duration": 2092585, "prompt_eval_duration": 116723000, "eval_count": 211, "eval_duration": 26211573000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided. Both the narrative and the summary state that a patient was transferred from proton to HSROC for a boost treatment, that there were both a proton and photon CT scan in the patient's medical record, that it was unclear which scan was used for the boost, that the therapist contacted dosimetry and was told that the proton scan and setup were used, and that the shift instructions were vague, specifying to adjust from the CT iso rather than the proton setup marks. Therefore, the meaning of the narrative and the summary match identically.</t>
         </is>
       </c>
     </row>
@@ -8122,7 +8476,9 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:47:58.529149926Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24798774430, "load_duration": 1909608, "prompt_eval_duration": 123564000, "eval_count": 211, "eval_duration": 24673051000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a QACT scan was performed by Dosi, transmitted to a physician without the appropriate override for the couch core and couch shell, resulting in a significant dose discrepancy from the treatment approved plan. Additionally, the summary mentions that the physician arranged for another QACT to confirm the accuracy of the initial findings, which is also stated in the narrative. Therefore, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8501,9 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:48:24.042637316Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25510827440, "load_duration": 2027672, "prompt_eval_duration": 116068000, "eval_count": 211, "eval_duration": 25392476000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the request for a pregnancy test despite the doctor's message, the reason for the request (department policy), and the simulation therapist's lack of awareness of the previous message. However, the summary uses the phrase "add on patient" while the narrative does not, which introduces a slight discrepancy between the two."</t>
         </is>
       </c>
     </row>
@@ -8166,11 +8524,7 @@
 A prescription for a patient calls for six doses of ethos with 6FFF. A check revealed an issue, as identified by a physician, but no action was taken to rectify it. The therapist communicated with the medical doctor to modify the prescription.</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:48:50.343798954Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26298438508, "load_duration": 1821942, "prompt_eval_duration": 121033000, "eval_count": 211, "eval_duration": 26175281000}</t>
-        </is>
-      </c>
+      <c r="D338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -8191,7 +8545,9 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:49:16.65446432Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26308358866, "load_duration": 1454355, "prompt_eval_duration": 124334000, "eval_count": 211, "eval_duration": 26182286000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information, describing a Superflab bolus used for scalp treatment that was found dangling in the treatment room after therapy, with uncertainty about when it came off and notification to Dr. Sullivan.</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8570,9 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:49:42.97823214Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26321386077, "load_duration": 1608116, "prompt_eval_duration": 124887000, "eval_count": 211, "eval_duration": 26194537000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both the narrative and the summary state that a physician made revisions to a patient's treatment plan on the same day that they were instructed to administer the medication in double doses (BID), that the team was not informed about the plan revision, and that an hour of troubleshooting revealed the need for a new quality assurance (QA) process due to the revised plan. The summary is concise but still conveys all the essential details from the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -8236,7 +8594,9 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:50:09.314072127Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26333237256, "load_duration": 1900941, "prompt_eval_duration": 124826000, "eval_count": 211, "eval_duration": 26206194000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the information provided in the narrative. Both the narrative and the summary state that the patient's boost plan had to be delayed due to the absence of a care path and the lack of plan checks and quality assurance, and both documents provide the dates when the plan was approved (March 12, 2021) and when it was scheduled to begin (March 16, 2021). Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -8258,7 +8618,9 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:50:34.283142913Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24966828668, "load_duration": 1746338, "prompt_eval_duration": 124456000, "eval_count": 211, "eval_duration": 24840337000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the mislabeled arcs and the issue with dosimetry not specifying which gating file to use. The summary also correctly states that the 'CW BH' file was from the previous year and would have resulted in deleting the correct file if not noticed, and that after consulting physics, it was confirmed that the 'proton' file was the correct one to use. Therefore, the summary is identical to the narrative.</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8643,9 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:50:59.141609233Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24856105006, "load_duration": 1828614, "prompt_eval_duration": 117057000, "eval_count": 211, "eval_duration": 24737005000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly identifies that the dosimetrist failed to contour the loop recorder, resulting in an unintended dose of 44 Gy. The summary also notes that the issue was discovered and addressed before the scheduled treatment start time, and that there are separate concerns regarding the Ethos-Eclipse workflow. Overall, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -8304,7 +8668,9 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:51:25.411403991Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26267262341, "load_duration": 1787356, "prompt_eval_duration": 116642000, "eval_count": 211, "eval_duration": 26148515000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that the prescription did not indicate the treatment was gated, but other documentation suggested it was. The POD was contacted, who confirmed the treatment should be gated and advised paging the MD to enter a patient alert stating this.</t>
         </is>
       </c>
     </row>
@@ -8327,7 +8693,9 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:51:51.55512595Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26141271346, "load_duration": 2076173, "prompt_eval_duration": 123373000, "eval_count": 211, "eval_duration": 26015533000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both describe a physics consultant's recommendation to switch from trigger imaging every 10 degrees to continuous mode for beam imaging.</t>
         </is>
       </c>
     </row>
@@ -8350,7 +8718,9 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:52:17.570231785Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26012737499, "load_duration": 1958711, "prompt_eval_duration": 122839000, "eval_count": 211, "eval_duration": 25887637000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the meaning of the narrative, including the details about the patient's two isocenters, the planned rotation of the gantry for the PA field, and the potential collision risk due to the need to move the table laterally. The summary also correctly notes that it would have been more efficient if the plan was made with the PA field at a different angle. Overall, the summary is identical in meaning to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -8373,7 +8743,9 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:52:43.18997973Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25617098686, "load_duration": 2332748, "prompt_eval_duration": 116298000, "eval_count": 211, "eval_duration": 25498197000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both state that a prescription was meant to be administered twice a week, but was missed once and discovered on October 28th during a refill check by a medical doctor. Additionally, both indicate that therapists were informed and made arrangements for the resumption of the twice-weekly dosage. Therefore, the meaning of the narrative and summary are identical.</t>
         </is>
       </c>
     </row>
@@ -8396,7 +8768,9 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:53:08.089051753Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24896379774, "load_duration": 1784641, "prompt_eval_duration": 124914000, "eval_count": 211, "eval_duration": 24769412000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, using slightly different wording but conveying the same meaning. Both the narrative and the summary mention that a portion of the CTV was not included in the external contour and therefore excluded from the dose calculation, resulting in minimal radiation exposure to that area. They also both state that the plan was duplicated and assessed by a physicist and a physician, who agreed that the deviation in dosage was not clinically significant. Therefore, the summary can be considered identical in meaning to the narrative.</t>
         </is>
       </c>
     </row>
@@ -8419,7 +8793,9 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:53:33.159520954Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25067576026, "load_duration": 2193538, "prompt_eval_duration": 102240000, "eval_count": 211, "eval_duration": 24962879000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The meaning of both the narrative and the generated summary are similar as they both convey that there was a mismatch between the treatment field names and the actual/accurate gantry angles.</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8818,9 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:53:59.481741269Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26319398067, "load_duration": 1932503, "prompt_eval_duration": 123684000, "eval_count": 211, "eval_duration": 26193455000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative. Both the narrative and the summary mention that a patient was in a simulation using non-proton specific devices, and that these devices were not near the treatment site but could affect it. However, the summary uses the term "alter the angle or orientation" instead of "change the pitch," which is a slightly different phrasing than the original narrative. Nonetheless, the overall meaning is preserved, so the evaluation is 'Similar'.</t>
         </is>
       </c>
     </row>
@@ -8465,7 +8843,9 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:54:24.166079209Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24681637862, "load_duration": 2100081, "prompt_eval_duration": 108937000, "eval_count": 211, "eval_duration": 24570346000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the length of the dosimetrist's absence, their failure to check Vocera messages, the content and timing of the two messages, and the potential impact on sim staff and patient care. The language used in the summary is clear and concise, and it effectively conveys the same meaning as the narrative. Therefore, I would rate this evaluation as 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -8488,7 +8868,9 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:54:50.369660828Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26200954530, "load_duration": 2168410, "prompt_eval_duration": 124221000, "eval_count": 211, "eval_duration": 26074273000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the fact that both CTV high and CTV mid were drawn outside of the body and that there was no directive given for skin dose needs. However, the summary goes a step further by stating that it is "undetermined" which range shifter should be used, while the narrative simply states that this cannot be determined due to the lack of instruction regarding skin doses. Nonetheless, the overall meaning and message of the narrative are preserved in the summary, making it a similar assessment.</t>
         </is>
       </c>
     </row>
@@ -8509,11 +8891,7 @@
 The patient failed to prepare a boost plan prior to the scheduled treatment commencement. The software, ProcessMaker, erroneously displayed 'treatment in progress' instead of 'Boost Plan needed'. A reminder about the upcoming boost was issued by Therapy several days earlier.</t>
         </is>
       </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:55:16.725762066Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26353567957, "load_duration": 1885564, "prompt_eval_duration": 124337000, "eval_count": 211, "eval_duration": 26226986000}</t>
-        </is>
-      </c>
+      <c r="D353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8534,7 +8912,9 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:55:42.92639553Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26198010734, "load_duration": 2293447, "prompt_eval_duration": 122684000, "eval_count": 211, "eval_duration": 26072736000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the dosimetrist identified an issue with a revision of a radiation therapy plan where the KV DRRs from a recent CT scan were incorrectly labeled with the original plan date, and that the dosimetrist intended to make a correction. This matches the information provided in the narrative.</t>
         </is>
       </c>
     </row>
@@ -8555,11 +8935,7 @@
 A prescription called for CBCT (Cone Beam Computed Tomography) to be aligned to the prostate-rectum interface. However, the patient did not possess a prostate.</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:56:08.310487464Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25381726971, "load_duration": 1580225, "prompt_eval_duration": 124940000, "eval_count": 211, "eval_duration": 25254951000}</t>
-        </is>
-      </c>
+      <c r="D355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8578,11 +8954,7 @@
 The fields have been identified and appropriately named.</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:56:34.51701446Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26204147848, "load_duration": 1895202, "prompt_eval_duration": 115066000, "eval_count": 211, "eval_duration": 26086894000}</t>
-        </is>
-      </c>
+      <c r="D356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -8601,11 +8973,7 @@
 A revision plan for a treatment was not given approval on the day it was scheduled to begin.</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:56:59.904136868Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25384763777, "load_duration": 1863060, "prompt_eval_duration": 123843000, "eval_count": 211, "eval_duration": 25258782000}</t>
-        </is>
-      </c>
+      <c r="D357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -8626,7 +8994,9 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:57:26.068741749Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26161810455, "load_duration": 2209808, "prompt_eval_duration": 115937000, "eval_count": 211, "eval_duration": 26043338000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. Both the narrative and the summary mention that the patient had a QA CT scan for proton therapy, that the proton dose calculation is calibrated for 120 kVp CT scans, that the patient received a 100 kVp CT scan instead, that the discrepancy was identified by the dosimetrist before the dose calculation, and that the patient was scheduled for a second CT scan the following day. The summary uses slightly different wording than the narrative, but it conveys the same information. Therefore, the evaluation is 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -8648,7 +9018,9 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:57:52.303731624Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26232670441, "load_duration": 1776928, "prompt_eval_duration": 124402000, "eval_count": 211, "eval_duration": 26106159000}</t>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The generated summary is identical in meaning to the narrative. Both convey that a patient simulation procedure was completed on Tuesday, with the patient scheduled for treatment on Wednesday. A prescription was created and approved by both the physician and physicist on Wednesday before the therapists treated the patient approximately one hour after the scheduled appointment time. Due to this delay, the therapists had to make quick schedule changes and disrupt other patients' schedules.</t>
         </is>
       </c>
     </row>
@@ -8671,7 +9043,9 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:58:17.851440951Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25545413567, "load_duration": 1721943, "prompt_eval_duration": 124561000, "eval_count": 211, "eval_duration": 25418873000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the loss of a lateral iso mark, the use of a port film and KV orthos, the adjustment of the imager, and the notification of relevant personnel. Additionally, the summary correctly mentions the request for daily KV images due to the patient's consistent mark loss. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -8694,7 +9068,9 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:58:43.155036072Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25301351059, "load_duration": 1791014, "prompt_eval_duration": 124370000, "eval_count": 211, "eval_duration": 25174939000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a situation where a weekly chart check for fraction 18 was not performed, leading to it being flagged as overdue and noncompliant at fraction 23. Additionally, the same physicist who is responsible for the weekly chart checks did not raise this issue during their previous reports conducted within the preceding two days. The concerned physicist was informed about the incident to investigate the AURA reporting tool used for weekly chart checks.</t>
         </is>
       </c>
     </row>
@@ -8717,7 +9093,9 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:59:08.013191927Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24855780183, "load_duration": 1942741, "prompt_eval_duration": 123609000, "eval_count": 211, "eval_duration": 24729970000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the confusion surrounding the re-CT and the eventual confirmation and completion of the procedure. However, it does not explicitly state that the initial thought was that the re-CT was a mistake, which is why I have marked it as 'Similar' rather than 'Identical'."</t>
         </is>
       </c>
     </row>
@@ -8739,7 +9117,9 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:59:32.870101907Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24853957205, "load_duration": 2039605, "prompt_eval_duration": 123049000, "eval_count": 211, "eval_duration": 24728631000}</t>
+          <t xml:space="preserve">
+"Similar
+The meaning of the narrative and the generated summary are similar. Both describe a situation where a dosimetrist noticed an issue with the contouring of a breast cancer patient's CT scan data, consulted with the attending and resident physicians, and received updated contours that included the normal target volumes. The summary accurately captures the main points of the narrative, including the role of the dosimetrist, the issue with the contouring, the communication with the physicians, and the updated contours. However, the summary does not explicitly mention that the task was pushed back to the physicians or that it took two days for them to provide the updated contours, which are minor details that do not significantly affect the overall meaning of the narrative."</t>
         </is>
       </c>
     </row>
@@ -8762,7 +9142,9 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T05:59:59.150039172Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26277336307, "load_duration": 1735669, "prompt_eval_duration": 116737000, "eval_count": 211, "eval_duration": 26158572000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the error in the prescription chart, the denial by the doctor of intent to prescribe 15x, and the decision to proceed with the treatment using fifteen instances of the whole brain after consulting with physics experts. However, the summary goes beyond the information provided in the narrative by stating that the physics team plans to investigate the matter further, which is not explicitly stated in the narrative. Nonetheless, this addition does not significantly change the meaning of the narrative and can be considered a reasonable interpretation based on the context."</t>
         </is>
       </c>
     </row>
@@ -8785,7 +9167,9 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:00:24.802211637Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25649832561, "load_duration": 1605683, "prompt_eval_duration": 117100000, "eval_count": 211, "eval_duration": 25530869000}</t>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. It mentions that the MD adjusted the prescription for a patient from 33 fractions per day to 35 fractions per day, and altered the daily dose accordingly. Additionally, it notes that the CTV value decreased from 180 to 170 and that despite this change, the original prescription remained unaltered with its original fractionation of 33 instead of being updated to reflect the new treatment regimen. Finally, it mentions that the physics or MD corrected the old electronic prescription, which is consistent with the information provided in the narrative.</t>
         </is>
       </c>
     </row>
@@ -8808,7 +9192,9 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:00:50.054519497Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25249964465, "load_duration": 1727126, "prompt_eval_duration": 122251000, "eval_count": 211, "eval_duration": 25125712000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the original prescription details, the change in bolus dosage, and the therapist's communication with both the dosimetrist and physician for clarification and alert placement. The summary effectively conveys the same information as the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -8831,7 +9217,9 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:01:16.354322043Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26297256387, "load_duration": 1952404, "prompt_eval_duration": 115764000, "eval_count": 211, "eval_duration": 26179192000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the type of scan (CT), the location (base of skull), the requested setup (CSI with conventional devices), and the necessary modifications (thinner slices, encompass mask, lower scan parameters for radiosurgery). However, the narrative specifies that the order was changed from a conventional setup to a radiosurgery skull setup, while the summary implies that the CSI setup will be used throughout the procedure. This discrepancy results in a 'Similar' grade instead of 'Identical'."</t>
         </is>
       </c>
     </row>
@@ -8854,7 +9242,9 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:01:42.135620928Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25778970769, "load_duration": 1704944, "prompt_eval_duration": 116597000, "eval_count": 211, "eval_duration": 25660367000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the patient's treatment plan, the error discovered during a physics check, and the steps taken to correct the error. Both the narrative and the summary describe the three courses of proton therapy with sequential boosts, the discovery that the sum of the brainstem doses exceeded 100 Gy, the exclusion of the volume receiving 3600cGy from the previously treated area, and the correction of the error by including a 5mm margin around the 5040cGy volume in the new proton therapy plans. The summary is written in a clear and concise manner that accurately conveys the information presented in the narrative.</t>
         </is>
       </c>
     </row>
@@ -8877,7 +9267,9 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:02:08.066031775Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25928000165, "load_duration": 2095975, "prompt_eval_duration": 117285000, "eval_count": 211, "eval_duration": 25808313000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided, capturing all key details and presenting them in a coherent manner that matches the original text. The summary clearly states that the physician contacted treating therapists to correct an error in prescribing twice daily dosage for a patient, acknowledging the mistake and instructing them to change the prescription to once daily dosing. This is identical to the information presented in the narrative.</t>
         </is>
       </c>
     </row>
@@ -8900,7 +9292,9 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:02:34.309783143Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26241487826, "load_duration": 1538738, "prompt_eval_duration": 115284000, "eval_count": 211, "eval_duration": 26124356000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a situation where RX called for an OSLD assessment on day 1 but had not completed it by that day. On day 2, a treating therapist noticed something and requested physics to conduct the necessary readings.</t>
         </is>
       </c>
     </row>
@@ -8923,7 +9317,9 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:03:00.579036151Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26266891550, "load_duration": 1922776, "prompt_eval_duration": 124462000, "eval_count": 211, "eval_duration": 26140198000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, stating that CTV should have been cropped back and given three dose levels but only received two. However, it adds some speculative language by saying "CTV was supposed to receive" instead of simply reporting what actually happened, which was that it "only received two." Additionally, both the narrative and summary lack context for the abbreviations CTV and OAR, making it difficult to fully understand their meaning. Nonetheless, the overall meaning and message of the narrative is conveyed in the summary, so I would rate this as a similar match.</t>
         </is>
       </c>
     </row>
@@ -8946,7 +9342,9 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:03:26.630894842Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26048962179, "load_duration": 1680256, "prompt_eval_duration": 124680000, "eval_count": 211, "eval_duration": 25922266000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the original treatment plan on the IX machine, the high lung doses that led to the request for an Ethos plan, the physicist taking over the Ethos treatment planning, and the discovery of the uncontoured cardiac loop recorder. The summary also correctly mentions the non-flexible start date due to chemo coordination and the request for a revision on the IX plan due to excessive dose to the loop recorder. However, the summary does not explicitly mention that the physician was notified about the issue with the cardiac loop recorder, but this information is implied when it mentions that the task for physics plan review came up. Overall, the meaning of the narrative and the generated summary are similar, with only minor differences in phrasing and emphasis.</t>
         </is>
       </c>
     </row>
@@ -8969,7 +9367,9 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:03:52.871588994Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26238366327, "load_duration": 1823597, "prompt_eval_duration": 124227000, "eval_count": 211, "eval_duration": 26111997000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that an email regarding SBRT Prostate treatment was sent but the patient was not scheduled, and that this oversight was discovered by the dosimetry team during a review of patient start dates. The recommended process change is also correctly stated in the summary. However, the summary does not explicitly mention that the discovery was made in the PM system, although this can be inferred from the context. Overall, the meaning of the narrative and the summary are similar."</t>
         </is>
       </c>
     </row>
@@ -8992,7 +9392,9 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:04:19.043731736Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26169895823, "load_duration": 1730500, "prompt_eval_duration": 116402000, "eval_count": 211, "eval_duration": 26051472000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the mislabeled treatment field ID, the location on the left shoulder, and the successful completion of treatment despite the error. However, the summary incorrectly identifies the intended angle as LPO instead of LAO, which slightly changes the meaning of the narrative."</t>
         </is>
       </c>
     </row>
@@ -9015,7 +9417,9 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:04:43.723667063Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24677388669, "load_duration": 2081786, "prompt_eval_duration": 115206000, "eval_count": 211, "eval_duration": 24559863000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both the narrative and the summary describe two distinct Liver plans, each with its own isocenter, and the use of only one tracking structure (TACECT30) during treatment for both plans. The summary also correctly mentions that the second target in the Liver 2 plan was not part of this structure and that a new tracking structure (TACECT30\_Liv2) was created post-treatment to enhance tracking. Additionally, the summary accurately states that the CTV/PTV structure encompassing the second TACE volume was utilized for tracking during the procedure with physician approval and that the relevant physics consultation was updated accordingly. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -9038,7 +9442,9 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:05:08.511891035Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24785675170, "load_duration": 2025178, "prompt_eval_duration": 123591000, "eval_count": 211, "eval_duration": 24659832000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly identifies the patient as having undergone a head and neck procedure with bilateral neck node dissection, and it describes the issue with the CTV high and low volumes extending down the right side and crossing midline without any corresponding volumes on the left side. The summary also accurately conveys that the matter was brought to the attention of Dr Soike for review, who consulted with Dr Spencer and the resident to add the missing CTV high and low volumes to the left side. Therefore, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9467,9 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:05:34.828790289Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26313980202, "load_duration": 1821372, "prompt_eval_duration": 114886000, "eval_count": 211, "eval_duration": 26196921000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both convey that a discrepancy was found between two KV field values (359.9 and 259.9) within a gantry during new start checks, and that the relevant personnel were notified and corrective actions were taken.</t>
         </is>
       </c>
     </row>
@@ -9084,7 +9492,9 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:06:01.131763097Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26300720930, "load_duration": 1469355, "prompt_eval_duration": 114349000, "eval_count": 211, "eval_duration": 26184567000}</t>
+          <t xml:space="preserve">
+A: Similar
+Explanation: The summary accurately captures the main idea of the narrative, which is that a physician mistakenly prescribed radiation therapy for the wrong target, and this error was carried through the planning process until it was caught during review by the physician. However, the summary goes into slightly more detail about the communication system used to discuss the error and the fact that an initial physics check was completed. These details do not significantly change the meaning of the narrative but add some additional context. Overall, the summary is similar in meaning to the narrative.</t>
         </is>
       </c>
     </row>
@@ -9107,7 +9517,9 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:06:26.206946095Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25072881757, "load_duration": 1503159, "prompt_eval_duration": 117556000, "eval_count": 211, "eval_duration": 24953559000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a prescription's dosage was changed but not approved, leading to its unavailability. Additionally, it correctly mentions the adjustment of the original plan's fractional amount and how it shortened the readiness period for the boost plan to four days.</t>
         </is>
       </c>
     </row>
@@ -9128,11 +9540,7 @@
 A patient had three arcs labeled incorrectly, resulting in imaging being ordered to determine the correct placement for treatment. The mislabeled arcs hindered the intended starting point for the procedure.</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:06:52.2624493Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26052431214, "load_duration": 2118826, "prompt_eval_duration": 124498000, "eval_count": 211, "eval_duration": 25925523000}</t>
-        </is>
-      </c>
+      <c r="D380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -9153,7 +9561,8 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:07:17.238669914Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24973195782, "load_duration": 1938123, "prompt_eval_duration": 124229000, "eval_count": 211, "eval_duration": 24846783000}</t>
+          <t xml:space="preserve">
+Narrative and summary match closely in meaning and structure. Both convey the same information about a patient with asthma who had difficulty holding their breath for right breast treatment, leading to discussions about adjusting the amplitude window or re-planning using free-breathing scan. The physician approved of added uncertainty, and the breath-hold window was modified after confirming minimal surface change between breath-hold and free-breathing scans. Therefore, I would grade this as 'Similar'.</t>
         </is>
       </c>
     </row>
@@ -9176,7 +9585,9 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:07:43.503374811Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26261814961, "load_duration": 1885403, "prompt_eval_duration": 124800000, "eval_count": 211, "eval_duration": 26134782000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the discrepancy in indexing instructions, the actual indexing value, and the patient's longitudinal shift. However, the summary omits the detail about the wedge under the table, which is mentioned in the narrative as a reason for physically moving the patient on the table. This difference in details does not significantly affect the overall meaning of the summary, but it is worth noting.</t>
         </is>
       </c>
     </row>
@@ -9199,7 +9610,9 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:08:09.232208834Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25726371416, "load_duration": 1901873, "prompt_eval_duration": 122613000, "eval_count": 211, "eval_duration": 25601552000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the therapist's mistake in placing a bolus on the patient's scar despite the prescription not calling for it, the ambiguity of the physician's note, and the recalculation of the plan with 0.5 cm of bolus added. The summary also correctly states that the therapists followed the directive and estimated the difference in target coverage for the first fraction with and without bolus. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -9222,7 +9635,9 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:08:35.0493423Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25814599594, "load_duration": 2037551, "prompt_eval_duration": 117436000, "eval_count": 211, "eval_duration": 25694827000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the summary convey the same meaning. Both describe a situation where a physician changed the target volume after the patient had been approved, printed, scheduled, and quality assured. Additionally, both sources mention that the physician consulted with a senior physician about this modification. Therefore, the evaluation is 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -9245,7 +9660,9 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:09:00.913622152Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25861832585, "load_duration": 1953822, "prompt_eval_duration": 117730000, "eval_count": 211, "eval_duration": 25741862000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It mentions the incorrect labeling of the patient's CT data, the discovery during vmat/imrt planning, the question from the protocol team about the treatment method, and the suggestion for clearer site-specific labels in the future. The summary is concise but still manages to convey the same meaning as the narrative.</t>
         </is>
       </c>
     </row>
@@ -9265,11 +9682,7 @@
           <t xml:space="preserve"> A staging was arranged for a patient's arrival with conflicting instructions for a cervical spine setup. The staging order included a bos frame, bos mask, custom molded headrest, and an aio knee wedge. The simulation order specified hyperextension of the neck with a long face mask and a leg cradle in the special instructions. Upon noticing the discrepancy, I contacted the physician for clarification. The resident had initially placed the orders, but the physician corrected the confusion and specified a long mask with the head position neutral and extra care for the thoracic spine due to potential involvement in that region. The orders were then updated in PowerChart before the patient arrived.</t>
         </is>
       </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:09:27.250556919Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26333897133, "load_duration": 1895892, "prompt_eval_duration": 124509000, "eval_count": 211, "eval_duration": 26207160000}</t>
-        </is>
-      </c>
+      <c r="D386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -9290,7 +9703,9 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:09:53.535729128Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26282843147, "load_duration": 1859844, "prompt_eval_duration": 123862000, "eval_count": 211, "eval_duration": 26156791000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information about a patient being treated using adaptive therapy on Ethos, having an implanted cardiac device, undergoing a special physics consult, and not having an ICD/ICP during fraction 20. The only difference is that the summary presents the information in a slightly different order, but it does not change the meaning or accuracy of the information provided.</t>
         </is>
       </c>
     </row>
@@ -9311,11 +9726,7 @@
 A revision plan for an approval was not obtained prior to the implementation of a certain treatment. Similarly, the approval for the treatment itself was lacking at the time it was administered.</t>
         </is>
       </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:10:18.831322055Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25292849740, "load_duration": 1882647, "prompt_eval_duration": 124436000, "eval_count": 211, "eval_duration": 25166205000}</t>
-        </is>
-      </c>
+      <c r="D388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -9336,7 +9747,9 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:10:44.511152005Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25677531306, "load_duration": 2040997, "prompt_eval_duration": 122702000, "eval_count": 211, "eval_duration": 25552501000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the discovery of an incorrect prescription, the involvement of various medical professionals, and the confirmation of the error due to a missing breath hold template in the prescription. However, the summary uses the phrase "on May 11" instead of "to start a boost 5/11," which may imply that the chart check occurred on that date rather than scheduling the patient for a boost treatment starting on that date. Nonetheless, the overall meaning and message conveyed in both texts are similar.</t>
         </is>
       </c>
     </row>
@@ -9359,7 +9772,9 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:11:10.193517049Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25679873233, "load_duration": 1744235, "prompt_eval_duration": 124383000, "eval_count": 211, "eval_duration": 25553469000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the fact that the patient's treatment was rescheduled due to a lack of preparation on the part of the dosimetrist and physics team. However, the summary uses the term "approve" instead of "PSQA," which stands for Patient-Specific Quality Assurance. This difference in terminology does not significantly impact the overall meaning of the summary, but it is worth noting. Therefore, I would rate the summary as "Similar" to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -9382,7 +9797,9 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:11:35.889797031Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25693664588, "load_duration": 2523370, "prompt_eval_duration": 124549000, "eval_count": 211, "eval_duration": 25566214000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the discrepancy between the approved treatment plan and the downloaded document, the incorrect labeling of the 'hot sheet,' and the actions taken by the therapist to rectify the situation. However, the summary uses slightly different wording in some places, such as referring to the 'Plan Documents (2.1 Mediastm1)' folder instead of the '!Plan Documents' folder, which is why I have rated it as 'Similar' rather than 'Identical'. Nonetheless, the overall meaning and message conveyed by both texts are essentially the same.</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9830,9 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:12:00.496681843Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24604529030, "load_duration": 2259711, "prompt_eval_duration": 123859000, "eval_count": 211, "eval_duration": 24478181000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the discovery of a compression belt being used during simulation but not treatment, the poor dose calculations in the QA scan, the lost original chart, the lack of processes to verify or confirm devices used, and the minimal dosimetric impact. However, some details are missing or slightly altered, such as the fact that the compression belt was never used for treatment, the specific number of fractions left, and the assumption made by physicians about the treatment being identical to the simulation. Overall, the summary is similar in meaning to the narrative but lacks some specific details.</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9855,9 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:12:25.358758196Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24859748925, "load_duration": 1867558, "prompt_eval_duration": 123772000, "eval_count": 211, "eval_duration": 24733878000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both describe a patient who was scheduled for simulation on a specific date but did not proceed further in the process maker. They also both mention that the dosimetry team was unaware of this until a physician asked about it and suggest that there could be an option to deactivate or remove the "simulation scheduled" status for patients who do not end up being simulated, making it easier for the dosimetry team to identify such cases. The summary is identical in meaning to the narrative.</t>
         </is>
       </c>
     </row>
@@ -9456,11 +9877,7 @@
           <t xml:space="preserve"> A patient's treatment plan was not ready for implementation on the scheduled start date due to an error in the transfer of information from dosimetry to physics. The plan had been approved by a physician two days prior but had not been sent to physics for processing. The issue was discovered and corrected just before the patient's treatment was set to begin. Additionally, there was a discrepancy between the plan name in the electronic medical record system and the one in the treatment machine, which needed to be resolved before treatment could commence.</t>
         </is>
       </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:12:50.199951021Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24838754235, "load_duration": 1900540, "prompt_eval_duration": 122827000, "eval_count": 211, "eval_duration": 24713771000}</t>
-        </is>
-      </c>
+      <c r="D394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -9481,7 +9898,9 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:13:16.556923587Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26354001578, "load_duration": 1759343, "prompt_eval_duration": 116567000, "eval_count": 211, "eval_duration": 26235357000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the completion of the 1.1 pRCW plan, the lack of Treatment Approval for the 1.2pRCW plan due to missing QA, and the resulting missed treatment for the patient. However, the summary uses the term "scheduled" instead of "should've been scheduled," which may imply that the patient was not expecting to receive treatment on that day, when in fact they were supposed to. Nonetheless, the overall meaning is conveyed effectively."</t>
         </is>
       </c>
     </row>
@@ -9504,7 +9923,9 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:13:41.615716798Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25056372357, "load_duration": 1945505, "prompt_eval_duration": 121389000, "eval_count": 211, "eval_duration": 24932753000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both the narrative and the summary state that the patient received two radiation therapy sessions with a dose of 150 cGy per session, and that these sessions were required to be spaced six hours apart according to policy. The summary also correctly states that the second session occurred 4 hours and 30 minutes following the first session, which is consistent with the information provided in the narrative. Therefore, the meaning of the narrative and the summary match closely, making the evaluation 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -9527,7 +9948,9 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:14:07.244676642Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25626633769, "load_duration": 2031799, "prompt_eval_duration": 105405000, "eval_count": 211, "eval_duration": 25518944000}</t>
+          <t xml:space="preserve">
+"Similar
+The narrative and summary convey similar meanings, accurately describing a medical treatment labeled as SBRT lung for the right lung that was incorrectly documented on all related paperwork. Both indicate that the therapy team identified the discrepancy before initiating the beam, discovered that the alignment was on the left side instead of the right, and delayed the patient's treatment by approximately two hours while new documentation and modifications were made to rectify the mistake."</t>
         </is>
       </c>
     </row>
@@ -9550,7 +9973,9 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:14:33.389120809Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26142085068, "load_duration": 1766285, "prompt_eval_duration": 124767000, "eval_count": 211, "eval_duration": 26015229000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary state that no PSQA was performed for a plan revision (1.1R1 R Lung), that the original plan (1.1 R Lung) underwent PSQA twice, that the results of the original plan's PSQA were attached to the revised plan's documents in PowerChart, and that it was later determined that the revision's PSQA had not been carried out. Additionally, both the narrative and the summary mention that two fractions from the revision had already been administered before the discrepancy was discovered during a weekly physics check. The language used in the summary is slightly more formal than that of the narrative, but this does not affect the overall meaning or accuracy of the summary.</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9998,9 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:14:58.978209696Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25585855895, "load_duration": 1661617, "prompt_eval_duration": 119721000, "eval_count": 211, "eval_duration": 25464205000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, using almost identical wording in some places. Both the narrative and the summary describe the CSI procedure following IGRT guidelines, imaging and aligning each isocenter, shifting 4 cm inferiorly to image the most inferior part of the CTV, applying a 5 cm superior shift for treating the lower spine field, executing the planned shift to the upper spine isocenter, discovering a 1 cm shift error during an imaging session at the upper spine field, and correcting the error before continuing with the rest of the treatment. The summary accurately reflects the sequence of events and details presented in the narrative, making it identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -9596,7 +10023,9 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:19:47.572571684Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25599951533, "load_duration": 4282999, "prompt_eval_duration": 117525000, "eval_count": 211, "eval_duration": 25458202000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and summary are similar in their description of the patient's treatment with a full bladder, the absence of specific instructions for treating with a full or empty bladder, and the need to adjust the patient's plan due to the lack of a full bladder scan. However, the summary adds that the dosimetrist reported no information regarding bladder filling instructions on the whiteboard, which is not mentioned in the narrative. Nonetheless, this additional detail does not significantly change the overall meaning of the two texts and they can be considered similar.</t>
         </is>
       </c>
     </row>
@@ -9619,7 +10048,9 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:20:12.61738157Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25041318915, "load_duration": 1786031, "prompt_eval_duration": 122657000, "eval_count": 211, "eval_duration": 24916610000}</t>
+          <t xml:space="preserve">
+Dissimilar
+The summary is partially correct in stating that proton therapists mistakenly treated two different patients as one during a photon boost transfer, but it fails to mention that the mistake was due to the therapists mistaking one patient for another who was also scheduled to transfer to a photon boost on the same day. Additionally, the summary incorrectly states that the therapists realized their error when they noticed discrepancies between the patients' identities, when in fact they only caught the mistake because the therapists thought the patient was someone else who was scheduled for a photon boost on the same day. The summary also adds information not present in the narrative by stating that one of the patients was intended for treatment at HSROC for the boost procedure, but had not informed the original therapists of her transfer plans. This information is not mentioned in the narrative and therefore cannot be accurately evaluated.</t>
         </is>
       </c>
     </row>
@@ -9640,11 +10071,7 @@
 A prescription of 1800cGy in one fraction for the PTV (Planning Target Volume) and 1600cGy in one fraction for the GTV (Gross Tumor Volume) was incorrectly entered into the electronic chart.</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:20:38.855136974Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26234376076, "load_duration": 2308721, "prompt_eval_duration": 124733000, "eval_count": 211, "eval_duration": 26107055000}</t>
-        </is>
-      </c>
+      <c r="D402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -9664,7 +10091,9 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:21:05.153192112Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26294557266, "load_duration": 1576625, "prompt_eval_duration": 124188000, "eval_count": 211, "eval_duration": 26168487000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that a boost plan was copied for revision and the identification number was changed but the name field was not. The summary also correctly states that this led to the QA report displaying the incorrect Plan ID and being labeled with the original Plan Name in ScandiDos Delta4 software. Finally, the summary mentions that both plans had identical monitor units, causing initial confusion about which plan underwent testing. However, the summary could have been more concise by omitting some details that are already implied in the narrative, such as the fact that the clinic uses the Plan ID as the primary means of identification and that only the machine changed between the two plans. Nonetheless, the summary is still quite similar to the narrative in terms of overall meaning and content."</t>
         </is>
       </c>
     </row>
@@ -9687,7 +10116,9 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:21:30.40111727Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25244680614, "load_duration": 2390085, "prompt_eval_duration": 124332000, "eval_count": 211, "eval_duration": 25117563000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the essential details of the narrative. It mentions the patient's scheduled brain simulation with contrast, their iodine allergy, the previous incident where contrast caused a drop in blood pressure, and the doctor's advice against administering the contrast. Both the narrative and the summary convey the same information, making them identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -9710,7 +10141,9 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:17:58.657848601Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25061738872, "load_duration": 3170874, "prompt_eval_duration": 116142000, "eval_count": 211, "eval_duration": 24839208000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided. It correctly identifies that the patient underwent a Proton Head and Neck scan with a BOS board and long mask, but was then planned for photon-based treatment instead of STx. The summary also mentions the safety concern with using the BOS board during IX treatments and the error discovered by therapists on June 1, 2023. Overall, the meaning and details of the narrative are preserved in the generated summary, making it identical to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -9732,7 +10165,9 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:21:55.396979544Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24992352078, "load_duration": 1787725, "prompt_eval_duration": 123122000, "eval_count": 211, "eval_duration": 24867165000}</t>
+          <t xml:space="preserve">
+Natural Language Processing,Evaluation,Summary Evaluation,Grading,Discrepancy
+"Similar: The summary accurately captures the main idea of the narrative, which is the discrepancy between the labels on a printed supplement and those on a treatment console computer for six treatment fields. The summary mentions that all six fields were labeled differently on the computer than in the printout, which aligns with the narrative's mention of "All 6 treatment fields were labeled differently." Additionally, the summary states that some fields were double-labeled and others were labeled incorrectly, which is consistent with the narrative's description of the issue. Overall, the summary accurately conveys the main idea of the narrative while providing additional details that help clarify the situation."</t>
         </is>
       </c>
     </row>
@@ -9755,7 +10190,9 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:22:21.343196665Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25942968520, "load_duration": 2003383, "prompt_eval_duration": 124801000, "eval_count": 211, "eval_duration": 25815835000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the fact that the senior physicist declined to sign documentation related to a pacemaker for a junior physicist and that this resulted in a delay in processing and treatment. However, the summary does not explicitly state that the senior physicist did not give a high/med/low recommendation, although it implies this by stating that the senior physicist did not provide a recommendation with a high, medium, or low designation. Therefore, while the summary is generally similar to the narrative, it is not identical.</t>
         </is>
       </c>
     </row>
@@ -9778,7 +10215,9 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:22:47.612703452Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26266207210, "load_duration": 1427262, "prompt_eval_duration": 116615000, "eval_count": 211, "eval_duration": 26147856000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the fact that a new treatment plan was being started, the therapist informed the physics/dosimetry department in advance, the therapy team was told the plan would be ready the following morning, the patient was scheduled for an appointment at 8:50 AM, a message was sent to the physics department at 7:17 AM, and the chart was not ready until 8:54 AM. The summary also correctly states that the patient arrived at the facility at 8:21 AM and waited. Therefore, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -9801,7 +10240,9 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:23:13.322362414Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25706055991, "load_duration": 1883886, "prompt_eval_duration": 117278000, "eval_count": 211, "eval_duration": 25586454000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the summary convey the same meaning. Both describe an incident where the wrong consent form was completed electronically for a simulation, requiring the repetition of the consent process with the correct form due to a digital error.</t>
         </is>
       </c>
     </row>
@@ -9824,7 +10265,9 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:23:38.989906169Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25664143016, "load_duration": 2047808, "prompt_eval_duration": 117261000, "eval_count": 211, "eval_duration": 25544592000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the patient's contrast allergy, the initial order for a sim study with IV contrast, and the communication with the ordering physician about the issue. The only difference is that the summary specifies that there was no instruction for pre-medication in the order, while the narrative does not explicitly mention this detail. However, it can be inferred from the narrative that this was the case since the message was sent to the MD regarding the lack of pre-medication. Overall, the summary accurately conveys the meaning of the narrative with only minor differences."</t>
         </is>
       </c>
     </row>
@@ -9845,11 +10288,7 @@
 Three out of the four HDR needle connections were incorrect.</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:24:05.205018716Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26211446900, "load_duration": 1761028, "prompt_eval_duration": 125058000, "eval_count": 211, "eval_duration": 26084346000}</t>
-        </is>
-      </c>
+      <c r="D411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -9870,7 +10309,9 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:24:31.498431697Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26289906946, "load_duration": 1816683, "prompt_eval_duration": 125069000, "eval_count": 211, "eval_duration": 26162705000}</t>
+          <t xml:space="preserve">
+"Similar
+The meaning of the narrative and the generated summary are similar. Both convey that there was an issue with the DRRs during a patient's SBRT procedure, specifically that the kV images were identical. The summary also accurately states that the dosimetry team was not present to correct the error and that the team had to add one of the incorrect images onto one of the treatment fields as a result."</t>
         </is>
       </c>
     </row>
@@ -9893,7 +10334,9 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:24:57.517702008Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26015924681, "load_duration": 1676357, "prompt_eval_duration": 124338000, "eval_count": 211, "eval_duration": 25889646000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that there was an error in documenting the correct dose in a patient's paper chart from fraction 21 to fraction 32, which was later corrected on fraction 33 by a therapist.</t>
         </is>
       </c>
     </row>
@@ -9916,7 +10359,9 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:25:23.738677207Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26217575566, "load_duration": 1496036, "prompt_eval_duration": 124661000, "eval_count": 211, "eval_duration": 26091080000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, including the details of the patient's change in treatment location, the need to recalculate and reprint the plan, the dosimetrist's preference for notification of changes in location, and the physicist's request for the dosimetrist to recalculate and reprint the plan. The summary captures the key points of the narrative without adding or omitting any important information.</t>
         </is>
       </c>
     </row>
@@ -9937,11 +10382,7 @@
 A patient, whose PSQA (Pre-Surgical Quality Assessment) was not completed the previous evening as scheduled, began their treatment on a later date, 12/2/21.</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:25:49.005499541Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25263477466, "load_duration": 1942300, "prompt_eval_duration": 125157000, "eval_count": 211, "eval_duration": 25136091000}</t>
-        </is>
-      </c>
+      <c r="D415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -9962,7 +10403,9 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:26:14.239724456Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25230362635, "load_duration": 1716813, "prompt_eval_duration": 122490000, "eval_count": 211, "eval_duration": 25105873000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both describe a situation where a physician ordered CT simulation with IV contrast, but after the therapy team questioned its necessity, the physician confirmed that it was not needed.</t>
         </is>
       </c>
     </row>
@@ -9985,7 +10428,9 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:26:40.561128406Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26317960185, "load_duration": 2151988, "prompt_eval_duration": 124052000, "eval_count": 211, "eval_duration": 26191459000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. It specifies the exact date and time for each event, including the patient's treatment schedule, physics plan check completion, QA import, and chart checks by treating therapists. Both sources convey the same information, making them identical.</t>
         </is>
       </c>
     </row>
@@ -10008,7 +10453,9 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:27:06.874129089Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26309683888, "load_duration": 1516333, "prompt_eval_duration": 124320000, "eval_count": 211, "eval_duration": 26183506000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the patient transfer between therapies, the missing and incomplete documentation for both plans, and the indication of a gated treatment on the photon plan's yellow sheet. However, it does not explicitly state that the new proton plan had not been checked, which is mentioned in the narrative."</t>
         </is>
       </c>
     </row>
@@ -10029,11 +10476,7 @@
 A reference point for an empty or missing measurement on PTV (apparently a medical device) was required to be added by a physicist while the patient was still on the table.</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:27:33.189035532Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26311812802, "load_duration": 1621784, "prompt_eval_duration": 118013000, "eval_count": 211, "eval_duration": 26191831000}</t>
-        </is>
-      </c>
+      <c r="D419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -10052,11 +10495,7 @@
 A patient identified as HN did not possess a QACT (Quick Access to Clinical Tools) directive in the electronic prescription (eRx) system.</t>
         </is>
       </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:27:59.479994638Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26287239579, "load_duration": 1913395, "prompt_eval_duration": 124024000, "eval_count": 211, "eval_duration": 26160947000}</t>
-        </is>
-      </c>
+      <c r="D420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -10075,11 +10514,7 @@
 A prescription for Stereotactic Body Radiation Therapy (SBRT) specifies "continuous consecutive."</t>
         </is>
       </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:28:25.454196928Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25970507159, "load_duration": 1990181, "prompt_eval_duration": 125243000, "eval_count": 211, "eval_duration": 25843008000}</t>
-        </is>
-      </c>
+      <c r="D421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -10099,7 +10534,9 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:28:50.661580096Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25204071674, "load_duration": 1767429, "prompt_eval_duration": 125352000, "eval_count": 211, "eval_duration": 25076685000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the fact that the boost treatment plan was not ready in the morning, the physics team had to approve and quality assure the plan, and the patient was unable to wait for the process to be completed and will return the next day. However, the summary does not explicitly mention that the plan was not treatment approved or that it failed portal PSQA multiple times. These details are implied in the summary, but not directly stated, which is why I have rated this as 'Similar' rather than 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10559,9 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:29:15.722504528Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25057063578, "load_duration": 1937190, "prompt_eval_duration": 116749000, "eval_count": 211, "eval_duration": 24938139000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that a proton patient treated for three weeks by Dr. Spencer does not have documented consent for photon or proton procedures in their chart.</t>
         </is>
       </c>
     </row>
@@ -10145,7 +10584,9 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:29:41.399347604Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25673454436, "load_duration": 2216549, "prompt_eval_duration": 117519000, "eval_count": 211, "eval_duration": 25553375000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the therapist's review of uninitiated treatment plans, the discovery of a missing 'Schedule New Start' task for one patient, the communication with the planning dosimetrist via email to request the addition of this task, and the completion of quality assurance on June 8th. The summary is concise yet comprehensive, making it identical in meaning to the narrative.</t>
         </is>
       </c>
     </row>
@@ -10168,7 +10609,9 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:30:06.820429332Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25417500423, "load_duration": 1529667, "prompt_eval_duration": 108216000, "eval_count": 211, "eval_duration": 25307485000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the use of Lung SBRT, the intention of fiducial tracking for radiation guidance, and the reasons why it was not possible during the first fraction of treatment. The summary also correctly mentions that physicists were informed and are taking action to enable triggered imaging in the next fraction, and that the physician intends to update the prescription. However, the summary does not explicitly state that a physics consult is being arranged, which is mentioned in the narrative. Nonetheless, this information can be inferred from the rest of the summary, so the overall meaning is similar."</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10634,9 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:30:32.068307363Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25244656649, "load_duration": 1725268, "prompt_eval_duration": 124934000, "eval_count": 211, "eval_duration": 25117712000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the scheduling of TBI treatment and image isocenter checks, the lack of a simulation order, and the steps taken to schedule a simulation for November 9, 2021. However, the summary does not explicitly mention that the patient was simulated in the afternoon on that day, which is mentioned in the narrative. Nonetheless, this information can be inferred from the fact that the patient attended the simulation appointment on November 9, so the summary is still largely similar to the narrative."</t>
         </is>
       </c>
     </row>
@@ -10214,7 +10659,10 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:30:57.718393063Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25646685959, "load_duration": 1951637, "prompt_eval_duration": 121343000, "eval_count": 211, "eval_duration": 25523094000}</t>
+          <t xml:space="preserve">
+Narrative and Summary Match Evaluation:
+Similar
+The summary accurately captures the main points of the narrative, including the absence of proton consent during simulation, the acquisition of two radiation oncology consents, and the need to obtain proton consent before the first treatment. However, the summary uses the term "radiation oncology treatments" instead of "rad onc consents," which may suggest a slightly different meaning. Nonetheless, the overall meaning of the narrative and the summary are similar.</t>
         </is>
       </c>
     </row>
@@ -10237,7 +10685,9 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:31:22.905215388Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25183587809, "load_duration": 2160372, "prompt_eval_duration": 117742000, "eval_count": 211, "eval_duration": 25063399000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that a physician made changes to a prescription without informing anyone involved in the patient's care, leading to a delay in treatment approval and ultimately causing a delay in the patient's therapy. The summary accurately captures the key points of the narrative, including the lack of communication about the prescription change and the resulting delay in treatment.</t>
         </is>
       </c>
     </row>
@@ -10258,11 +10708,7 @@
 A medical professional did not engage the gating process during a treatment using breath holds for an abdomen procedure. The treatment had to be halted, and edits were made.</t>
         </is>
       </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:31:49.051580481Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26142527824, "load_duration": 1822913, "prompt_eval_duration": 124390000, "eval_count": 211, "eval_duration": 26016049000}</t>
-        </is>
-      </c>
+      <c r="D429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -10283,7 +10729,9 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:32:14.859057539Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25803714541, "load_duration": 1589791, "prompt_eval_duration": 124719000, "eval_count": 211, "eval_duration": 25677097000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information. Both mention that a Mobius document on a powerchart is mislabeled with an incorrect patient name, a notification was sent to POD for correction, and the linked document is correct when accessed directly.</t>
         </is>
       </c>
     </row>
@@ -10306,7 +10754,9 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:32:40.713040152Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25850698913, "load_duration": 2182734, "prompt_eval_duration": 118417000, "eval_count": 211, "eval_duration": 25729798000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the presence of discrepancies in the yellow sheet, the incorrect shifts, and the confirmation by the physics team and medical doctor. However, it does not explicitly mention that the user origin from CT was not correct, which is a minor detail in the narrative."</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10779,9 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:33:05.984286854Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25267920041, "load_duration": 1800270, "prompt_eval_duration": 116816000, "eval_count": 211, "eval_duration": 25149041000}</t>
+          <t xml:space="preserve">
+"Similar
+The narrative and summary convey similar information regarding a discussion among physicians to modify a patient's setup to 'frogleg' configuration during a review of SSU setup. Both mention that therapy was not informed about this change, and the order was not updated, leading to the device needing remanufacturing. The only difference is in the wording used to describe these events, but the overall meaning remains consistent."</t>
         </is>
       </c>
     </row>
@@ -10352,7 +10804,9 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:33:32.338309252Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26349929196, "load_duration": 1888256, "prompt_eval_duration": 117594000, "eval_count": 211, "eval_duration": 26230138000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the key points of the narrative, including the patient's simulation session for breast boost radiation treatment, the contour registration for various regions, the issue with left IMN GTV not covering all nodes, and the attending physician's acknowledgment and correction of the mistake. Both the narrative and the summary convey the same information in different words, making them identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -10375,7 +10829,9 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:33:58.581875822Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26240285595, "load_duration": 1400672, "prompt_eval_duration": 124715000, "eval_count": 211, "eval_duration": 26113854000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that the patient arrived with a full bladder and that the planning scan showed this to be the case. However, the summary does not explicitly state that there were no instructions regarding bladder filling on the prescription or in the sim setup, which is mentioned in the narrative. Nonetheless, these details are implied by the summary's statement that the patient reported to the therapy session with a full bladder despite no instructions being given. Overall, the summary accurately conveys the key information from the narrative, although some minor details are omitted or implied rather than explicitly stated."</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10854,9 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:34:24.19171622Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25606428777, "load_duration": 1956536, "prompt_eval_duration": 118121000, "eval_count": 211, "eval_duration": 25486046000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information about a QACT scan that was reviewed by a physician without the necessary override, resulting in a discrepancy between the planned dose and the one delivered. Both describe how the attending contacted the proton intensive team to investigate potential issues or the need for a new plan, and how the proton intensive medical director identified the error and instructed dosimetry to correct it. The only minor difference is that the narrative specifies that the QACT scan was completed by dosimetry and sent to the physician, while the summary states that the QACT scan was reviewed by a physician. However, this does not affect the overall meaning of the text.</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10879,9 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:34:49.18916599Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24993809455, "load_duration": 1987003, "prompt_eval_duration": 123565000, "eval_count": 211, "eval_duration": 24867952000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. Both the narrative and the summary convey that the patient, referred to as Pt, was told to arrive at a certain time based on the promise that his treatment plan would be ready, but it wasn't ready when he arrived and he had to wait in the lobby for over an hour. The use of direct quotes from the narrative and the inclusion of specific details such as the patient being added to the schedule last minute further strengthens the similarity between the two texts.</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10904,11 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:35:15.397061214Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26204430302, "load_duration": 1600751, "prompt_eval_duration": 124471000, "eval_count": 211, "eval_duration": 26078036000}</t>
+          <t xml:space="preserve">
+Narrative: Patient was to receive a 4D QACT scan to assess current plan under treatment, patient's current plan is being treated with 0-90. Free breathing scan only was obtained for QA purposes; therefore, current plan could not be assessed on 4D scan or replanned, if that had been needed.
+Summary: The patient underwent a 4D QACT scan to evaluate their ongoing treatment regimen, which is identified as 0-90. However, only a free breathing scan was acquired for quality assurance purposes. Consequently, the current plan could not be assessed or replaced on the 4D scan if necessary.
+Evaluation: Identical
+The summary accurately reflects the narrative by stating that the patient underwent a 4D QACT scan to evaluate their ongoing treatment regimen, which is identified as 0-90. The summary also correctly mentions that only a free breathing scan was acquired for quality assurance purposes and that the current plan could not be assessed or replaced on the 4D scan if necessary. The language used in both the narrative and the summary is clear and concise, making it easy to understand the situation being described. Overall, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -10467,7 +10931,9 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:35:41.749438879Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26348811411, "load_duration": 2155672, "prompt_eval_duration": 125337000, "eval_count": 211, "eval_duration": 26220980000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information about a physicist's misunderstanding of how their in-house automated plan check software works, leading to an error in analyzing DVH data. Both sources mention that the physicist was under the impression that the software would automatically select the currently open plan in Eclipse, but this was not the case. The summary also correctly identifies that a physics resident discovered and corrected the error during a discussion. Overall, the narrative and summary are identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10956,9 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:36:07.751445877Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25998762314, "load_duration": 2085920, "prompt_eval_duration": 129745000, "eval_count": 211, "eval_duration": 25866629000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the need for two scans due to an incomplete order and a consent form that did not align with the original order. However, the summary uses slightly different wording than the narrative, resulting in a 'Similar' grade rather than 'Identical'. For example, the summary states that "scans were also required" for the Left Hip and Femur, while the narrative says that the patient "needed Left Hip and Femur scanned as well". Additionally, the summary specifies that the scheduling of the patient was affected, whereas the narrative only mentions that the patient was not scheduled in the appropriate time slot. These differences in wording do not significantly alter the meaning of the summary, but they prevent it from being considered 'Identical' to the original narrative.</t>
         </is>
       </c>
     </row>
@@ -10513,7 +10981,9 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:36:33.43423084Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25679439428, "load_duration": 2370068, "prompt_eval_duration": 123696000, "eval_count": 211, "eval_duration": 25553129000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the discovery of plan revision documents in the patient's chart, the completion of the initial therapy plan ahead of schedule, and the need for the therapist to review the chart due to an unchanged ARIA appointment status. However, the summary does not explicitly mention that the patient had to wait while the therapist reviewed the chart, which is a minor detail in the narrative."</t>
         </is>
       </c>
     </row>
@@ -10536,7 +11006,9 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:36:59.091075665Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25653116135, "load_duration": 1932720, "prompt_eval_duration": 123393000, "eval_count": 211, "eval_duration": 25527503000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the issue of patients needing to be shifted during CBCT scans, the safety concern of not returning patients to the isocenter for treatment, and the fact that approximately five patients are currently undergoing this procedure without re-planning or moving the isocenter. The summary also correctly mentions the specific example of patient 1030015 and the use of KV sets to confirm correct positioning. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -10559,7 +11031,9 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:37:25.413242703Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26318901944, "load_duration": 1692164, "prompt_eval_duration": 118103000, "eval_count": 211, "eval_duration": 26198842000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. It correctly identifies the patient as a spine patient undergoing a brain procedure with a large mask, mentions the incorrect shift points and their origin, and notes that the patient was simmed with both a large and small mask. The yellow sheet's lack of instructions regarding which mask size to use is also accurately reflected in the summary. Therefore, I would grade this evaluation as 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -10582,7 +11056,9 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:37:51.169783316Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25753124013, "load_duration": 1908193, "prompt_eval_duration": 118379000, "eval_count": 211, "eval_duration": 25632539000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. It mentions that a patient's chart was approved but not written up in a timely manner, which was discovered during a review by a planning dosimetrist. The summary also notes that the patient was marked as will call and that automatic peer review comments overrode previous notes on the chart's status. Finally, it suggests implementing additional safeguards for patients yet to begin treatment, which aligns with the narrative's recommendation of safety nets for such patients. Therefore, I assess this summary as identical to the narrative.</t>
         </is>
       </c>
     </row>
@@ -10605,7 +11081,9 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:38:16.833799698Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25660470528, "load_duration": 1710209, "prompt_eval_duration": 118635000, "eval_count": 211, "eval_duration": 25539851000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the fact that only two out of three breast prostheses were implanted and the absence of the anterior prosthesis went unnoticed until the patient was getting dressed. However, the summary does not explicitly state that a towel was used to cover the patient, nor does it specify that the missing prosthesis was a breast bone (anterior) one. These differences in detail result in the summary being similar rather than identical to the narrative.</t>
         </is>
       </c>
     </row>
@@ -10628,7 +11106,9 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:38:42.671237528Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25834440234, "load_duration": 2124853, "prompt_eval_duration": 118186000, "eval_count": 211, "eval_duration": 25713859000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that the patient underwent a medical procedure involving 24 fractions and that there was an issue with the gating instructions on the prescription. The summary also correctly notes that the patient had received breathhold instructions for some of the sessions and that there was a discrepancy between the dosimetry approval worksheet and the prescription itself. However, the summary does not explicitly state that the patient was treated with breathhold before the missing instruction was noticed, which is mentioned in the narrative."</t>
         </is>
       </c>
     </row>
@@ -10651,7 +11131,9 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:39:08.023313175Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25348694314, "load_duration": 1936957, "prompt_eval_duration": 124807000, "eval_count": 211, "eval_duration": 25221647000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided. It specifies that the patient underwent a resimulation for the left humerus with an identical plan name to the original one, and that the therapist did not recognize the re simulation due to the absence of a changed plan name on the time out sheet and an unupdated date on the DRR for KV orthos. This led to confusion regarding which CT scan the new plan was based on, which is consistent with the narrative.</t>
         </is>
       </c>
     </row>
@@ -10674,7 +11156,9 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:39:33.963475924Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25936829567, "load_duration": 1803565, "prompt_eval_duration": 124495000, "eval_count": 211, "eval_duration": 25810210000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the discovery of a different cradle, its previous use in treatment planning, and the plan to use it going forward. However, the summary does not explicitly state that the incorrect cradle has been used for all fractions since May 31, 2023, instead implying that it was only used daily after the discovery of the found cradle. Additionally, the narrative mentions that there is no documentation of the newly made cradle being used anywhere in ARIA, while the summary simply states that there is no record of its usage."</t>
         </is>
       </c>
     </row>
@@ -10695,11 +11179,7 @@
 A company named MU produced and delivered 21 units without undergoing a specific approval process or gate.</t>
         </is>
       </c>
-      <c r="D448" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:39:59.400308984Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25433262159, "load_duration": 1763279, "prompt_eval_duration": 129231000, "eval_count": 211, "eval_duration": 25302019000}</t>
-        </is>
-      </c>
+      <c r="D448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -10720,7 +11200,9 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:40:24.42383673Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25020386789, "load_duration": 1959670, "prompt_eval_duration": 124307000, "eval_count": 211, "eval_duration": 24893854000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the initial miscommunication about the treatment type, the therapists' request for a prescription change, and the subsequent attempt to obtain approval for the plan from the SRS POD. The summary also correctly notes that the plan had already been treated, making it impossible to obtain approval, and that Dosimetry was consulted to create a plan revision. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -10743,7 +11225,9 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:40:49.444385046Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25017033471, "load_duration": 2003754, "prompt_eval_duration": 125162000, "eval_count": 211, "eval_duration": 24889593000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It mentions the offset patient position, the need for table movement between fields, and the therapist's mistake in bringing the gantry too close to the device. Additionally, it correctly states that engineers were called to resolve the issue caused by the gantry making contact with the device. The summary is identical in meaning to the narrative.</t>
         </is>
       </c>
     </row>
@@ -10766,7 +11250,9 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:41:15.114630676Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25667109634, "load_duration": 1692495, "prompt_eval_duration": 118527000, "eval_count": 211, "eval_duration": 25546611000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the type of patient, the planned treatment and photon energy, the review process, the error identification, and the recommended solution. The summary uses slightly different wording but conveys the same meaning as the narrative, making it identical in terms of overall understanding.</t>
         </is>
       </c>
     </row>
@@ -10789,7 +11275,9 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:41:41.387451739Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26269246194, "load_duration": 1787785, "prompt_eval_duration": 124402000, "eval_count": 211, "eval_duration": 26142701000}</t>
+          <t xml:space="preserve">
+A: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the absence of gating instructions in the prescription and yellow sheet, the appearance of a gating screen when accessing the patient's file, the confirmation that gating was used during planning, the creation of a gating sheet by dosimetry, the modification of the prescription to include gating, and the approval from physics for the treatment to proceed. However, the summary uses slightly different wording in some places, such as "accessed the patient's file" instead of "pulled up patient," and "generated" instead of "printed." Additionally, the phrase "instructed to generate a gating sheet" is used instead of "notified to print a gating sheet." These differences in wording do not significantly alter the meaning of the summary, but they are worth noting. Overall, the summary accurately conveys the main points of the narrative and can be considered similar.</t>
         </is>
       </c>
     </row>
@@ -10811,7 +11299,9 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:42:06.525573298Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25134836209, "load_duration": 1828913, "prompt_eval_duration": 126330000, "eval_count": 211, "eval_duration": 25006448000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main events of the narrative, including the prescription of a radiation therapy treatment plan for breast cancer, the use of separate planning for different tumor volumes, the request for conformal planning and subsequent use of mini tangents, the review and approval of both plans, the beginning of treatment, and the discovery of an error in the dataset used for planning. However, the summary does not explicitly mention that the therapist realized the error during the preparation for the final boost dose or that she contacted a physicist to explain what happened. These details are important for understanding the full context of the event, but they do not significantly change the overall meaning of the narrative. Therefore, I assess the summary as 'Similar' to the narrative.</t>
         </is>
       </c>
     </row>
@@ -10834,7 +11324,9 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:42:31.853446142Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25324970540, "load_duration": 2036636, "prompt_eval_duration": 123680000, "eval_count": 211, "eval_duration": 25198983000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the incorrect couch angle, the resulting delay, the continued issue with the DRRs, and the patient missing their scheduled time slot. The language used in the summary is very similar to that of the narrative, making it clear that the meaning of the two texts is identical.</t>
         </is>
       </c>
     </row>
@@ -10857,7 +11349,9 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:42:57.681550272Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25824990345, "load_duration": 1766044, "prompt_eval_duration": 124790000, "eval_count": 211, "eval_duration": 25698058000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. Both the narrative and the summary state that the reference point limit for a patient's CTV was not set before the procedure began, this oversight went unnoticed until after the patient had been positioned on the table, the therapists reported this issue to the POD PM, the POD PM corrected the problem and implemented a patient alert requiring verification of MU prior to treatment. The summary uses different wording but conveys the same meaning as the narrative.</t>
         </is>
       </c>
     </row>
@@ -10880,7 +11374,9 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:43:22.708865153Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25023976801, "load_duration": 2711183, "prompt_eval_duration": 123000000, "eval_count": 211, "eval_duration": 24897925000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information presented in the narrative. Both the narrative and the summary mention that a Pacemaker SPC task related to treatment was not linked to the approved treatment task, and that a power note required for this procedure was not endorsed by a QMP. Additionally, both state that as a result, the treatment plan was given approval. Therefore, the meaning of the narrative and the summary are identical.</t>
         </is>
       </c>
     </row>
@@ -10903,7 +11399,9 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:43:48.332608347Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25620415123, "load_duration": 1834523, "prompt_eval_duration": 117294000, "eval_count": 211, "eval_duration": 25500984000}</t>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the patient's status as a SRS plan, the deviation from the standard scheduling process, the presence of a pacemaker, and the potential issue with scheduling the pacemaker interrogation. The summary also correctly highlights the benefit of using a scheduling email to consolidate important information. However, the narrative specifies that the pacemaker information was in "several different places" while the summary states it was documented in "various places." While both phrases convey the same idea, the use of different words may suggest a slightly different meaning. Nonetheless, the overall meaning and message of the narrative and summary are closely aligned."</t>
         </is>
       </c>
     </row>
@@ -10926,7 +11424,9 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:44:13.656050909Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25320093062, "load_duration": 1870492, "prompt_eval_duration": 125800000, "eval_count": 211, "eval_duration": 25192126000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that red ICD heart stickers are missing from a new patient's chart, that they were previously applied, and that the patient underwent simulation at HSROC. However, the summary goes beyond the information provided in the narrative by stating that the patient is new, which is not explicitly stated in the narrative. Nonetheless, this does not significantly alter the meaning of the narrative or the summary, so I would rate the match as 'Similar'."</t>
         </is>
       </c>
     </row>
@@ -10949,7 +11449,9 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:44:39.600170889Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25941232664, "load_duration": 1848099, "prompt_eval_duration": 124255000, "eval_count": 211, "eval_duration": 25814874000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the use of the prostate auto contour model for a post-prostatectomy patient, the error in the produced contour, and its discovery during a review process by physics. However, the summary does not explicitly state that the attending approved the erroneous contours, which is mentioned in the narrative. Therefore, while the overall meaning of the two texts is similar, there are some differences in specific details.</t>
         </is>
       </c>
     </row>
@@ -10972,7 +11474,9 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:45:04.723060383Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25119505157, "load_duration": 2039912, "prompt_eval_duration": 117961000, "eval_count": 211, "eval_duration": 24999241000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the rescheduling of the patient's appointment, the transfer of the chart and device to AR, the completion of the "schedule new start" task at HSROC, and the lack of a new task being created for AR. However, the summary omits the detail that the patient called HSROC to inquire about his treatment start date and discovered he had never been scheduled. This is a minor discrepancy, but it still warrants a grade of "Similar" rather than "Identical".</t>
         </is>
       </c>
     </row>
@@ -10995,7 +11499,9 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:45:30.184928055Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25458211110, "load_duration": 1738851, "prompt_eval_duration": 121177000, "eval_count": 211, "eval_duration": 25334974000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. It mentions that a medical procedure involving CT scans was performed on a patient, with the body part of concern being the abdomen. Additionally, it states that the patient was identified as having a colorectal condition and needed to be repositioned for further scanning of the lower region. This matches the narrative closely and is therefore considered identical in meaning.</t>
         </is>
       </c>
     </row>
@@ -11018,7 +11524,9 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:45:56.420067892Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26232307515, "load_duration": 1957576, "prompt_eval_duration": 124919000, "eval_count": 211, "eval_duration": 26105123000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the discrepancy between the eRx and prescription note, the query made to the physician, and the doctor's preference for CBCT imaging after every fraction. However, the summary uses more formal language than the narrative, which may make it seem less similar at first glance. Nonetheless, the meaning conveyed in both texts is essentially the same."</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11549,9 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:46:22.774805899Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26351410908, "load_duration": 1876512, "prompt_eval_duration": 123392000, "eval_count": 211, "eval_duration": 26225777000}</t>
+          <t xml:space="preserve">
+"Similar
+The narrative and summary convey similar information about an electron undergoing a treatment planning process involving a CT scan in Acuity, with the physician and dosimetrist unaware of an Acuity simulation that had occurred. The summary accurately reflects that the intended cutout had already been replaced with one from the simulation, and that the correct cutout from Eclipse was utilized for the treatment after the dosimetrist contacted the team. The physician's concern about the unnecessary Acuity simulation potentially causing the incorrect cutout to be used is also reflected in the summary."</t>
         </is>
       </c>
     </row>
@@ -11064,7 +11574,9 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:46:48.737027352Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25958658138, "load_duration": 1949882, "prompt_eval_duration": 124878000, "eval_count": 211, "eval_duration": 25831503000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the change in dose and fractionation requested by the physician, the failure to re-optimize the plan, and the resulting discrepancy noted during physics plan review. The use of slightly different phrasing and terminology (e.g., "regimen" instead of "plan," "installments" instead of "fractions") does not significantly alter the meaning of the summary. Overall, the summary effectively conveys the key information from the narrative with only minor differences in wording."</t>
         </is>
       </c>
     </row>
@@ -11087,7 +11599,9 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:47:14.933187394Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26192979722, "load_duration": 1962675, "prompt_eval_duration": 132781000, "eval_count": 211, "eval_duration": 26057815000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly identifies the patient, the type of simulation (RT), and the targeted area (lower extremity, L5). The summary also mentions that a separate consent was needed for abdomen/pelvis RT and that the physician agreed to sign the brain/spine RT consent form the next morning, but it was ultimately sent to the Department of Defense. Overall, the summary is identical in meaning to the narrative.</t>
         </is>
       </c>
     </row>
@@ -11110,7 +11624,9 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:47:40.132208126Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25195887912, "load_duration": 1652779, "prompt_eval_duration": 118028000, "eval_count": 211, "eval_duration": 25075960000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the addition of Breathhold to the prescription and the modification of the bolus schedule. However, the summary incorrectly states that the therapists followed the original prescription until its completion, when in fact they continued the bolus until the end of her treatment per the original RX. This discrepancy results in a grade of "Similar" rather than "Identical".</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11649,9 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:48:05.416019634Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25280980849, "load_duration": 2513668, "prompt_eval_duration": 124095000, "eval_count": 211, "eval_duration": 25154114000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative by stating that a therapist discovered an error in a patient's treatment plan, where the planned medication was incorrectly set to Stx instead of iX. This is identical to the information provided in the narrative.</t>
         </is>
       </c>
     </row>
@@ -11154,11 +11672,7 @@
 A plan underwent a review in the field of physics. Following this assessment, a physician proposed alterations to certain components called CTVs, enlarging their size during the physician review stage.</t>
         </is>
       </c>
-      <c r="D468" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:48:31.670034124Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26251030391, "load_duration": 1734613, "prompt_eval_duration": 125128000, "eval_count": 211, "eval_duration": 26123859000}</t>
-        </is>
-      </c>
+      <c r="D468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -11179,7 +11693,9 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:48:57.528996257Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25855844331, "load_duration": 2113701, "prompt_eval_duration": 129126000, "eval_count": 211, "eval_duration": 25724295000}</t>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the use of VMAT with two isocenters, the physician's request for CBCT imaging on both isocenters during the first treatment session, and the decision not to adjust the second CBCT due to the feathered fields. However, the summary does not explicitly state that there was no documentation in the patient's chart indicating that the fields were feathered, which is mentioned in the narrative. Nonetheless, this information is implied by the statement that the physician did not approve of adjusting the second CBCT based on the available information. Overall, the summary accurately conveys the meaning of the narrative with only minor differences."</t>
         </is>
       </c>
     </row>
@@ -11202,7 +11718,9 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:49:23.916749293Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26384448851, "load_duration": 1858838, "prompt_eval_duration": 124613000, "eval_count": 211, "eval_duration": 26257690000}</t>
+          <t xml:space="preserve">
+A: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the fact that CBCT was not initially scheduled for the patient's first treatment and had to be arranged and approved by physics before being communicated to the planning dosimetrist. However, the summary uses the term "CBCT imaging session" instead of simply "CBCT," which is a slightly more specific description than what is provided in the narrative. Nonetheless, the overall meaning and message of the narrative are preserved in the summary, making it similar.</t>
         </is>
       </c>
     </row>
@@ -11225,7 +11743,9 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:49:50.334451491Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26414765289, "load_duration": 1688566, "prompt_eval_duration": 126685000, "eval_count": 211, "eval_duration": 26286092000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by describing the initial placement of the gating box, its apparent inferior location, the failure of the RPM to detect breathing motion, the relocation of the gating box to a superior position with greater breathing movement, and the successful acquisition of KV images and a CBCT scan. The language used in both texts is very similar, making it clear that the summary accurately conveys the meaning of the narrative.</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11768,9 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:50:16.691467163Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26354010644, "load_duration": 1586723, "prompt_eval_duration": 116927000, "eval_count": 211, "eval_duration": 26235194000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the Bolus was intended for the 4th field but was mistakenly placed on one of the first three fields, and there is no interlock feature or alert system in place to prevent this error. This evaluation is 'Identical' because the meaning of the narrative and the generated summary are exactly the same.</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11793,9 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:50:42.808169667Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26113648733, "load_duration": 1836196, "prompt_eval_duration": 125290000, "eval_count": 211, "eval_duration": 25986219000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same meaning. Both state that Quality Assurance Computed Tomography scans were required by physicians, but not ordered in the electronic prescription system.</t>
         </is>
       </c>
     </row>
@@ -11294,7 +11818,9 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:51:08.411443553Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25599909958, "load_duration": 2510993, "prompt_eval_duration": 118364000, "eval_count": 211, "eval_duration": 25478733000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, capturing all of its key points. Both the narrative and the summary mention starting a boost plan, making shifts from the yellow sheet, identifying an issue with the KV pair, discovering that the shifts for the boost plan should have been 0, and applying the same iso as in the initial plan. The language used in both texts is also very similar, further emphasizing their alignment in meaning.</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11842,9 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:51:34.850779909Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26436334003, "load_duration": 1695178, "prompt_eval_duration": 124434000, "eval_count": 211, "eval_duration": 26309875000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and summary both convey that there was an error in recording the planner for a patient on a whiteboard using a home-grown platform, but the location of the patient was correctly displayed. The difference is that the narrative states that the planner was listed incorrectly, while the summary specifies that the patient was recorded with an incorrect planner. This distinction does not significantly change the meaning of the information and can be considered similar.</t>
         </is>
       </c>
     </row>
@@ -11339,7 +11867,9 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:52:00.275233637Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25421440655, "load_duration": 1366026, "prompt_eval_duration": 125570000, "eval_count": 211, "eval_duration": 25294156000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, stating that there was an approved treatment plan and signed plan review for a Physics treatment, but no QA or documentation. It also mentions that this error was discovered by therapists during their chart review and corrected before treatment began. This matches the narrative exactly, so the evaluation is 'Identical'.</t>
         </is>
       </c>
     </row>
@@ -11362,7 +11892,9 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:52:25.419811888Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25141602750, "load_duration": 1845043, "prompt_eval_duration": 129699000, "eval_count": 211, "eval_duration": 25009750000}</t>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the error in the chart, its impact on the treatment schedule, and the necessary involvement of the physics department for each second fraction. The summary also correctly identifies the treatment as Biologically-Implanted Devices (BID) and mentions the potential administrative burden and delays due to the error. However, it could have been more precise by explicitly stating that the therapist made the discovery and reported it to the physics team."</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11917,9 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:52:51.154785714Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25731015132, "load_duration": 2310443, "prompt_eval_duration": 134641000, "eval_count": 211, "eval_duration": 25593642000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that a patient's new start questionnaire indicated scheduling on the TB clinic, but upon chart review, it was discovered that the patient should have been scheduled at the ix clinic instead.</t>
         </is>
       </c>
     </row>
@@ -11408,7 +11942,9 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:53:16.015476736Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24857282802, "load_duration": 2205034, "prompt_eval_duration": 121874000, "eval_count": 211, "eval_duration": 24732912000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the unexpected absence of the treating MD, the assignment of a category 3 status, the email exchange between the two doctors, the lack of documentation in ROILS, and the confusion during the PRC regarding the status of the category 3 comment. The summary also correctly notes that there is no specified timeframe for the treating MD to respond to a category 3 comment. Overall, the meaning of the narrative and the generated summary are identical.</t>
         </is>
       </c>
     </row>
@@ -11430,11 +11966,7 @@
 On day two, the patient reported excessive gas, and during a CBCT review, it was discovered that 'PTV low' had been overlooked in the planning process. This was reported as a Radiation Oncology Incident Reporting System (ROILS) event.</t>
         </is>
       </c>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:53:41.156140869Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25136911299, "load_duration": 1656686, "prompt_eval_duration": 117687000, "eval_count": 211, "eval_duration": 25017333000}</t>
-        </is>
-      </c>
+      <c r="D480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -11453,11 +11985,7 @@
 A new start chart check on a patient revealed that the Powerchart PSQA document indicated a failure. No ion chamber reading was present on the document.</t>
         </is>
       </c>
-      <c r="D481" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:54:06.435726124Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25276359299, "load_duration": 2270888, "prompt_eval_duration": 118241000, "eval_count": 211, "eval_duration": 25155551000}</t>
-        </is>
-      </c>
+      <c r="D481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -11478,7 +12006,9 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:54:31.857879316Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25418877744, "load_duration": 1697012, "prompt_eval_duration": 124454000, "eval_count": 211, "eval_duration": 25292454000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the generated summary have similar meanings. Both convey that there was a mismatch between the expected leg mold indexing locations and the actual couch values, which required adjustments to be made during the second day of treatment. However, the summary uses slightly different wording than the narrative, hence it is not identical but still similar in meaning.</t>
         </is>
       </c>
     </row>
@@ -11501,7 +12031,9 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:54:57.014866906Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25153361096, "load_duration": 1847407, "prompt_eval_duration": 111020000, "eval_count": 211, "eval_duration": 25040224000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both mention that a resident was recorded in an electronic system as the person who signed and performed a medical procedure.</t>
         </is>
       </c>
     </row>
@@ -11522,11 +12054,7 @@
 The patient's simulation record did not include a recorded degree elevation for breastboard. An attempt was made to determine the degree elevation from images supplied from the simulation, but it could not be identified.</t>
         </is>
       </c>
-      <c r="D484" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:55:22.853617674Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25835209405, "load_duration": 1881882, "prompt_eval_duration": 116900000, "eval_count": 211, "eval_duration": 25716141000}</t>
-        </is>
-      </c>
+      <c r="D484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -11547,7 +12075,9 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:55:48.763498896Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25906658232, "load_duration": 1386445, "prompt_eval_duration": 125554000, "eval_count": 211, "eval_duration": 25779407000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the patient's unstable condition, the therapists' attempts to check on his status, and the discovery that he was not supposed to receive treatment. However, the summary omits the fact that the patient was brought down from the ICU for treatment before the issue with the resident's communication was discovered. This difference in detail does not significantly impact the overall meaning of the narrative or the summary, but it is worth noting. Therefore, I would rate the match between the two as 'Similar'.</t>
         </is>
       </c>
     </row>
@@ -11570,7 +12100,9 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:56:13.718469912Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 24951689215, "load_duration": 1909725, "prompt_eval_duration": 118343000, "eval_count": 211, "eval_duration": 24831061000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both describe an electron therapy patient starting treatment with a mislabeled cutout from his mask and chart. The incorrect patient was being prepared for planning, and both patients were under the same dosimetrist's care. The narrative mentions that a call was made to the dosimetrist to confirm the correct patient, and the summary states that the dosimetrist verified the accuracy of the cutout, which is essentially the same information. Lastly, the medical doctor in the room also confirmed the accuracy of the cutout in the narrative, which is not explicitly mentioned in the summary but can be inferred as part of the verification process. Overall, the meaning and details of the narrative are accurately represented in the summary with only minor differences in phrasing and emphasis.</t>
         </is>
       </c>
     </row>
@@ -11591,11 +12123,7 @@
 An 800cGy/fx patient did not include a specification for physician supervision in their electronic prescription (eRx). The therapy team noticed a comment in the dosimetry's new start task indicating that DOD supervision was required. It was suggested that this directive should be added to the eRx.</t>
         </is>
       </c>
-      <c r="D487" t="inlineStr">
-        <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:56:40.222981342Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26501488318, "load_duration": 2186448, "prompt_eval_duration": 133677000, "eval_count": 211, "eval_duration": 26365273000}</t>
-        </is>
-      </c>
+      <c r="D487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -11616,7 +12144,9 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:57:05.464970459Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 25238595263, "load_duration": 1844862, "prompt_eval_duration": 119322000, "eval_count": 211, "eval_duration": 25117153000}</t>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the approval process for the treatment plan, the change in monitor units due to a shift in plan normalization value, and the discrepancy between the monitor units listed in different documents. The summary also correctly notes that the discrepancy was not detected during a weekly chart check. Therefore, the summary can be considered identical to the narrative in terms of meaning and content.</t>
         </is>
       </c>
     </row>
@@ -11639,7 +12169,9 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>{"model": "mixtral", "created_at": "2024-01-28T06:57:31.723706965Z", "response": "\n\nNarrative: \"The CEO of a major tech company announced a new partnership with a leading automotive manufacturer to develop autonomous vehicles. The collaboration aims to revolutionize the transportation industry by integrating advanced AI technology into cars. This groundbreaking alliance will create safer, more efficient driving experiences for consumers while reducing carbon emissions and traffic congestion.\"\n\nSummary: \"A prominent tech firm has formed a partnership with a well-known automaker to produce self-driving vehicles using cutting-edge artificial intelligence. The joint effort seeks to transform the transportation sector by enhancing road safety, minimizing greenhouse gas emissions, and alleviating traffic jams.\"\n\nEvaluation: Similar - Both the narrative and summary convey that a major tech company has partnered with a leading automotive manufacturer to develop autonomous vehicles using advanced AI technology. They both highlight the goals of improving road safety, reducing carbon emissions, and easing traffic congestion. However, there are some differences in word choices between the two texts.", "done": true, "total_duration": 26255311424, "load_duration": 1697152, "prompt_eval_duration": 124982000, "eval_count": 211, "eval_duration": 26128297000}</t>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main idea of the narrative, which is that a CT scan used in Proton therapy planning did not cover a sufficient area, preventing an accurate assessment of the Boost frame's widest part for treatment planning purposes. While the narrative mentions "Proton brain sim" and the summary refers to "Proton therapy," both convey the same concept. The use of different terminology does not significantly alter the meaning or accuracy of the summary.</t>
         </is>
       </c>
     </row>
@@ -11660,6 +12192,13 @@
 A patient's scheduled brain treatment plan was unable to begin due to an unavailability of a previously planned spine treatment. This issue was resolved when it was discovered that the spine plan had been inadvertently uncancelled or unscheduled by mistake. The spine plan was then rescheduled and the patient's treatment continued.</t>
         </is>
       </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, stating that a scheduled brain treatment plan could not begin due to an unavailable spine treatment plan, which had been unscheduled accidentally. The resolution of rescheduling the spine plan is also included in both the narrative and the summary.</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -11678,6 +12217,13 @@
 A therapy session involving imaging was ongoing when the therapist prepared for the final fraction. However, imaging had not been scheduled for this stage. The physics team intervened and added the necessary imaging equipment for the therapist to use during the patient's treatment on the table.</t>
         </is>
       </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a therapy session where the therapist is preparing for the final fraction, but imaging had not been scheduled. The physics team then intervenes and adds the necessary imaging equipment for the patient's treatment on the table.</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -11696,6 +12242,13 @@
 An individual performed a weekly check of physics charts for fraction block 2. During this check, it was discovered that there was no power note for fraction block 1. A quality assurance (QA) process was completed and logged with the relevant physicist's name. An email was sent to the physicist inquiring about the absence of fraction block 1 in PowerChart. Documentation related to this issue was uploaded.</t>
         </is>
       </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the weekly check of physics charts for fraction block 2, the discovery of no power note for fraction block 1, the completion and logging of a QA process with the physicist's name, the sending of an email to the physicist regarding the issue, and the uploading of related documentation. However, the summary does not explicitly mention that the physicist had saved the weekly report and noted that fraction block 1 was not entered into PowerChart, which is a minor detail in the narrative."</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -11714,6 +12267,7 @@
 The BBs (whatever that may refer to) were used during a non-gated simulation scan instead of a gated one.</t>
         </is>
       </c>
+      <c r="D493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -11732,6 +12286,13 @@
 The patient, referred to as PT, underwent simulation on a breastboard with an perceived angle of 5 degrees. During the initial 16 simulations using kilovoltage (KV) and cone-beam computed tomography (CBCT) images, therapists observed significant pitch corrections of up to 2.8 degrees when six degrees of freedom (6DOF) correction was allowed. On the 16th simulation, PT was imaged on both a 5 and 7.5 degree setup, with the latter being approved by a physician. The 17th simulation was conducted on a 7.5 degree setup, resulting in less than one degree pitch correction. Subsequently, PT will be set up on a 7.5 degree angle for daily imaging. Despite the simulation setup pictures being difficult to discern, the notes explicitly state a 5 degree incline. The first 15 simulations were approved by physicians daily.</t>
         </is>
       </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the patient's setup on a breastboard with a perceived angle of 5 degrees, the observation of significant pitch corrections during the first 16 simulations, the approval of images taken at both 5 and 7.5 degree setups by a physician, the decision to conduct daily imaging at 7.5 degrees, and the difficulty in discerning the angle from the simulation setup pictures. The summary also correctly states that the first 15 simulations were approved by physicians daily. Therefore, I would grade the summary as 'Identical' to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -11750,6 +12311,13 @@
 A therapist discovered on a day of a new start appointment that the required chart and device had not been received from HSROC. The therapy session for a BID (Before Important Daily Events) patient was scheduled to begin at 8:00am. The therapist was able to deliver the missing chart and device to the Assessment and Rehabilitation (AR) department before the session started.</t>
         </is>
       </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that the required chart and device were not received from HSROC, the therapy session was scheduled for a BID patient at 8:00am, and the therapist delivered the missing items to the AR department. The only difference is that the summary specifies that the therapist delivered the items "before the session started," while the narrative does not explicitly state this. However, it can be inferred from the narrative that the therapist was able to deliver the chart and device in time for the session to begin as scheduled. Overall, the meaning of the two texts is very similar."</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -11768,6 +12336,13 @@
 A patient underwent a procedure during which films were taken but no treatment was administered due to suboptimal setup. The patient was then removed from the table and re-simulated. While this was happening, a chart entry was made documenting the filming process, but the incorrect fraction number was written before the treatment was delivered. The patient went on break during the re-planning phase, and once re-planned, a new course of treatment began with a fresh fraction number. However, the error in the previous fraction number was not discovered until the penultimate session when it was noticed that the RT summary and chart did not align regarding the completion date of the treatments.</t>
         </is>
       </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the poor setup leading to no treatment being administered, the re-simulation process, the premature writing of an incorrect fraction number, the patient going on break during re-planning, and the discovery of the discrepancy in the penultimate session. The summary is concise yet detailed, making it identical to the original narrative in terms of meaning and content.</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -11783,6 +12358,13 @@
       <c r="C497" t="inlineStr">
         <is>
           <t xml:space="preserve"> A liver patient underwent a treatment using amplitude gating with a window of 0.4-1.0 cm and triggered imaging for TACE (Trans Arterial Chemoembolization). The physicist's note recommended using "Gantry rotation" as the trigger. However, before the treatment began, the physicist at the Edge machine examined the patient's breathing cycle and adjusted the trigger to "Continuous at Beam On," which was more suitable for the procedure. The special physics consult note was subsequently revised to reflect the correct trigger for documentation.</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a liver patient being treated with amplitude gating using a window of 0.4 - 1.0 cm and triggered imaging to TACE, with the trigger initially set to "Gantry rotation" but later changed to "Continuous at Beam On" by the physicist at the Edge machine based on the patient's breathing cycle. The special physics consult note was also revised to include the correct trigger for documentation in both accounts.</t>
         </is>
       </c>
     </row>
@@ -11806,6 +12388,13 @@
 The SBRT planning team identified overrides in the dosimetry that did not account for certain intense artifacts within and near the target. The SRS POD was consulted to assess whether these overrides required revision. Following the redrawing of contours and application of new overrides, it was determined that there were dosimetric consequences. Although the discrepancies were not substantial enough to pose a risk to the patient in this instance, the density override errors identified in this case have the potential to result in physicians assessing plans based on incorrect dosimetry data, potentially leading to suboptimal plan quality.</t>
         </is>
       </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both the narrative and the summary discuss the identification of density overrides in SBRT planning that did not account for certain intense artifacts within and near the target, the consultation with the SRS POD to assess whether these overrides required revision, the redrawing of contours and application of new overrides, and the determination that there were dosimetric consequences. Additionally, both the narrative and the summary highlight that while the discrepancies were not substantial enough to pose a risk to the patient in this instance, they have the potential to result in physicians assessing plans based on incorrect dosimetry data, potentially leading to suboptimal plan quality. Therefore, the meaning of the narrative and the generated summary match closely, making them identical.</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -11824,6 +12413,13 @@
 A problem has been identified in Aria R/O regarding incorrect reading of reference points during partial treatment resumption. The affected reference points include the plan, volume, and ICRU reference points. In most cases, the ICRU reference point holds a larger value than the other two. When resuming a partial treatment, the session dose retrieves data from the DICOM server but only reads the highest recorded dose for all reference points, leading to the need for dosimetric override. After completion of the override, the correct dose is saved back into the database for all reference points. Personnel responsible for physics and dosimetry have been informed about the issue and advised to check the RT summary for discrepancies between ICRU and plan reference points.</t>
         </is>
       </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative, with no significant differences in content or wording. Both the narrative and the summary describe a bug in Aria R/O that affects the reading of reference points during partial treatment resumption, and provide details on the specific reference points involved, the impact of the bug, and the steps taken to address it. The summary uses slightly different phrasing and organization than the narrative, but the overall meaning is identical.</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -11842,6 +12438,13 @@
 A planned start for a keloid electron treatment is adjusting from an original prescription of 6e- energy and 0.5cm bolus to 9e- energy and 1cm bolus. The therapists discovered inconsistencies between the RT Prescription and plan regarding the energy level, prompting alerts to the physician and physicist for revisions. This resulted in a approximately fifty minute delay from the patient's scheduled treatment time.</t>
         </is>
       </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that there was a change in the original prescription for a keloid electron treatment, and that this change caused inconsistencies between the RT Prescription and plan. The summary also correctly mentions that the therapists alerted both the physician and physicist to revise the prescription, resulting in a delay of approximately fifty minutes from the patient's scheduled treatment time. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -11860,6 +12463,13 @@
 The patient's treatment plans 1.1 and 1.2 had incorrect doses due to the use of the wrong algorithm during calculation. Instead of using the appropriate algorithm for the STX (the intended treatment), Acuros was employed instead. However, Acuros has not been authorized for use with the STX; therefore, AAA should have been utilized for the calculations.</t>
         </is>
       </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the patient's treatment plans 1.1 and 1.2 had incorrect doses due to the use of the wrong algorithm during calculation, specifically Acuros instead of AAA. The summary also correctly mentions that Acuros has not been authorized for use with the STX, which is the intended treatment. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -11878,6 +12488,13 @@
 A revision was made to Pt's plan, but a quality assurance check for the revised plan was not carried out until after the patient had already arrived.</t>
         </is>
       </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary state that a revision was made to the patient's plan, but a quality assurance check for the revised plan was not carried out until after the patient had already arrived. This conveys the same information and is therefore identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -11896,6 +12513,13 @@
 A prescription (RX) instructed for an observation of signs and symptoms using the Observation Scale for Inattention and Distractibility (OSLD) on day one. No physics task was dropped during this period, and this instruction from the RX went unnoticed until the seventh day (FX7). A therapist subsequently issued an alert to carry out the OSLD assessment.</t>
         </is>
       </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the prescription for OSLD on day one, the lack of a dropped physics task, and the failure to notice the instruction until FX7 when an alert was issued. The summary uses slightly different wording but conveys the same meaning as the narrative, making it identical in terms of overall content and message.</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -11914,6 +12538,13 @@
 A request was made for a simulation procedure for the Proton Left Breast/Supraclavicular area. The respiratory motion management was specified as 4D, with phases ranging from 0 to 90. The simulation therapists sought clarification from the physician regarding the respiratory motion aspect of the procedure. The physician responded by requesting both a Free Breathing CT scan and an Inspiratory Breath Hold CT scan for clarification.</t>
         </is>
       </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the area being simulated, the respiratory motion management used, and the request made by the simulation therapists to the physician. The only discrepancy is that the narrative specifies that the therapists called the physician for clarification on respiratory motion, while the summary states that they sought clarification regarding the respiratory motion aspect of the procedure. However, this difference does not significantly alter the meaning of the two texts and can be considered a minor variation in wording."</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -11932,6 +12563,13 @@
 The IMRT QA report for field 2 shows a different number of monitor units (MUs) compared to the values in field 2 of the yellow pre check sheet and the external beam planning sheet.</t>
         </is>
       </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information presented in the narrative, stating that there is a difference in MU values for field 2 between the IMRT QA report and both the yellow pre check sheet and the external beam planning sheet. This matches the meaning of the narrative exactly, making the evaluation 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -11950,6 +12588,13 @@
 A patient's treatment plan was not approved in the system Aria by the start date of 10/14 for this patient's scheduled treatment.</t>
         </is>
       </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative, stating that a patient's treatment plan was not approved in the system Aria by the start date of 10/14 for this patient's scheduled treatment. This matches the information provided in the narrative and is therefore considered identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -11968,6 +12613,13 @@
 A new DRR (Digital Radiograph) does not exhibit an MLC (Multi-Leaf Collimator) pattern. The planning dosimetrist has been informed.</t>
         </is>
       </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same information, stating that there is no MLC pattern on a new DRR and that the planning dosimetrist has been notified about this issue. Both the narrative and the summary use similar terminology and structure, making them identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -11986,6 +12638,7 @@
 An ICD (Implantable Cardioverter Defibrillator) verification was not recorded in Powernote.</t>
         </is>
       </c>
+      <c r="D508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -12004,6 +12657,13 @@
 A consent form for a left axillary procedure was signed prior to the simulation. During the simulation, an additional pelvic procedure was required but the initial consent did not include this. A new consent was obtained from the patient for the pelvic procedure before it was carried out.</t>
         </is>
       </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a situation where a sim order included a left axilla and pelvis procedure, but only the left axilla was included in the initial consent form. To address this discrepancy, a second consent was obtained for the pelvic procedure during the simulation.</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -12022,6 +12682,13 @@
 A patient changed from using protons to photons in their radiation therapy due to insurance-related hold-ups. During this transition, the physician failed to include any expansion for the CTV_Low during the creation of the PTV contours. This oversight went unnoticed until after the patient had begun treatment, and for 13 sessions, they received radiation without the intended PTV margin.</t>
         </is>
       </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the change in radiation therapy type due to insurance delays, the physician's failure to include an expansion for CTV\_Low during contour creation, and the fact that this error went unnoticed until after treatment had begun. The only minor discrepancy is that the summary specifies that the patient received 13 sessions without the intended PTV margin, while the narrative simply states that they initiated treatment and were treated for 13 fractions. However, this does not significantly alter the meaning of the narrative or the summary. Overall, the summary effectively conveys the key details of the narrative with only minor differences in phrasing."</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -12040,6 +12707,13 @@
 The dosimetrist discovered unaccounted-for artifacts during the SBRT plan creation process. The SRS POD was consulted for a review of the structures. Following re-contouring and revised overrides, observable dosimetric discrepancies emerged. Although the significant differences were not detrimental, errors in density overrides, like those identified, could potentially result in physicians assessing plans with incorrect dosimetry measurements.</t>
         </is>
       </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. Both the narrative and the summary describe the discovery of artifacts during SBRT plan creation, the involvement of SRS POD for a review of structures, the application of revised overrides, and the emergence of dosimetric discrepancies. Additionally, both emphasize that while the gross differences were not catastrophic in this case, errors in density overrides can lead to inaccurate dosimetry metrics. The summary effectively conveys the same meaning as the narrative, making it identical.</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -12058,6 +12732,13 @@
 A breast patient's prescription called for triggered imaging during treatment, but this was not necessary as no such imaging occurred. The prescription did not specify a breath hold, but the patient was instructed to hold their breath during treatment. The discrepancy between the prescription and the actual treatment has led to a request for the physician to modify the radiation therapy prescription.</t>
         </is>
       </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that triggered imaging was not necessary and was not used during treatment, and that the patient was instructed to hold their breath despite this not being specified in the prescription. The summary also correctly notes that there is a discrepancy between the prescription and the actual treatment, and that a modification to the prescription has been requested. However, the summary does not explicitly state that no breath hold was listed in the prescription, only that the patient was instructed to hold their breath during treatment. This difference in phrasing may cause some confusion for the reader, but overall the meaning of the narrative and the summary are similar."</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -12075,6 +12756,13 @@
           <t xml:space="preserve"> The attending physician requested a right upper extremity simulation but did not communicate any special instructions regarding a sling and brace that the patient was wearing. Simulation therapists removed the sling and brace and set up the arm for the simulation as usual. After the simulation, the physician entered the room and expressed disappointment that the sling and brace had been removed. It was later discovered that the physician had obtained permission to keep the sling and brace on during the simulation from physics, but this information was not communicated to the simulation team.</t>
         </is>
       </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and summary both convey the main idea that the attending physician expected the patient's sling and brace to remain on during a right upper extremity simulation, but the simulation therapists were not informed of this special instruction. However, the summary omits the detail that the physician later told the simulation team about obtaining permission from physics to leave the sling and brace on. This difference in detail does not significantly alter the overall meaning of the narrative and summary, so I assess them as similar.</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -12093,6 +12781,13 @@
 A patient undergoing HDR (High Dose Rate) therapy received a prescription for 160 ml instead of the intended 180 ml for bladder filling. The therapist noted this discrepancy and notified the doctor. Additionally, the prescription contained an incorrect directive for the frequency of treatment, specifying once daily non-consecutive days rather than twice daily consecutive days. Both the doctor and physics team were informed about these errors, resulting in the prescription being amended.</t>
         </is>
       </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the incorrect prescription for bladder filling volume and the incorrect directive for treatment frequency. However, it does not explicitly mention that the therapist added a patient alert or that the prescription was changed after being reviewed by the doctor and physics team. Nonetheless, these details do not significantly alter the overall meaning of the narrative, making the summary similar to the original text.</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -12111,6 +12806,13 @@
 A consent form signed by a different physician than the one set to administer the treatment is required. A new consent form will need to be obtained and signed prior to the procedure.</t>
         </is>
       </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that the attending physician who was supposed to sign the consent form did not do so, and a new consent form needs to be signed by the appropriate physician before treatment can begin.</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -12129,6 +12831,13 @@
 A patient informed therapy that she had been instructed by her physician to receive breast simulation treatment downtown, despite the order not specifying the Ethos protocol. The therapy team communicated with the physician to clarify this instruction.</t>
         </is>
       </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information. Both mention that the patient was told by her physician to receive breast simulation treatment downtown, even though the order did not specify the Ethos protocol. Additionally, both state that the therapy team communicated with the physician to clarify this instruction. Therefore, the meaning of the narrative and summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -12147,6 +12856,13 @@
 The radiographic images of a patient labeled as KV270 and KV0 were mistakenly identified as being taken from different DRRs and gantry positions when, in fact, they were the same.</t>
         </is>
       </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary state that there was an error in labeling the radiographic images of a patient as being taken from different DRRs and gantry positions when, in fact, they were the same. This is a clear and direct match between the two statements, making the grade 'Identical' appropriate.</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -12165,6 +12881,13 @@
 A series of steps were followed in a medical procedure, starting with completing KV orthos and setting up the patient correctly. However, instead of repeating the MV port, the treatment field was modified. The beam was then activated while the patient was not in the required breath hold position. The therapist recognized the error and shut off the beam. Eleven monitor units of that field were delivered during this mistake.</t>
         </is>
       </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the steps followed in the medical procedure, the modification of the treatment field instead of repeating the MV port, the activation of the beam while the patient was not in breath hold, and the therapist's recognition and shutting off of the beam. However, the summary incorrectly states that "eleven monitor units of that field were delivered during this mistake," when in fact they were delivered before the therapist realized the error. Nonetheless, the overall meaning of the narrative and the summary are similar.</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -12183,6 +12906,13 @@
 A difference of 32 centimeters existed between planned and actual shifts due to an unset user origin during the planning process. A therapist identified this inconsistency before the patient's treatment began, while reviewing the chart.</t>
         </is>
       </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information. Both mention a 32 cm discrepancy in shifts due to an unset user origin during planning, and that a therapist identified this issue before the patient's treatment began while reviewing the chart.</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -12201,6 +12931,13 @@
 A patient underwent simulation using both forward planning (FB) and backward planning (BH) techniques. Contours for target volumes were created on both scans, and an auto-segmentation was performed on the FB scan. No indication was given in the patient's record (PM) as to which dataset should be utilized moving forward. The treating physician (RX) stated a preference for BH, but this may not always be accurate. Physics completed the delivery of doses on the FB scan. Dosimetry requested clarification regarding which dataset to employ due to discrepancies in the volumes of the planning target volumes (PTVs). The medical director (MD) mandated the use of the BH scan, necessitating a re-evaluation and modification of the doses. Potential enhancements include having physicians specify their preferred dataset prior to planning and deleting unnecessary contours before submitting volumes for planning.</t>
         </is>
       </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, using similar language and structure. Both the narrative and the summary describe a patient who was simulated using both FB and BH techniques, with contours created on both scans and an autosegmentation performed on the FB scan. They also both mention that there was no clear indication in the PM as to which dataset to use, that the RX preferred BH but this may not always be accurate, and that physics completed the DOs on the FB scan. The summary correctly notes that dosimetry requested clarification due to discrepancies in PTV volumes and that the MD mandated the use of the BH scan, leading to a re-evaluation and modification of the doses. Finally, both the narrative and the summary suggest potential process improvements, such as having physicians specify their preferred dataset prior to planning and deleting unnecessary contours before submitting volumes for planning. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -12219,6 +12956,13 @@
 A patient showed up at the designated time but had to wait around an hour for the Doctor of Dentistry (DOD) to begin treatment at the EDGE. The DOD was occupied with longer than typical new patient visits and another DOD scheduled for the day had left for other engagements offsite.</t>
         </is>
       </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, using slightly different wording to convey the same meaning. Both the narrative and the summary mention that the patient arrived on time but had to wait for the DOD, that the DOD was occupied with other tasks (specifically new patient visits), and that another DOD assigned for the day had already left for other locations. The summary uses slightly more descriptive language than the narrative, but this does not change the meaning or accuracy of the information presented.</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -12237,6 +12981,7 @@
 A protocol patient received an appointment time for proton therapy prior to being randomly assigned. The attending physician needed to contact the patient to clarify the situation.</t>
         </is>
       </c>
+      <c r="D522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -12255,6 +13000,13 @@
 A mistake occurred during treatment planning where the user origin was misplaced, resulting in incorrect shifts being sent to the machine. This error went unnoticed until about 1.5 hours before the patient's scheduled treatment when it was identified by the machine. The issue was rectified and new shifts (yellow sheets) were provided for the machine to use during treatment.</t>
         </is>
       </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same meaning, describing a mistake in treatment planning where the user origin was misplaced, leading to incorrect shifts being sent to the machine. This error went unnoticed until approximately 1.5 hours before the patient's scheduled treatment when it was identified by the machine. The problem was resolved, and new shifts (yellow sheets) were provided for the machine to use during treatment. Both sources present the information in a similar structure and with comparable wording, making them identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -12273,6 +13025,13 @@
 A pelvis patient underwent a simulation without being instructed to fill their bladder beforehand. The instructions for the simulation specified a full bladder, but no such instruction was given for the treatment itself.</t>
         </is>
       </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a pelvis patient who was not instructed to fill their bladder before simulation or treatment, despite instructions for a full bladder at the time of simulation.</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -12291,6 +13050,13 @@
 The therapists discovered an error in the electronic record of treatment (eRx) during a plan revision check for the 1.1 plan. They noticed that PTV_Mid, which was always contoured but not included on the eRx, had appeared in the newly revised version. For the first ten fractions, the dose for PTV_Mid hadn't been recorded or monitored because it wasn't listed on the original eRx. The therapists made a correction to the dose for PTV_Mid and adjusted the paper charts accordingly. They expressed concern as the patient had received ten treatments without PTV_Mid being addressed.</t>
         </is>
       </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, including the discovery of an error in the eRx, the addition of PTV\_Mid to the revised eRx, the lack of dose monitoring for PTV\_Mid in the first ten fractions, the correction made to the dose and paper charts, and the therapists' concern about the patient receiving treatment without PTV\_Mid being addressed. The summary captures the key details and overall message of the narrative, making it identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -12309,6 +13075,13 @@
 A quality assurance (QA) check for a patient undergoing proton therapy revealed an incorrect density override value in the CT shell scan. Instead of the required negative value of -600, the override was set at 600. This error occurred during a routine verification process and not for any planning purposes. The physician reviewing the QA scan plan noticed something amiss and requested a dosimetry review. Upon examination, dosimetry identified the incorrect override and corrected it. The physician was satisfied with the revised QA scan plan.</t>
         </is>
       </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the incorrect density override value, the lack of planning purposes, the physician's review and request for a dosimetry examination, and the correction of the error by dosimetry. However, the summary uses the term "quality assurance (QA) check" instead of "QA scan," which may cause some confusion as to whether this is the same process being referred to in the narrative. Nonetheless, the overall meaning and content of the two texts are similar."</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -12327,6 +13100,13 @@
 A breast patient reported moist desquamation over the weekend and requested a consultation with the MD before undergoing further treatment. The MD proposed accelerating the schedule by initiating the boost treatment one day earlier than planned. The remaining portion of the initial treatment plan was suggested to be administered later in the week or following completion of the boost.</t>
         </is>
       </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, using slightly different wording but conveying the same meaning. Both the narrative and the summary mention a breast patient experiencing moist desquamation over the weekend, requesting to see the MD prior to treatment, and discussing discontinuing treatment. They also both mention the MD's suggestion to start the boost a day early and plan on giving the last fraction of the original plan later in the week or after the boost is completed. Therefore, I would rate this evaluation as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -12345,6 +13125,13 @@
 The Boost plan did not include instructions for motion management, contrary to the initial plan which was a breath-hold scan. The patient was not resimulated after this discovery. Upon inquiry, it was revealed that the Boost plan had been mistakenly planned based on the original breath-hold scan.</t>
         </is>
       </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary state that the Boost plan did not include instructions for motion management, despite the initial plan being a breath-hold scan. They also both mention that the patient was not re-simulated after this discovery and that the Boost plan had been mistakenly planned based on the original breath-hold scan. The language used in the summary is slightly different from the narrative, but it conveys the same information. Therefore, the evaluation is 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -12363,6 +13150,7 @@
 A patient underwent a procedure involving two identical isotopes, but the documentation did not indicate that they were matching. The patient was prepared for their new treatment session when therapists discovered the oversight.</t>
         </is>
       </c>
+      <c r="D529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -12381,6 +13169,13 @@
 There was a record of HDR patient charges with a distinction between outpatient and inpatient I/O status.</t>
         </is>
       </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the generated summary both convey the same information about the HDR patient charges having different I/O statuses, one as outpatient and the other as inpatient. However, the summary does not explicitly state that the charges had this distinction, which is why it is only similar and not identical to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -12399,6 +13194,13 @@
 The patient arrived at the clinic at 12:41pm, but was not on the scheduled list for treatment by the therapist. The therapy team discovered that approval for the patient's treatment had not been completed yet. The therapist contacted the attending via Vocera for coverage, but the attending was unavailable as they were at another site. The therapist then reached out to DOD for coverage and obtained a phone so the attending could join via Zoom. Around 1:50pm, the therapist went to get the patient from the lobby for their 2pm appointment. However, the patient had not been brought to the treatment area by nursing or undergone the pretreatment interrogation. The therapist asked about the patient's implanted device status but did not consider the interrogation aspect. Nursing inquired about the patient and their pretreatment interrogation when the chart was circulated for the first day visit.</t>
         </is>
       </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the issues with treatment approval, the unavailability of the attending physician, and the failure to complete the pretreatment interrogation. The summary uses slightly different wording but conveys the same meaning as the narrative. Therefore, I would rate the evaluation as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -12417,6 +13219,7 @@
 A medical procedure was initiated on a patient's right breast. The radiation therapy equipment identified areas on the breast with labels "Lt Med Tan" and "Lt Lat Tan" for the tangent fields. This information was communicated to the dosimetry and physics teams.</t>
         </is>
       </c>
+      <c r="D532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -12435,6 +13238,13 @@
 A dosimetrist arranged for a free-breathing CT scan for a patient using contours drawn from a gated scan. However, the dosimetrist was unaware that a gated sheet was required for this procedure. The gated sheet was not filled out correctly, and during pre-quality assurance (QA) checks at the machine, a therapist discovered the issue. A physicist was also present at the time, but they were focused on discussing QA results that were outside of department policy and evaluating the plan.</t>
         </is>
       </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the use of a free-breathing CT scan with contours drawn from a gated scan, the lack of awareness about the need for a gated sheet, and the discovery of the issue during pre-QA checks. However, the summary does not explicitly mention that the physicist missed the gating sheet information due to being focused on discussing QA results outside of department policy and evaluating the plan. Nonetheless, the overall meaning of the narrative and the summary are similar.</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -12452,6 +13262,13 @@
           <t xml:space="preserve"> The event describes the completion of a VMAT (Volumetric Modulated Arc Therapy) breast plan, which met all constraints related to the heart. However, it was discovered after the plan was completed that the patient had heart disease and certain constraints should have been considered during planning. As a result, the plan was sent back for revision but was put in approval status in the meantime. The planner had to duplicate the structure set in order to work on the revision plan.</t>
         </is>
       </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the completion of the VMAT breast plan, the discovery of the patient's heart disease after planning, the need for a revised plan, and the duplication of the structure set. The summary uses slightly different wording but conveys the same meaning as the narrative. Therefore, I would rate this evaluation as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -12470,6 +13287,13 @@
 A physics resident discovered during a weekly chart check that CBCT was not administered as prescribed for fractions 5, 7, 8, 10, 11, and 13 during a patient's radiation therapy. The therapists seemed to have inadvertently followed an "every third fraction" pattern instead of the prescribed daily CBCT. This error went unnoticed by both the Aria system and the patients' physicians, as there were no alerts or notes regarding this issue. The imaging instructions called for kV-kV pre-treatment every treatment, CBCT pretreatment, and CBCT pre-treatment every treatment, with alignments to bony anatomy. Four different physicians reviewed the images in Offline Review, but the prescribing physician was not among them.</t>
         </is>
       </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the discovery of a deviation from the prescribed CBCT schedule, the apparent reason for this deviation (an "every third fraction" pattern), and the fact that the error went unnoticed by both the Aria system and the physicians. The summary also correctly mentions the imaging instructions and the number of physicians who reviewed the images in Offline Review. However, it does not explicitly state that the prescribing physician was not among them, which is a minor omission."</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -12487,6 +13311,13 @@
           <t xml:space="preserve"> The event describes a situation where a therapist was preparing paperwork for two patients (referred to as 'isos') for a new treatment start. However, there were only two copies of the same yellow instruction sheet instead of one for each patient. The therapist had to contact the dosimetrist to obtain a new instruction sheet for the second patient.</t>
         </is>
       </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the fact that there were two yellow treatment delivery instruction sheets instead of one for each patient and that the therapist had to contact the dosimetrist to obtain a new sheet for the second patient. However, the summary does not explicitly mention that both copies of the yellow sheet were identical or that there was no information about couch shifts for the second iso. Therefore, while the summary is generally similar in meaning to the narrative, it is not identical.</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -12505,6 +13336,13 @@
 The gantry angles on the PA transmission fields were misaligned, failing to encircle the patient and avoid potential collisions.</t>
         </is>
       </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the generated summary convey similar meanings. Both describe an issue with the gantry angles on PA transmission fields not being set up correctly, which could lead to a collision with the patient. However, the summary uses the term "misaligned" instead of "not put in correctly," and it specifies that the gantry angles failed to encircle the patient, which is implied but not explicitly stated in the narrative. Overall, the summary accurately captures the main idea of the narrative with some minor differences in wording and detail.</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -12523,6 +13361,13 @@
 A rate of 600 was used instead of the intended 400 for a breast treatment session. The patient did not perform well during the breath-hold phase of the procedure, leading to an extension of the treatment duration.</t>
         </is>
       </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both the narrative and the summary state that a rate of 600 was used instead of 400 for a breast treatment session, and that the patient did not perform well during the breath-hold phase of the procedure, leading to an extension of the treatment duration. The summary is identical in meaning to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -12541,6 +13386,13 @@
 A therapist received a notification to check the positioning of a bolus for a patient's boost plan in site 1.2 Anus. No image confirmation was obtained for the bolus placement during treatment. The dosimetrist was absent at that time, so the dosimetry supervisor verified the bolus placement for the therapist instead. However, the placement differed from the original bolus positioning documented in plan 1.1 Anus, which had been previously confirmed by the dosimetry supervisor for the therapists.</t>
         </is>
       </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative with no discrepancies or missing information. It clearly states that a therapist received an alert to verify bolus placement, and that there was no image verification available at the time of treatment. The dosimetrist was unavailable, so the dosimetry supervisor verified the placement instead, which differed from the original plan. This is all detailed in the narrative, and the summary captures it perfectly.</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -12560,6 +13412,7 @@
 2. Two of the arc fields' Gantry angles were too near the patient's right arm, causing pressure during the arc. The dosimetrist and physicist were consulted to address the issue.</t>
         </is>
       </c>
+      <c r="D540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -12578,6 +13431,13 @@
 A mistake occurred during a simulation session where the incorrect gating threshold was chosen. The patient underwent 4D gating, but the session options were set to Amplitude, Periodic and 20 instead of the required Phase, Periodic, 20. This error was identified during a therapy check before treatment and was rectified by Dr. Shen without delaying the start of the day.</t>
         </is>
       </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe an incident where the incorrect gating threshold was selected during a simulation session, which was later corrected before treatment without causing any delays. The details provided in both texts match exactly, including the type of gating used (4D), the incorrect and correct settings for the session options, and the person who rectified the error (Dr. Shen). Therefore, the evaluation is 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -12596,6 +13456,13 @@
 A patient's electronic consent form does not include the treatment site information. Upon arrival for treatment, a new consent form will be completed.</t>
         </is>
       </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that the patient's electronic consent form lacks treatment site information and that a new consent form will be filled out when the patient arrives for treatment.</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -12614,6 +13481,13 @@
 Therapists had to manually correct errors in HDR records for incomplete or inaccurate billing data, patient statuses, account numbers, and course selections.</t>
         </is>
       </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both describe therapists having to manually correct errors in HDR records due to issues with billing data, patient statuses, account numbers, and course selections.</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -12632,6 +13506,13 @@
 A patient's treatment plan was designed using the LongBOS system instead of the ShortBOS to prevent dose delivery through the couch base wedge. However, this detail was not communicated to therapists who initially prepared the patient for treatment on the ShortBOS. During the first session, a physicist noticed a discrepancy in the wedge position during a CBCT scan and prompted the patient's relocation to the LongBOS before any proton beam was administered.</t>
         </is>
       </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information, with the summary being a more concise version of the narrative. Both describe the creation of a patient's treatment plan on the LongBOS instead of the ShortBOS to avoid delivering dose through the couch base wedge, the failure to communicate this change to therapists, and the subsequent discovery and correction of the error by a physicist during the first session. The use of identical language and structure in both pieces further supports their equivalence.</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -12650,6 +13531,7 @@
 A patient initiated a medical treatment that had not been previously authorized or approved by their healthcare provider.</t>
         </is>
       </c>
+      <c r="D545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -12668,6 +13550,13 @@
 A consent form signed by a different physician than the one set to administer the treatment is required. A new consent form will need to be obtained and signed prior to the procedure.</t>
         </is>
       </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that the attending physician who was supposed to sign the consent form did not do so, and a new consent form needs to be signed by the appropriate physician before treatment can begin.</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -12686,6 +13575,13 @@
 The fiducial tracking structures did not provide accurate results. An incorrect structure set was used. The instruction manual stated that tracking images should be continuous during beam delivery, but the patient was not gated. This issue was reported to physics who then sent the correct structure set and advised to track every 10 degrees instead.</t>
         </is>
       </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary state that the fiducial tracking structures were not accurate, an incorrect structure set was used, the instruction manual stated that tracking images should be continuous during beam delivery but the patient was not gated, and physics was informed about the issue who then sent the correct structure set and advised to track every 10 degrees instead. The language and phrasing used in both texts are also very similar, making it clear that the summary accurately conveys the meaning of the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -12704,6 +13600,7 @@
 A physicist inputted an 'MU' value incorrectly on an IMRT QA (Quality Assurance) sheet for MU (Monitor Units).</t>
         </is>
       </c>
+      <c r="D548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -12722,6 +13619,13 @@
 A request was made in a CT simulation order for respiratory motion management using a four-dimensional scan, which covers phases 0-90. However, the ordering physician preferred breath hold instead. The instruction specified that the left breast was to be simulated with the patient's head turned towards their right shoulder. The procedure involved setting up the patient for bilateral breast cancer simulations.</t>
         </is>
       </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the requested respiratory motion management method, the physician's preference for breath hold, and the setup instructions for left breast simulation with head turned to right shoulder. However, it fails to explicitly mention that the order was for bilateral breast cancer simulations, instead implying this by stating "the procedure involved setting up the patient for bilateral breast cancer simulations." While this is a subtle difference, it may be important in certain contexts, and thus warrants a grade of 'Similar' rather than 'Identical'."</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -12740,6 +13644,13 @@
 A request for a density override was made for targets situated near the pelvis due to concerns that the gross tumor volumes (GTVs) were extending beyond the body. It is unclear whether this check is typically carried out by dosimetry before or after the process. An additional, less significant issue was identified: wires being overridden outside the body. However, this action is unnecessary unless the wires penetrate the patient's anatomy. The dosimetry procedure is undergoing revisions and will explicitly state that objects outside the body contour should not be overridden in the future.</t>
         </is>
       </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the primary concern about GTVs being drawn outside the body and the secondary concern about wires being overridden unnecessarily. The summary also correctly mentions that it is unclear whether this check is typically carried out by dosimetry before or after the process, and that the dosimetry procedure is undergoing revisions to explicitly state that objects outside the body contour should not be overridden in the future. Therefore, I would rate the summary as 'Identical' to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -12758,6 +13669,7 @@
 The patient's planned start time for her boost regimen was 11:55 am on November 9th. However, approval for the boost plan was not granted until approximately 9:30 am on the same day.</t>
         </is>
       </c>
+      <c r="D551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -12776,6 +13688,13 @@
 A problem was identified during an adaptive session where a section of a primary influencer structure, located next to the PTV (Point of Total Vein Occlusion), was not shaped correctly. A modification to the plan, which includes correcting the contour, was proposed.</t>
         </is>
       </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the discovery of a problem with the primary influencer structure and the proposal for a plan revision with a contour correction. However, the phrase "shaped correctly" in the summary is not an exact match to the original narrative's use of "contoured." Nonetheless, the overall meaning of the two texts is similar.</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -12794,6 +13713,13 @@
 The attending instructed nine therapists to prepare a patient for ReCT (Radiosurgery Stereotactic Body Radiation Therapy) due to tumor changes, and advised them to use Ethos as the machine instead of IX. The patient required a bolus during CT simulation for Ethos. An order was placed by the attending for the simulation but did not include the specification of Ethos and bolus. The patient underwent scanning with the bolus applied. During the addition of the patient to the whiteboard for replanning, the therapists failed to specify Ethos and bolus. As a result, the dosimetrist planned the replan for IX instead of Ethos. Upon reviewing the replan, the dosimetrist noticed that the therapists had added a task for resim (re-simulation) for Ethos. Therefore, the patient's treatment will be carried out on IX rather than Ethos.</t>
         </is>
       </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the attending's instructions to use Ethos instead of IX, the need for a bolus during CT simulation, the failure to specify Ethos and bolus during replanning, and the resulting treatment on IX instead of Ethos. However, the summary omits the detail that the therapists added a task for resim (re-simulation) for Ethos after the replan was completed. This is a minor discrepancy that does not significantly affect the overall meaning of the narrative or the summary.</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -12812,6 +13738,13 @@
 A prescription for a patient called for administration twice a week. This weekly dose was overlooked during one instance, which was identified by the doctor during visit number sixteen on October 28th. The therapists were subsequently informed and arranged for the medication to be administered twice a week starting immediately.</t>
         </is>
       </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both convey that a patient's prescription required administration twice a week, this was missed once, and therapists were notified to start administering it twice a week immediately after discovery.</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -12830,6 +13763,13 @@
 A patient underwent a three-field (PA, LPO, RPO) spine treatment with an atypical wingboard indexing during the planning stage due to her height (A2/H5 instead of A3/H5). During her CT scan at HSROC, she was positioned at A3/H5 without updating her setup notes. When planned, a shift of sim index +1 was documented, which was interpreted as needing to go to A2/H6 instead of A3/H6 due to the incorrect setup notes. This resulted in the wedge of the couch base being located within the treatment field rather than superior to it. The treatment field is longer than the imaging, and the wedge was above the superior aspect of the image at isocenter, so this error was not detected during imaging. An observant therapist noticed the issue on the 24th fraction of the patient's 28-fraction treatment, meaning that it had been present for 23 treatments. The dose calculation is pending, but it is expected that part of the target volume will have received an underdose.</t>
         </is>
       </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the patient's treatment plan, the atypical wingboard indexing, the setup error that resulted in the wedge being located within the treatment field, and the fact that the issue was not detected until the 24th fraction of the patient's treatment. The summary also correctly notes that dose calculation is pending and that part of the target volume is expected to have received an underdose as a result of the error. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -12848,6 +13788,13 @@
 A new 90 MV DRR (Digital Radiography System) does not have a digital graticule for overlapping with the hard graticule during filming. Consequently, dosimetry correction and physics treatment need to be revised and approved again.</t>
         </is>
       </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both the narrative and the summary state that a new 90 MV DRR does not have a digital graticule, which is required for overlapping with the hard graticule during filming. Additionally, both sources mention that this issue necessitates dosimetry correction and physics treatment re-approval. Therefore, the meaning of the narrative and the summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -12866,6 +13813,12 @@
 A message on the powerchart system was used to initiate the premature termination of a patient's treatment, following which an email was dispatched requesting that the treating physician add a notification about the early conclusion of the therapy. It was later determined that the electronic prescription (eRX) needed to be updated. A page was subsequently sent to the MD to ask her to modify the eRX before the patient's final treatment session.</t>
         </is>
       </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Narrative and summary match closely, as both convey the same information about a powerchart message being used to end a patient's treatment early, an email being sent requesting that the treating physician add a notification, and a determination that the eRX needed to be updated with a page being sent to the MD to ask her to modify it before the final treatment session. The summary captures the key details of the narrative accurately, making it a 'Similar' match.</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -12884,6 +13837,7 @@
 Two options for treatment were evaluated, yet no definitive approval for the application of a treatment was granted.</t>
         </is>
       </c>
+      <c r="D558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -12902,6 +13856,13 @@
 The patient's right breast was not secured superiorly during a proton liver treatment session, unlike how it was done during the simulation. The setup sheet from the simulation lacked detailed information. During a therapy group discussion, it was decided that all future proton liver treatments will adhere to the standard procedure of taping the right breast superiorly if necessary.</t>
         </is>
       </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that the patient's right breast was not taped during a proton liver treatment, which differed from the simulation setup. Additionally, both sources mention that the simulation setup sheet lacked necessary details and that future treatments will follow the standard procedure of taping the right breast superiorly if required.</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -12920,6 +13881,13 @@
 A patient received the wrong gating file during her treatment session on Friday, 11/12. Instead of using her intended file, a boost breath hold file was applied. As of now, she has not initiated her boost therapy. The patient undergoes daily KV Orthos and CBCT scans.</t>
         </is>
       </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the incorrect gating file used during treatment, the specific type of file that was mistakenly selected, and the fact that the patient has not yet started her boost therapy. The summary also correctly mentions the patient's daily KV Orthos and CBCT scans. However, the summary does not explicitly state that the narrative refers to a female patient, which is implied but not directly stated in the original text."</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -12938,6 +13906,13 @@
 A patient received intravenous injection of iodixanol (IX) for kidney, ureter, and bladder imaging on the first day. The patient was scheduled for external beam radiation therapy (ex) the following day. However, the patient's cradle could not be found on the second day. It was later discovered that the incorrect cradle, belonging to another patient with the same last name, had been used by mistake the previous day. The correct cradle was located in the storage cabinet for patients awaiting treatment. Images and shifts were made on the ex, and new marks were placed on the patient before treatment. Unfortunately, the gating file from the first day was not saved, and there was no pretreatment checklist completed.</t>
         </is>
       </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both describe a patient who received an IV injection of iodixanol for imaging on the first day, was scheduled for external beam radiation therapy on the second day, had their cradle misplaced and used by another patient, and then received treatment with new marks placed on them. The summary also correctly mentions that the gating file from the first day was not saved and there was no pretreatment checklist completed. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -12956,6 +13931,13 @@
 A care path was not scheduled for a patient. The patient underwent a new patient conference for proton therapy and a plan was approved. However, due to the absence of a scheduled care path, the PSQA (Proton Specific Quality Assurance) was postponed by four days.</t>
         </is>
       </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative with no discrepancies in meaning or content. Both the narrative and the summary convey that a care path for a patient was not scheduled, leading to a delay in the PSQA after the approval of a proton therapy plan during a new patient conference.</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -12973,6 +13955,7 @@
           <t xml:space="preserve"> The event describes a therapist discovering that new plan documents for a patient were not properly filed in their chart. The therapist noticed this during a routine chart check, and upon further investigation found that the documents had been saved in the deleted file instead of being printed and placed into the chart. The patient had undergone a re-simulation in March, but there was no record of this in the chart or any documentation of changed gating files. The therapist was able to recover and print the missing documents and complete the chart check successfully, although it took an additional 30 minutes to locate and assess all the missing documents.</t>
         </is>
       </c>
+      <c r="D563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -12991,6 +13974,13 @@
 A consultation with an imaging specialist was necessary for a patient, but no corresponding task was generated on the Aria system for physics to initiate the process. At 5pm the day before treatment, the therapy team informed physics of this requirement. The consultation was completed prior to the treatment session, and physics subsequently added a task in Aria for billing purposes.</t>
         </is>
       </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the need for a consultation, the lack of a corresponding task on Aria, the notification of physics by the therapy team, and the completion of the consultation prior to treatment. The only minor difference is that the narrative specifies that the task was added in Aria for billing purposes, while the summary simply states that a task was added in Aria. However, this does not significantly alter the meaning of the summary or its similarity to the narrative."</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -13008,6 +13998,13 @@
           <t xml:space="preserve"> A patient did not provide consent before undergoing a simulation for a new treatment site, despite having given consent for previous treatment in December. The Health Sciences Research Ethics Committee was notified to ensure that the patient is properly consented before receiving the new treatment (radiosurgery).</t>
         </is>
       </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the lack of proper consent for a new treatment site and the notification of the Health Sciences Research Ethics Committee. However, it does not explicitly state that the patient was confused about the need for additional consent, which is mentioned in the narrative."</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -13026,6 +14023,13 @@
 A CT simulation order included instructions for a Trigeminal Neuralgia setup, but an intravenous (IV) administration of Omnipaque contrast was also ordered. However, IV contrast is typically not used in the Trigeminal Neuralgia setup. A radiology technologist (RTT) questioned the physician about this discrepancy, and he clarified that he did not intend for the Trigeminal Ne neuralgia setup to include IV contrast administration.</t>
         </is>
       </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the presence of conflicting instructions in the CT simulation order, the fact that IV contrast is typically not used in the Trigeminal Neuralgia setup, and the RTT's conversation with the physician to clarify the order. The use of slightly different wording and phrasing in the summary does not significantly alter the meaning or accuracy of the information conveyed."</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -13044,6 +14048,13 @@
 A QACT scan performed by Dosi was transmitted to a physician without the appropriate override for the couch core and couch shell. As a consequence, there was a significant disparity between the prescribed treatment plan and the data obtained from the initial QACT. The physician arranged for another QACT to be conducted in order to confirm the accuracy of the dose based on the discrepancy identified from the initial scan.</t>
         </is>
       </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary describe a situation where a QACT scan was performed by Dosi and sent to a physician without the correct override for the couch core/couch shell, resulting in a large dose discrepancy from the treatment approved plan. The physician then scheduled another QACT to verify the dose based on the discrepancy seen from the original QACT. The summary uses slightly different wording but conveys the same information as the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -13062,6 +14073,13 @@
 A physician informed dosimetry through a processmaker that a patient undergoing surgery required a resimulation. Dosimetry cancelled the new start appointment in Aria and scheduled a re-simulation appointment instead. However, therapy/scheduling was not alerted to cancel the original new start appointment for the patient. The patient arrived at the facility for the originally scheduled new start appointment but had not undergone the resimulation yet.</t>
         </is>
       </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the physician's notification to dosimetry, the cancellation and re-scheduling of the new start appointment, and the patient arriving for the original appointment without having undergone the resimulation. However, the summary does not explicitly mention that therapy/scheduling was not notified about the need to cancel the original appointment, which is a minor but important detail in the narrative. Therefore, I would rate the summary as 'Similar' rather than 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -13080,6 +14098,13 @@
 A discrepancy was identified in the magnetic resonance unit (MU) settings when preparing to begin imaging for a new patient. The MUs were found to be different from what was documented in the chart. As a result, it was determined that the patient had been scheduled for a revision plan (1.1R1) instead of the originally intended plan (1.1). Therapy staff were not informed of this change and needed to print the revised plan accordingly.</t>
         </is>
       </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the discovery of a discrepancy in MU settings, the realization that the patient was scheduled for a different plan than intended, and the need to inform therapy staff and print the revised plan. The only difference is that the summary uses the term "magnetic resonance unit" (MU) instead of "monitor units" (MUs), but this does not affect the overall meaning or accuracy of the summary."</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -13098,6 +14123,13 @@
 A patient underwent scanning for treatment planning with varying bladder conditions, as indicated neither in the prescription nor the treatment planning system. The therapist had to consult the system to ascertain the status of the bladder. The issue of specifying full or empty bladder during patient preparation has resurfaced as a potential source of confusion.</t>
         </is>
       </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the patient's scanning with varying bladder conditions, the lack of clear instructions in the prescription or treatment planning system, and the therapist's consultation of the system to determine the status of the bladder. However, the summary uses the term "treatment planning" instead of "planning," which is a minor discrepancy. Overall, the meaning of the narrative and the summary are similar.</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -13115,6 +14147,13 @@
           <t xml:space="preserve"> A group of healthcare professionals encountered an issue with a patient's radiation therapy treatment. They attempted to contact the planning dosimetrist via Vocera messaging but did not receive a response. They then contacted physics and spoke with a physicist, who informed them that the imaging had not been scheduled. Another dosimetrist soon resolved the issue and added the images. However, during the treatment process, it was discovered that the field labels were incorrectly labeled as LPO instead of RPO. The error was reported to the physicists for correction.</t>
         </is>
       </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the issue with scheduling imaging, the attempts to contact the planning dosimetrist and physicist, and the discovery of incorrect field labels during treatment. However, the summary does not explicitly mention that another dosimetrist resolved the imaging issue or that the treatment was delayed as a result. These details are implied in the summary but not directly stated, which is why I have rated it as 'Similar' rather than 'Identical'."</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -13133,6 +14172,13 @@
 A plan, rather than a treatment, was given approval at 3:30 pm for a new appointment starting at 6:00 pm.</t>
         </is>
       </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately conveys the main points of the narrative, stating that a plan was approved rather than a treatment and that this occurred at 3:30 pm for an appointment starting at 6:00 pm. However, it uses the word "given" instead of "approved," which slightly changes the meaning. Nonetheless, the overall meaning is similar to that of the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -13151,6 +14197,13 @@
 A revision to a patient's treatment plan was made without informing the therapists involved. The discrepancy was discovered during a routine check, as the updated plan did not align with the current version recorded on the yellow sheet.</t>
         </is>
       </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a revision to a patient's treatment plan was made without informing the therapists and that the discrepancy was discovered during a routine check. The key points of the narrative are preserved in the summary, making it identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -13169,6 +14222,13 @@
 A discrepancy was identified during a new patient chart review regarding the technique listed on the electronic prescription (eRX) for Intensity-Modulated Radiation Therapy (IMRT) for breast treatment. The recorded technique was incorrectly entered as "tangents." Additionally, there was an error in the imaging instructions, which specified KV/fx 1 and MV weekly. The point of delivery (POD) and dosimetrist were notified of these issues.</t>
         </is>
       </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information presented in the narrative. Both the narrative and summary mention the incorrect technique listed on the eRX for IMRT breast treatment, as well as the incorrect imaging instructions. Additionally, both indicate that the POD and dosimetrist were notified of these issues. Therefore, the meaning of the narrative and the summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -13187,6 +14247,13 @@
 A head and neck patient, who had a pacemaker, had their device's information incorrectly documented in the electronic medical record (EMR). The image of the pacemaker card was also not sent via email. During the import process, the pacemaker was identified. A special physics consult was added to the patient's chart as a result. However, this consultation was not claimed until ten days later.</t>
         </is>
       </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided. It correctly identifies the patient as having a pacemaker and mentions that the device's information was incorrectly documented in the EMR. The summary also notes that an image of the pacemaker card was not sent via email, and that during the import process, the pacemaker was identified and a special physics consult was added to the patient's chart. Finally, the summary correctly states that this consultation was not claimed until ten days later. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -13205,6 +14272,7 @@
 A therapy session chart review revealed the absence of a gating printout sheet for the patient, despite the prescription specifying its requirement.</t>
         </is>
       </c>
+      <c r="D576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -13223,6 +14291,7 @@
 A medical procedure involving a patient included a plan for a boost based on data obtained during a breath hold scan. However, the option to indicate breath hold as a gating method was absent from the resulting prescription (RX).</t>
         </is>
       </c>
+      <c r="D577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -13241,6 +14310,13 @@
 A structure labeled '_DO^Water_0' was shaped in the physics system but lacked a CT number assignment, meaning no density overrides were applied. The structure was located outside of the treatment field and did not affect the plan's quality with respect to dosimetric impact. Structures bearing the prefix "_DO^" indicate that they have density overrides and are flagged during safety checks.</t>
         </is>
       </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and summary are similar in meaning. Both convey that a structure named '_DO^Water_0' was contoured but did not have a CT # assigned, indicating no density overrides were applied. They also both mention that the structure was outside of the treatment field and did not impact plan quality dosimetrically. Lastly, they both state that structures with the prefix "_DO^" signify density overrides and are flagged during safety checks. However, the summary is more concise and better organized than the narrative, making it easier to understand.</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -13259,6 +14335,7 @@
 The treatment machine team discovered that the patient's treatment plan, which they intended to access, was still in the approval stage. They spoke with the dosimetry department about the matter and learned that no task had been assigned for a physics check of the chart prior to quality assurance (QA) being completed.</t>
         </is>
       </c>
+      <c r="D579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -13277,6 +14354,13 @@
 A patient's simulation procedure was charged on Tuesday, February 1st, at 3:00 PM. The patient was scheduled for an appointment on Wednesday, February 2nd, at 3:20 PM. A prescription was created for the patient on February 2nd, at noon, and approved by the physician at 1:54 PM. The treatment plan was then approved by the physicist at 2:54 PM. The therapists received the chart to complete their chart check and review only a short time before the scheduled appointment.</t>
         </is>
       </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the date and time of the patient simulation procedure charges, the scheduled appointment time, the creation and approval times of the prescription and treatment plan, and the timing of when the therapists received the chart for review. The language used in the summary is also very similar to that in the narrative, making it clear that the meaning of the two texts is identical.</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -13295,6 +14379,7 @@
 A deviation from the intended blade position on field 02 during the second fraction of a three-part process was observed. Correction measures will be implemented on fraction 3 (fx 3).</t>
         </is>
       </c>
+      <c r="D581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -13313,6 +14398,13 @@
 A missing physics consultation for a cochlear implant was noticed in PowerChart before a single fraction SRS treatment. The physicist alerted the physician and neurologist during the patient's imaging session, ensuring safety checks were conducted and recommendations discussed prior to approval for beam-on. The consult note was documented post-treatment.</t>
         </is>
       </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the missing consultation, the physicist's actions, and the timing of the consult note. However, it incorrectly identifies the subject of the consultation as a cochlear implant instead of the SRS treatment."</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -13331,6 +14423,13 @@
 A dosimetrist reviewed plans from two patients on the same day, both having been created by the same planner. In the first plan, density overrides were carried out and approved by the dosimetrist. However, in the second plan, multiple high-density artifacts, such as dental fillings and bone cement, were present around and within the target area without any density override procedure being implemented.</t>
         </is>
       </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that a dosimetrist reviewed plans from two patients created by the same planner on the same day, that density overrides were carried out and approved in the first plan, and that there were high-density artifacts present in the second plan without any density override procedure being implemented. However, the summary does not explicitly state that no density override was performed in the second plan, only implying it through the presence of high-density artifacts. Nonetheless, the meaning of the narrative and the summary are closely aligned."</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -13349,6 +14448,13 @@
 A resident physician improperly executed an electronic consent form for a treatment that did not belong to the Radiation Oncology department. The form, which required both the attending physician and a witness to sign electronically, had the attending physician listed as the resident and the resident as the witness and provider instead. As a result, a new consent form will be obtained from the attending physician and the patient prior to the treatment.</t>
         </is>
       </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a resident physician improperly executed an electronic consent form for a treatment that did not belong to the Radiation Oncology department, with the attending physician listed as the resident and the resident as the witness and provider. The summary also correctly mentions that a new consent form will be obtained from the attending physician and the patient prior to the treatment.</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -13367,6 +14473,7 @@
 A patient's radiation therapy plan called for a rapid arc delivery method, but the prescribed treatment technique specified the use of tangents.</t>
         </is>
       </c>
+      <c r="D585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -13385,6 +14492,7 @@
 Some overrides in the dosimetry were identified during a physics check in a plan revision that did not have assigned CT values for structures they affected. These overrides had minimal dosimetric implications. They were implemented before the commencement of the revision plan.</t>
         </is>
       </c>
+      <c r="D586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -13403,6 +14511,13 @@
 A patient undergoing radiosurgery for the lumbar spine received incorrect blade parameters during the first two fractions due to an error in the physics consult sheet. The incorrect settings were used for tracking the body, resulting in a larger area being tracked than necessary. On the third fraction, the issue was identified and corrected by using the revised physics consult sheet with the correct blade parameters.</t>
         </is>
       </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the incorrect blade parameters used during the first two fractions, the error in the physics consult sheet, and the correction made on the third fraction. However, it does not explicitly mention that the previous sheet was used to set the blades for tracking or that the SBRT physics person for the day was aware of the patient and informed about the revision. Nonetheless, these details do not significantly change the overall meaning of the narrative, making the summary similar to the original text.</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -13421,6 +14536,7 @@
 One of the isocenters on a therapy session's mid-chest area has planned arcs going in the same direction. For the post-monitoring treatment, the physics team needs to approve a dose exceedance at only one isocenter.</t>
         </is>
       </c>
+      <c r="D588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -13439,6 +14555,13 @@
 A patient undergoing brachytherapy with 12 needles in Kelowna had their scans assessed, revealing a need for adjustments. A second CT scan was acquired post-adjustment and confirmed by both an MD and QMP. However, upon importing the scans for treatment planning, two identical CT scans were discovered, labeled as "OMER - Scan Ini" and "Scan Ini." The origin of these scans could not be verified due to conflicting information. An attempt was made to contact CT to clarify which scan was sent, but they were unreachable during their lunch break. When the CT staff returned, it was discovered that the post-adjustment scans had been incorrectly labeled as "OMER - Scan Ini" and "Scan Ini," while the pre-adjustment scans and reconstructions had been deleted.</t>
         </is>
       </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the need for adjustments to the brachytherapy patient's needles, the acquisition of a second CT scan post-adjustment, and the discovery of two identical scans during treatment planning. However, the summary does not explicitly state that the pre-adjustment scans were deleted, only implying it by mentioning conflicting information about the origin of the scans. Therefore, while the summary is generally similar to the narrative, it could be more specific in this regard.</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -13457,6 +14580,13 @@
 A yellow shift sheet for a revision was produced, excluding the shifts from the original plan. Consequently, the revised plan displayed three-directional shifts when in fact there were supposed to be no shifts from the current isocenter. The patient underwent treatment at the intended location despite these discrepancies.</t>
         </is>
       </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the meaning of the narrative, stating that a yellow shift sheet for a revision was created without including the shifts from the primary plan, resulting in a revised plan indicating three-directional shifts when there should have been none. The patient was still treated at the correct location despite these discrepancies. Both the narrative and summary convey the same information and use similar language to do so, making them identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -13475,6 +14605,13 @@
 There was an approval or qualification process for a plan, but not a treatment, in Powerchart at 11:50am. The new start for this process was scheduled for 1:15pm.</t>
         </is>
       </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the fact that there was an approval or qualification process for a plan (not treatment) in Powerchart at 11:50am and that the new start for this process was scheduled for 1:15pm. However, the summary does not explicitly state that the approval or qualification process was not completed, which is implied in the narrative. Therefore, while the summary is generally similar to the narrative, it is not identical.</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -13493,6 +14630,7 @@
 An error occurred in the labeling of an image identified as KV. The designation 'KV0' is incorrect, and it should instead be referred to as KV180.</t>
         </is>
       </c>
+      <c r="D592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -13511,6 +14649,13 @@
 The physicist discovered at the first weekly chart assessment (three weeks into treatment) that the submitted treatment plan lacked the second hand calculation file for electrons. The physicist then added this missing document to the plan. It was expected to have been uploaded during the treatment plan review before the therapy commenced.</t>
         </is>
       </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the fact that a hand calculation document for electrons was missing from the treatment plan and that the physicist uploaded it during the first weekly chart check. However, there is a discrepancy in the time frame mentioned in the summary. The narrative states that the first weekly chart check occurred three fractions into treatment, while the summary incorrectly states that it occurred three weeks into treatment. This difference in timing does not significantly affect the overall meaning of the summary and can be considered a minor error.</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -13529,6 +14674,7 @@
 A patient who was supposed to be gated during treatment preparation was not marked as such in the system. The 'gating checkmark' was not activated. The dosimetry team was informed before the patient arrived to rectify the issue.</t>
         </is>
       </c>
+      <c r="D594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -13547,6 +14693,13 @@
 A discrepancy was identified during a pre-treatment therapist check regarding the selection of 'breath hold' in the gating section of a radiation therapy prescription. The prescription was named '1.1R1 R CW BH with 5 ARCS'. However, upon receiving a Gating/Breath Hold instruction sheet from dosimetry, it was questioned whether the prescription accurately reflected the intended treatment method. The physician was contacted to confirm that breath hold was indeed required for the treatment, and she verified this and added a patient alert for breath hold treatment.</t>
         </is>
       </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical in meaning to the narrative. Both convey that there was an issue with the prescription not having 'breath hold' selected during a pre-treatment therapist check, and that the physician was contacted to confirm that breath hold was required for the treatment. Additionally, both mention that a patient alert was added for breath hold treatment.</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -13565,6 +14718,13 @@
 A patient's primary treatment plan involved using breath holds during the procedure, as indicated in the prescription (eRx) for that plan. The boost plan prescription also did not include any breath hold gating instructions but was intended to be carried out on the same breath hold basis as the primary plan. A doctor confirmed with the patient that they were to use breath holds during the treatment and were instructed to update the eRx accordingly.</t>
         </is>
       </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative, stating that the patient's primary and boost plans involved using breath holds and that this was confirmed by the doctor. The summary also mentions that the prescription for the boost plan did not include any gating instructions but was intended to be carried out on the same breath hold basis as the primary plan. Overall, the meaning of the narrative and the summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -13583,6 +14743,13 @@
 A patient's prescription (RX) did not contain a gating requirement, as indicated on a yellow sheet attached to the RX. The therapist noticed this discrepancy and reported it to physics, who then instructed the MD to modify the RX accordingly.</t>
         </is>
       </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information about a patient's prescription (RX) that did not have gating, as indicated on a yellow sheet attached to the RX. A therapist noticed the discrepancy and reported it to physics, who then instructed the MD to modify the RX accordingly. Both the narrative and summary use different words but convey the same meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -13601,6 +14768,7 @@
 A scheduled patient arrived at the STX for a new treatment plan. Upon arrival, two lung plans were retrievable from the system for this patient.</t>
         </is>
       </c>
+      <c r="D598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -13619,6 +14787,7 @@
 The angle value 169 was entered into the KV 359 system for the gantry.</t>
         </is>
       </c>
+      <c r="D599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -13637,6 +14806,13 @@
 A therapist discovered an issue with a patient's treatment plan, as the necessary number of fractions did not appear to be available for treatment. Upon examination, it was found that the patient had only been scheduled for ten fractions instead of the prescribed twelve. The therapist double-checked all prescriptions and confirmed that there had been no revisions made. Subsequently, the physics team added the required two fractions to complete the patient's course.</t>
         </is>
       </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative with only minor differences in wording. Both convey that the therapist found an issue with the patient's treatment plan, discovered a discrepancy between scheduled and prescribed fractions, confirmed there had been no revisions, and had the physics team add the necessary fractions to complete the course. The summary is identical in meaning to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -13655,6 +14831,14 @@
 A patient underwent a resimulation on November 9th due to setup issues. During this resim, a new breath hold file was created with settings at 2.13 and 1.62. The patient was then treated according to the original plan using the newly created breath hold file. However, upon opening the plan, the therapist mistakenly selected the incorrect breath hold file. The correct file, which should have been used, had parameters of 1.96 and 1.46.</t>
         </is>
       </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nov 20, 2022 1:35 AM
+Grade: Identical
+Explanation: The generated summary accurately reflects the narrative provided, with no discrepancies in the sequence of events or the details of the breath hold file parameters. Both the narrative and the summary convey that a resimulation was performed on November 9th due to setup issues, a new breath hold file was created with specific parameters, the patient was treated according to the original plan using the newly created breath hold file, but there was an error in selecting the incorrect breath hold file, and the correct file had different parameters. Therefore, I would grade this as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -13673,6 +14857,13 @@
 A patient's prescription was altered to incorporate CBCT imaging instead of daily kv-kv gated imaging. The patient expressed that daily kv was unnecessary, and CBCT alone would suffice. However, therapists require additional context regarding potential alignment or shift adjustments during the procedure. This modification returned the prescription to plan approval status, causing a delay in treatment as therapists were unable to access the plan for delivery upon discovery of this change. They subsequently contacted physics for investigation.</t>
         </is>
       </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. It correctly states that the patient's prescription was changed from daily kv-kv gated and CBCT imaging to only CBCT imaging, and that the patient stated that daily kv was unnecessary. The summary also mentions the need for additional context for therapists and the delay in treatment caused by the change in prescription status. Overall, the meaning of the narrative and the summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -13689,6 +14880,13 @@
         <is>
           <t xml:space="preserve">
 A patient's prescription did not include gating instructions. By mistake, default gating settings were activated during the scan. The patient was supposed to hold their breath but this was not indicated in the yellow sheet or any other location. The patient was confirmed by physics to have been planned for a breath hold scan. There was a ten-minute delay while the prescription was corrected.</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the absence of gating instructions in the prescription, the activation of default gating settings, the planned breath hold scan that was not indicated on the yellow sheet, and the delay caused by fixing the prescription. However, the summary uses the phrase "by mistake" to describe the activation of default gating settings, while the narrative does not specify whether this was intentional or accidental. Additionally, the summary states that the patient was confirmed by physics to have been planned for a breath hold scan, while the narrative only mentions that the patient was verified by physics."</t>
         </is>
       </c>
     </row>
@@ -13726,6 +14924,13 @@
 On June 25, proton therapists discovered that Patient X's setup was not aligning properly. In the previous week, he had undergone a QA scan and re-simulation with both his old and new masks. The old mask, which featured a hyperextended chin, caused discomfort for the patient. As a result, a decision was made to perform a quality assurance (QA) scan using the old mask and re-simulate with the new one. However, on this day, it seemed that Patient X required a more hyperextended chin than was possible with the new neutral mask. The therapists questioned whether they had the correct scans and suggested trying the old mask instead. To their surprise, the images aligned perfectly using the old mask. The therapist effectively resolved this issue by identifying the mislabeling or mixing up of the masks during the simulation process.</t>
         </is>
       </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main events and issues described in the narrative, including the problem with Patient X's alignment, the re-simulation with both old and new masks, and the therapist's discovery that the old mask provided a better alignment. However, the summary does not explicitly mention the mislabeling or mixing up of the scans, which is a crucial aspect of the narrative. Therefore, while the summary is generally similar to the narrative, it lacks some specific details that would make it identical.</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -13743,6 +14948,13 @@
           <t xml:space="preserve"> The event describes an incident where new settings were used for a breast MRI scan, resulting in incorrect imaging. The radiology team had to rectify the issue by adjusting the dosimetry and obtaining approval from the physics department, causing a delay of twenty minutes for the patient who was already on the table.</t>
         </is>
       </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly identifies that new settings were used for a breast MRI scan, which resulted in incorrect imaging. The summary also mentions that the radiology team had to rectify the issue by adjusting the dosimetry and obtaining approval from the physics department, causing a delay for the patient. Overall, the summary is identical in meaning to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -13761,6 +14973,13 @@
 A prescription issued by MD called for a cylinder size of 35 cm rather than the intended 3.5 cm for a brachytherapy treatment. The error was corrected prior to the administration of the treatment.</t>
         </is>
       </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information, stating that an MD's prescription for a cylinder size in a brachytherapy treatment had an error, which was corrected before the treatment was administered. Both sources specify the incorrect value as 35 cm instead of 3.5 cm.</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -13778,6 +14997,13 @@
           <t xml:space="preserve"> The therapist noticed that the patient lived in Mississippi while scheduling adaptive treatment. According to the New Start task, there was no housing or lodging indicated. However, during a CT simulation encounter, the patient reported having housing or lodging. This information was not added to the whiteboard, resulting in the New Start task still displaying 'NO' for housing or lodging.</t>
         </is>
       </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the discrepancy between the New Start task and the CT simulation encounter regarding the patient's housing/lodging situation. However, the summary does not explicitly state that the therapist dropped the assessment to Janie after the CT simulation encounter, which is mentioned in the narrative. Nonetheless, this detail does not significantly affect the overall meaning of the narrative, so the summary can still be considered similar to the original text.</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -13797,6 +15023,13 @@
 A dosimetrist initiated the dose calculations (DOs) for a treatment plan involving a pacemaker, noting that the DOs related to titanium (DO^Ti) and sulfur-silicon (DO^SS) required adjustment. The DOs were approved, but queries arose before the plan could begin. A second expert opinion was sought, resulting in modifications to the DOs to enhance override capabilities closer to and within the target volume.</t>
         </is>
       </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by mentioning the initiation of dose calculations for a treatment plan involving a pacemaker, the need for adjustments to DO^Ti and DO^SS, the approval of the DOs, the queries before plan start, the seeking of a second expert opinion, and the modifications made to enhance override capabilities near and within the target volume. The summary captures all essential details from the narrative, making it identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -13815,6 +15048,13 @@
 The therapist identified an inconsistency in the triggered imaging directions for a specific Stereotactic Body Radiation Therapy (SBRT) lung plan during a pre-treatment check. The instructions were set for the Gantry to trigger every 10 degrees, but they should have been consistent with phase gating treatment and set to continuous at beam on. This discrepancy was reported to physics for correction before the patient underwent treatment.</t>
         </is>
       </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the identification of an inconsistency in triggered imaging directions for a specific SBRT lung plan during a pre-treatment check and the reporting of this discrepancy to physics for correction before treatment. The only difference is that the narrative specifies that the error was caught before the patient arrived for treatment, while the summary does not explicitly mention this detail. However, this information is still implied in the summary since it states that the discrepancy was reported for correction before the patient underwent treatment."</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -13833,6 +15073,7 @@
 A patient requires larynx treatment. The prescription from the electronic medical record (eRX) called for daily kilovoltage (kV) orthogonal X-rays without any indication of what to align to. Subsequent imaging was aligned to the spine and bony anatomy. Following multiple change requests, a physician was consulted who suggested that alignment should be to the figure of 8 on the thyroid cartilage instead. It was discussed that identifying this feature on kV orthogonal X-rays might be challenging, so an alert was added to perform daily cone-beam computed tomography (CBCT) scans to ensure proper alignment of the thyroid cartilage.</t>
         </is>
       </c>
+      <c r="D610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -13851,6 +15092,13 @@
 A scheduling email for a new start SBRT (Stereotactic Body Radiation Therapy) was sent on August 22nd. An email requesting an update was sent on August 29th. The individual handling the coverage was unaware that the patient had not been scheduled.</t>
         </is>
       </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical to the narrative in terms of content and sequence. Both convey the same information about the sending of a scheduling email for SBRT on August 22nd, a follow-up email requesting an update on August 29th, and the fact that the person covering was unaware that the patient had not been scheduled. The summary accurately captures the key points of the narrative without adding or omitting any details.</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -13869,6 +15117,13 @@
 The patient indexing instructions for the treatment did not align with the actual couch values on the second day. The setup instructions were subsequently adjusted to correspond with the acquired couch values.</t>
         </is>
       </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both state that there was a mismatch between the patient indexing instructions and the actual couch values on the second day of treatment, and that the setup instructions were adjusted to match the acquired couch values.</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -13887,6 +15142,13 @@
 A patient (pt) underwent treatment on the IX four times. The initial plan was intended for STX, but daily overrides occurred during calculation. The therapist discovered this discrepancy while modifying the plan and reported it to physics, resulting in a halt of the treatment.</t>
         </is>
       </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. It mentions that the patient (pt) was treated four times on the ix, the original plan was for stx but daily overrides occurred during calculation, and the therapist noticed this issue while modifying the plan and notified physics, leading to a halt in treatment. The summary is concise and matches the meaning of the narrative closely.</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -13905,6 +15167,13 @@
 A patient was scheduled for a boost treatment, but the change to their plan was not recorded in ARIA (Advanced Radiation Information System). The plan was prepared and placed in the chart several weeks prior. When the therapy team went to begin the treatment, they discovered that there had been a revision to the patient's plan without being notified through ARIA. One therapist noticed this discrepancy before starting the treatment and checked the previous plan. It would have been more efficient if they had been alerted in ARIA about the plan revision. Additionally, the patient was adaptive, meaning their treatment plan needed to be adjusted, but this had not been coordinated with the attending physician for a new session. Fortunately, another physician was available to cover.</t>
         </is>
       </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the failure to record a plan revision in ARIA, the preparation and placement of the plan in the chart, the discovery of the revision during treatment, and the lack of coordination with the attending physician for an adaptive plan session. The summary could have been more specific about the fact that the therapist noticed the discrepancy when checking images, but this is a minor omission. Overall, the summary effectively conveys the main ideas of the narrative."</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -13923,6 +15192,13 @@
 A medical institution's Medstinum plan for a patient's linear accelerator (linac) treatment did not include the 'Gating' component. Consequently, the linac was unable to utilize the converted gating file for the treatment. The dosimetrist had to manually select the 'Gating' option for the plan, resulting in a delay in the patient's treatment.</t>
         </is>
       </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the Medstinum plan did not have the Gating component selected, which caused a delay in patient treatment until the dosimetrist could select gating for the plan. The summary uses slightly different wording but conveys the same meaning as the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -13941,6 +15217,7 @@
 A bilateral expander patient had an eRx order placed for a CBCT scan once a week. According to the instructions, expander patients are supposed to undergo CBCT scans on a daily basis. The request was made for the patient to be aware of this discrepancy.</t>
         </is>
       </c>
+      <c r="D616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -13959,6 +15236,13 @@
 A doctor was working on shaping contours for a patient's plan when another physician intervened and pushed him before the contours had been finalized or examined by an intensivist.</t>
         </is>
       </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main idea of the narrative, which is that one doctor was working on shaping contours for a patient's plan when another doctor intervened and pushed him before the contours had been finalized or examined by an intensivist. However, the summary uses slightly different wording than the narrative, such as referring to "another physician" instead of "another doctor," and using the phrase "pushed him" instead of "pushed over." These differences in phrasing do not significantly alter the meaning of the summary, but they are enough to warrant a grade of "Similar" rather than "Identical."</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -13977,6 +15261,13 @@
 A simulation was carried out according to an order specifying none as the contrast. The physician subsequently examined the CT scan results and determined that the patient required intravenous contrast for further analysis. An intravenous line was initiated, and the simulation was repeated with the administration of contrast.</t>
         </is>
       </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a simulation was performed as ordered with no contrast, a physician reviewed the CT scan results and determined that intravenous contrast was necessary, an intravenous line was started, and the simulation was repeated with the administration of contrast. This matches the narrative exactly.</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -13995,6 +15286,13 @@
 A CT scan with a lung focus for a patient was produced in Eclipse with an average phase of 0-90. This CT set was exported, and the equipment used for scanning changed from ARIA to a Phillips CT scanner before being re-imported. However, during planning, it was discovered that the re-imported CT set was not utilized; instead, a copy of the 0% phase of the breathing cycle was employed. An irregular motion artifact for an average scan was identified during the initial physics check, prompting further investigation. The patient is now being re-planned using an accurate average CT set.</t>
         </is>
       </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative and uses slightly different wording to convey the same meaning. Both the narrative and the summary mention that a 0-90 average phase CT set was created in Eclipse, exported, changed from ARIA to Phillips CT scanner, re-imported, but not used for planning. Instead, a copy of the 0% phase of the breathing cycle was used. Both also mention an unusual motion artifact that was identified during the initial physics check and prompted further investigation. The patient is now being re-planned using an accurate average CT set in both the narrative and the summary. Therefore, I would rate this as 'Identical' in terms of meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -14013,6 +15311,13 @@
 Two issues were identified during a weekly chart check on the third treatment fraction: first, a mislabelled reference point; second, an incorrectly named revised plan. The physicist discovered that one reference point was labelled as "PTV_..." while the prescription referred to it as "CTV_..." leading to incorrect dose tracking due to the presence of another structure with the same name. The dosimetrist corrected the reference point label in the treatment plan, but the revised plan was mislabelled as "OldPlan:..." instead of "1.1 R1 OldPlan". The discrepancy lies in the use of a colon versus the letter 'R' for revised.</t>
         </is>
       </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the two issues identified during the weekly chart check and their respective causes and effects. Both the narrative and the summary mention the mislabelled reference point and the incorrectly named revised plan, as well as the specific details of how these errors occurred and were addressed. The use of a colon instead of the letter 'R' for revised is also correctly identified in both the narrative and the summary. Therefore, I assess the match between the narrative and the summary as identical.</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -14031,6 +15336,13 @@
 An HDR brachytherapy GYN treatment involved a discrepancy between the prescribed and planned doses per fraction. The prescription was for 700 cGy/fx x 4 to 2800 cGy, while the plan called for 2800 cGy/fx x 4 to 11200 cGy. Dose tracking limits were not set at the plan reference point, and CTV_Mid information was missing from the eRx. The plan proceeded without a full physics second check. Despite this, the absolute dose delivered to the patient matched the physician's prescription, but not the planned dose per fraction. This situation is classified as a near-miss.</t>
         </is>
       </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by mentioning the mismatch between the prescribed and planned doses per fraction, the absence of dose tracking limits and CTV\_Mid information from eRx, and the plan proceeding without a full physics second check. Additionally, the summary correctly states that the absolute dose delivered to the patient matches the physician's prescription but not the planned dose per fraction, classifying it as a near-miss. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -14049,6 +15361,13 @@
 An RTT discovered during a chart review that the frequency of treatment for one of a patient's isocenter plans, labeled as '1.1 L Pelvis,' was listed as 'once daily, non-consecutive days,' while the other two plans were listed as 'once daily, consecutive days.' The MD confirmed that the treatments would be consecutive days. However, the consent form did not include the treatment for the left pelvis before the patient arrived for treatment. The RTT consulted the MD to have this added before treatment began. Additionally, there were errors in the labeled fields for the '1.1 L Pelvis' plan. Specifically, the labels for the fields 04CW, 179.9-320 should be CCW instead; 05CCW, 320-179.9 should be CW instead; and 06CW, 179.9-320 should be CCW instead of CW. The covering physician for this SBRT case noted all three errors.</t>
         </is>
       </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the discrepancy in treatment frequency, the missing information on the consent form, and the incorrect labeling of fields in the '1.1 L Pelvis' plan. The summary uses slightly different wording but conveys the same meaning as the narrative, making it identical in terms of overall content and message.</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -14066,6 +15385,13 @@
           <t xml:space="preserve"> The event describes a Liver Small Body Radiation Therapy (SBRT) case where the electronic prescription initially contained two volumes, 'PTV1_High' and 'PTV2_High', each prescribed to 4500 cGy in three fractions. A third volume, 'PTV1_Low^dpPTV', was used in the optimization with an objective of 3000 cGy. There was uncertainty about whether to include this volume in the electronic prescription as the physician believed it was not utilized in the optimization and wanted to evaluate the structure separately. Similar situations have occurred previously, resulting in conflicting advice on how to resolve the issue.</t>
         </is>
       </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Grade: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the type of radiation therapy case, the initial electronic prescription with two volumes and their dosages, the use of a third volume in optimization, the physician's confusion about its inclusion in the prescription, and the history of similar situations.</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -14084,6 +15410,13 @@
 The attending specified that the patient should receive a 0.5 bolus dose of their medication on days labeled as 'M', 'W', and 'F' in an alternating pattern. The healthcare provider will add a note to the patient's record indicating this preferred frequency.</t>
         </is>
       </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both state that the attending specified a 0.5 bolus dose on alternating days labeled as 'M', 'W', and 'F'. The summary also mentions that the healthcare provider will add a note to the patient's record, which is implied in the narrative when it states that the attending "will put in patient alert." Overall, the meaning of the two texts is identical.</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -14102,6 +15435,13 @@
 A medical professional (MD) altered the plan for a patient's radiation therapy from photons to protons and updated the corresponding comment on a whiteboard. However, the whiteboard does not automatically notify involved parties of new comments; instead, a change of status is required to trigger an alert. The MD failed to make this change, and no one else noticed the new comment. Consequently, the patient's treatment may have been delayed or even overlooked until someone inquired about it or the patient contacted the clinic.</t>
         </is>
       </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It mentions that the MD changed the radiation therapy plan from photons to protons and updated the whiteboard comment, but failed to change the status to alert involved parties. It also notes that someone else could have missed the new comment, leading to a potential delay or oversight in treatment. The summary uses slightly different wording than the narrative, but it conveys the same meaning and captures all of the important details.</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -14120,6 +15460,13 @@
 A new patient underwent an imaging procedure with the use of a compression belt during the appointment. The belt was documented on the staging sheet, appointment notes, and setup notes. However, upon verification by dosimetry and physics, it was discovered that the treatment plan did not include the use of the compression belt. The belt was subsequently removed from the patient, and the images were approved after the removal.</t>
         </is>
       </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the use of a compression belt during the imaging procedure, the documentation of the belt on various sheets, and the discovery that the treatment plan did not include the belt. However, the summary does not explicitly mention that the patient was re-imaged after removing the belt or that the DOD approved the images post-removal. These details are implied in the summary but not directly stated, which is why I have marked this as 'Similar' rather than 'Identical'. Nonetheless, the overall meaning and sequence of events in both the narrative and the summary are closely aligned.</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -14137,6 +15484,13 @@
           <t xml:space="preserve"> The event involved the discovery that some patient simulation record photos were not of the correct patient, and new photos were taken and old ones deleted to prevent a similar occurrence in the future.</t>
         </is>
       </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both describe an incident where some patient simulation record photos were not of the correct patient, new photos were taken, and old ones deleted to prevent a similar occurrence in the future.</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -14155,6 +15509,13 @@
 A problem occurred during a treatment session where the P2VA system kept crashing, preventing therapists from adding imaging. The session had to be halted and the plan reevaluated due to the DICOM information being too large for P2VA. To enable the system to function, it was necessary to remove certain contours.</t>
         </is>
       </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by mentioning the issues with P2VA crashing and not allowing imaging addition, the need to halt the session and reevaluate the plan due to large DICOM information, and the solution of removing certain contours to enable the system to function.</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -14173,6 +15534,13 @@
 The patient's prescription (Pt rx) mentioned a phased-based gating approach. However, when the patient's plan was accessed, there was no prompt to configure the gating settings. Upon examination, it was discovered that the gating box had not been checked on the planning side.</t>
         </is>
       </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary mention the patient's prescription (Pt rx) specifying a phased-based gating approach, the absence of a prompt to configure the gating settings when accessing the patient's plan, and the discovery that the gating box was not checked on the planning side. The language used in both texts is clear and concise, making it easy for the reader to understand the situation being described. Overall, the summary accurately conveys the key points of the narrative, earning it an 'Identical' evaluation.</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -14191,6 +15559,7 @@
 There was no approval for the administration of pediatric anesthesia during a new patient appointment that morning.</t>
         </is>
       </c>
+      <c r="D630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -14209,6 +15578,14 @@
 The physician made adjustments to the radiation therapy plan for a patient following peer review, reducing the number of planned fractions. The changes were implemented as a non-dosimetric revision, but there is uncertainty about whether this was the appropriate action due to the potential need for an R1 revision instead. The discrepancy between the planned and actual number of fractions was noticed after the patient's fifth treatment session. The physician had previously approved the plan.</t>
         </is>
       </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Narrative: Identical
+Summary: Identical
+Explanation: Both the narrative and summary convey the same information, including the fact that the physician made adjustments to a radiation therapy plan for a patient following peer review, reducing the number of planned fractions. The changes were implemented as a non-dosimetric revision, but there is uncertainty about whether this was the appropriate action due to the potential need for an R1 revision instead. The discrepancy between the planned and actual number of fractions was noticed after the patient's fifth treatment session, and the physician had previously approved the plan.</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -14227,6 +15604,13 @@
 The selected patient for treatment on the radiation therapy machine (IX) at 8:50 am on January 7th did not have an approved treatment plan. The dosimetrist and attending were paged to find out why. It was discovered that the planning approval for the current plan had only been obtained at 8:30 am on that day. Furthermore, the chart revealed a prescription for 25 fractions instead of the 20 fractions stated in the current plan on the machine. There was no documentation in the chart regarding any change in the original plan name or fraction number. Upon reviewing the plan with Dr. Courtney Stanley, it was found that Dr. Jacob had changed the prescription fraction number from 25 to 20 on December 17th.</t>
         </is>
       </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the absence of an approved treatment plan for the selected patient, the time of planning approval, the discrepancy between the number of fractions prescribed in the chart and on the machine, and the discovery that Dr. Jacob had changed the prescription fraction number on December 17th. The summary is written in a clear and concise manner, making it easy to understand the situation described in the narrative. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -14245,6 +15629,13 @@
 A patient's medication prescription was altered but the updated information was not conveyed to the healthcare personnel before they initiated the patient's treatment plan.</t>
         </is>
       </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary have identical meanings. Both convey that a patient's prescription was modified, but the updated information was not shared with the relevant staff members prior to initiating the patient's treatment plan.</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -14263,6 +15654,13 @@
 A therapist found during a chart check for Monday that out of two treatment sites, only one had been approved for treatment. The therapist communicated this discovery to the planning dosimetrist and physics team of the day. It was determined that the issue had previously been reviewed but not given approval status, which was then rectified.</t>
         </is>
       </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical in meaning to the narrative. Both convey that during a chart check for Monday, it was discovered that only one of two treatment sites had been approved for treatment, and after communicating this issue to the planning dosimetrist and physics team of the day, it was found that the problem had previously been reviewed but not given approval status, which was then rectified.</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -14281,6 +15679,13 @@
 A problem occurred during a medical procedure involving a patient where the necessary table parameters were missing. This hindered the progression of the plan until these parameters were entered. The patient remained on the table as the team of dosimetry and physics worked to resolve the issue.</t>
         </is>
       </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the missing table parameters, the hindrance to the plan, and the patient's presence on the table while the issue was being resolved by the dosimetry and physics team. However, the summary uses more formal language than the narrative, which may make it seem less similar at first glance. Nonetheless, the meaning conveyed in both texts is essentially the same.</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -14299,6 +15704,13 @@
 A patient underwent a CT scan during which BB markers were used. This information was communicated to the physics team, who in turn informed the therapists that this would impact the dose distributions for one of the treatment fields.</t>
         </is>
       </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the use of BB markers during a CT scan and the communication of this information to the physics team and therapists. The summary also correctly notes that the use of BB markers would impact dose distributions for one of the treatment fields. However, the summary does not explicitly state that the therapists were told about this effect on the dose distributions, which is mentioned in the narrative. Nonetheless, it can be reasonably inferred from the summary that the therapists were made aware of this information."</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -14317,6 +15729,13 @@
 A patient underwent twice daily (BID) therapy using the Ethos system. According to institutional guidelines, a physics approval was required before BID treatment could be administered. However, the Ethos delivery system did not offer a physics sign-off or approval prior to treatment delivery. Consequently, therapists provided the patient's treatment and subsequently contacted physics for approval during the manual input of the treatment session in Aria.</t>
         </is>
       </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the use of the Ethos system for BID therapy, the requirement for physics approval prior to treatment delivery, and the workaround used by therapists to obtain approval after the fact. However, the summary omits the detail that therapists delivered the patient's treatment before contacting physics for approval, which is a minor but relevant aspect of the narrative. Therefore, I assess the summary as 'Similar' rather than 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -14335,6 +15754,13 @@
 A patient's simulation note indicated that they had a "Cardiac Device" selected, but no related physics task was dropped. The left side of the powerchart note was bolded, yet no specific type of device was mentioned. Following the simulation, a chest CT scan was conducted and reviewed, revealing no cardiac device present. This finding was confirmed with the patient, who reported that it was an unintentional click on the powerchart.</t>
         </is>
       </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided. Both the narrative and the summary indicate that a patient's simulation note had a "Cardiac Device" selected, but no related physics task was dropped. They also both mention that the left side of the powerchart note was bolded without specifying the type of device. Finally, they both state that a chest CT scan revealed no cardiac device present and that this finding was confirmed with the patient. The language used in the summary is very similar to that used in the narrative, making it clear that the meaning of the two texts is identical.</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -14352,6 +15778,13 @@
           <t>' A prescription sheet belonging to one gynecological HDR brachytherapy patient was discovered in another patient's folder. Both patients received a 700 cGy x 4 fx prescription for their treatment. There was a checkmark next to each prescription, indicating that the physicist had reviewed and verified only the prescriptions, not the patient names.</t>
         </is>
       </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the type of patients and treatment, the presence of a shared prescription sheet, and the checkmark on each prescription indicating review by the physicist. However, the summary incorrectly states that the physicist reviewed and verified both patient names, when in fact the narrative suggests that only the prescriptions were checked, not the patient names."</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -14370,6 +15803,13 @@
 A discrepancy was identified between the frequency specified in a radiation therapy (RT) prescription and the scheduling arrangement made by the physician and administrative support. The therapists discovered that the prescription indicated "Once Daily, Consecutive Days," while the patient was scheduled for non-consecutive days. To resolve this issue, a message was sent to the physician requesting clarification on the correct frequency. The physician responded by updating the RT prescription to reflect "Once Daily, Non-Consecutive Days."</t>
         </is>
       </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. Both the narrative and the summary mention the discrepancy between the frequency specified in the RT prescription and the scheduling arrangement made by the physician and administrative support, as well as the steps taken to resolve this issue by sending a message to the physician for clarification and updating the RT prescription accordingly. The use of language in the summary is more formal than that in the narrative, but it does not affect the overall meaning or accuracy of the information presented.</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -14388,6 +15828,13 @@
 The 1.3 Anus documents were mistakenly uploaded in Powerchart instead of the intended 1.3 Rectum documents. Despite the discrepancy between the document names and the stated plan name, which was 1.3 Rectum, physics was informed of the error. The physicist instructed to continue with the process and corrected the issue by re-uploading the correct documents with the label 1.3 Rectum.</t>
         </is>
       </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, stating that the 1.3 Anus documents were mistakenly uploaded instead of the intended 1.3 Rectum documents and that physics was notified. The physicist instructed to continue with the process and corrected the issue by re-uploading the correct documents with the label 1.3 Rectum, which is consistent with the narrative. Therefore, the summary accurately conveys the meaning of the narrative and can be considered identical.</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -14406,6 +15853,13 @@
 A patient's electronic prescription (eRx) indicated that a physician had ordered a 0.5cm bolus, but did not specify the frequency. A message was sent via the Vocera communication system to the physician for clarification, and they responded that the bolus was intended to be administered daily.</t>
         </is>
       </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A: Similar
+Explanation: The narrative and summary have similar meanings. Both convey that the patient's eRx indicated a 0.5cm bolus order from the MD without specifying the frequency, and that a Vocera message was sent to the MD for clarification. The summary explicitly states that the MD responded with a daily bolus, which is implied in the narrative when it mentions that "they wanted a daily bolus."</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -14424,6 +15878,13 @@
 The patient completed Ethos tx for cspine/thorax on April 5th. Therapists discarded the head mold and instructed the patient to bring his facemask home. However, they later discovered that the patient needed to return possibly on Friday for Lattice tx, but the attending was out of town and had to be present for the treatment. The therapists contacted the patient and asked him to keep his facemask and return it on April 12th when the attending would be available. They retrieved the discarded head mold from the trash, sanitized it thoroughly, and learned that the Lattice plan consisted of six ARCs, which would take approximately 45 minutes to an hour for calculation. The patient used a high flow oxygen mask delivering six liters of oxygen during his previous treatments.</t>
         </is>
       </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the completion of Ethos tx on April 5th, the discarding and subsequent retrieval of the head mold, the need for the patient to return with his facemask on April 12th due to the attending's absence, and the lengthy calculation time required for the Lattice plan. The summary also correctly mentions the patient's use of a high flow oxygen mask delivering six liters of oxygen during previous treatments. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -14442,6 +15903,13 @@
 A request for a CT simulation involving four dimensions (phases 0-90) with gating to capture both the liver and kidneys was issued. The physician, however, desired a non-gated, free-breathing CT scan instead. An order for intravenous contrast administration was given; nevertheless, the patient reported having an allergy to contrast dyes.</t>
         </is>
       </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the request for a 4D scan with gating, the physician's preference for a free-breathing scan, and the order for IV contrast despite the patient's allergy. However, the summary does not explicitly state that the physician's preference overruled the original order for a 4D scan, which is an important detail in the narrative."</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -14460,6 +15928,7 @@
 You discussed with simulation staff about an issue with the Proton abdomen treatment where the slide bar location was not indicated on the simulation setup record.</t>
         </is>
       </c>
+      <c r="D645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -14476,6 +15945,13 @@
         <is>
           <t xml:space="preserve">
 A medical professional identified as MD failed to secure a needle to a specific template labeled "Kelowna." As a result, a therapist mistakenly removed the unsecured needle while taking out the collets during a procedure. This necessitated adjusting the plan to accommodate the absence of the needle.</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided. It clearly states that MD did not lock the needle to the Kelowna template, which led to the therapist unknowingly removing it while taking out the collets. Additionally, the summary mentions that this mistake required recalculating the plan due to the missing needle, aligning perfectly with the information given in the narrative.</t>
         </is>
       </c>
     </row>
@@ -14499,6 +15975,13 @@
 The plan IDs for the treatments were 2.1 TSpine, 2.1 LSpine, and 2.1 R Lung_Fi, and all three were treatment approved. If the IDs had been different (e.g., 2.1 and 2.2), it may have prevented the situation or led therapists to question the delivery schedule.</t>
         </is>
       </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the error in administering concurrent treatments, the lack of notice during reviews, the estimated dose to the spinal cord, and the concern about potential severe incidents if higher doses or more overlap were involved. The summary also correctly mentions the plan IDs and that they were all treatment approved. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -14517,6 +16000,13 @@
 An HDR (High Dose Rate) billing submission lacked account numbers. The status of Input/Output for this submission indicated that the services were provided on an outpatient basis instead of an inpatient basis.</t>
         </is>
       </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information presented in the narrative. Both the narrative and the summary state that the HDR billing did not contain account numbers, and that the I/O status showed outpatient vs inpatient. The summary uses different wording than the narrative, but it conveys the same meaning, making it identical to the original narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -14535,6 +16025,13 @@
 A therapist was engaged in treating and recording a High Dose Rate (HDR) case when another non-treating physician entered the area and initiated queries towards the therapist, disrupting the ongoing therapy session. The treating physician and physicist were subsequently drawn into the conversation.</t>
         </is>
       </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It mentions that a therapist was treating an HDR case, a non-treating physician entered the treatment area and began asking questions, and the treating physician and physicist became involved in the conversation. The summary uses slightly different wording than the narrative, but it conveys the same meaning and events. Therefore, I would rate this evaluation as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -14553,6 +16050,7 @@
 A decision was made not to implement a gating option for the treatment of the left breast tumor in patient BH, marking a fresh start for the treatment of tumor TB.</t>
         </is>
       </c>
+      <c r="D650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -14571,6 +16069,13 @@
 A patient undergoing HDR (High Dose Rate) treatment was brought into the department. However, the HDR machine had not been warmed up, resulting in a delay of 1 to 1.5 hours in the patient's treatment.</t>
         </is>
       </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that the High Dose Rate (HDR) machine was not warmed up, leading to a delay in the patient's treatment. The only difference is in the wording used to express this information, but the core message remains unchanged.</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -14589,6 +16094,13 @@
 A breast expander patient was mistakenly scheduled for a Biopsy, Incision and Drainage procedure instead of the intended maintenance session for the machine used to expand her breasts. This error occurred due to the machine being out of order and the patient not being properly cancelled from the scheduling system.</t>
         </is>
       </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the meaning of the narrative. It specifies that a breast expander patient was mistakenly scheduled for a Biopsy, Incision and Drainage procedure instead of the intended maintenance session for the machine used to expand her breasts due to the machine being out of order and the patient not being properly cancelled from the scheduling system. This matches the narrative's description of the incident.</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -14606,6 +16118,13 @@
           <t xml:space="preserve"> In other words, a patient with a left lung condition underwent a 4D CT simulation and a free-breathing scan instead due to issues with the import of the CT series. The average 0-90% scan, which is typically used for planning in SBRT lung cases, could not be generated. Instead, the physician reviewed the dose distribution between the average 0-90% scan and the free-breathing scan and determined that there was no significant difference, allowing the use of the free-breathing scan for planning and treatment.</t>
         </is>
       </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the patient's left lung condition, the issues with the 4D CT simulation, the inability to generate an average 0-90% scan, and the use of the free-breathing scan for planning and treatment. However, the summary omits some details from the narrative, such as the fact that the respiratory motion management task was not submitted/completed and that the physics plan reviewer created the Average 0-90% scan and compared it to the FB CT. These omissions do not significantly alter the meaning of the narrative, but they do make the summary less detailed than the original text. Overall, the summary is similar in meaning to the narrative, but it leaves out some of the finer points.</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -14624,6 +16143,13 @@
 The doctor discovered inaccuracies on the whiteboard regarding the status of two patients' treatment plans. As a result, the doctor revised two plans that were previously in the treatment approved stage, returning them to the plan approved stage. It appears that the physician initially approved the plans in Eclipse but failed to advance them on the whiteboard. Several days later, upon noticing the plans still on the whiteboard, the doctor approved them again.</t>
         </is>
       </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary state that there were inaccuracies on the whiteboard regarding two patients' treatment plans, which led to the doctor revising the plans and returning them to the plan approved stage. Additionally, both the narrative and the summary mention that the doctor initially approved the plans in Eclipse but failed to advance them on the whiteboard, and later approved them again upon noticing they were still on the whiteboard. The language used in the summary is slightly more formal than that of the narrative, but the meaning conveyed is identical.</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -14642,6 +16168,7 @@
 A question arose regarding the absence of a specific QA CT directive in an eRx. After inquiring with the physician involved, it was discovered that he had indeed intended for such tests to be ordered.</t>
         </is>
       </c>
+      <c r="D655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -14660,6 +16187,13 @@
 A treatment plan involving VMAT TBI with a dose of 200 cGy in one fraction was identified for review. During the assessment, it was discovered that approximately 77 cc in the left forearm area had been omitted from the initial body contour. This oversight likely occurred during the auto generation of the body contour. The affected region was incorporated into a revised body contour and the dose was recalculated. It was determined that this portion of the body had not received the full prescribed dose.</t>
         </is>
       </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the key points of the narrative, including the type of treatment plan, the prescribed dose, the area of the body that was excluded from the initial body contour, and the process of recalculating the dose for the affected region. The language used in the summary is clear and concise, and it effectively conveys the same meaning as the narrative. Therefore, I would rate the summary as 'Identical' to the original narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -14678,6 +16212,13 @@
 A medical procedure involving a patient's right shoulder is being planned, with related imaging required for side 179. A specific measurement, 180.1, is necessary. To avoid hitting the patient during this process, it will be necessary to move the table in the room.</t>
         </is>
       </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the key details of the narrative, including the planned medical procedure on the right shoulder, the need for imaging on side 179, the required measurement of 180.1, and the need to move the table in the room to avoid hitting the patient. The summary is concise and maintains the same meaning as the original narrative, making it identical.</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -14696,6 +16237,13 @@
 The Sim staff was informed when a patient had an IV started. The patient was taken for simulation and the Will call ticket was reviewed with them. They denied having any allergies to contrast dye during the discussion. A mask was made, creatinine was checked, and contrast was administered in the presence of therapists due to a four-minute delay for brain patients. Upon checking the power chart, a therapist discovered that the patient had a listed contrast allergy. One staff member went to check on the patient while another called the doctor. The patient admitted to having a contrast allergy when asked directly, but they preferred to experience symptoms and take Benadryl later than disclose it before scans. They were advised to be truthful in future procedures for safety reasons. The doctor spoke with the patient about monitoring before leaving the facility.</t>
         </is>
       </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical to the narrative provided. Both convey the same information, including the Sim staff being notified when the patient had an IV started, the patient walking back for simulation and discussing the Will call ticket, denying allergies to contrast dye, having a mask made, checking creatinine, administering contrast due to a four-minute delay, discovering a listed allergy in the power chart, going to check on the patient while calling the doctor, the patient admitting to having an allergy but preferring symptoms and Benadryl, advising them to be truthful for safety reasons, and the doctor speaking with the patient about monitoring before leaving.</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -14714,6 +16262,13 @@
 A patient underwent simulation for proton planning but was not marked complete on the whiteboard. The resident physician informed dosimetry the following day that the task had not progressed to the next status, despite their belief that the simulation was finished. Dosimetry then contacted simulation staff, who updated the whiteboard to reflect the completion of the task and signaled to dosimetry that something was ready for import.</t>
         </is>
       </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the failure to mark the patient as complete on the whiteboard, the communication between the resident physician and dosimetry, and the eventual update to the whiteboard by simulation staff. However, the summary omits the fact that the patient was left in the "Sim Scheduled" status and does not explicitly state that the simulation staff updated the whiteboard to signal to dosimetry that something was ready for import."</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -14732,6 +16287,13 @@
 Two patients experienced inaccuracies in their reference points dose tracking during a weekly physics check. For one patient, no dose was being recorded for the PTV reference point. In contrast, for the second patient, the targets' reference points were registering incorrect doses. However, the doses for the references points associated with the Plan ID were recording the correct values for both cases.</t>
         </is>
       </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly identifies that two patients experienced issues with their reference point dose tracking, and it provides specific details about the nature of these issues. Additionally, it notes that the doses for the reference points associated with the Plan ID were recording the correct values for both cases. Overall, the summary is identical in meaning to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -14750,6 +16312,13 @@
 A patient with a history of right lung treatment is scheduled for a left lung procedure, identified as plan 2.1R1Lung. The 'R' in the plan name denotes a revision, although distinguishing between right and left lungs may present a challenge due to their similar labels. The prescription clearly states that the site of the procedure is the left lung.</t>
         </is>
       </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. It correctly identifies the patient's history of right lung treatment and upcoming left lung procedure, as well as the plan name and the potential confusion between right and left lungs. Additionally, it confirms that the prescription clearly indicates the left lung as the site of the procedure. Therefore, I would grade this evaluation as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -14768,6 +16337,13 @@
 A patient with a pacemaker was requested to be contacted at Acton Road following a simulation. An email regarding this matter was sent, but it did not reach any recipient at Acton Road (neither nurses nor other staff members). The task related to consulting physics for the patient's case was not initiated. Upon verification, it was found that the confirmed task for the POD (Principal Investigator of the study) was absent before a new one was entered. Simulation staff from HSORC (Health Sciences Simulation Center) were contacted and the email was forwarded to Acton Road.</t>
         </is>
       </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical in meaning to the narrative. Both convey that a patient with a pacemaker needed to be contacted at Acton Road after a simulation, an email regarding this was sent but did not reach anyone at Acton Road, the task for consulting physics was not initiated, and HSORC Sim staff were contacted and the email was forwarded to Acton Road. The only minor difference is that the summary specifies "simulation staff from HSORC" while the narrative just says "HSORC Sim staff", but this does not change the meaning of the text.</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -14786,6 +16362,13 @@
 The patient's prescription called for the use of Gated LL Lung treatment. However, when therapists attempted to treat the patient using this method during STx session, they discovered that gating was not necessary as the patient did not require it. The therapists had to leave the patient on the table and instruct dosimetry to add gating in the Treatment Prep stage. Subsequently, physics needed to approve the plan again before treatment could commence. Despite the ability to treat the patient without any hindrance, the system prevented therapists from filming and beaming on due to the absence of gating.</t>
         </is>
       </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the meaning of the narrative. It correctly identifies that the patient's prescription required Gated LL Lung treatment, but when therapists attempted to treat the patient during an STx session, they discovered that gating was not necessary. The summary also correctly states that therapists had to leave the patient on the table and instruct dosimetry to add gating in the Treatment Prep stage, and that physics needed to approve the plan again before treatment could commence. Finally, the summary accurately mentions that despite the ability to treat the patient without any hindrance, the system prevented therapists from filming and beaming on due to the absence of gating. Therefore, I assess this evaluation as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -14804,6 +16387,13 @@
 A patient underwent a simulation with an incorrect kilovoltage (KV) setting during a scan. Specifically, 100 KV was used instead of the required setting for proton therapy patients. As a result, the dose calculation for the treatment could not be accurately determined. However, since a CT scan from the previous week was available, it was utilized for replanning purposes and no need arose for the patient to undergo another simulation (RE-CT).</t>
         </is>
       </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Identical
+The generated summary accurately captures the meaning of the narrative. It correctly identifies that the patient was simulated with an incorrect KV setting, specifying that 100 KV was used instead of the required setting for proton therapy patients. The summary also notes that the dose calculation could not be accurately determined due to this error and that a previous CT scan was utilized for replanning purposes, eliminating the need for another simulation (RE-CT)."</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -14822,6 +16412,13 @@
 A breast patient undergoing adaptation at Ethos was given a wire.</t>
         </is>
       </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main idea of the narrative, which is that a breast patient at Ethos is undergoing some sort of adaptive procedure involving a wire. However, it does not explicitly state that the patient is being simulated, but rather implies it through the use of "undergoing adaptation." Therefore, I would rate this as 'Similar' rather than 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -14840,6 +16437,13 @@
 A review of a CT scan by TBI was requested within less than 24 hours before the planned treatment. During the review, it was identified that there was a significant artifact near the elbow area, likely caused by patient motion during the scan. This issue was noted in multiple areas on any window/level and affected the image quality. The dosimetry team recognized this problem and consulted with a physicist for assistance in contouring the body and planning the treatment volume (PTV). Despite the body being corrected, the affected tissue was not included in the contouring, resulting in a sub-optimal but acceptable dose distribution from the treating physician due to time constraints for the TBI treatment.</t>
         </is>
       </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative and provides a clear and concise description of the issues identified during the review of the CT scan by TBI. Both the narrative and the summary mention the request for a review within 24 hours before treatment, the presence of an artifact near the elbow caused by motion, the impact on image quality, the involvement of the dosimetry team and physicist, the sub-optimal but acceptable dose distribution, and the time constraints for TBI treatment. The summary is written in a slightly more concise manner than the narrative, but it still conveys the same information and meaning. Therefore, I would rate this evaluation as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -14858,6 +16462,13 @@
 A patient's medical record indicates they have a contrast allergy documented in Powerchart. A simulation (sim) with contrast was ordered for this patient. No information is provided regarding any pre-medication that may have been prescribed prior to the sim. A message was sent to the responsible medical doctor to inquire if the patient had been instructed to take pre-medication and, if not, whether the order should be amended to exclude contrast.</t>
         </is>
       </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary is identical to the narrative as it accurately captures the main points of the narrative, including the patient's contrast allergy, the ordering of a sim with contrast, the lack of information on pre-medication, and the message sent to the medical doctor for clarification.</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -14876,6 +16487,13 @@
 A doctor requested that a specific OSLD (One Time Silicon Laser Diode) be placed for a patient with the identification number 2007098. However, the physician mistakenly used a calibration OSLD instead of a new one during the process. Consequently, the OSLD reader could not be utilized until a fresh OSLD was acquired from Landauer.</t>
         </is>
       </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the request for an OSLD placement, the use of a calibration OSLD instead of a new one, and the inability to use the OSLD reader until a new OSLD is obtained. However, the summary incorrectly refers to the calibration OSLD as "the physician" and should have used more precise language to distinguish between the physicist and the physician. Nonetheless, the overall meaning of the narrative and the summary are similar.</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -14893,6 +16511,13 @@
           <t xml:space="preserve"> The event describes a situation where a patient has multiple treatment plans, one of which involves administering a .5cm bolus. A dosimetrist who was not involved in the patient's current plans mistakenly believed there was no bolus for either plan and questioned it with therapists. The therapists were not prompted to sign off on the bolus at the machine, leading to the question of why they were not informed. The MD later confirmed that the patient had indeed received the bolus during simulation and should continue using it.</t>
         </is>
       </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the presence of multiple plans, the administration of a .5cm bolus, the mistake made by the dosimetrist, and the question regarding why the therapists were not informed. However, the summary does not explicitly state that the therapists were not prompted to sign off on the bolus at the machine, which is mentioned in the narrative. Nonetheless, this information can be inferred from the summary, making it similar to the original narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -14911,6 +16536,13 @@
 The medical doctor reviewed a CBCT scan of a patient that therapy had previously taken, but did not communicate this information or any necessary actions to therapy or the patient. When the patient returned for treatment the following day, the doctor added an alert stating to hold treatment without informing therapy or the patient. Therapy discovered this when opening the patient's plan on the current day.</t>
         </is>
       </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the fact that the medical doctor reviewed a CBCT scan without communicating the results or any necessary actions to therapy or the patient, and that therapy discovered an added alert to hold treatment when opening the patient's plan on the current day. The summary is concise and to the point, while still conveying the essential details of the narrative. Therefore, I would rate the summary as identical to the narrative in terms of meaning and content.</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -14929,6 +16561,13 @@
 A patient reported that their prescribed treatment by eRx was not to be taken consecutively according to their understanding. However, upon verification with the medical doctor, it was determined that the treatment was indeed intended to be taken consecutively. The eRx record was subsequently edited to reflect this correction.</t>
         </is>
       </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the patient misunderstood the instructions for their prescribed treatment, which was supposed to be taken on consecutive days. The summary also correctly mentions that the eRx record was edited to reflect this change after verification with the medical doctor. Therefore, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -14947,6 +16586,13 @@
 A CNS patient underwent simulation in Processmaker for surgery coordination. The patient was subsequently scheduled for treatment on the Edge without proper communication with dosimetry regarding the date, time, or priority level of the patient's plan. The doctor contacted dosimetry the day before the scheduled treatment to inquire about the plan, resulting in a last-minute rush for treatment planning.</t>
         </is>
       </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the CNS patient's simulation and scheduling for treatment on the Edge without proper communication with dosimetry. The summary also correctly mentions the doctor's last-minute inquiry about the plan, which resulted in a rush for treatment planning. However, the summary omits the fact that the patient was added in Processmaker as will call and that there was no scheduling email sent from the scheduling team to dosimetry. These details do not significantly affect the overall meaning of the narrative, but they are worth noting for a more comprehensive summary.</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -14965,6 +16611,13 @@
 A patient undergoing palliative treatment for abdominal issues informed the medical team that she had an Implantable Cardioverter Defibrillator (ICD) or Implantable Cardiac Pacemaker (ICP), but she did not have her card with her. During a CT scan, only the lower portions of the device were captured due to insufficient scanning from the superior side. No email was sent regarding the device as there was no available information about it, and the simulation note in Cerner Processmaker did not mention the ICP/ICD status. The dosimetrist failed to contour the visible ICP slices on the CT scan.</t>
         </is>
       </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the patient's notification about having an ICD/ICP device, the insufficient scanning during the CT scan, the lack of available information about the device, and the failure to contour the visible slices on the CT scan. The summary uses slightly different wording but conveys the same meaning as the narrative, making it identical in terms of overall content and message.</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -14983,6 +16636,13 @@
 A patient, identified as Pt, underwent simulation for treatment of a traumatic brain injury (TBI). During this process, old marks on the patient were replaced with new ones, while marks from a CT scan were removed. The patient received a brain boost using dosimetry shifts from the CT iso instead of the new shifted iso. It was necessary to make large adjustments during filming due to discrepancies between the current and previously used isocenters.</t>
         </is>
       </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, using similar language and structure. It clearly conveys that a patient with a traumatic brain injury underwent simulation for treatment, during which old marks were replaced with new ones and CT scan marks were removed. Additionally, it mentions that the patient received a brain boost using dosimetry shifts from the CT iso instead of the new shifted iso, and that large adjustments had to be made due to discrepancies between the current and previously used isocenters. Overall, the summary is identical in meaning to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -15001,6 +16661,13 @@
 The instructions for imaging during radiation therapy for the right and left shoulders specify that kilovoltage (kV) images are required both before each treatment (PreTx) and after every five fractions using kV/kV imaging. Therapists are uncertain about whether to take an image prior to each treatment or only after every fifth treatment.</t>
         </is>
       </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary have identical meanings. Both describe the same instructions for imaging during radiation therapy for the right and left shoulders, which specify that kV images are required both before each treatment (PreTx) and after every five fractions using kV/kV imaging. Additionally, both sources mention that therapists are uncertain about whether to take an image prior to each treatment or only after every fifth treatment.</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -15018,6 +16685,13 @@
           <t xml:space="preserve"> The event describes an issue with last-minute cancellations of Traumatic Brain Injury (TBI) treatments without proper notification to the dosimetry team. This results in uncertainty about whether to continue working on a case or not, as there is often no information provided regarding why the cancellation occurred or if the patient will be treated at a later date. A recent example involved a patient scheduled for treatment on the 17th, for whom a plan was created and approved on the 11th, only to discover on the 19th that the appointment had been cancelled on the 9th without notification to dosimetry. The event emphasizes the need for improved communication between different departments to ensure timely notification of cancellations and treatment intentions.</t>
         </is>
       </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main issue presented in the narrative, which is the problem of last-minute TBI treatment cancellations without proper notification to the dosimetry team. The summary also correctly mentions that this results in uncertainty about whether to continue working on a case or not and that there is often no information provided regarding why the cancellation occurred or if the patient will be treated at a later date. However, the summary contains some minor discrepancies with the narrative. For example, the summary states that the recent example involved a patient scheduled for treatment on the 17th, for whom a plan was created and approved on the 11th, only to discover on the 19th that the appointment had been cancelled on the 9th without notification to dosimetry. In the narrative, it is stated that the recent example involved a patient scheduled for treatment on the 17th, for whom a plan was created and approved on the 11th, only to discover on the 16th (not the 19th) that the appointment had been cancelled on the 9th without notification to dosimetry. Therefore, while the summary accurately captures the main issue presented in the narrative and conveys the same overall message, it contains some minor discrepancies with the specific details provided in the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -15036,6 +16710,13 @@
 A patient who was supposed to undergo an encounter as per the instructions in the IXth document was found to have been mistakenly scheduled for a different procedure during the chart check by the therapist. The patient needed to be contacted and rescheduled due to incorrect machine information associated with the STX procedure.</t>
         </is>
       </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. It specifies that a patient was scheduled for an encounter but was found to be incorrectly scheduled for a different procedure during the chart check by the therapist. The patient had to be contacted and rescheduled due to incorrect machine information associated with the STX procedure. Both the narrative and the summary convey the same message, making them identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -15053,6 +16734,13 @@
           <t xml:space="preserve"> The event involves a patient undergoing a revision of their treatment plan, but for some reason, the new plan could not be accessed because it had not been scheduled. This resulted in a delay in the treatment.</t>
         </is>
       </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and summary are similar in meaning. Both convey that there was an issue with accessing the patient's updated treatment plan, which led to a delay in treatment. However, the summary provides more context about the situation by mentioning that the patient was undergoing a revision of their treatment plan.</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -15071,6 +16759,13 @@
 X and Y's jaws were adjusted to an incorrect size during a treatment. The jaws were then opened to insert a port film. However, when the beam was turned on, the collimator failed to reach its intended position and was inadvertently overridden to match the port field size.</t>
         </is>
       </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that X and Y's jaws were adjusted to an incorrect size, the jaws were opened to insert a port film, and the collimator failed to reach its intended position and was inadvertently overridden to match the port field size. The summary uses slightly different wording than the narrative but conveys the same meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -15089,6 +16784,13 @@
 A breast cancer patient undergoing a boost treatment session experienced an issue when the Multi-Leaf Collimator (MLC) pattern was not loaded onto the Digital Reconstruction Room (DRR). The patient was already positioned on the treatment table and being imaged for the boost, but no MLC pattern was available. The dosimetrist was contacted to upload the necessary pattern. However, due to this delay, the kilovolt orthogonal images had to be repeated as the patient was unable to keep her arms raised for an extended period while waiting for the pattern to be loaded.</t>
         </is>
       </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main issue of the narrative, which is the failure to load the MLC pattern onto the DRR for a breast cancer patient undergoing boost treatment. The summary also correctly mentions that the patient was already positioned on the treatment table and being imaged when the issue occurred, and that the dosimetrist was contacted to upload the necessary pattern. Additionally, the summary notes that the delay in loading the pattern resulted in the need to repeat the kilovolt orthogonal images, which is also mentioned in the narrative. The only minor difference is that the narrative states that the patient "had to" have her KV orthos repeated, while the summary says they "had to be" repeated, but this does not significantly alter the meaning of the events. Overall, the summary accurately conveys the main points of the narrative with only minor differences in phrasing."</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -15107,6 +16809,13 @@
 The HDR Brachytherapy team noticed a discrepancy between the prescribed and actual amount of fluid in the patient's bladder during a treatment timeout. The prescription stated 180 mL, but only 60 mL was present. The physician, physicist, and therapist confirmed the correct amount and added a patient alert to notify the simulation/treatment team of the change. However, the prescription itself was not revised, and the patient alert would not be visible in the simulation or brachytherapy areas.</t>
         </is>
       </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the discrepancy between the prescribed and actual amount of fluid in the bladder, the confirmation of the correct amount by the HDR Brachytherapy team, and the addition of a patient alert to notify the simulation/treatment team. However, the summary does not explicitly mention that the prescription was not revised to state 60 mL of fluid in the bladder, which is a minor but important detail from the narrative. Therefore, I would rate this as 'Similar' rather than 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -15125,6 +16834,13 @@
 A person contacted an intensivist for advice on beam angles. During this consultation, the intensivist noticed that certain neck nodes had not been included in the high-volume CTV (Conformal Target Volume) by the attending physician. The intensivist then communicated this issue to the attending's resident, resulting in an adjustment and a restart of the planning process.</t>
         </is>
       </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a person contacting an intensivist for advice on beam angles, who then notices that certain neck nodes were missing from the high-volume CTV drawn by the attending physician. The intensivist communicates this issue to the attending's resident, leading to an adjustment and restart of the planning process.</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -15143,6 +16859,13 @@
 A therapist discovered the absence of a plan check document for treatment session 4.1 in the hip infusion category during their chart review. They alerted the physics team, who subsequently attached the missing document to the patient's powerchart documentation.</t>
         </is>
       </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary convey the same information about a therapist noticing that a plan check document was missing for a specific treatment session and then alerting the physics team, who attached the missing document to the patient's powerchart documentation. Both the narrative and summary use similar language and structure, making them identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -15161,6 +16884,13 @@
 A plan for treatment was not approved before the patient was prepared for surgery.</t>
         </is>
       </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both state that a plan for treatment/surgery was not approved by the time the patient was ready to undergo the procedure.</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -15179,6 +16909,13 @@
 The Head and Neck patient underwent a revision plan starting on March 31, 2022. On April 4, 2022, a Quality Assurance (QA) CT scan was conducted for the patient. During the delivery of the QA CT scan, the dosimetrist observed that different headrests were used. An investigation revealed that the patient had been treated with his old gear, including mask and head rest, despite the new revision plan in place. The attending physician and physicist were notified, resulting in the removal of the old device from clinical use.</t>
         </is>
       </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative with no discrepancies or omissions. It captures the timeline of events, the actions taken by the patient and medical staff, and the outcome of the situation. Both the narrative and the summary convey the same meaning and message, making them identical in their content and context.</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -15196,6 +16933,7 @@
           <t xml:space="preserve"> The event describes the approval, printing, and scheduling of a treatment plan for a patient with a traumatic brain injury (TBI). During the physics review, it was discovered that the spinal cord dose did not meet the minimum requirement. As a result, dosimetry was asked to replan which involved updating several plans and reprinting them. This additional work decreased the time frame for therapy to review plan information.</t>
         </is>
       </c>
+      <c r="D686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -15214,6 +16952,7 @@
 A new plan had to be devised due to unspecified limitations not disclosed initially. Following the completion of this revised strategy, a physician requested a modification to the treatment quantity. As a consequence, an additional planning process ensued.</t>
         </is>
       </c>
+      <c r="D687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -15232,6 +16971,13 @@
 Two individuals with keloids underwent radiotherapy treatment in recent weeks, experiencing extended wait times before their plans could be implemented. Following preparation of the plans by the dosimetry team, a physics resident reviewed the charts prior to the attending physicist's examination. This additional step resulted in further delays for therapists and patients, leading to frustration among both parties. In one instance, therapists remained at the facility until 8:15 pm, while the patient had been simulated that same morning at 8 am. Expediting this process would significantly enhance patient satisfaction.</t>
         </is>
       </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the presence of two keloid patients who experienced long wait times for their radiotherapy plans, the role of the physics resident in reviewing the charts before the attending physicist, and the resulting delays for therapists and patients. The summary also correctly conveys the frustration felt by both parties and the potential benefits of expediting the process to improve patient satisfaction."</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -15249,6 +16995,13 @@
           <t xml:space="preserve"> The event describes a patient coming into the treatment room and informing the staff that he had an appointment earlier about an eye met (eye measurement) and wanted to start treating a new site that day. The therapists were not aware of this and paged the resident, who confirmed they would treat the new site but the plan was not yet ready for consent or treatment. After some discussion with the attending, it was decided that only one spine site could be treated first, and the patient was put in a room to obtain consent for the new site. The plan checks were completed around 15:45, and the patient went on the table to treat the remaining two sites (brain and eye) at 16:30. However, no one involved in the planning process informed the therapists about the addition of the new site, so they had to learn this information from the patient himself.</t>
         </is>
       </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the unexpected arrival of a patient with an added treatment site, the lack of awareness among the therapists about this addition, and the eventual completion of the treatment plan for all sites. The summary also correctly mentions that the therapists had to learn about the new site from the patient himself. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -15267,6 +17020,7 @@
 A radiology assistant had scheduled PT as a new start for patient iX, but this plan has been changed to STx instead. The change was communicated via an email from the DOS that conflicts with the original schedule. Attached to the email is the relevant correspondence.</t>
         </is>
       </c>
+      <c r="D690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -15285,6 +17039,13 @@
 A simulation involving CSI (likely a medical procedure) was carried out incorrectly due to an error in the order. The attending physician was contacted for intravenous instructions related to the procedure. During the simulation, it was discovered that informed consent had only been obtained for the spine and not the brain. The resident was then contacted to correct the consent form. After the attending provided the IV instructions, the simulation was completed. Following the simulation, the resident entered the room and inquired about why CSI (likely a different procedure than intended) was simulated.</t>
         </is>
       </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the incorrect order for the simulation, the need for IV instructions, the lack of informed consent for the brain, and the resident's confusion about the simulated procedure. However, the summary uses "likely" to describe the CSI procedure, indicating some uncertainty about its exact nature. Additionally, the summary does not explicitly mention that the attending told Sim Staff to contrast for the brain, but this information is implied in the narrative when it mentions that informed consent was only obtained for the spine. Overall, while there are some minor differences between the two texts, the meaning of the narrative and the generated summary are similar.</t>
+        </is>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -15303,6 +17064,13 @@
 A therapist discovered that a magnet had been placed on a patient with a pacemaker during a therapy session on the first day. On the second day, another therapist noticed that someone had written "put 3mm plus a magnet" in the patient's chart. The first therapist questioned this and was told it was only for the first day of treatment. She spoke with a colleague who asked if the magnet was within the treatment field. The first therapist was uncertain, so her colleague checked the images and confirmed that the magnet was indeed in the treatment field. The therapists notified physics, who advised removing the magnet and conducted an updated consultation.</t>
         </is>
       </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, using slightly different wording to convey the same information. Both the narrative and the summary describe a situation where a patient with a pacemaker had a magnet placed in the treatment field during therapy on the first day, and how it was discovered and addressed by therapists and physics on the second day. The summary uses more specific language to describe the actions taken by the therapists and physics, but the overall meaning and sequence of events are identical to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -15321,6 +17089,13 @@
 A prescription for treating a 1.1 L lung involves a gating method of PHASE BASED and an IMRT/VMAT technique. However, the treatment plan is scheduled without gating. The patient in question is undergoing SBRT (Stereotactic Body Radiation Therapy) for the lung. A message has been sent to the dosimetrist and physicist to confirm the prescription matches the plan.</t>
         </is>
       </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. It correctly states that the prescription involves a PHASE BASED gating method and an IMRT/VMAT technique, and that the treatment plan is scheduled without gating. Additionally, it specifies that the patient is undergoing SBRT for the lung and that a message has been sent to the dosimetrist and physicist to confirm the prescription matches the plan. Overall, the summary captures all of the key details from the narrative and presents them in a clear and concise manner.</t>
+        </is>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -15339,6 +17114,13 @@
 The patient underwent a treatment session during which several issues arose. Initially, an error was identified with the DRR (Digital Reconstruction Radiograph) angle measurement, which was recorded as 200 degrees instead of the correct 180 degrees. This mistake required correction and approval for the transaction. After the patient was prepared again, it was discovered that the DRRs lacked a graticule/aperture, necessitating another correction and approval process. Clearance issues arose due to incomplete imaging data being available, which was resolved by adding 90mv. The session was delayed by an hour due to these inconsistencies. Additionally, instructions for using the current or new boost gating file were not provided on the yellow instruction sheet. It was not possible to film all treatment ports because the patient was experiencing discomfort from being on the table for a prolonged period.</t>
         </is>
       </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative, capturing all of the key issues that arose during the patient's treatment session. Both the narrative and the summary describe the incorrect DRR angle measurement, the missing graticule/aperture, the clearance issues, the delayed start time, and the lack of instructions for using the boost gating file. The language used in both texts is also very similar, with the summary closely paraphrasing the narrative to convey the same meaning. Overall, the summary can be considered identical to the narrative in terms of its content and meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -15357,6 +17139,13 @@
 Therapists at ARO expressed concern over the absence of a device in a patient's chart. The therapy supervisor acknowledged this issue and mentioned that SIM therapists had been informed that the treatment might be AP/PA, leading them to believe a device was not necessary. However, the POD at ARO planned to investigate the matter further and consult with the physician regarding the patient's setup, which could have benefited from the use of a device for daily preparation.</t>
         </is>
       </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the concern about the missing device, the therapy supervisor's response, and the POD's plan to investigate further. However, the summary does not explicitly mention that the patient would have benefited from having a device for daily setup, which is stated in the narrative. Nonetheless, this information is implied in the summary when it mentions that the patient's setup could have benefited from the use of a device. Therefore, the summary is similar to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -15374,6 +17163,13 @@
           <t xml:space="preserve"> The dosimetrist was working on a left chestwall/expander case. The prescription for boost radiation therapy was intended to cover the scar from the previous radiation therapy (CTV Scar). However, during the planning process, it was discovered that the CTV Scar was not included within the defined structures for high-dose radiation (CTV_High and CTV_Eval). The dosimetrist planned for a range shift of 3cm to account for the fact that the CTV was cropped 3mm from the skin. However, upon review by the physicist, it was determined that the CTV Scar needed to be included within the target structure. The dosimetrist then requested that the attending physician make this adjustment and will recalculate the plan with a larger range shift of 5cm.</t>
         </is>
       </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the type of case, the intended boost radiation therapy prescription, the issue with the CTV Scar not being included in the high-dose radiation structures, the dosimetrist's initial plan for a 3cm range shift, the physicist's review and determination that the CTV Scar needed to be included, and the dosimetrist's request for an adjustment from the attending physician and plan to recalculate with a larger range shift. The summary is written in a clear and concise manner, making it easy to understand the situation described in the narrative. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -15392,6 +17188,13 @@
 A new prostate patient underwent simulation without the use of a dogbone. The patient's staging took place at the Proton Center, specifically at level F3. Since no further index information was transmitted from the simulation to physics, it was presumed that the F3 placement was adequate for treatment. However, this assumption led to a collision issue between the table knuckle and the gantry.</t>
         </is>
       </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a new prostate patient who underwent simulation without a dogbone, was staged at F3 at the Proton Center, and had a collision issue between the table knuckle and the gantry due to an assumption that F3 placement was sufficient for treatment. The only difference is the wording used to convey this information, but the meaning remains unchanged.</t>
+        </is>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -15410,6 +17213,13 @@
 A patient did not undergo review at a particular clinic (NPC) until after they had received ten out of twenty-five planned radiation therapy sessions (fractions). The reason for this delay was that the projected review date was not indicated in the Processmaker system's peer review tab.</t>
         </is>
       </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that a patient did not receive a review at NPC until after receiving ten out of twenty-five fractions and that this delay was due to the projected review date not being specified in Processmaker on the Peer Review Tab. However, the summary goes into slightly more detail than the narrative by explicitly stating that the patient was receiving radiation therapy sessions (fractions) and that the review was taking place at a particular clinic (NPC). These additional details do not change the overall meaning of the summary and are likely included to provide further context for the reader. Therefore, I would rate the summary as 'Similar' to the narrative."</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -15428,6 +17238,13 @@
 The dosimetrist and physician requested that a patient, scheduled to begin treatment on March 17th, be started immediately. The patient was informed and managed to come in for treatment the same day. However, instead of going to Hazelrig-Salter Radiation Oncology Center as planned, the patient arrived at the Acton Road clinic. He was asked to undergo treatment at Hazelrig initially and then transfer to Acton later. The patient expressed confusion about the necessity of radiation therapy since his chemotherapy doctor had advised him to postpone it. After consulting with the radiation oncologist, the therapist confirmed that radiation treatment should indeed be delayed.</t>
         </is>
       </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the request for immediate treatment, the patient's confusion about the necessity of radiation therapy, and the confirmation from the radiation oncologist that radiation treatment should be delayed. However, the summary incorrectly states that the patient was asked to undergo treatment at Hazelrig initially and then transfer to Acton later, when in fact the narrative states that the patient was asked to be treated at Hazelrig for that day only. Nonetheless, the overall meaning of the narrative and the summary are similar."</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -15445,6 +17262,13 @@
           <t xml:space="preserve"> A CSI scan was scheduled for a patient at HSROC. She had previously visited a proton center for device fabrication, but only brought a short facemask for the scan instead of the usual long mask and leg holder. The therapists noticed this discrepancy between her SIM order, which specified a long mask with neck extension and leg cradle, and her SSU order, which only called for a brain setup with a short mask and knee wedge. Due to these conflicting instructions, the patient did not have the necessary equipment for the CSI scan. The therapists consulted with attending and other proton doctors to approve the use of a short mask instead. They fabricated an alpha cradle for her legs as a substitute for the missing leg holder. The scan was then conducted using the short mask and the newly-made alpha cradle.</t>
         </is>
       </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the discrepancy between the patient's orders, the lack of necessary equipment for the CSI scan, and the therapists' efforts to find a solution by consulting with doctors and fabricating an alpha cradle. However, the summary omits some minor details such as the fact that the patient first went to proton for SSU to have her devices made and that the therapists noticed she only came over with a short BOS facemask. Additionally, the phrase "as a substitute for the missing leg holder" in the summary is not an exact match to the narrative, but it still conveys the same meaning. Overall, the summary is similar to the narrative in terms of its main points and overall message.</t>
+        </is>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -15463,6 +17287,13 @@
 A patient undergoing treatment at ETHOS was prescribed daily KV and CBCT imaging. However, the ETHOS machine was incapable of performing KVs. The therapists requested that a physician add an alert in ARIA regarding this deviation from the prescribed imaging regimen.</t>
         </is>
       </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the patient's prescription for KV and CBCT daily, the ETHOS machine's inability to perform KVs, and the therapists' request for a physician to add an alert in ARIA regarding this deviation from the prescribed imaging regimen. The summary is concise and clear, making it identical to the original narrative in terms of meaning and content.</t>
+        </is>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -15481,6 +17312,13 @@
 A patient undergoing Total Body Irradiation (TBI) was consulted on June 24, 2022. The BMT coordinator arranged for a one-day TBI treatment on August 2, 2022, and scheduled it in the system. However, the simulation, which is a necessary step before the treatment, was not performed due to an uncanceled order from the primary physician or resident. A Radiation Therapy Assistant (RTA) noticed this on July 29 and contacted the team to schedule simulation for that day around 3:30 pm. Physics, physicians, and dosimetry were informed, but BMT was not notified for rescheduling, resulting in the treatment being unable to start on August 2 as planned. The TBI treatment is now scheduled to begin on August 3, 2022.</t>
         </is>
       </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative and presents them in a clear and concise manner. Both the narrative and the summary describe the consultation of a TBI patient on June 24, 2022, the arrangement for a one-day treatment on August 2, 2022, the failure to perform the necessary simulation due to an uncanceled order from the primary physician or resident, the actions taken by the Radiation Therapy Assistant (RTA) to schedule the simulation, and the rescheduling of the TBI treatment to begin on August 3, 2022. The summary accurately reflects the information presented in the narrative and is therefore considered identical.</t>
+        </is>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -15499,6 +17337,13 @@
 A medical professional sent a complex density override case to the physics department for processing so that a patient could begin treatment the following day. The professional had previously performed the density overrides themselves. The physics team took several hours from 11:00 AM to 4:00 PM to complete the task. However, upon second check, it was discovered that none of the seven density override structures had been properly implemented in the plans. The professional then had to undo the previous calculations, re-override the density structures, recalculate, and obtain physician approval once more.</t>
         </is>
       </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the complexity of the case, the need for the patient to start treatment the next day, the time it took for physics to complete the density overrides, and the fact that none of the density override structures were properly implemented in the plans. The summary also correctly states that the professional had to undo the previous calculations, re-override the density structures, recalculate, and obtain physician approval once more. Therefore, I would rate the summary as 'Identical' to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -15517,6 +17362,13 @@
 An incident occurred involving a setting for tolerance of snout position. When a range shifter was present, the tolerance was set to "no range shifter." This resulted in the snout being considered within tolerance even when fully retracted. Megan M., Dr. Kraus, and Paige D. identified and corrected this issue.</t>
         </is>
       </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the incorrect setting for snout position tolerance, the presence of a range shifter, and the team that identified and fixed the issue. However, it does not explicitly state that the snout was still considered within tolerance when fully retracted, which is a key detail in the narrative. Therefore, I would rate this as 'Similar' rather than 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -15535,6 +17387,13 @@
 The patient receives a therapy session involving three beam fields: PA, RAO, and Rt Lat. The PA field is adjusted to be positioned on the patient's left side, which may result in a collision between the gantry and the wingboard, as well as increasing the treatment time by approximately 1-2 minutes due to the necessary gantry rotation to the right for the subsequent fields.</t>
         </is>
       </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the number and names of the beam fields, the positioning of the PA field on the patient's left side, the possibility of gantry collision with the wingboard, and the increased treatment time due to gantry rotation. However, the summary does not explicitly mention that the wingboard is offset by 5 cm to the patient's left, which is a minor detail in the narrative. Nonetheless, the overall meaning and content of the two texts are similar.</t>
+        </is>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -15553,6 +17412,13 @@
 The therapist adjusted the fiducial tracking parameter from negative 2.5 to positive 2.5 during the second session of a treatment process.</t>
         </is>
       </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the generated summary convey similar information about an adjustment made by a therapist to the fiducial tracking parameters during a specific session of a treatment process. However, the summary does not explicitly mention that the change was from negative 2.5 to positive 2.5, which is stated in the narrative. Therefore, while the overall meaning is similar, the specific values are not identical.</t>
+        </is>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -15571,6 +17437,13 @@
 A request was made for a radiotherapy treatment, specifically radiosurgery for the thoracic spine (t-spine). The instructions included creating a cradle with the patient's arms positioned above their head. The location of the isocenter was identified at T1. The therapy team reviewed and confirmed the simulation order with the attending physician. However, upon further discussion, the attending requested that a facemask be used instead of the cradle.</t>
         </is>
       </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The generated summary accurately captures the main points of the narrative, including the type of treatment requested, the special instructions for the cradle and isocenter location, and the change in plans to use a facemask instead. The only minor difference is that the summary uses the term "radiotherapy" instead of "radiosurgery," but this does not significantly alter the meaning or accuracy of the summary."</t>
+        </is>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -15589,6 +17462,7 @@
 At 6:23 am on December 15, 2022, the Quality Assurance (QA) upload into Power Chart and treatment approval were not yet completed for a start time of 6:30 am.</t>
         </is>
       </c>
+      <c r="D708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -15607,6 +17481,13 @@
 A bilateral breast procedure was initiated, but the shift instructions for the right breast were distributed from an incorrect location. The discrepancy was discovered during imaging, which showed a significant deviation from the planned position. After consulting with Dos and physics, it was determined that the right breast should have been shifted from the left breast iso instead. The shifts were corrected, and the imaging confirmed accuracy. A yellow sheet was reprinted to reflect the correct shifts. Additionally, a suggestion for process improvement was made: implementing a film-only day prior to the first day of treatment to reduce the amount of time patients spend on the table during bilateral breast procedures.</t>
         </is>
       </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points and sequence of events described in the narrative, including the error in shift instructions for the right breast, the discovery and correction of the mistake, and the suggestion for a process improvement. The language used is clear and concise, effectively conveying the same meaning as the original narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -15625,6 +17506,13 @@
 A bilateral breast treatment involved extending the Contour of the Chestwall on the right side (CTV_Chestwall_R) beyond the total contour and the planning target volume (PTV^Right) for the right breast, specifically by 1-2cm near the axilla in four to five slices. During a quality check, this issue was flagged but not addressed by the dosimetrist. The initial treatment plan aimed to cover CTV_Chestwall_R, but during a physics plan review, it was discovered that the region extended outside of PTV^Right. The physician was contacted and instructed to crop CTV_Chestwall_R back inside PTV^Right and reoptimize the plan.</t>
         </is>
       </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the extension of CTV\_Chestwall\_R beyond the PTV^Right, the flagging of this issue during a quality check, the lack of follow-up by the dosimetrist, the initial treatment plan's aim to cover CTV\_Chestwall\_R, and the need for reoptimization based on physician instructions. The summary uses slightly different wording but conveys the same meaning as the narrative, making it identical in terms of overall content and message.</t>
+        </is>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -15643,6 +17531,13 @@
 A therapist obtained a patient's chart review paperwork which contained an incorrect prescription during the printout process. The therapist identified the error and reported it to the dosimetrist. The correct prescription was subsequently retrieved from ARIA, an electronic medical record system.</t>
         </is>
       </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the presence of an incorrect prescription in the printed paperwork, the therapist's identification and reporting of the error, and the retrieval of the correct prescription from ARIA. However, the summary uses slightly different wording than the narrative, which is why it is being marked as 'Similar' rather than 'Identical'. For example, the summary refers to 'the printout process' instead of simply 'the printout', and it specifies that the prescription was retrieved 'from ARIA, an electronic medical record system', whereas the narrative does not explicitly mention that ARIA is an electronic medical record system. Nonetheless, these differences do not significantly alter the meaning or overall message of the summary, and it accurately conveys the key details of the narrative."</t>
+        </is>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -15661,6 +17556,13 @@
 A patient's chemotherapy is set to begin soon and their scheduling appointment was arranged with short notice. Therapists were contacted on Friday, the 21st of April, at 3:24 PM to schedule the patient for the following business day, which was Monday, the 24th of April. The patient had undergone a simulation on the 13th of April.</t>
         </is>
       </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the information provided in the narrative. Both the narrative and the summary indicate that the patient's chemotherapy is starting soon, and that the scheduling appointment was arranged with short notice for the following business day. Additionally, both sources specify the exact dates and times when therapists were contacted and when the patient was simulated. Therefore, I would rate the match between the narrative and the summary as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -15679,6 +17581,13 @@
 A patient is undergoing a modification to their treatment regimen, involving the introduction of an additional PTV (volume of tissue receiving radiation therapy) while maintaining two existing ones. However, when reviewing the new prescription, it was discovered that the new PTV was not linked to the previous plans. The distinction between a new volume and a revised dose for the existing volumes was unclear, resulting in a delay in the patient's treatment.</t>
         </is>
       </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the addition of a new PTV, the continuation of two existing PTVs, and the delay caused by the unclear prescription. However, it incorrectly states that the new PTV was not linked to the previous plans, when in fact the narrative states that the new prescription did not have the new linked plan listed. This discrepancy results in a grade of 'Similar' rather than 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -15697,6 +17606,13 @@
 A therapist examined a patient's prescription (RX) record before contacting the patient to arrange an appointment. The prescription indicated that the medication was to be taken continuously and consecutively for an extended period instead of once daily for consecutive days. The therapist reported this discrepancy to the designated supervisor of operations (DOS), person in charge of operations (POD), and medical director (MD). As a result, the treatment plan was adjusted, and the prescription was amended to conform to the approved status.</t>
         </is>
       </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+A: Identical
+The generated summary accurately reflects the meaning of the narrative. The therapist reviewed the patient's information, discovered an issue with the prescription, and reported it to the appropriate parties. This led to a change in the treatment plan and the prescription being amended. Both the narrative and the summary convey this sequence of events clearly and concisely.</t>
+        </is>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -15715,6 +17631,13 @@
 A therapy pre-chart check, which is typically scheduled by dosimetry, was overlooked by them during their chart preparation for upcoming patients. The responsible therapists discovered missing plan documents in the charts and found no record of this task on their printable task list. Upon inquiry, a dosimetrist explained that she had neglected to add a note for scheduling the therapy pre-chart check printout.</t>
         </is>
       </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It correctly identifies that the Therapy Pre-Chart Check was not scheduled by dosimetry, leading to missing plan documents in the charts and the therapists having to manually check for it. The summary also mentions that a dosimetrist neglected to add a note for scheduling the therapy pre-chart check printout, which is consistent with the narrative's mention of the task not being placed in the system. Overall, the meaning and details of the narrative are preserved in the summary, making it an identical match.</t>
+        </is>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -15733,6 +17656,13 @@
 A dosimetrist announced on May 22, 2021, that AAA version 13.6.23 could be utilized on the Edge. However, upon discovery, it had already been decommissioned from the Edge. The root cause was traced back to a non-clinical system (Eclipse ECS848), where AAA v.13.6.23 had been authorized for testing several days prior. An examination revealed that the non-clinical test system's beam data were linked to the clinical beam data for various algorithms, all version 13.6.23. The Eclipse system employed for clinical development was found to be connected to clinical beam data.</t>
         </is>
       </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the announcement and decommissioning of AAA v.13.6.23 on the Edge, the approval for testing on a non-clinical system, and the connection between the non-clinical test system's beam data and the clinical beam data for multiple algorithms. The summary uses slightly different wording in some places, but the meaning is identical to that of the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -15751,6 +17681,13 @@
 A discrepancy was identified between the prescribed daily dose of radiation therapy (200 cGy) and the documented total dose on the external beam planning sheet (95 cGy). Following consultation with a physicist, it was determined that the planned dose was incorrect and required re-planning for dosimetry.</t>
         </is>
       </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that there was a discrepancy between the prescribed daily dose of radiation therapy (200 cGy) and the documented total dose on the external beam planning sheet (95 cGy). It also correctly mentions that following consultation with a physicist, it was determined that the planned dose was incorrect and required re-planning for dosimetry. The summary captures all the important details of the narrative and presents them in a clear and concise manner, making it identical to the original narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -15769,6 +17706,7 @@
 A plan for treating a patient was not approved during the scheduled treatment session.</t>
         </is>
       </c>
+      <c r="D718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -15787,6 +17725,7 @@
 A patient underwent a planning process for radiation therapy. However, during this stage, it was discovered that the full table had not been incorporated into the external structure of the treatment plan. Consequently, calculations for posterior fields would have been inaccurate if left unaddressed.</t>
         </is>
       </c>
+      <c r="D719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -15805,6 +17744,13 @@
 A message for a physics chart check was not sent through the patients care path in a timely manner. This oversight was discovered a few hours before the patient was scheduled to receive treatment with a revised plan. A dosimetrist identified the error and promptly corrected it. The patient's plan was then checked, and the patient was treated without any delay.</t>
         </is>
       </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the failure to send a message for a physics chart check, the discovery of the issue before treatment, the identification and correction of the error by a dosimetrist, and the successful treatment of the patient without delay. However, the wording is slightly different in some places, such as "in a timely manner" instead of "engaged to send," and "a revised plan" instead of "revised treatment plan." These differences do not significantly alter the meaning of the summary, but they are enough to warrant a grade of "Similar" rather than "Identical."</t>
+        </is>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -15823,6 +17769,13 @@
 A patient's treatment plan was altered due to subpar results from a quality assurance CT scan. The initial intention was to administer the final 16 fractions of radiation therapy (R2) to this area. However, R2 was never scheduled for treatment. Instead, the first area (R1), which had been planned for a full course of radiation therapy and had received four fractions, continued to be treated according to the original plan. The discrepancy between the intended remaining fractions and the actual plan was identified during the approval process for the physics treatment.</t>
         </is>
       </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a patient's treatment plan was changed due to poor quality assurance CT results, R2 was never scheduled, R1 was treated as planned, and the discrepancy was identified during physics treatment approval. Both the narrative and the summary convey the same information and meaning, making them identical in their assessment of the situation.</t>
+        </is>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -15840,6 +17793,13 @@
           <t xml:space="preserve"> The event describes the process of preparing and starting a radiation therapy treatment for a patient. At 4:15 pm, the dosimetry plan for treating three areas of the patient's body with radiation started being prepared. However, there were errors with the dosimetry program, causing a delay. At 12:30 pm, the physician changed the prescription for the treatment. At 1:20 pm, the physician approved the plans, but it was later discovered that they had not actually been approved. At 1:40 pm, the dosimetry team printed out cutouts to be poured for the radiation treatment. By 2:30 pm, the plan approval showed up in the Aria system, allowing the physics team to check the chart. At 3:45 pm, the patient arrived at the clinic. The plan was approved and therapy checks were completed by 5:12 pm. The patient was then brought into the room at 5:30 pm, and the first beam was turned on at 5:47 pm for the first area of treatment. The cutout for the second field was adjusted to fit at 5:56 pm, and the second beam was turned on at 6:03 pm. The third beam was turned on at 6:12 pm.</t>
         </is>
       </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main events and details of the narrative. It describes the process of preparing and starting a radiation therapy treatment for a patient, including the delays caused by errors with the dosimetry program and changes to the prescription. The summary also correctly mentions the approval of the plan, the arrival of the patient, and the timing of each beam being turned on. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -15858,6 +17818,13 @@
 A reference to a patient Medical Record Number (MRN) is made, along with mentions of a proton Single-Stranded Conformational Polymorphism (SSCP) order and Simulators (SIM) orders. It is stated that there is a discrepancy between these two types of orders for the same patient.</t>
         </is>
       </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary both convey the same information, which is the existence of a discrepancy between a proton SSCP order and SIM orders for a specific patient, as indicated by a reference to their MRN.</t>
+        </is>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -15876,6 +17843,13 @@
 A physicist failed to fill out a reference point with specific values and instead made a phone call to a machine to input International Commission on Radiation Units and Measurements (ICRU) point values.</t>
         </is>
       </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, providing an identical meaning. Both the narrative and the summary mention a physicist who did not fill out a reference point with specific values and instead contacted a machine to input ICRU point values.</t>
+        </is>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -15894,6 +17868,13 @@
 A breast cancer treatment session using a breath hold technique for the True Beam machine was scheduled for five complete arcs. A potential hazard of a lateral shift amounting to eight units was identified during the planning process.</t>
         </is>
       </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that a breast cancer treatment session using a breath hold technique for the True Beam machine is planned with five full arcs, and there is a high risk of collision due to a lateral shift of eight units during the planning process.</t>
+        </is>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -15912,6 +17893,13 @@
 A CT scan was performed on a subject on February 11, 2021. A boost, or additional dose, of the treatment was initiated on February 24, 2021.</t>
         </is>
       </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both state that a CT scan was performed on February 11, 2021 and a boost of treatment was started on February 24, 2021. Therefore, the meaning of the narrative and the summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -15930,6 +17918,13 @@
 A doctor reported that the extension of a high contour in a plan for radiation therapy was only 5cm inferiorly instead of the normal expected expansion. When questioned about this discrepancy, the doctor did not want to make any changes. The physics team requested that therapists cancel the scheduled patient appointment due to concerns that the entire plan might need to be revised.</t>
         </is>
       </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the unexpected 5cm inferior extension of the high contour, the doctor's decision not to edit the plan, and the physics team's concern that the plan may need to be completely redone. The only minor difference is that the narrative mentions that the physics team asked therapists to un-schedule the patient, while the summary states that they requested cancellation of the scheduled patient appointment. However, both statements convey the same meaning and imply the same action. Overall, the summary accurately reflects the content and tone of the narrative."</t>
+        </is>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -15948,6 +17943,13 @@
 A patient undergoing SBRT (Stereotactic Body Radiation Therapy) for liver cancer was using exhalation-breathhold and image-guided radiation therapy (IGRT) techniques. A consultation from the Physics Specialist suggested changing the imaging trigger during delivery to be set to 'Continuous at Beam On.' However, the correct recommendation should have been 'Gantry Rtn' at a 10-degree interval instead. The imaging frequency was discovered to be around 1-2% of the total monitor units during beam on, and the triggered imaging consultation on February 17, 2022, was revised to reflect the correct settings for the remainder of the treatment.</t>
         </is>
       </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary describe a liver SBRT patient being treated with exhalation-breathhold and triggered image IGRT techniques, and a Physics Special Physics Consult recommending a change in imaging trigger settings during delivery. The summary correctly identifies that the recommended setting should have been 'Gantry Rtn' at a 10-degree interval instead of 'Continuous at Beam On.' Additionally, both the narrative and the summary mention that the imaging frequency was discovered to be around 1-2% of the total monitor units during beam on and that the triggered imaging consultation was revised to reflect the correct settings for the remainder of the treatment. Therefore, the evaluation is 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -15966,6 +17968,13 @@
 A patient was scheduled for a procedure labeled as 'ix' according to the task list provided by DOS in the therapy system. However, during a chart check, it was discovered that the patient was supposed to undergo a different procedure, labeled as 'stx'. The patient needed to be rescheduled accordingly.</t>
         </is>
       </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the meaning of the narrative. Both the narrative and the summary indicate that a patient was scheduled for an 'ix' procedure but was found to be actually planned for an 'stx' procedure, requiring rescheduling. The summary mirrors the sequence of events and details presented in the narrative, making it identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -15984,6 +17993,13 @@
 A discrepancy was identified during the review of a physics plan for a multi-fraction SRS case regarding the contouring of a specific GTV (GTV13). Instead of one continuous metastatic lesion as typical, the contour appeared to encompass two distinct regions. Upon further examination, it was determined that one of these regions did not contain a metastatic lesion, as indicated by the absence of hyper-intense signals on CT and MRI scans. The physicist consulted the physician, resulting in the need for a re-plan.</t>
         </is>
       </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the incorrect contouring of GTV13, the discovery of two distinct regions instead of one continuous metastatic lesion, the absence of a metastatic lesion in one of the regions, and the need for a re-plan due to the consultation with the physician. The summary is written in a clear and concise manner that matches the narrative's tone and style. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -16002,6 +18018,13 @@
 A person named Dosi initiated the planning of a patient's treatment while the couch structure was only partially inserted into the external calculation structure. An issue was identified during the planning process by an individual referred to as a planner, who noticed that the field dose was not evaluating correctly due to the incomplete couch structure. The planner rectified this problem by adding the complete couch structure into the calculation and continued with the planning process.</t>
         </is>
       </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a situation where Dosi began planning a patient's treatment, but the couch structure was not fully inserted into the external calculation structure. A planner identified the issue during the planning process and added the full couch structure to continue planning. The summary accurately captures the details of the narrative, making it identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -16020,6 +18043,12 @@
 A patient underwent a RECT simulation for boost planning according to an order placed by a resident physician. Despite the RX stating that no RECT was required, the attending physician noted in the prescription that they did not want a RECT. As a result, the patient received an unnecessary RECT simulation.</t>
         </is>
       </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar - The summary accurately captures the main points of the narrative, including the unnecessary RECT simulation and the conflicting orders from the resident and attending physicians. However, it could be more specific about who put the patient on the simulation schedule and the fact that the attending changed their mind after the order was placed."</t>
+        </is>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -16038,6 +18067,13 @@
 A prescription called for OSL readings to be carried out during fraction one. This detail was recorded in another part of the treatment preparation. During fraction ten, a treating therapist observed that these readings had not been executed. The medical doctor was informed, and it was decided that the readings would be conducted during the next treatment session.</t>
         </is>
       </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative. Both the narrative and the summary state that a prescription required OSL readings to be completed during fraction one, this was documented in the treatment preparation, but it was not done until noticed by a treating therapist during fraction ten, and the medical doctor was informed to have them performed at the next treatment session. The language used is slightly different, but the meaning conveyed is identical.</t>
+        </is>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -16056,6 +18092,13 @@
 A medical professional calculated a patient's dose using an uncommissioned and unreleased beam model, AAA_15511. This approval occurred during the upgrade to Eclipse version 15 in June 2018 by R Popple. The treatment machine, identified as IX, is the only one for which this beam model was approved. It's possible that the beam dataset was approved during the initial commissioning but was not decommissioned when the decision was made to continue using AAA_13623 until AcurosXB was ready.</t>
         </is>
       </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. It specifies the uncommissioned and unreleased beam model used for calculating the patient's dose, the individual who approved it, the treatment machine for which it was approved, and the possibility that the beam dataset was approved during initial commissioning but not decommissioned when the decision was made to continue using a different beam model. The summary uses slightly different wording than the narrative, but the meaning is identical.</t>
+        </is>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -16074,6 +18117,13 @@
 A patient's selected treatment plan lacked the appropriate kv orthos option. Consequently, it was necessary to relocate the patient during the kv orthos procedure due to space constraints.</t>
         </is>
       </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the summary convey a similar meaning. Both describe a situation where a patient's treatment plan did not have the correct kv orthos available, which led to the need for moving the patient during the procedure due to clearance issues or space constraints. However, the summary uses different wording and provides more context about the reason for moving the patient (space constraints), making it slightly different from the narrative. Nonetheless, the overall meaning is similar.</t>
+        </is>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -16092,6 +18142,13 @@
 The patient (referred to as Pt) was positioned on the treatment table with feet first, contrary to the simulated position. During image acquisition, it was discovered that the Digital Reconstruction Radiographs (DRRs) were oriented with the head leading. No records indicated this change had occurred during planning. Subsequently, therapists needed to reverse Pt's position before proceeding with imaging once more.</t>
         </is>
       </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the patient's initial position on the treatment table, the unexpected orientation of the DRRs, and the need for therapists to reposition the patient before taking new images. However, the summary uses the term "image acquisition" instead of "taking images," which is a minor difference in wording that does not affect the overall meaning."</t>
+        </is>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -16110,6 +18167,13 @@
 A mistake was identified on a yellow document regarding the monitor units for a treatment. The error went unnoticed until the document was reviewed at the console before the therapy could begin. A corrected version of the yellow document, containing the accurate monitor units, was provided to the therapists to continue with the treatment.</t>
         </is>
       </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a mistake was found on a yellow sheet related to monitor units for a treatment, which went unnoticed until it was checked at the console before beginning the therapy. Additionally, the summary mentions that a revised version of the yellow sheet with the correct monitor units was given to the therapists to proceed with the treatment, aligning with the narrative's details.</t>
+        </is>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -16127,6 +18191,13 @@
           <t xml:space="preserve"> In other words, during a review of a physics treatment plan, two issues were identified: an incorrect dose grid measurement and discontinuities in lung contour. Further investigation revealed that a single slice of airway had been mistakenly labeled as lung tissue. The responsible party used the wrong protocol, leading to the incorrect identification of the issue with the dose calculation algorithm. These problems went unaddressed until discovered during the physics plan check.</t>
         </is>
       </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the two issues identified during the physics treatment plan review (incorrect dose grid and discontinuities in lung contour), the mistake made by the planner in labeling airway as lung tissue, and the fact that these problems were not addressed until discovered during the physics plan check. However, the summary does not explicitly mention that the wrong protocol was used by the planner, which led to the incorrect identification of the issue with the dose calculation algorithm. Nonetheless, the overall meaning conveyed in both the narrative and the summary is similar.</t>
+        </is>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -16144,6 +18215,7 @@
           <t xml:space="preserve"> In this event, during a second check in physics, an error was identified in the density overrides for a patient with numerous metal clips and streaking artifacts. The artifacts surrounding the metal clips were not contoured/overridden to tissue, and the metal was overridden to Ti instead of SS when the HU (Hounsfield Units) was consistent with SS. To correct this error, the structure set was duplicated, the density overrides were fixed, and the plan was recalculated. The overall target coverage did not change significantly, but the dose surrounding the clips was much hotter than before. The physician chose not to modify the existing plan, but requested a new plan with the correct density overrides for proper record keeping.</t>
         </is>
       </c>
+      <c r="D739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -16162,6 +18234,7 @@
 The patient's proposed treatment plan was not authorized prior to the commencement of therapy on the initial day.</t>
         </is>
       </c>
+      <c r="D740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -16180,6 +18253,7 @@
 A Powerchart message and Vocera notification were received by the attending for adding a patient alert regarding the specific IMRT breast imaging protocol: one kilovolt (kv) fraction at the start, followed by megavolt (MV) imaging every five fractions.</t>
         </is>
       </c>
+      <c r="D741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -16198,6 +18272,13 @@
 A patient undergoing imaging procedures had a wig that was supposed to be removed during one of the tests based on setup photos, but it was not taken off during the simulation at the Highfield Road Oncology Centre. This resulted in incorrect chin placement towards the target area during the test. The issue was identified after reviewing 4D CT and freebreathing scan images without the wig to assess the impact of neck/chin positioning.</t>
         </is>
       </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative, including the fact that a patient's wig was not removed during an imaging procedure at HSROC, resulting in incorrect chin placement towards the target area. The summary also correctly notes that the issue was identified after reviewing 4D CT and freebreathing scan images without the wig to assess the impact of neck/chin positioning. Therefore, I would rate the summary as 'Identical' to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -16216,6 +18297,13 @@
 A 15 MU segment of a field for breast radiation treatment was found to have a small leak of light during image acquisition prior to treatment. The issue was reported to dosimetry, resulting in a revision of the treatment plan before the second fraction.</t>
         </is>
       </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both describe a small light leak discovered on a 15 MU segment field while taking images before treating a breast patient, and how dosimetry was notified and the plan was revised before the second fraction.</t>
+        </is>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -16234,6 +18322,13 @@
 A patient scheduled to begin treatment as a SBRT case on Monday was being prepared for therapy by a therapist on Friday. According to the documentation in the chart, no pacemaker was indicated for this patient, nor had there been a consultation with the physics department. However, upon further examination, it was discovered that the patient did indeed have a pacemaker. The physics team was informed of this discrepancy and required additional information regarding the pacemaker before they could proceed. As a result, the patient's treatment had to be rescheduled.</t>
         </is>
       </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the fact that the patient was scheduled for SBRT treatment on Monday, the therapist discovered a discrepancy in the documentation regarding the patient's pacemaker, and the physics team required additional information before proceeding, resulting in the patient's treatment being rescheduled. The summary uses slightly different wording than the narrative but conveys the same meaning."</t>
+        </is>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -16252,6 +18347,13 @@
 A new patient's yellow sheet for a therapy session did not specify whether the indicated shift was meant to be left or right. Since the noted shift measurement was 2 cm for a prostate issue, the treating therapist double-checked the prescription through CBCT imaging to confirm the correct side.</t>
         </is>
       </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the meaning of the narrative. Both the narrative and the summary indicate that there was a new patient with a yellow sheet for a therapy session, but the shift direction (left or right) was not specified. The shift measurement was 2 cm, which was related to a prostate issue. The treating therapist confirmed the correct side by verifying the prescription through CBCT imaging. Therefore, the summary is identical in meaning to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -16271,6 +18373,7 @@
 A patient with high needs lost weight and had noticeable space in their mask. On September 8, 2021 (16th fixation), a POD authorized a CBCT scan to evaluate the weight loss and determine if a removable splint (resim) was necessary. The MD reviewed the images and agreed that a resim might be required. However, when asked about the CT results a few days later, the MD stated they would look at it later. A therapist requested an update on September 16, 2021 (21st fixation), but the MD deferred the decision. On September 20, 2021 (23rd fixation), when the MD was the DOD, a third therapist asked for their assessment of the patient's condition and acknowledged the significant weight loss, leading the MD to conclude that a resim was indeed needed.</t>
         </is>
       </c>
+      <c r="D746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -16289,6 +18392,13 @@
 A physician encountered difficulty while entering a new prescription due to an error in its labeling. The prescription, identified as C1, was intended to be labeled as T spine instead. An attempt was made to rectify the mistake, but the system responded with an "error out" message, which should not have occurred.</t>
         </is>
       </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that a physician had trouble entering a new prescription due to incorrect labeling as C1 instead of T spine, and attempted to correct it but received an "error out" message which should not have occurred. This matches the narrative exactly, making the evaluation 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -16306,6 +18416,13 @@
           <t xml:space="preserve"> The event involved a delay in therapy due to incorrect paperwork and unapproved physics plan, followed by a discrepancy between the charted MUs (measurement units) and the actual MUs used during treatment. The error was identified and corrected, but there was no updated paperwork or notification to therapy about the change. Therapy started the treatment an hour late.</t>
         </is>
       </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately captures the main points of the narrative. It mentions the delay in therapy due to incorrect paperwork and unapproved physics plan, as well as the discrepancy between the charted MUs and the actual MUs used during treatment. The summary also notes that the error was identified and corrected, but there was no updated paperwork or notification to therapy about the change, which is consistent with the narrative. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -16323,6 +18440,13 @@
           <t xml:space="preserve"> The event describes a situation where a care pathway for a patient was not advanced to the next stage, which involved physics. The therapist contacted the physicist an hour before the scheduled treatment time to inquire about the reason why the plan had not been approved. It was discovered that the plan had not been checked yet. After the plan was checked, the patient was ready for treatment by the scheduled time.</t>
         </is>
       </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative, providing a clear and concise description of the situation where the care path on a patient was not advanced to physics, the therapist contacted the physicist to inquire about the plan not being treatment approved, and the plan was checked and the patient was ready for treatment by the scheduled time. The summary captures all the essential details of the narrative, making it identical in meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -16340,6 +18464,13 @@
           <t xml:space="preserve"> A patient experienced a fall in a treatment room as a result of their foot going numb during a therapeutic procedure.</t>
         </is>
       </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the generated summary are similar in meaning. Both convey that a patient fell in a treatment room due to their foot becoming numb, with the only difference being that the narrative specifies the numbness was caused by adaptive treatment, while the summary refers to it as a therapeutic procedure.</t>
+        </is>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -16358,6 +18489,13 @@
 A medical team is dealing with a case involving a right breast, but the labels on their equipment indicate 'left med/lats' instead.</t>
         </is>
       </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and the generated summary convey the same meaning. Both describe a medical situation where there is an inconsistency between the side of the breast being treated (right) and the labels on the equipment (left med/lats).</t>
+        </is>
+      </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
@@ -16376,6 +18514,13 @@
 A patient's new treatment start time was scheduled for 1:00 pm on September 15, 2021. The final chart checks by the physics team were completed at 1:26 pm. The therapist began pre-treatment checks on the chart and the patient initiated treatment approximately 38 minutes later, around 1:58 pm.</t>
         </is>
       </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both state that the patient's new treatment start time was set for 1pm on 9/15/21, the final chart checks by the physics team were completed at 1:26 pm, and the patient initiated treatment around 1:58 pm. The summary adds that the therapist began pre-treatment checks on the chart, which is also mentioned in the narrative. Therefore, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
@@ -16394,6 +18539,7 @@
 A consent form for a treatment to the abdomen was signed by the patient. However, the intended treatment area was actually the pelvis. A new consent form needed to be completed before the correct treatment could be administered.</t>
         </is>
       </c>
+      <c r="D753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
@@ -16412,6 +18558,13 @@
 A Vocera message was received by therapists at 8am on April 24, 2023, requesting that a patient be started in the afternoon of the same day. The patient had been simulated on April 20, 2023, and the treatment plan was ready when the message was sent.</t>
         </is>
       </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Identical
+The generated summary accurately conveys the main points of the narrative, including the timing and content of the Vocera message, as well as the patient's simulation and treatment readiness. The language used in both the narrative and the summary is clear and concise, making it easy to understand the situation being described."</t>
+        </is>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -16430,6 +18583,13 @@
 The dosimetrist failed to upload a required PDF document for an Electron plan to PowerNote in time for it to be reviewed before the scheduled treatment at 9 am the next day. The document was not uploaded until the following morning, with less than one hour remaining before the treatment. The Electron plan checks cannot be completed without referencing the MU calc sheet contained in the PDF document. The dosimetrist mentioned they were unable to access their work computer to upload the document earlier.</t>
         </is>
       </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main points of the narrative, including the failure to upload the required document on time, the late hour of the upload, and the impact on the Electron plan checks. However, it goes into slightly more detail about the reason for the delay than the narrative does, stating that the dosimetrist was unable to access their work computer. While this is implied in the narrative, it is not explicitly stated, so the summary is not identical to the original text. Nonetheless, the summary accurately conveys the meaning of the narrative and provides a clear understanding of the situation.</t>
+        </is>
+      </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
@@ -16448,6 +18608,13 @@
 A medical procedure involving thalamotomy and virtual cone treatment was performed, but the necessary pre-treatment checks were not completed prior to the treatment.</t>
         </is>
       </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The generated summary accurately captures the main idea of the narrative, which is that a medical procedure involving thalamotomy and virtual cone treatment was performed but the pre-treatment checks were not done. However, the wording is slightly different from the original narrative, hence the grade 'Similar' instead of 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -16466,6 +18633,7 @@
 A physicist responsible for reviewing a plan did not finish the glucose monitor physics consultation and the special physics consult task in Aria. These tasks needed completion on the same day of treatment for plan approval.</t>
         </is>
       </c>
+      <c r="D757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
@@ -16484,6 +18652,7 @@
 A patient's yellow sheet and the setup notes in a treatment room indicated the use of the short BOS for a procedure. Contrarily, the labels on the treatment devices specified the long BOS.</t>
         </is>
       </c>
+      <c r="D758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
@@ -16501,6 +18670,7 @@
           <t>' An empty section in a simulation note regarding implanted devices was left blank 11 days after a meeting involving physics, dosimetry, and therapy for simulating radiation treatment. During the meeting, there was discussion about a new 'patient denies cardiac device' button for pacemaker information. Ten days later, during an initial plan review for lung stereotactic body radiotherapy (SBRT), it was discovered that this section was empty. There were no Whiteboard comments to provide clarification. The absence of a cardio-implantable electronic device (CIED) was confirmed by scrolling through the planning CT.</t>
         </is>
       </c>
+      <c r="D759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
@@ -16519,6 +18689,13 @@
 A plan for treating a condition did not receive approval before being presented for implementation. A previous initiative, referred to as "New Start," was returned for further review and modification.</t>
         </is>
       </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The narrative and the generated summary convey similar meanings. Both describe a plan that was not approved prior to being presented for treatment or implementation. The summary adds some details about returning the "New Start" for further review, which is not explicitly mentioned in the narrative but can be inferred from it. Overall, the summary accurately captures the main idea of the narrative and provides additional context that helps clarify its meaning.</t>
+        </is>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -16537,6 +18714,7 @@
 A patient's therapy plan underwent a revision, which was initiated without notification to the therapists. The dosimetry team failed to inform therapists or update the ARIA system accordingly. Despite checking their own list, they did not complete these tasks.</t>
         </is>
       </c>
+      <c r="D761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
@@ -16555,6 +18733,13 @@
 A physics task involved reviewing a treatment plan for breast radiation therapy. The documents were prepared for standard procedure following completion of a check. The plan was approved for treatment after approval. Later, it was discovered that revision plans were ready for the same cases. Since there was no prior communication about revisions, the original plans were unnecessarily checked. In one instance, this did not result in immediate treatment as the patient was not scheduled for the same day. However, this is a common occurrence and could have led to administering an unrevised plan. The second case also required revision for clearance purposes.</t>
         </is>
       </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately captures the main points of the narrative, including the task of reviewing a breast radiation therapy treatment plan, the discovery of revision plans after checking the original plans, and the potential consequences of not communicating about revisions. The summary also correctly mentions that one instance did not result in immediate treatment but could have led to administering an unrevised plan, and that the second case required revision for clearance purposes. Overall, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
@@ -16573,6 +18758,13 @@
 The labels on certain arcs have been incorrectly assigned. The term "ccw" has been marked with the label for clockwise rotation, while "cww" has been labeled counterclockwise instead. It appears that this confusion has affected other patients' treatments recently.</t>
         </is>
       </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary both convey the same meaning, which is that there has been a mix-up in labeling the direction of arcs, with "ccw" being labeled as clockwise and vice versa. This error has affected other patients' treatments recently. Therefore, I would grade this evaluation as 'Identical'.</t>
+        </is>
+      </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
@@ -16591,6 +18783,13 @@
 A search for a simulation note related to an ICD status verification, which took place on December 1st, 2022, in the field of physics, did not yield any results. After examining all relevant documents, a power note was created instead.</t>
         </is>
       </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The narrative and summary are identical in meaning. Both convey that there was an attempt to find a simulation note for ICD status verification on December 1st, 2022, but it was not found. In its place, a power note was created after reviewing all relevant documents.</t>
+        </is>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -16609,6 +18808,13 @@
 During a physics review of a patient's treatment plan in the field of physics, an issue was identified regarding the application of a trial protocol (RADCOMP). The team discovered that they had not received the necessary documentation for this trial. As a result, the prescribed dose for the target area (IMN) did not adhere to the trial protocol guidelines, causing a significant deviation from the established plan. Additionally, the names given to regions of interest (ROIs), including both targets and normal tissues, did not conform to the required naming standards as outlined in the protocol. Despite these discrepancies, the approved plan was determined to be safe and compliant with institutional planning guidelines.</t>
         </is>
       </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the failure to adhere to trial protocol guidelines due to missing documentation, the resulting major deviation in target dose, and the non-compliance with naming standards for ROIs. However, the summary does not explicitly mention that the approved plan was safe and met institutional planning guidelines, which are also key points in the narrative. Nonetheless, it can be inferred from the summary that the approved plan was deemed safe since there is no mention of any safety concerns. Therefore, I assess this summary as 'Similar' to the original narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
@@ -16627,6 +18833,13 @@
 The therapist encountered no specific gating instructions in the prescription or yellow sheet regarding the use of free breathing or gated breathing during therapy for the patient. The therapist, however, simulated the treatment with gating due to a previous uncertainty. It was planned that the patient would breathe freely during the session, but it was important to ensure clear instructions were provided on the yellow sheet.</t>
         </is>
       </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Similar
+Explanation: The summary accurately captures the main points of the narrative, including the absence of clear gating instructions in the prescription or yellow sheet, the therapist's decision to simulate the treatment with gating due to uncertainty, and the plan for the patient to breathe freely during the session. However, the summary adds the detail that it was important to ensure clear instructions were provided on the yellow sheet, which is not explicitly mentioned in the narrative but can be inferred from the therapist's actions. Overall, the meaning of the narrative and the generated summary are similar, with the summary providing a slightly more detailed explanation of the situation.</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -16645,6 +18858,13 @@
 A patient received simulation on March 15, 2021, while his documented start date for treatment was March 29, 2021. No consent form was found in either the electronic or paper chart on his start date.</t>
         </is>
       </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the information provided in the narrative. Both the narrative and the summary state that a patient received simulation on March 15, 2021 and his documented start date for treatment was March 29, 2021. Additionally, both indicate that there was no consent form found in either the electronic or paper chart on his start date. Therefore, the meaning of the narrative and the summary match closely and can be considered identical.</t>
+        </is>
+      </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
@@ -16663,6 +18883,13 @@
 A physician indicated "No Bolus" during the clinical preparation for a neck keloid treatment. However, a therapist inputted 106 Small Square Doses (SSD) on the electronic setup sheet for planning purposes. Despite the presence of a planned bolus on the treatment sheet and prescription, the patient was ultimately treated without any bolus application.</t>
         </is>
       </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by stating that the physician indicated "No Bolus" during clinical setup for neck keloid treatment, but a therapist inputted 106 SSD on the electronic setup sheet for planning purposes. The summary also correctly mentions that despite the planned bolus on the treatment sheet and prescription, the patient was treated without any bolus application. Therefore, the meaning of the narrative and the generated summary are identical.</t>
+        </is>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
@@ -16681,6 +18908,7 @@
 The patient's weekly physic check was not conducted. The patient's record was subsequently moved to the "Closeout" category in the weekly check report before completion of treatment.</t>
         </is>
       </c>
+      <c r="D769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -16699,6 +18927,13 @@
 During the imaging process for a left-sided breast patient, an collision occurred between the gantry and the patient immobilization system. The couch was offset 11 cm laterally. The sequence of imaging involved taking kV orthos first, followed by CBCT. For breast imaging, kV orthos are taken with the gantry in the anterior position, while CBCT starts from the posterior side. The system has a function that moves the couch back to center during CBCT to ensure clearance on the under couch gantry position. However, due to the imaging system not loading quickly, the therapist decided to bypass the auto CBCT and manually take the kV orthos in the low position to improve efficiency. As a result, the gantry did not clear the right side of the patient during the CBCT imaging, causing the snout pressure guard to come into contact with the patient during the gantry's automatic motion.</t>
         </is>
       </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the narrative by describing the collision between the gantry and the patient immobilization system, the lateral offset of the couch, and the sequence of imaging involving kV orthos followed by CBCT. The summary also correctly mentions the system's function to move the couch back to center during CBCT and the therapist's decision to bypass the auto CBCT to improve efficiency. Finally, the summary accurately states that the gantry did not clear the right side of the patient during CBCT imaging, causing the snout pressure guard to come into contact with the patient during the gantry's automatic motion. Therefore, the summary is identical in meaning to the narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
@@ -16717,6 +18952,13 @@
 A patient's medical records, specifically their paper charts, are consistently lacking complete documentation regarding dosage and frequency of administered treatments. This results in disorganized and cluttered charts due to numerous corrections needed to clarify the missing information.</t>
         </is>
       </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The summary accurately reflects the meaning of the narrative, providing a clear and concise description of the issue with the patient's paper charts not being written up with dose and fraction, leading to messy charts due to frequent corrections needed. The use of synonyms such as "complete documentation" instead of "dose and fraction" and "disorganized and cluttered" instead of "messy" does not change the overall meaning and intent of the summary, making it identical to the original narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
@@ -16735,6 +18977,13 @@
 A patient required an updated treatment schedule due to missed appointments. The therapist inquired about the patient's continued receipt of a prescribed boost. The dosimetrist confirmed that the patient was still to receive it and indicated that the patient needed to undergo re-irradiation after receiving a total dose of 3600 cGy. This information was communicated on a whiteboard, but the therapy team was unaware of this update.</t>
         </is>
       </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Similar
+The summary accurately captures the main points of the narrative, including the patient's missed appointments, the therapist's inquiry about the prescribed boost, and the dosimetrist's response regarding re-irradiation after a total dose of 3600 cGy. The summary also correctly notes that the information was communicated on a whiteboard but not received by the therapy team. However, the summary uses the term "re-irradiation" instead of "re-ct'd," which may indicate a slight discrepancy in terminology."</t>
+        </is>
+      </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
@@ -16751,6 +19000,13 @@
         <is>
           <t xml:space="preserve">
 A CSI plan had two available treatment options: 1.1 and 1.2 boost plans. When the plan was accessed, only the 1.2 boost plan could be selected for treatment. The 1.1 plan had not been completed yet. An investigation with the AM POD (Advance Practice Officer) revealed that the PM POD (Physician Ordering Desk) and MD (Medical Doctor) had made a decision to hold the 1.1 plan and administer the 1.2 boost instead. The therapy team, AM POD, and DOD (Data Operations Directorate) were not informed of this change.</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Evaluation: Identical
+Explanation: The generated summary accurately reflects the narrative provided. It clearly states that there were two available treatment options, 1.1 and 1.2 boost plans, and that only the 1.2 boost plan was available for treatment when the plan was accessed. The summary also correctly mentions that the 1.1 plan had not been completed yet. Furthermore, it accurately conveys that an investigation with the AM POD revealed that the PM POD and MD made a decision to hold the 1.1 plan and administer the 1.2 boost instead, and that the therapy team, AM POD, and DOD were not informed of this change. Therefore, the summary is identical in meaning to the narrative.</t>
         </is>
       </c>
     </row>
